--- a/input/Rivals of Aether Academy Frame Data - Updated for 2.0.7.0.xlsx
+++ b/input/Rivals of Aether Academy Frame Data - Updated for 2.0.7.0.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6765" uniqueCount="1729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6765" uniqueCount="1731">
   <si>
     <r>
       <rPr>
@@ -3115,13 +3115,19 @@
     <t xml:space="preserve">Puddle Up Strong</t>
   </si>
   <si>
-    <t xml:space="preserve">Down Strong Hit 1 (Front/Behind)</t>
+    <t xml:space="preserve">Down Strong Hit 1 (Front/Behind) (Earliest)</t>
   </si>
   <si>
     <t xml:space="preserve">7-10</t>
   </si>
   <si>
-    <t xml:space="preserve">Puddle Down Strong (Front/Behind)</t>
+    <t xml:space="preserve">Down Strong Hit 1 (Front/Behind) (Latest)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puddle Down Strong (Front/Behind) (Earliest)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puddle Down Strong (Front/Behind) (Latest)</t>
   </si>
   <si>
     <t xml:space="preserve">Nair</t>
@@ -7623,7 +7629,7 @@
       <selection pane="topLeft" activeCell="K15" activeCellId="0" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="3.14"/>
@@ -8772,7 +8778,7 @@
       <selection pane="topRight" activeCell="H53" activeCellId="0" sqref="H53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.98"/>
@@ -8792,7 +8798,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="235" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="B1" s="236"/>
       <c r="C1" s="237"/>
@@ -8893,10 +8899,10 @@
         <v>299</v>
       </c>
       <c r="C3" s="242" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="D3" s="243" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="F3" s="242" t="s">
         <v>310</v>
@@ -8949,16 +8955,16 @@
         <v>118</v>
       </c>
       <c r="B4" s="95" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="C4" s="95" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="D4" s="107" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="F4" s="95" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="G4" s="95" t="s">
         <v>284</v>
@@ -9006,17 +9012,17 @@
         <v>411</v>
       </c>
       <c r="B5" s="242" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="C5" s="242" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="D5" s="242" t="n">
         <f aca="false">45-29</f>
         <v>16</v>
       </c>
       <c r="F5" s="242" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="G5" s="242" t="s">
         <v>125</v>
@@ -9067,7 +9073,7 @@
         <v>179</v>
       </c>
       <c r="C6" s="95" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="D6" s="95" t="n">
         <f aca="false">E6/3*2</f>
@@ -9123,14 +9129,14 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="241" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="B7" s="242"/>
       <c r="C7" s="242" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="D7" s="242" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="E7" s="242"/>
       <c r="F7" s="242"/>
@@ -9168,7 +9174,7 @@
         <v>116</v>
       </c>
       <c r="T7" s="245" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="U7" s="245"/>
       <c r="V7" s="245"/>
@@ -9247,7 +9253,7 @@
         <v>132</v>
       </c>
       <c r="C9" s="242" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="D9" s="242" t="n">
         <f aca="false">E9/3*2</f>
@@ -9294,7 +9300,7 @@
         <v>116</v>
       </c>
       <c r="T9" s="246" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="U9" s="246"/>
       <c r="V9" s="246"/>
@@ -9357,13 +9363,13 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="241" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="B11" s="242" t="s">
         <v>132</v>
       </c>
       <c r="C11" s="242" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="D11" s="242" t="n">
         <f aca="false">E11/3*2</f>
@@ -9410,7 +9416,7 @@
         <v>116</v>
       </c>
       <c r="T11" s="244" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="U11" s="244"/>
       <c r="V11" s="244"/>
@@ -9421,11 +9427,11 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="106" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="B12" s="95"/>
       <c r="C12" s="95" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="D12" s="95"/>
       <c r="E12" s="95"/>
@@ -9535,13 +9541,13 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="106" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="B14" s="95" t="s">
         <v>195</v>
       </c>
       <c r="C14" s="95" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="D14" s="95" t="n">
         <f aca="false">E14/3*2</f>
@@ -9552,7 +9558,7 @@
         <v>36</v>
       </c>
       <c r="F14" s="95" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="G14" s="95" t="s">
         <v>301</v>
@@ -9597,11 +9603,11 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="241" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="B15" s="242"/>
       <c r="C15" s="242" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="D15" s="242"/>
       <c r="E15" s="242"/>
@@ -9649,11 +9655,11 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="106" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="B16" s="95"/>
       <c r="C16" s="95" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="D16" s="95"/>
       <c r="E16" s="95"/>
@@ -9701,7 +9707,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="241" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="B17" s="242"/>
       <c r="C17" s="242" t="s">
@@ -9753,13 +9759,13 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="106" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="B18" s="95" t="s">
         <v>182</v>
       </c>
       <c r="C18" s="95" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="D18" s="95" t="s">
         <v>182</v>
@@ -9866,13 +9872,13 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="106" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="B20" s="95" t="s">
         <v>182</v>
       </c>
       <c r="C20" s="95" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="D20" s="95" t="s">
         <v>170</v>
@@ -9928,11 +9934,11 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="241" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="B21" s="242"/>
       <c r="C21" s="242" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="D21" s="242"/>
       <c r="E21" s="242"/>
@@ -9996,7 +10002,7 @@
         <v>23</v>
       </c>
       <c r="F22" s="95" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="G22" s="95" t="s">
         <v>146</v>
@@ -10045,7 +10051,7 @@
       </c>
       <c r="B23" s="242"/>
       <c r="C23" s="242" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="D23" s="242"/>
       <c r="E23" s="242"/>
@@ -10093,11 +10099,11 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="106" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="B24" s="95"/>
       <c r="C24" s="95" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="D24" s="95"/>
       <c r="E24" s="95"/>
@@ -10145,7 +10151,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="241" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="B25" s="242" t="s">
         <v>179</v>
@@ -10168,7 +10174,7 @@
         <v>125</v>
       </c>
       <c r="H25" s="242" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="I25" s="242" t="s">
         <v>179</v>
@@ -10209,11 +10215,11 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="106" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="B26" s="95"/>
       <c r="C26" s="95" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="D26" s="95"/>
       <c r="E26" s="95"/>
@@ -10263,11 +10269,11 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="241" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="B27" s="242"/>
       <c r="C27" s="242" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="D27" s="242"/>
       <c r="E27" s="242"/>
@@ -10317,7 +10323,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="106" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="B28" s="95"/>
       <c r="C28" s="95" t="s">
@@ -10330,7 +10336,7 @@
         <v>125</v>
       </c>
       <c r="H28" s="95" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="I28" s="95" t="s">
         <v>179</v>
@@ -10371,11 +10377,11 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="241" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="B29" s="242"/>
       <c r="C29" s="242" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="D29" s="242"/>
       <c r="E29" s="242"/>
@@ -10423,11 +10429,11 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="106" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="B30" s="95"/>
       <c r="C30" s="95" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="D30" s="95"/>
       <c r="E30" s="95"/>
@@ -10475,13 +10481,13 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="106" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="B31" s="97" t="n">
         <v>4</v>
       </c>
       <c r="C31" s="97" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="D31" s="97" t="n">
         <f aca="false">E31/3*2</f>
@@ -10538,7 +10544,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="241" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="B32" s="248" t="n">
         <v>6</v>
@@ -10600,11 +10606,11 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="106" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="B33" s="97"/>
       <c r="C33" s="97" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="D33" s="97"/>
       <c r="E33" s="97"/>
@@ -10649,7 +10655,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="241" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="B34" s="248" t="n">
         <v>9</v>
@@ -10711,7 +10717,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="94" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="B35" s="94"/>
       <c r="C35" s="94" t="s">
@@ -10760,7 +10766,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="94" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="B36" s="94"/>
       <c r="C36" s="94" t="s">
@@ -10809,11 +10815,11 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="241" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="B37" s="248"/>
       <c r="C37" s="248" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="D37" s="248"/>
       <c r="E37" s="248"/>
@@ -10858,11 +10864,11 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="241" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="B38" s="248"/>
       <c r="C38" s="248" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="D38" s="248"/>
       <c r="E38" s="248"/>
@@ -10907,7 +10913,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="106" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="B39" s="97" t="n">
         <v>5</v>
@@ -10963,7 +10969,7 @@
         <v>116</v>
       </c>
       <c r="T39" s="253" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="U39" s="253"/>
       <c r="V39" s="253"/>
@@ -10972,7 +10978,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="241" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="B40" s="248"/>
       <c r="C40" s="249" t="n">
@@ -11021,7 +11027,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="106" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="B41" s="97"/>
       <c r="C41" s="97" t="s">
@@ -11076,12 +11082,12 @@
         <v>15</v>
       </c>
       <c r="C42" s="254" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="D42" s="248"/>
       <c r="E42" s="248"/>
       <c r="F42" s="254" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="G42" s="248" t="n">
         <v>10</v>
@@ -11116,7 +11122,7 @@
         <v>116</v>
       </c>
       <c r="T42" s="255" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="U42" s="255"/>
       <c r="V42" s="255"/>
@@ -11125,7 +11131,7 @@
     </row>
     <row r="43" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="106" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="B43" s="97"/>
       <c r="C43" s="252" t="n">
@@ -11181,20 +11187,20 @@
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="241" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="B44" s="242" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="C44" s="243" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="D44" s="242" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="E44" s="242"/>
       <c r="F44" s="243" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="G44" s="242" t="s">
         <v>301</v>
@@ -11212,12 +11218,12 @@
         <v>301</v>
       </c>
       <c r="L44" s="242" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="M44" s="242"/>
       <c r="N44" s="242"/>
       <c r="O44" s="243" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="P44" s="242" t="s">
         <v>155</v>
@@ -11232,7 +11238,7 @@
         <v>262</v>
       </c>
       <c r="T44" s="246" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="U44" s="246"/>
       <c r="V44" s="246"/>
@@ -11243,20 +11249,20 @@
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="106" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="B45" s="107" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="C45" s="107" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="D45" s="107" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="E45" s="107"/>
       <c r="F45" s="107" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="G45" s="95" t="s">
         <v>146</v>
@@ -11279,7 +11285,7 @@
       <c r="M45" s="95"/>
       <c r="N45" s="95"/>
       <c r="O45" s="107" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="P45" s="95" t="s">
         <v>179</v>
@@ -11294,7 +11300,7 @@
         <v>116</v>
       </c>
       <c r="T45" s="102" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="U45" s="102"/>
       <c r="V45" s="102"/>
@@ -11305,20 +11311,20 @@
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="241" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="B46" s="243" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="C46" s="243" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="D46" s="242" t="s">
         <v>195</v>
       </c>
       <c r="E46" s="242"/>
       <c r="F46" s="243" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="G46" s="242" t="s">
         <v>301</v>
@@ -11356,7 +11362,7 @@
         <v>116</v>
       </c>
       <c r="T46" s="246" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="U46" s="246"/>
       <c r="V46" s="246"/>
@@ -11367,10 +11373,10 @@
     </row>
     <row r="47" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="106" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="C47" s="95" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="G47" s="256" t="str">
         <f aca="false">HYPERLINK("https://docs.google.com/spreadsheets/d/1PCtOZj_RfMQiHetcAXIhzhoCcnVSl4g0o0fbyqURlqY/edit?usp=sharing","3")</f>
@@ -11419,11 +11425,11 @@
     </row>
     <row r="48" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="241" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="B48" s="242"/>
       <c r="C48" s="242" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="D48" s="242"/>
       <c r="E48" s="242"/>
@@ -11476,20 +11482,20 @@
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="106" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="B49" s="95" t="s">
         <v>155</v>
       </c>
       <c r="C49" s="107" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="D49" s="107" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="E49" s="107"/>
       <c r="F49" s="107" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="G49" s="95" t="s">
         <v>301</v>
@@ -11525,7 +11531,7 @@
         <v>262</v>
       </c>
       <c r="T49" s="102" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="U49" s="102"/>
       <c r="V49" s="102"/>
@@ -11536,11 +11542,11 @@
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="241" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="B50" s="242"/>
       <c r="C50" s="261" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="G50" s="242" t="s">
         <v>284</v>
@@ -11576,7 +11582,7 @@
         <v>262</v>
       </c>
       <c r="T50" s="246" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="U50" s="246"/>
       <c r="V50" s="246"/>
@@ -11587,20 +11593,20 @@
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="106" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="B51" s="107" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="C51" s="107" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="D51" s="107" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="E51" s="107"/>
       <c r="F51" s="107" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="G51" s="95" t="s">
         <v>114</v>
@@ -11636,7 +11642,7 @@
         <v>116</v>
       </c>
       <c r="T51" s="102" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="U51" s="102"/>
       <c r="V51" s="102"/>
@@ -11647,26 +11653,26 @@
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="241" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="B52" s="243" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="C52" s="243" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="D52" s="243" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="E52" s="243"/>
       <c r="F52" s="243" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="G52" s="242" t="s">
         <v>451</v>
       </c>
       <c r="H52" s="243" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="I52" s="242" t="s">
         <v>132</v>
@@ -11696,7 +11702,7 @@
         <v>116</v>
       </c>
       <c r="T52" s="246" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="U52" s="246"/>
       <c r="V52" s="246"/>
@@ -11832,7 +11838,7 @@
       <selection pane="bottomRight" activeCell="H50" activeCellId="0" sqref="H50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.57"/>
@@ -11850,7 +11856,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="227" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="B1" s="228"/>
       <c r="C1" s="229"/>
@@ -11952,7 +11958,7 @@
         <v>565</v>
       </c>
       <c r="D3" s="137" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="E3" s="126"/>
       <c r="F3" s="126" t="n">
@@ -12005,17 +12011,17 @@
         <v>118</v>
       </c>
       <c r="B4" s="97" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="C4" s="96" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="D4" s="113" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="E4" s="97"/>
       <c r="F4" s="95" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="G4" s="96" t="n">
         <v>2</v>
@@ -12062,17 +12068,17 @@
         <v>411</v>
       </c>
       <c r="B5" s="126" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="C5" s="128" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="D5" s="137" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="E5" s="126"/>
       <c r="F5" s="127" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="G5" s="128" t="n">
         <v>2</v>
@@ -12116,20 +12122,20 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="100" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="B6" s="97" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="C6" s="134" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="D6" s="113" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="E6" s="97"/>
       <c r="F6" s="113" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="G6" s="96" t="n">
         <v>1</v>
@@ -12165,7 +12171,7 @@
         <v>116</v>
       </c>
       <c r="T6" s="165" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="U6" s="165"/>
       <c r="V6" s="165"/>
@@ -12242,7 +12248,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="96" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="D8" s="97" t="n">
         <v>12</v>
@@ -12298,11 +12304,11 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="143" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="B9" s="126"/>
       <c r="C9" s="128" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="D9" s="126"/>
       <c r="E9" s="126"/>
@@ -12349,7 +12355,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="100" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="B10" s="97"/>
       <c r="C10" s="96" t="s">
@@ -12362,7 +12368,7 @@
         <v>286</v>
       </c>
       <c r="H10" s="96" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="I10" s="96" t="n">
         <v>6</v>
@@ -12400,7 +12406,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="143" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="B11" s="126" t="n">
         <v>8</v>
@@ -12461,7 +12467,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="100" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="B12" s="97"/>
       <c r="C12" s="96" t="s">
@@ -12512,7 +12518,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="143" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="B13" s="126"/>
       <c r="C13" s="128" t="s">
@@ -12623,13 +12629,13 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="143" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="B15" s="126" t="n">
         <v>14</v>
       </c>
       <c r="C15" s="128" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="D15" s="126" t="n">
         <f aca="false">E15/3*2</f>
@@ -12676,7 +12682,7 @@
         <v>116</v>
       </c>
       <c r="T15" s="136" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="U15" s="136"/>
       <c r="V15" s="136"/>
@@ -12686,11 +12692,11 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="100" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="B16" s="97"/>
       <c r="C16" s="96" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="D16" s="97"/>
       <c r="E16" s="97"/>
@@ -12729,7 +12735,7 @@
         <v>116</v>
       </c>
       <c r="T16" s="99" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="U16" s="99"/>
       <c r="V16" s="99"/>
@@ -12739,7 +12745,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="143" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="B17" s="126" t="n">
         <v>10</v>
@@ -12790,7 +12796,7 @@
         <v>116</v>
       </c>
       <c r="T17" s="136" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="U17" s="136"/>
       <c r="V17" s="136"/>
@@ -12800,7 +12806,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="100" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="B18" s="97"/>
       <c r="C18" s="96" t="s">
@@ -12843,7 +12849,7 @@
         <v>116</v>
       </c>
       <c r="T18" s="99" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="U18" s="99"/>
       <c r="V18" s="99"/>
@@ -12853,7 +12859,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="143" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="B19" s="126"/>
       <c r="C19" s="128" t="s">
@@ -12896,7 +12902,7 @@
         <v>116</v>
       </c>
       <c r="T19" s="136" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="U19" s="136"/>
       <c r="V19" s="136"/>
@@ -12906,13 +12912,13 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="100" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="B20" s="97" t="n">
         <v>22</v>
       </c>
       <c r="C20" s="96" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="D20" s="97" t="n">
         <f aca="false">E20/3*2</f>
@@ -12959,7 +12965,7 @@
         <v>116</v>
       </c>
       <c r="T20" s="99" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="U20" s="99"/>
       <c r="V20" s="99"/>
@@ -12969,11 +12975,11 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="143" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="B21" s="126"/>
       <c r="C21" s="128" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="D21" s="126"/>
       <c r="E21" s="126"/>
@@ -13012,7 +13018,7 @@
         <v>116</v>
       </c>
       <c r="T21" s="136" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="U21" s="136"/>
       <c r="V21" s="136"/>
@@ -13022,7 +13028,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="100" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="B22" s="97"/>
       <c r="C22" s="96" t="s">
@@ -13065,7 +13071,7 @@
         <v>116</v>
       </c>
       <c r="T22" s="99" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="U22" s="99"/>
       <c r="V22" s="99"/>
@@ -13075,13 +13081,13 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="100" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="B23" s="97" t="n">
         <v>3</v>
       </c>
       <c r="C23" s="96" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="D23" s="97" t="n">
         <v>7</v>
@@ -13137,13 +13143,13 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="100" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="B24" s="97" t="n">
         <v>3</v>
       </c>
       <c r="C24" s="96" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="D24" s="97" t="n">
         <v>7</v>
@@ -13199,11 +13205,11 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="143" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="B25" s="126"/>
       <c r="C25" s="128" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="D25" s="126"/>
       <c r="E25" s="126"/>
@@ -13248,11 +13254,11 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="143" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="B26" s="126"/>
       <c r="C26" s="128" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="D26" s="126"/>
       <c r="E26" s="126"/>
@@ -13358,7 +13364,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="143" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="B28" s="126"/>
       <c r="C28" s="128" t="s">
@@ -13407,7 +13413,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="100" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="B29" s="97"/>
       <c r="C29" s="96" t="s">
@@ -13456,13 +13462,13 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="143" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="B30" s="126" t="n">
         <v>4</v>
       </c>
       <c r="C30" s="128" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="D30" s="126" t="n">
         <v>16</v>
@@ -13477,7 +13483,7 @@
         <v>179</v>
       </c>
       <c r="H30" s="128" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="I30" s="128" t="s">
         <v>179</v>
@@ -13517,13 +13523,13 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="143" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="B31" s="126" t="n">
         <v>4</v>
       </c>
       <c r="C31" s="128" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="D31" s="126" t="n">
         <v>16</v>
@@ -13538,7 +13544,7 @@
         <v>179</v>
       </c>
       <c r="H31" s="128" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="I31" s="128" t="s">
         <v>155</v>
@@ -13578,11 +13584,11 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="100" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="B32" s="97"/>
       <c r="C32" s="96" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="D32" s="97"/>
       <c r="E32" s="97"/>
@@ -13627,11 +13633,11 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="143" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="B33" s="126"/>
       <c r="C33" s="128" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="D33" s="126"/>
       <c r="E33" s="126"/>
@@ -13711,7 +13717,7 @@
         <v>2</v>
       </c>
       <c r="L34" s="100" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="M34" s="100" t="n">
         <v>4</v>
@@ -13794,7 +13800,7 @@
         <v>12</v>
       </c>
       <c r="C36" s="96" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="E36" s="97" t="n">
         <f aca="false">49-28</f>
@@ -13839,7 +13845,7 @@
         <v>116</v>
       </c>
       <c r="T36" s="135" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="U36" s="135"/>
       <c r="V36" s="135"/>
@@ -13847,13 +13853,13 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="143" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="B37" s="126" t="n">
         <v>6</v>
       </c>
       <c r="C37" s="128" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="D37" s="126"/>
       <c r="E37" s="126"/>
@@ -13898,18 +13904,18 @@
     </row>
     <row r="38" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="100" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="B38" s="97"/>
       <c r="C38" s="96" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="D38" s="97" t="n">
         <v>14</v>
       </c>
       <c r="E38" s="97"/>
       <c r="F38" s="113" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="G38" s="97" t="n">
         <v>4</v>
@@ -13953,19 +13959,19 @@
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="268" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="B39" s="131" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="C39" s="268" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="D39" s="268" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="E39" s="131" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="F39" s="131"/>
       <c r="G39" s="268"/>
@@ -13982,7 +13988,7 @@
       <c r="R39" s="268"/>
       <c r="S39" s="268"/>
       <c r="T39" s="269" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="U39" s="269"/>
       <c r="V39" s="269"/>
@@ -13992,13 +13998,13 @@
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="171" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="B40" s="134" t="s">
         <v>284</v>
       </c>
       <c r="C40" s="134" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="D40" s="171" t="n">
         <f aca="false">30-18</f>
@@ -14022,7 +14028,7 @@
       <c r="R40" s="171"/>
       <c r="S40" s="171"/>
       <c r="T40" s="270" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="U40" s="270"/>
       <c r="V40" s="270"/>
@@ -14032,19 +14038,19 @@
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="268" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="B41" s="131" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="C41" s="131" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="D41" s="131" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="E41" s="131" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="F41" s="131"/>
       <c r="G41" s="268" t="n">
@@ -14081,7 +14087,7 @@
         <v>116</v>
       </c>
       <c r="T41" s="271" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="U41" s="271"/>
       <c r="V41" s="271"/>
@@ -14091,19 +14097,19 @@
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="171" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="B42" s="134" t="s">
         <v>216</v>
       </c>
       <c r="C42" s="134" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="D42" s="171" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="E42" s="134" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="F42" s="134"/>
       <c r="G42" s="171" t="n">
@@ -14140,7 +14146,7 @@
         <v>262</v>
       </c>
       <c r="T42" s="165" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="U42" s="165"/>
       <c r="V42" s="165"/>
@@ -14150,19 +14156,19 @@
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="268" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="B43" s="131" t="s">
         <v>216</v>
       </c>
       <c r="C43" s="131" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="D43" s="268" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="E43" s="131" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="F43" s="131"/>
       <c r="G43" s="268" t="n">
@@ -14186,7 +14192,7 @@
       <c r="M43" s="131"/>
       <c r="N43" s="131"/>
       <c r="O43" s="268" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="P43" s="268" t="n">
         <v>10</v>
@@ -14201,7 +14207,7 @@
         <v>262</v>
       </c>
       <c r="T43" s="269" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="U43" s="269"/>
       <c r="V43" s="269"/>
@@ -14211,19 +14217,19 @@
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="171" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="B44" s="134" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="C44" s="134" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="D44" s="171" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="E44" s="134" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="F44" s="134"/>
       <c r="G44" s="171"/>
@@ -14242,7 +14248,7 @@
         <v>116</v>
       </c>
       <c r="T44" s="165" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="U44" s="165"/>
       <c r="V44" s="165"/>
@@ -14252,19 +14258,19 @@
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="268" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="B45" s="131" t="s">
         <v>146</v>
       </c>
       <c r="C45" s="131" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="D45" s="268" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="E45" s="131" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="F45" s="131"/>
       <c r="G45" s="268" t="n">
@@ -14301,7 +14307,7 @@
         <v>116</v>
       </c>
       <c r="T45" s="269" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
       <c r="U45" s="269"/>
       <c r="V45" s="269"/>
@@ -14311,19 +14317,19 @@
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="171" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="B46" s="134" t="s">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="C46" s="134" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
       <c r="D46" s="171" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="E46" s="134" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="F46" s="134"/>
       <c r="G46" s="171" t="n">
@@ -14360,7 +14366,7 @@
         <v>116</v>
       </c>
       <c r="T46" s="165" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
       <c r="U46" s="165"/>
       <c r="V46" s="165"/>
@@ -14370,20 +14376,20 @@
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="268" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="B47" s="131" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="C47" s="131" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="D47" s="268" t="n">
         <f aca="false">67-59</f>
         <v>8</v>
       </c>
       <c r="E47" s="131" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="F47" s="131"/>
       <c r="G47" s="268" t="n">
@@ -14420,7 +14426,7 @@
         <v>116</v>
       </c>
       <c r="T47" s="269" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="U47" s="269"/>
       <c r="V47" s="269"/>
@@ -14430,11 +14436,11 @@
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="171" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="B48" s="134"/>
       <c r="C48" s="171" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="D48" s="171"/>
       <c r="E48" s="134"/>
@@ -14473,7 +14479,7 @@
         <v>116</v>
       </c>
       <c r="T48" s="165" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="U48" s="165"/>
       <c r="V48" s="165"/>
@@ -14483,13 +14489,13 @@
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="268" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="B49" s="131" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="C49" s="131" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
       <c r="D49" s="268"/>
       <c r="E49" s="131"/>
@@ -14528,7 +14534,7 @@
         <v>116</v>
       </c>
       <c r="T49" s="269" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="U49" s="269"/>
       <c r="V49" s="269"/>
@@ -14538,19 +14544,19 @@
     </row>
     <row r="50" customFormat="false" ht="56.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="171" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="B50" s="134" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="C50" s="134" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="D50" s="171" t="n">
         <v>25</v>
       </c>
       <c r="E50" s="134" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="F50" s="134"/>
       <c r="G50" s="171"/>
@@ -14572,14 +14578,14 @@
       <c r="M50" s="134"/>
       <c r="N50" s="134"/>
       <c r="O50" s="171" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="P50" s="171"/>
       <c r="Q50" s="171"/>
       <c r="R50" s="171"/>
       <c r="S50" s="171"/>
       <c r="T50" s="135" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="U50" s="135"/>
       <c r="V50" s="135"/>
@@ -14589,13 +14595,13 @@
     </row>
     <row r="51" customFormat="false" ht="56.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="268" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="B51" s="131" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="C51" s="131" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="D51" s="268" t="n">
         <v>10</v>
@@ -14623,7 +14629,7 @@
       <c r="M51" s="131"/>
       <c r="N51" s="131"/>
       <c r="O51" s="268" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="P51" s="268"/>
       <c r="Q51" s="268"/>
@@ -14638,19 +14644,19 @@
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="171" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="B52" s="134" t="s">
         <v>125</v>
       </c>
       <c r="C52" s="134" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="D52" s="171" t="n">
         <v>5</v>
       </c>
       <c r="E52" s="134" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="F52" s="134"/>
       <c r="G52" s="272"/>
@@ -14672,14 +14678,14 @@
       <c r="M52" s="134"/>
       <c r="N52" s="134"/>
       <c r="O52" s="171" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="P52" s="171"/>
       <c r="Q52" s="171"/>
       <c r="R52" s="171"/>
       <c r="S52" s="171"/>
       <c r="T52" s="135" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="U52" s="135"/>
       <c r="V52" s="135"/>
@@ -14689,7 +14695,7 @@
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="171" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="C53" s="270"/>
       <c r="D53" s="270"/>
@@ -14719,7 +14725,7 @@
       <c r="R53" s="113"/>
       <c r="S53" s="113"/>
       <c r="T53" s="270" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="U53" s="113"/>
     </row>
@@ -14818,7 +14824,7 @@
       <selection pane="bottomRight" activeCell="H57" activeCellId="0" sqref="H57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.43"/>
@@ -14838,7 +14844,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="273" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="B1" s="274"/>
       <c r="C1" s="275"/>
@@ -15005,7 +15011,7 @@
         <v>132</v>
       </c>
       <c r="C4" s="284" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="D4" s="284" t="s">
         <v>170</v>
@@ -15061,7 +15067,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="280" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="B5" s="281"/>
       <c r="C5" s="281" t="s">
@@ -15115,7 +15121,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="280" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="B6" s="281"/>
       <c r="C6" s="281" t="s">
@@ -15172,16 +15178,16 @@
         <v>131</v>
       </c>
       <c r="B7" s="286" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="C7" s="284" t="s">
         <v>307</v>
       </c>
       <c r="D7" s="286" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="E7" s="286" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="F7" s="284" t="s">
         <v>291</v>
@@ -15220,7 +15226,7 @@
         <v>116</v>
       </c>
       <c r="T7" s="287" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="U7" s="287"/>
       <c r="V7" s="287"/>
@@ -15233,22 +15239,22 @@
     </row>
     <row r="8" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="280" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="B8" s="281" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="C8" s="281" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="D8" s="288" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="E8" s="288" t="s">
         <v>195</v>
       </c>
       <c r="F8" s="281" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="G8" s="281" t="s">
         <v>155</v>
@@ -15284,7 +15290,7 @@
         <v>116</v>
       </c>
       <c r="T8" s="289" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
       <c r="U8" s="289"/>
       <c r="V8" s="289"/>
@@ -15303,7 +15309,7 @@
         <v>179</v>
       </c>
       <c r="C9" s="284" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="D9" s="284" t="s">
         <v>146</v>
@@ -15349,7 +15355,7 @@
         <v>116</v>
       </c>
       <c r="T9" s="285" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="U9" s="285"/>
       <c r="V9" s="285"/>
@@ -15368,7 +15374,7 @@
         <v>125</v>
       </c>
       <c r="C10" s="281" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="D10" s="281" t="n">
         <f aca="false">E10/3*2</f>
@@ -15471,7 +15477,7 @@
         <v>116</v>
       </c>
       <c r="T11" s="290" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="U11" s="290"/>
       <c r="V11" s="290"/>
@@ -15537,7 +15543,7 @@
         <v>116</v>
       </c>
       <c r="T12" s="291" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="U12" s="291"/>
       <c r="V12" s="291"/>
@@ -15550,7 +15556,7 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="283" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="B13" s="284" t="s">
         <v>195</v>
@@ -15580,7 +15586,7 @@
         <v>295</v>
       </c>
       <c r="K13" s="284" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
       <c r="L13" s="284" t="s">
         <v>115</v>
@@ -15601,7 +15607,7 @@
         <v>116</v>
       </c>
       <c r="T13" s="290" t="s">
-        <v>1267</v>
+        <v>1269</v>
       </c>
       <c r="U13" s="290"/>
       <c r="V13" s="290"/>
@@ -15614,7 +15620,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="280" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
       <c r="B14" s="281"/>
       <c r="C14" s="281" t="s">
@@ -15627,7 +15633,7 @@
         <v>125</v>
       </c>
       <c r="H14" s="281" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="I14" s="281" t="s">
         <v>125</v>
@@ -15657,7 +15663,7 @@
         <v>116</v>
       </c>
       <c r="T14" s="289" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="U14" s="289"/>
       <c r="V14" s="289"/>
@@ -15670,13 +15676,13 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="283" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="B15" s="284" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="C15" s="286" t="s">
-        <v>1272</v>
+        <v>1274</v>
       </c>
       <c r="D15" s="284"/>
       <c r="E15" s="284"/>
@@ -15684,7 +15690,7 @@
         <v>104</v>
       </c>
       <c r="G15" s="286" t="s">
-        <v>1273</v>
+        <v>1275</v>
       </c>
       <c r="H15" s="284" t="s">
         <v>328</v>
@@ -15717,7 +15723,7 @@
         <v>116</v>
       </c>
       <c r="T15" s="290" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
       <c r="U15" s="290"/>
       <c r="V15" s="290"/>
@@ -15730,13 +15736,13 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="280" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="B16" s="288" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="C16" s="288" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
       <c r="D16" s="281"/>
       <c r="E16" s="281"/>
@@ -15775,7 +15781,7 @@
         <v>116</v>
       </c>
       <c r="T16" s="291" t="s">
-        <v>1278</v>
+        <v>1280</v>
       </c>
       <c r="U16" s="291"/>
       <c r="V16" s="291"/>
@@ -15788,11 +15794,11 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="283" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="B17" s="284"/>
       <c r="C17" s="284" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="D17" s="284" t="s">
         <v>310</v>
@@ -15807,7 +15813,7 @@
         <v>299</v>
       </c>
       <c r="H17" s="284" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="I17" s="284" t="s">
         <v>284</v>
@@ -15850,7 +15856,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="280" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="B18" s="281"/>
       <c r="C18" s="281" t="s">
@@ -15903,7 +15909,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="283" t="s">
-        <v>1282</v>
+        <v>1284</v>
       </c>
       <c r="B19" s="284"/>
       <c r="C19" s="284" t="s">
@@ -15956,11 +15962,11 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="280" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="B20" s="281"/>
       <c r="C20" s="281" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="G20" s="281" t="s">
         <v>286</v>
@@ -16018,7 +16024,7 @@
       <c r="D21" s="284"/>
       <c r="E21" s="284"/>
       <c r="F21" s="286" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="G21" s="284" t="s">
         <v>125</v>
@@ -16054,7 +16060,7 @@
         <v>116</v>
       </c>
       <c r="T21" s="292" t="s">
-        <v>1285</v>
+        <v>1287</v>
       </c>
       <c r="U21" s="292"/>
       <c r="V21" s="292"/>
@@ -16067,7 +16073,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="280" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="B22" s="281"/>
       <c r="C22" s="281"/>
@@ -16076,7 +16082,7 @@
         <v>202</v>
       </c>
       <c r="F22" s="288" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
       <c r="G22" s="281"/>
       <c r="H22" s="281"/>
@@ -16103,7 +16109,7 @@
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="280" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="B23" s="280" t="n">
         <v>4</v>
@@ -16160,7 +16166,7 @@
         <v>116</v>
       </c>
       <c r="T23" s="291" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
       <c r="U23" s="291"/>
       <c r="V23" s="291"/>
@@ -16171,19 +16177,19 @@
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="283" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="B24" s="286" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="C24" s="284" t="s">
         <v>307</v>
       </c>
       <c r="D24" s="286" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="E24" s="286" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="F24" s="284" t="s">
         <v>291</v>
@@ -16222,7 +16228,7 @@
         <v>116</v>
       </c>
       <c r="T24" s="290" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="U24" s="290"/>
       <c r="V24" s="290"/>
@@ -16233,22 +16239,22 @@
     </row>
     <row r="25" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="280" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="B25" s="281" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="C25" s="281" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="D25" s="288" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
       <c r="E25" s="288" t="s">
         <v>195</v>
       </c>
       <c r="F25" s="281" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="G25" s="281" t="s">
         <v>155</v>
@@ -16284,7 +16290,7 @@
         <v>116</v>
       </c>
       <c r="T25" s="289" t="s">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="U25" s="289"/>
       <c r="V25" s="289"/>
@@ -16295,13 +16301,13 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="283" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
       <c r="B26" s="283" t="n">
         <v>12</v>
       </c>
       <c r="C26" s="283" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="D26" s="284" t="n">
         <f aca="false">E26/3*2</f>
@@ -16330,7 +16336,7 @@
         <v>2</v>
       </c>
       <c r="L26" s="283" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="M26" s="283" t="n">
         <v>4</v>
@@ -16361,7 +16367,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="280" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="B27" s="280"/>
       <c r="C27" s="280" t="s">
@@ -16419,7 +16425,7 @@
         <v>9</v>
       </c>
       <c r="C28" s="286" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="D28" s="284" t="s">
         <v>170</v>
@@ -16429,7 +16435,7 @@
         <v>21</v>
       </c>
       <c r="F28" s="294" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="G28" s="283" t="n">
         <v>2</v>
@@ -16469,7 +16475,7 @@
         <v>116</v>
       </c>
       <c r="T28" s="295" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="U28" s="295"/>
       <c r="V28" s="295"/>
@@ -16480,11 +16486,11 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="280" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="B29" s="280"/>
       <c r="C29" s="288" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="D29" s="280"/>
       <c r="E29" s="280"/>
@@ -16532,11 +16538,11 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="283" t="s">
-        <v>1303</v>
+        <v>1305</v>
       </c>
       <c r="B30" s="283"/>
       <c r="C30" s="286" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="D30" s="283"/>
       <c r="E30" s="283"/>
@@ -16584,11 +16590,11 @@
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="280" t="s">
-        <v>1304</v>
+        <v>1306</v>
       </c>
       <c r="B31" s="280"/>
       <c r="C31" s="296" t="s">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="D31" s="280"/>
       <c r="E31" s="280"/>
@@ -16627,7 +16633,7 @@
         <v>116</v>
       </c>
       <c r="T31" s="299" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="U31" s="299"/>
       <c r="V31" s="299"/>
@@ -16638,11 +16644,11 @@
     </row>
     <row r="32" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="283" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="B32" s="283"/>
       <c r="C32" s="294" t="s">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="D32" s="283"/>
       <c r="E32" s="283"/>
@@ -16690,7 +16696,7 @@
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="280" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
       <c r="B33" s="280" t="n">
         <v>6</v>
@@ -16729,7 +16735,7 @@
         <v>12</v>
       </c>
       <c r="N33" s="280" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="O33" s="280"/>
       <c r="P33" s="280" t="n">
@@ -16756,7 +16762,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="283" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="B34" s="283"/>
       <c r="C34" s="302" t="n">
@@ -16799,7 +16805,7 @@
         <v>116</v>
       </c>
       <c r="T34" s="303" t="s">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="U34" s="303"/>
       <c r="V34" s="303"/>
@@ -16810,10 +16816,10 @@
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="280" t="s">
-        <v>1312</v>
+        <v>1314</v>
       </c>
       <c r="C35" s="296" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
       <c r="G35" s="280" t="n">
         <v>7</v>
@@ -16846,7 +16852,7 @@
         <v>116</v>
       </c>
       <c r="T35" s="301" t="s">
-        <v>1314</v>
+        <v>1316</v>
       </c>
       <c r="U35" s="301"/>
       <c r="V35" s="301"/>
@@ -16857,11 +16863,11 @@
     </row>
     <row r="36" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="283" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="B36" s="283"/>
       <c r="C36" s="294" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
       <c r="D36" s="283"/>
       <c r="E36" s="283"/>
@@ -16900,7 +16906,7 @@
         <v>116</v>
       </c>
       <c r="T36" s="303" t="s">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="U36" s="303"/>
       <c r="V36" s="303"/>
@@ -16911,13 +16917,13 @@
     </row>
     <row r="37" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="280" t="s">
-        <v>1316</v>
+        <v>1318</v>
       </c>
       <c r="B37" s="281" t="s">
         <v>132</v>
       </c>
       <c r="C37" s="288" t="s">
-        <v>1317</v>
+        <v>1319</v>
       </c>
       <c r="D37" s="281" t="s">
         <v>310</v>
@@ -16951,20 +16957,20 @@
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="283" t="s">
-        <v>1318</v>
+        <v>1320</v>
       </c>
       <c r="B38" s="284" t="s">
         <v>216</v>
       </c>
       <c r="C38" s="286" t="s">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="D38" s="286" t="s">
-        <v>1320</v>
+        <v>1322</v>
       </c>
       <c r="E38" s="286"/>
       <c r="F38" s="284" t="s">
-        <v>1321</v>
+        <v>1323</v>
       </c>
       <c r="G38" s="284" t="s">
         <v>286</v>
@@ -17000,7 +17006,7 @@
         <v>116</v>
       </c>
       <c r="T38" s="304" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
       <c r="U38" s="304"/>
       <c r="V38" s="304"/>
@@ -17013,13 +17019,13 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="280" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
       <c r="B39" s="281" t="s">
         <v>142</v>
       </c>
       <c r="C39" s="288" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
       <c r="D39" s="281" t="n">
         <f aca="false">69-34</f>
@@ -17027,7 +17033,7 @@
       </c>
       <c r="E39" s="281"/>
       <c r="F39" s="288" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="G39" s="281" t="s">
         <v>179</v>
@@ -17036,7 +17042,7 @@
         <v>45</v>
       </c>
       <c r="I39" s="281" t="s">
-        <v>1326</v>
+        <v>1328</v>
       </c>
       <c r="J39" s="281" t="s">
         <v>149</v>
@@ -17063,7 +17069,7 @@
         <v>116</v>
       </c>
       <c r="T39" s="282" t="s">
-        <v>1327</v>
+        <v>1329</v>
       </c>
       <c r="U39" s="282"/>
       <c r="V39" s="282"/>
@@ -17076,11 +17082,11 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="283" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="B40" s="284"/>
       <c r="C40" s="286" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
       <c r="D40" s="284"/>
       <c r="E40" s="284"/>
@@ -17092,7 +17098,7 @@
         <v>45</v>
       </c>
       <c r="I40" s="284" t="s">
-        <v>1329</v>
+        <v>1331</v>
       </c>
       <c r="J40" s="284" t="s">
         <v>203</v>
@@ -17132,20 +17138,20 @@
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="280" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="B41" s="281" t="s">
         <v>170</v>
       </c>
       <c r="C41" s="281" t="s">
-        <v>1331</v>
+        <v>1333</v>
       </c>
       <c r="D41" s="281" t="s">
         <v>201</v>
       </c>
       <c r="E41" s="281"/>
       <c r="F41" s="281" t="s">
-        <v>1332</v>
+        <v>1334</v>
       </c>
       <c r="G41" s="281" t="s">
         <v>299</v>
@@ -17183,7 +17189,7 @@
         <v>116</v>
       </c>
       <c r="T41" s="291" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
       <c r="U41" s="291"/>
       <c r="V41" s="291"/>
@@ -17196,13 +17202,13 @@
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="283" t="s">
-        <v>1334</v>
+        <v>1336</v>
       </c>
       <c r="B42" s="286" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="C42" s="284" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="D42" s="284"/>
       <c r="E42" s="284"/>
@@ -17241,7 +17247,7 @@
         <v>116</v>
       </c>
       <c r="T42" s="290" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
       <c r="U42" s="290"/>
       <c r="V42" s="290"/>
@@ -17257,17 +17263,17 @@
         <v>245</v>
       </c>
       <c r="B43" s="288" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
       <c r="C43" s="288" t="s">
-        <v>1339</v>
+        <v>1341</v>
       </c>
       <c r="D43" s="307" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
       <c r="E43" s="307"/>
       <c r="F43" s="288" t="s">
-        <v>1341</v>
+        <v>1343</v>
       </c>
       <c r="G43" s="308" t="str">
         <f aca="false">HYPERLINK("https://docs.google.com/spreadsheets/d/1YNgIbi2TWxxqVOEXj-HK9XmvMXWPZRdVFHantc3bjXY/edit?usp=sharing","6")</f>
@@ -17285,7 +17291,7 @@
         <v>50</v>
       </c>
       <c r="K43" s="288" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="L43" s="281" t="s">
         <v>115</v>
@@ -17293,7 +17299,7 @@
       <c r="M43" s="281"/>
       <c r="N43" s="281"/>
       <c r="O43" s="288" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="P43" s="281" t="s">
         <v>179</v>
@@ -17322,20 +17328,20 @@
     </row>
     <row r="44" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="294" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="B44" s="286" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
       <c r="C44" s="286" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="D44" s="310" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
       <c r="E44" s="310"/>
       <c r="F44" s="286" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="G44" s="311" t="str">
         <f aca="false">HYPERLINK("https://docs.google.com/spreadsheets/d/1YNgIbi2TWxxqVOEXj-HK9XmvMXWPZRdVFHantc3bjXY/edit?usp=sharing","7")</f>
@@ -17353,7 +17359,7 @@
         <v>55</v>
       </c>
       <c r="K44" s="286" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="L44" s="284" t="s">
         <v>115</v>
@@ -17361,7 +17367,7 @@
       <c r="M44" s="284"/>
       <c r="N44" s="284"/>
       <c r="O44" s="286" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="P44" s="284" t="s">
         <v>179</v>
@@ -17387,20 +17393,20 @@
     </row>
     <row r="45" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="296" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="B45" s="288" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="C45" s="288" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="D45" s="307" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
       <c r="E45" s="307"/>
       <c r="F45" s="288" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="G45" s="308" t="str">
         <f aca="false">HYPERLINK("https://docs.google.com/spreadsheets/d/1YNgIbi2TWxxqVOEXj-HK9XmvMXWPZRdVFHantc3bjXY/edit?usp=sharing","8")</f>
@@ -17418,7 +17424,7 @@
         <v>60</v>
       </c>
       <c r="K45" s="288" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="L45" s="281" t="s">
         <v>115</v>
@@ -17426,7 +17432,7 @@
       <c r="M45" s="281"/>
       <c r="N45" s="281"/>
       <c r="O45" s="288" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="P45" s="281" t="s">
         <v>179</v>
@@ -17452,20 +17458,20 @@
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="283" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="B46" s="286" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="C46" s="286" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="D46" s="286" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
       <c r="E46" s="286"/>
       <c r="F46" s="286" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="G46" s="284" t="s">
         <v>195</v>
@@ -17480,7 +17486,7 @@
         <v>295</v>
       </c>
       <c r="K46" s="286" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="L46" s="284" t="s">
         <v>115</v>
@@ -17488,7 +17494,7 @@
       <c r="M46" s="284"/>
       <c r="N46" s="284"/>
       <c r="O46" s="286" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="P46" s="284" t="s">
         <v>179</v>
@@ -17503,7 +17509,7 @@
         <v>116</v>
       </c>
       <c r="T46" s="290" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="U46" s="290"/>
       <c r="V46" s="290"/>
@@ -17522,7 +17528,7 @@
         <v>195</v>
       </c>
       <c r="C47" s="281" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="D47" s="281"/>
       <c r="E47" s="281"/>
@@ -17531,7 +17537,7 @@
         <v>132</v>
       </c>
       <c r="H47" s="281" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="I47" s="281" t="s">
         <v>179</v>
@@ -17561,7 +17567,7 @@
         <v>116</v>
       </c>
       <c r="T47" s="282" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="U47" s="282"/>
       <c r="V47" s="282"/>
@@ -17574,7 +17580,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="283" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="B48" s="284"/>
       <c r="C48" s="284" t="s">
@@ -17587,7 +17593,7 @@
         <v>146</v>
       </c>
       <c r="H48" s="284" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="I48" s="284" t="s">
         <v>148</v>
@@ -17630,11 +17636,11 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="280" t="s">
-        <v>1360</v>
+        <v>1362</v>
       </c>
       <c r="B49" s="281"/>
       <c r="C49" s="281" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="D49" s="281"/>
       <c r="E49" s="281"/>
@@ -17684,11 +17690,11 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="283" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
       <c r="B50" s="284"/>
       <c r="C50" s="284" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="D50" s="284"/>
       <c r="E50" s="284"/>
@@ -17727,7 +17733,7 @@
         <v>116</v>
       </c>
       <c r="T50" s="285" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="U50" s="285"/>
       <c r="V50" s="285"/>
@@ -17740,11 +17746,11 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="283" t="s">
-        <v>1364</v>
+        <v>1366</v>
       </c>
       <c r="B51" s="284"/>
       <c r="C51" s="284" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="D51" s="284"/>
       <c r="E51" s="284"/>
@@ -17783,7 +17789,7 @@
         <v>116</v>
       </c>
       <c r="T51" s="285" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="U51" s="285"/>
       <c r="V51" s="285"/>
@@ -17796,11 +17802,11 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="280" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
       <c r="B52" s="281"/>
       <c r="C52" s="288" t="s">
-        <v>1366</v>
+        <v>1368</v>
       </c>
       <c r="D52" s="281"/>
       <c r="E52" s="281"/>
@@ -17839,7 +17845,7 @@
         <v>116</v>
       </c>
       <c r="T52" s="282" t="s">
-        <v>1367</v>
+        <v>1369</v>
       </c>
       <c r="U52" s="282"/>
       <c r="V52" s="282"/>
@@ -17852,14 +17858,14 @@
     </row>
     <row r="53" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="283" t="s">
-        <v>1368</v>
+        <v>1370</v>
       </c>
       <c r="B53" s="284"/>
       <c r="C53" s="284" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="D53" s="286" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="E53" s="286"/>
       <c r="F53" s="284" t="s">
@@ -17910,18 +17916,18 @@
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="280" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="B54" s="281" t="s">
         <v>216</v>
       </c>
       <c r="C54" s="288" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
       <c r="D54" s="281"/>
       <c r="E54" s="281"/>
       <c r="F54" s="288" t="s">
-        <v>1373</v>
+        <v>1375</v>
       </c>
       <c r="G54" s="281" t="s">
         <v>179</v>
@@ -17957,7 +17963,7 @@
         <v>116</v>
       </c>
       <c r="T54" s="291" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="U54" s="291"/>
       <c r="V54" s="291"/>
@@ -17970,20 +17976,20 @@
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="283" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="B55" s="284" t="s">
         <v>284</v>
       </c>
       <c r="C55" s="286" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="D55" s="286" t="s">
-        <v>1377</v>
+        <v>1379</v>
       </c>
       <c r="E55" s="286"/>
       <c r="F55" s="286" t="s">
-        <v>1378</v>
+        <v>1380</v>
       </c>
       <c r="G55" s="284" t="s">
         <v>179</v>
@@ -18001,7 +18007,7 @@
         <v>301</v>
       </c>
       <c r="L55" s="284" t="s">
-        <v>1379</v>
+        <v>1381</v>
       </c>
       <c r="M55" s="284"/>
       <c r="N55" s="284"/>
@@ -18019,7 +18025,7 @@
         <v>116</v>
       </c>
       <c r="T55" s="290" t="s">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="U55" s="290"/>
       <c r="V55" s="290"/>
@@ -18032,13 +18038,13 @@
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="280" t="s">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="B56" s="281" t="s">
         <v>301</v>
       </c>
       <c r="C56" s="288" t="s">
-        <v>1382</v>
+        <v>1384</v>
       </c>
       <c r="D56" s="281"/>
       <c r="E56" s="281"/>
@@ -18077,7 +18083,7 @@
         <v>116</v>
       </c>
       <c r="T56" s="291" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="U56" s="291"/>
       <c r="V56" s="291"/>
@@ -18090,13 +18096,13 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="312" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="B57" s="313" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="C57" s="312" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
       <c r="H57" s="0" t="n">
         <v>0</v>
@@ -18131,7 +18137,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="315" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="B58" s="316"/>
       <c r="C58" s="316" t="s">
@@ -18160,7 +18166,7 @@
       <c r="R58" s="298"/>
       <c r="S58" s="298"/>
       <c r="T58" s="317" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
       <c r="U58" s="317"/>
       <c r="V58" s="317"/>
@@ -18170,7 +18176,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="318" t="s">
-        <v>1389</v>
+        <v>1391</v>
       </c>
       <c r="B59" s="319"/>
       <c r="C59" s="319" t="s">
@@ -18192,7 +18198,7 @@
         <v>0</v>
       </c>
       <c r="T59" s="320" t="s">
-        <v>1390</v>
+        <v>1392</v>
       </c>
       <c r="U59" s="320"/>
       <c r="V59" s="320"/>
@@ -18202,7 +18208,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="315" t="s">
-        <v>1391</v>
+        <v>1393</v>
       </c>
       <c r="B60" s="316"/>
       <c r="C60" s="316" t="s">
@@ -18224,7 +18230,7 @@
         <v>0</v>
       </c>
       <c r="T60" s="317" t="s">
-        <v>1392</v>
+        <v>1394</v>
       </c>
       <c r="U60" s="317"/>
       <c r="V60" s="317"/>
@@ -18234,7 +18240,7 @@
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="318" t="s">
-        <v>1393</v>
+        <v>1395</v>
       </c>
       <c r="B61" s="319"/>
       <c r="C61" s="319" t="s">
@@ -18256,7 +18262,7 @@
         <v>0</v>
       </c>
       <c r="T61" s="320" t="s">
-        <v>1394</v>
+        <v>1396</v>
       </c>
       <c r="U61" s="320"/>
       <c r="V61" s="320"/>
@@ -18266,7 +18272,7 @@
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="315" t="s">
-        <v>1395</v>
+        <v>1397</v>
       </c>
       <c r="B62" s="316"/>
       <c r="C62" s="316" t="s">
@@ -18288,7 +18294,7 @@
         <v>0</v>
       </c>
       <c r="T62" s="317" t="s">
-        <v>1396</v>
+        <v>1398</v>
       </c>
       <c r="U62" s="317"/>
       <c r="V62" s="317"/>
@@ -18298,7 +18304,7 @@
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="318" t="s">
-        <v>1397</v>
+        <v>1399</v>
       </c>
       <c r="B63" s="319"/>
       <c r="C63" s="319" t="s">
@@ -18320,7 +18326,7 @@
         <v>0</v>
       </c>
       <c r="T63" s="320" t="s">
-        <v>1398</v>
+        <v>1400</v>
       </c>
       <c r="U63" s="320"/>
       <c r="V63" s="320"/>
@@ -18330,11 +18336,11 @@
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="315" t="s">
-        <v>1399</v>
+        <v>1401</v>
       </c>
       <c r="B64" s="316"/>
       <c r="C64" s="316" t="s">
-        <v>1400</v>
+        <v>1402</v>
       </c>
       <c r="H64" s="0" t="n">
         <v>0</v>
@@ -18352,7 +18358,7 @@
         <v>0</v>
       </c>
       <c r="T64" s="321" t="s">
-        <v>1401</v>
+        <v>1403</v>
       </c>
       <c r="U64" s="321"/>
       <c r="V64" s="321"/>
@@ -18362,11 +18368,11 @@
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="318" t="s">
-        <v>1402</v>
+        <v>1404</v>
       </c>
       <c r="B65" s="319"/>
       <c r="C65" s="319" t="s">
-        <v>1403</v>
+        <v>1405</v>
       </c>
       <c r="H65" s="0" t="n">
         <v>0</v>
@@ -18384,7 +18390,7 @@
         <v>0</v>
       </c>
       <c r="T65" s="320" t="s">
-        <v>1404</v>
+        <v>1406</v>
       </c>
       <c r="U65" s="320"/>
       <c r="V65" s="320"/>
@@ -18394,11 +18400,11 @@
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="315" t="s">
-        <v>1405</v>
+        <v>1407</v>
       </c>
       <c r="B66" s="315"/>
       <c r="C66" s="316" t="s">
-        <v>1403</v>
+        <v>1405</v>
       </c>
       <c r="H66" s="0" t="n">
         <v>0</v>
@@ -18416,7 +18422,7 @@
         <v>0</v>
       </c>
       <c r="T66" s="317" t="s">
-        <v>1406</v>
+        <v>1408</v>
       </c>
       <c r="U66" s="317"/>
       <c r="V66" s="317"/>
@@ -18426,7 +18432,7 @@
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="318" t="s">
-        <v>1407</v>
+        <v>1409</v>
       </c>
       <c r="B67" s="280" t="n">
         <v>1000</v>
@@ -18448,7 +18454,7 @@
         <v>0</v>
       </c>
       <c r="T67" s="282" t="s">
-        <v>1408</v>
+        <v>1410</v>
       </c>
       <c r="U67" s="282"/>
       <c r="V67" s="282"/>
@@ -18458,7 +18464,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="315" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="B68" s="283" t="n">
         <v>1200</v>
@@ -18487,7 +18493,7 @@
       <c r="R68" s="315"/>
       <c r="S68" s="315"/>
       <c r="T68" s="285" t="s">
-        <v>1410</v>
+        <v>1412</v>
       </c>
       <c r="U68" s="285"/>
       <c r="V68" s="285"/>
@@ -18497,7 +18503,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="318" t="s">
-        <v>1318</v>
+        <v>1320</v>
       </c>
       <c r="B69" s="280" t="n">
         <v>1400</v>
@@ -18534,7 +18540,7 @@
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="315" t="s">
-        <v>1411</v>
+        <v>1413</v>
       </c>
       <c r="B70" s="283" t="n">
         <v>1600</v>
@@ -18563,7 +18569,7 @@
       <c r="R70" s="315"/>
       <c r="S70" s="315"/>
       <c r="T70" s="322" t="s">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="U70" s="322"/>
       <c r="V70" s="322"/>
@@ -18573,7 +18579,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="318" t="s">
-        <v>1413</v>
+        <v>1415</v>
       </c>
       <c r="B71" s="280" t="n">
         <v>1800</v>
@@ -18602,7 +18608,7 @@
       <c r="R71" s="318"/>
       <c r="S71" s="318"/>
       <c r="T71" s="282" t="s">
-        <v>1414</v>
+        <v>1416</v>
       </c>
       <c r="U71" s="282"/>
       <c r="V71" s="282"/>
@@ -18612,7 +18618,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="315" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="B72" s="283" t="n">
         <v>2000</v>
@@ -18649,11 +18655,11 @@
     </row>
     <row r="73" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="318" t="s">
-        <v>1416</v>
+        <v>1418</v>
       </c>
       <c r="B73" s="323"/>
       <c r="C73" s="323" t="s">
-        <v>1417</v>
+        <v>1419</v>
       </c>
       <c r="H73" s="0" t="n">
         <v>0</v>
@@ -18678,7 +18684,7 @@
       <c r="R73" s="318"/>
       <c r="S73" s="318"/>
       <c r="T73" s="324" t="s">
-        <v>1418</v>
+        <v>1420</v>
       </c>
       <c r="U73" s="324"/>
       <c r="V73" s="324"/>
@@ -18688,11 +18694,11 @@
     </row>
     <row r="74" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="315" t="s">
-        <v>1419</v>
+        <v>1421</v>
       </c>
       <c r="B74" s="325"/>
       <c r="C74" s="325" t="s">
-        <v>1420</v>
+        <v>1422</v>
       </c>
       <c r="H74" s="0" t="n">
         <v>0</v>
@@ -18725,11 +18731,11 @@
     </row>
     <row r="75" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="318" t="s">
-        <v>1421</v>
+        <v>1423</v>
       </c>
       <c r="B75" s="323"/>
       <c r="C75" s="323" t="s">
-        <v>1422</v>
+        <v>1424</v>
       </c>
       <c r="H75" s="0" t="n">
         <v>0</v>
@@ -18856,7 +18862,7 @@
       <selection pane="bottomRight" activeCell="G51" activeCellId="0" sqref="G51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.71"/>
@@ -18875,7 +18881,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="326" t="s">
-        <v>1423</v>
+        <v>1425</v>
       </c>
       <c r="B1" s="327"/>
       <c r="C1" s="215"/>
@@ -18984,7 +18990,7 @@
         <v>283</v>
       </c>
       <c r="D3" s="202" t="s">
-        <v>1424</v>
+        <v>1426</v>
       </c>
       <c r="E3" s="209"/>
       <c r="F3" s="203" t="s">
@@ -19039,17 +19045,17 @@
         <v>118</v>
       </c>
       <c r="B4" s="96" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="C4" s="134" t="s">
-        <v>1426</v>
+        <v>1428</v>
       </c>
       <c r="D4" s="134" t="s">
-        <v>1427</v>
+        <v>1429</v>
       </c>
       <c r="E4" s="100"/>
       <c r="F4" s="134" t="s">
-        <v>1428</v>
+        <v>1430</v>
       </c>
       <c r="G4" s="100" t="n">
         <v>4</v>
@@ -19095,20 +19101,20 @@
     </row>
     <row r="5" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="209" t="s">
-        <v>1429</v>
+        <v>1431</v>
       </c>
       <c r="B5" s="203" t="s">
-        <v>1430</v>
+        <v>1432</v>
       </c>
       <c r="C5" s="202" t="s">
-        <v>1431</v>
+        <v>1433</v>
       </c>
       <c r="D5" s="329" t="s">
-        <v>1432</v>
+        <v>1434</v>
       </c>
       <c r="E5" s="200"/>
       <c r="F5" s="202" t="s">
-        <v>1433</v>
+        <v>1435</v>
       </c>
       <c r="G5" s="209" t="n">
         <v>6</v>
@@ -19154,13 +19160,13 @@
     </row>
     <row r="6" customFormat="false" ht="25.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="171" t="s">
-        <v>1434</v>
+        <v>1436</v>
       </c>
       <c r="B6" s="96" t="s">
-        <v>1435</v>
+        <v>1437</v>
       </c>
       <c r="C6" s="96" t="s">
-        <v>1436</v>
+        <v>1438</v>
       </c>
       <c r="D6" s="96" t="s">
         <v>201</v>
@@ -19170,7 +19176,7 @@
         <v>20</v>
       </c>
       <c r="F6" s="96" t="s">
-        <v>1437</v>
+        <v>1439</v>
       </c>
       <c r="G6" s="100" t="n">
         <v>5</v>
@@ -19206,7 +19212,7 @@
         <v>116</v>
       </c>
       <c r="T6" s="135" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
       <c r="U6" s="135"/>
       <c r="V6" s="135"/>
@@ -19218,13 +19224,13 @@
     </row>
     <row r="7" customFormat="false" ht="25.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="209" t="s">
-        <v>1439</v>
+        <v>1441</v>
       </c>
       <c r="B7" s="203" t="s">
-        <v>1440</v>
+        <v>1442</v>
       </c>
       <c r="C7" s="202" t="s">
-        <v>1441</v>
+        <v>1443</v>
       </c>
       <c r="D7" s="203"/>
       <c r="E7" s="203"/>
@@ -19263,7 +19269,7 @@
         <v>262</v>
       </c>
       <c r="T7" s="330" t="s">
-        <v>1442</v>
+        <v>1444</v>
       </c>
       <c r="U7" s="330"/>
       <c r="V7" s="330"/>
@@ -19275,7 +19281,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="100" t="s">
-        <v>1443</v>
+        <v>1445</v>
       </c>
       <c r="B8" s="96" t="s">
         <v>125</v>
@@ -19337,11 +19343,11 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="209" t="s">
-        <v>1444</v>
+        <v>1446</v>
       </c>
       <c r="B9" s="203"/>
       <c r="C9" s="203" t="s">
-        <v>1445</v>
+        <v>1447</v>
       </c>
       <c r="D9" s="209"/>
       <c r="E9" s="209"/>
@@ -19396,7 +19402,7 @@
         <v>179</v>
       </c>
       <c r="C10" s="134" t="s">
-        <v>1446</v>
+        <v>1448</v>
       </c>
       <c r="D10" s="134" t="s">
         <v>135</v>
@@ -19439,7 +19445,7 @@
         <v>116</v>
       </c>
       <c r="T10" s="135" t="s">
-        <v>1447</v>
+        <v>1449</v>
       </c>
       <c r="U10" s="135"/>
       <c r="V10" s="135"/>
@@ -19451,15 +19457,15 @@
     </row>
     <row r="11" customFormat="false" ht="26.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="329" t="s">
-        <v>1448</v>
+        <v>1450</v>
       </c>
       <c r="B11" s="203"/>
       <c r="C11" s="202" t="s">
-        <v>1449</v>
+        <v>1451</v>
       </c>
       <c r="E11" s="209"/>
       <c r="G11" s="209" t="s">
-        <v>1450</v>
+        <v>1452</v>
       </c>
       <c r="H11" s="209" t="n">
         <v>60</v>
@@ -19492,7 +19498,7 @@
         <v>116</v>
       </c>
       <c r="T11" s="212" t="s">
-        <v>1451</v>
+        <v>1453</v>
       </c>
       <c r="U11" s="212"/>
       <c r="V11" s="212"/>
@@ -19673,7 +19679,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="209" t="s">
-        <v>1452</v>
+        <v>1454</v>
       </c>
       <c r="B15" s="203" t="s">
         <v>148</v>
@@ -19725,7 +19731,7 @@
         <v>116</v>
       </c>
       <c r="T15" s="204" t="s">
-        <v>1453</v>
+        <v>1455</v>
       </c>
       <c r="U15" s="204"/>
       <c r="V15" s="204"/>
@@ -19737,7 +19743,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="100" t="s">
-        <v>1454</v>
+        <v>1456</v>
       </c>
       <c r="B16" s="96"/>
       <c r="C16" s="332" t="n">
@@ -19782,7 +19788,7 @@
         <v>116</v>
       </c>
       <c r="T16" s="130" t="s">
-        <v>1453</v>
+        <v>1455</v>
       </c>
       <c r="U16" s="130"/>
       <c r="V16" s="130"/>
@@ -19794,7 +19800,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="209" t="s">
-        <v>1455</v>
+        <v>1457</v>
       </c>
       <c r="B17" s="203"/>
       <c r="C17" s="209" t="s">
@@ -19847,7 +19853,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="100" t="s">
-        <v>1456</v>
+        <v>1458</v>
       </c>
       <c r="B18" s="96"/>
       <c r="C18" s="100" t="s">
@@ -19900,13 +19906,13 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="209" t="s">
-        <v>1457</v>
+        <v>1459</v>
       </c>
       <c r="B19" s="203" t="s">
         <v>451</v>
       </c>
       <c r="C19" s="203" t="s">
-        <v>1458</v>
+        <v>1460</v>
       </c>
       <c r="D19" s="203" t="s">
         <v>170</v>
@@ -19964,11 +19970,11 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="100" t="s">
-        <v>1459</v>
+        <v>1461</v>
       </c>
       <c r="B20" s="96"/>
       <c r="C20" s="96" t="s">
-        <v>1460</v>
+        <v>1462</v>
       </c>
       <c r="D20" s="96"/>
       <c r="E20" s="96"/>
@@ -20019,13 +20025,13 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="209" t="s">
-        <v>1461</v>
+        <v>1463</v>
       </c>
       <c r="B21" s="203" t="s">
         <v>157</v>
       </c>
       <c r="C21" s="203" t="s">
-        <v>1462</v>
+        <v>1464</v>
       </c>
       <c r="D21" s="203" t="n">
         <f aca="false">E21/3*2</f>
@@ -20084,11 +20090,11 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="100" t="s">
-        <v>1463</v>
+        <v>1465</v>
       </c>
       <c r="B22" s="96"/>
       <c r="C22" s="96" t="s">
-        <v>1462</v>
+        <v>1464</v>
       </c>
       <c r="D22" s="134"/>
       <c r="E22" s="134"/>
@@ -20139,11 +20145,11 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="209" t="s">
-        <v>1464</v>
+        <v>1466</v>
       </c>
       <c r="B23" s="203"/>
       <c r="C23" s="203" t="s">
-        <v>1462</v>
+        <v>1464</v>
       </c>
       <c r="D23" s="203"/>
       <c r="E23" s="203"/>
@@ -20265,7 +20271,7 @@
         <v>179</v>
       </c>
       <c r="C25" s="96" t="s">
-        <v>1465</v>
+        <v>1467</v>
       </c>
       <c r="D25" s="96" t="n">
         <f aca="false">E25/3*2</f>
@@ -20439,7 +20445,7 @@
     </row>
     <row r="28" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="209" t="s">
-        <v>1466</v>
+        <v>1468</v>
       </c>
       <c r="B28" s="203" t="s">
         <v>170</v>
@@ -20495,7 +20501,7 @@
         <v>116</v>
       </c>
       <c r="T28" s="330" t="s">
-        <v>1467</v>
+        <v>1469</v>
       </c>
       <c r="U28" s="330"/>
       <c r="V28" s="330"/>
@@ -20505,7 +20511,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="100" t="s">
-        <v>1468</v>
+        <v>1470</v>
       </c>
       <c r="B29" s="96"/>
       <c r="C29" s="96" t="s">
@@ -20558,7 +20564,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="209" t="s">
-        <v>1469</v>
+        <v>1471</v>
       </c>
       <c r="B30" s="203"/>
       <c r="C30" s="203" t="s">
@@ -20611,7 +20617,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="100" t="s">
-        <v>1470</v>
+        <v>1472</v>
       </c>
       <c r="B31" s="96"/>
       <c r="C31" s="96" t="s">
@@ -20664,7 +20670,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="209" t="s">
-        <v>1471</v>
+        <v>1473</v>
       </c>
       <c r="B32" s="203"/>
       <c r="C32" s="203" t="s">
@@ -20717,7 +20723,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="100" t="s">
-        <v>1472</v>
+        <v>1474</v>
       </c>
       <c r="B33" s="96"/>
       <c r="C33" s="96" t="s">
@@ -20770,17 +20776,17 @@
     </row>
     <row r="34" customFormat="false" ht="109.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="209" t="s">
-        <v>1473</v>
+        <v>1475</v>
       </c>
       <c r="B34" s="203"/>
       <c r="C34" s="202" t="s">
-        <v>1474</v>
+        <v>1476</v>
       </c>
       <c r="D34" s="203" t="s">
         <v>301</v>
       </c>
       <c r="E34" s="202" t="s">
-        <v>1475</v>
+        <v>1477</v>
       </c>
       <c r="F34" s="203"/>
       <c r="G34" s="209"/>
@@ -20797,7 +20803,7 @@
       <c r="R34" s="209"/>
       <c r="S34" s="209"/>
       <c r="T34" s="330" t="s">
-        <v>1476</v>
+        <v>1478</v>
       </c>
       <c r="U34" s="330"/>
       <c r="V34" s="330"/>
@@ -20841,7 +20847,7 @@
         <v>2</v>
       </c>
       <c r="L35" s="100" t="s">
-        <v>1477</v>
+        <v>1479</v>
       </c>
       <c r="M35" s="100" t="n">
         <v>8</v>
@@ -20871,7 +20877,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="209" t="s">
-        <v>1304</v>
+        <v>1306</v>
       </c>
       <c r="B36" s="203"/>
       <c r="C36" s="203" t="s">
@@ -20924,7 +20930,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="100" t="s">
-        <v>1478</v>
+        <v>1480</v>
       </c>
       <c r="B37" s="96" t="s">
         <v>179</v>
@@ -20981,7 +20987,7 @@
         <v>116</v>
       </c>
       <c r="T37" s="165" t="s">
-        <v>1479</v>
+        <v>1481</v>
       </c>
       <c r="U37" s="165"/>
       <c r="V37" s="165"/>
@@ -20991,11 +20997,11 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="209" t="s">
-        <v>1480</v>
+        <v>1482</v>
       </c>
       <c r="B38" s="203"/>
       <c r="C38" s="203" t="s">
-        <v>1481</v>
+        <v>1483</v>
       </c>
       <c r="G38" s="209" t="n">
         <v>7</v>
@@ -21039,13 +21045,13 @@
     </row>
     <row r="39" customFormat="false" ht="25.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="100" t="s">
-        <v>1482</v>
+        <v>1484</v>
       </c>
       <c r="B39" s="96" t="s">
         <v>148</v>
       </c>
       <c r="C39" s="96" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="D39" s="96" t="s">
         <v>135</v>
@@ -21075,7 +21081,7 @@
       <c r="M39" s="100"/>
       <c r="N39" s="100"/>
       <c r="O39" s="100" t="s">
-        <v>1483</v>
+        <v>1485</v>
       </c>
       <c r="P39" s="100" t="n">
         <v>6</v>
@@ -21090,7 +21096,7 @@
         <v>116</v>
       </c>
       <c r="T39" s="165" t="s">
-        <v>1484</v>
+        <v>1486</v>
       </c>
       <c r="U39" s="165"/>
       <c r="V39" s="165"/>
@@ -21102,13 +21108,13 @@
     </row>
     <row r="40" customFormat="false" ht="14.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="209" t="s">
-        <v>1485</v>
+        <v>1487</v>
       </c>
       <c r="B40" s="203" t="s">
-        <v>1486</v>
+        <v>1488</v>
       </c>
       <c r="C40" s="203" t="s">
-        <v>1487</v>
+        <v>1489</v>
       </c>
       <c r="D40" s="203"/>
       <c r="E40" s="203"/>
@@ -21147,7 +21153,7 @@
         <v>116</v>
       </c>
       <c r="T40" s="212" t="s">
-        <v>1488</v>
+        <v>1490</v>
       </c>
       <c r="U40" s="212"/>
       <c r="V40" s="212"/>
@@ -21159,11 +21165,11 @@
     </row>
     <row r="41" customFormat="false" ht="89.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="100" t="s">
-        <v>1489</v>
+        <v>1491</v>
       </c>
       <c r="B41" s="96"/>
       <c r="C41" s="134" t="s">
-        <v>1490</v>
+        <v>1492</v>
       </c>
       <c r="D41" s="96"/>
       <c r="E41" s="96"/>
@@ -21182,7 +21188,7 @@
       <c r="R41" s="100"/>
       <c r="S41" s="100"/>
       <c r="T41" s="135" t="s">
-        <v>1491</v>
+        <v>1493</v>
       </c>
       <c r="U41" s="135"/>
       <c r="V41" s="135"/>
@@ -21197,17 +21203,17 @@
         <v>374</v>
       </c>
       <c r="B42" s="203" t="s">
-        <v>1492</v>
+        <v>1494</v>
       </c>
       <c r="C42" s="202" t="s">
-        <v>1493</v>
+        <v>1495</v>
       </c>
       <c r="D42" s="202" t="s">
         <v>135</v>
       </c>
       <c r="E42" s="202"/>
       <c r="F42" s="202" t="s">
-        <v>1494</v>
+        <v>1496</v>
       </c>
       <c r="G42" s="209" t="n">
         <v>8</v>
@@ -21243,7 +21249,7 @@
         <v>262</v>
       </c>
       <c r="T42" s="330" t="s">
-        <v>1495</v>
+        <v>1497</v>
       </c>
       <c r="U42" s="330"/>
       <c r="V42" s="330"/>
@@ -21255,20 +21261,20 @@
     </row>
     <row r="43" customFormat="false" ht="49.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="100" t="s">
-        <v>1496</v>
+        <v>1498</v>
       </c>
       <c r="B43" s="96" t="s">
         <v>179</v>
       </c>
       <c r="C43" s="96" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="D43" s="96" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="E43" s="96"/>
       <c r="F43" s="134" t="s">
-        <v>1499</v>
+        <v>1501</v>
       </c>
       <c r="G43" s="100" t="n">
         <v>2</v>
@@ -21316,7 +21322,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="209" t="s">
-        <v>1500</v>
+        <v>1502</v>
       </c>
       <c r="B44" s="203"/>
       <c r="C44" s="203" t="s">
@@ -21371,7 +21377,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="100" t="s">
-        <v>1501</v>
+        <v>1503</v>
       </c>
       <c r="B45" s="96"/>
       <c r="C45" s="96" t="s">
@@ -21426,11 +21432,11 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="209" t="s">
-        <v>1502</v>
+        <v>1504</v>
       </c>
       <c r="B46" s="203"/>
       <c r="C46" s="203" t="s">
-        <v>1503</v>
+        <v>1505</v>
       </c>
       <c r="D46" s="203"/>
       <c r="E46" s="203"/>
@@ -21481,11 +21487,11 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="100" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
       <c r="B47" s="96"/>
       <c r="C47" s="96" t="s">
-        <v>1505</v>
+        <v>1507</v>
       </c>
       <c r="D47" s="96"/>
       <c r="E47" s="96"/>
@@ -21536,11 +21542,11 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="209" t="s">
-        <v>1506</v>
+        <v>1508</v>
       </c>
       <c r="B48" s="203"/>
       <c r="C48" s="203" t="s">
-        <v>1507</v>
+        <v>1509</v>
       </c>
       <c r="D48" s="203"/>
       <c r="E48" s="203"/>
@@ -21579,7 +21585,7 @@
         <v>262</v>
       </c>
       <c r="T48" s="204" t="s">
-        <v>1508</v>
+        <v>1510</v>
       </c>
       <c r="U48" s="204"/>
       <c r="V48" s="204"/>
@@ -21591,13 +21597,13 @@
     </row>
     <row r="49" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="100" t="s">
-        <v>1509</v>
+        <v>1511</v>
       </c>
       <c r="B49" s="134" t="s">
-        <v>1510</v>
+        <v>1512</v>
       </c>
       <c r="C49" s="96" t="s">
-        <v>1511</v>
+        <v>1513</v>
       </c>
       <c r="D49" s="96" t="n">
         <f aca="false">13-6</f>
@@ -21605,7 +21611,7 @@
       </c>
       <c r="E49" s="96"/>
       <c r="F49" s="134" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="G49" s="100" t="n">
         <v>5</v>
@@ -21641,7 +21647,7 @@
         <v>116</v>
       </c>
       <c r="T49" s="165" t="s">
-        <v>1513</v>
+        <v>1515</v>
       </c>
       <c r="U49" s="165"/>
       <c r="V49" s="165"/>
@@ -21653,11 +21659,11 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="209" t="s">
-        <v>1514</v>
+        <v>1516</v>
       </c>
       <c r="B50" s="203"/>
       <c r="C50" s="203" t="s">
-        <v>1515</v>
+        <v>1517</v>
       </c>
       <c r="D50" s="203" t="n">
         <f aca="false">13-6</f>
@@ -21665,7 +21671,7 @@
       </c>
       <c r="E50" s="203"/>
       <c r="F50" s="203" t="s">
-        <v>1516</v>
+        <v>1518</v>
       </c>
       <c r="G50" s="209" t="n">
         <v>5</v>
@@ -21711,13 +21717,13 @@
     </row>
     <row r="51" customFormat="false" ht="25.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="100" t="s">
-        <v>1517</v>
+        <v>1519</v>
       </c>
       <c r="B51" s="96" t="s">
-        <v>1518</v>
+        <v>1520</v>
       </c>
       <c r="C51" s="96" t="s">
-        <v>1519</v>
+        <v>1521</v>
       </c>
       <c r="D51" s="96" t="n">
         <f aca="false">45-17</f>
@@ -21742,7 +21748,7 @@
       <c r="R51" s="100"/>
       <c r="S51" s="100"/>
       <c r="T51" s="165" t="s">
-        <v>1520</v>
+        <v>1522</v>
       </c>
       <c r="U51" s="165"/>
       <c r="V51" s="165"/>
@@ -21754,11 +21760,11 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="209" t="s">
-        <v>1521</v>
+        <v>1523</v>
       </c>
       <c r="B52" s="203"/>
       <c r="C52" s="203" t="s">
-        <v>1519</v>
+        <v>1521</v>
       </c>
       <c r="D52" s="203" t="n">
         <f aca="false">37-17</f>
@@ -21792,20 +21798,20 @@
     </row>
     <row r="53" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="100" t="s">
-        <v>1522</v>
+        <v>1524</v>
       </c>
       <c r="B53" s="134" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="C53" s="96" t="s">
-        <v>1524</v>
+        <v>1526</v>
       </c>
       <c r="D53" s="96" t="s">
         <v>135</v>
       </c>
       <c r="E53" s="96"/>
       <c r="F53" s="96" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="G53" s="100" t="n">
         <v>10</v>
@@ -21853,11 +21859,11 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="209" t="s">
-        <v>1525</v>
+        <v>1527</v>
       </c>
       <c r="B54" s="203"/>
       <c r="C54" s="203" t="s">
-        <v>1524</v>
+        <v>1526</v>
       </c>
       <c r="D54" s="203"/>
       <c r="E54" s="203"/>
@@ -21906,13 +21912,13 @@
     </row>
     <row r="55" customFormat="false" ht="49.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="100" t="s">
-        <v>1526</v>
+        <v>1528</v>
       </c>
       <c r="B55" s="134" t="s">
-        <v>1527</v>
+        <v>1529</v>
       </c>
       <c r="C55" s="134" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="D55" s="100" t="n">
         <v>19</v>
@@ -21942,7 +21948,7 @@
       <c r="M55" s="100"/>
       <c r="N55" s="100"/>
       <c r="O55" s="171" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="P55" s="100" t="n">
         <v>4</v>
@@ -21957,7 +21963,7 @@
         <v>262</v>
       </c>
       <c r="T55" s="165" t="s">
-        <v>1530</v>
+        <v>1532</v>
       </c>
       <c r="U55" s="165"/>
       <c r="V55" s="165"/>
@@ -21998,7 +22004,7 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="100" t="s">
-        <v>1531</v>
+        <v>1533</v>
       </c>
       <c r="K57" s="134"/>
       <c r="L57" s="171"/>
@@ -22010,7 +22016,7 @@
       <c r="R57" s="100"/>
       <c r="S57" s="173"/>
       <c r="T57" s="336" t="s">
-        <v>1532</v>
+        <v>1534</v>
       </c>
       <c r="U57" s="336"/>
       <c r="V57" s="336"/>
@@ -22107,13 +22113,12 @@
       <selection pane="bottomRight" activeCell="L35" activeCellId="0" sqref="L35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="40.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="32.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.29"/>
@@ -22126,7 +22131,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="337" t="s">
-        <v>1533</v>
+        <v>1535</v>
       </c>
       <c r="B1" s="157"/>
       <c r="C1" s="157"/>
@@ -22289,7 +22294,7 @@
         <v>682</v>
       </c>
       <c r="F4" s="95" t="s">
-        <v>1534</v>
+        <v>1536</v>
       </c>
       <c r="G4" s="95" t="s">
         <v>155</v>
@@ -22346,7 +22351,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="340" t="s">
-        <v>1535</v>
+        <v>1537</v>
       </c>
       <c r="G5" s="340" t="s">
         <v>125</v>
@@ -22396,10 +22401,10 @@
         <v>125</v>
       </c>
       <c r="C6" s="95" t="s">
-        <v>1536</v>
+        <v>1538</v>
       </c>
       <c r="D6" s="95" t="s">
-        <v>1537</v>
+        <v>1539</v>
       </c>
       <c r="E6" s="95" t="n">
         <f aca="false">42-19</f>
@@ -22450,13 +22455,13 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="340" t="s">
-        <v>1538</v>
+        <v>1540</v>
       </c>
       <c r="B7" s="340" t="s">
         <v>125</v>
       </c>
       <c r="C7" s="340" t="s">
-        <v>1536</v>
+        <v>1538</v>
       </c>
       <c r="D7" s="340" t="s">
         <v>284</v>
@@ -22502,7 +22507,7 @@
         <v>116</v>
       </c>
       <c r="T7" s="343" t="s">
-        <v>1539</v>
+        <v>1541</v>
       </c>
       <c r="U7" s="343"/>
       <c r="V7" s="343"/>
@@ -22521,7 +22526,7 @@
         <v>690</v>
       </c>
       <c r="E8" s="107" t="s">
-        <v>1540</v>
+        <v>1542</v>
       </c>
       <c r="F8" s="95" t="s">
         <v>308</v>
@@ -22572,10 +22577,10 @@
       </c>
       <c r="B9" s="340"/>
       <c r="C9" s="340" t="s">
-        <v>1541</v>
+        <v>1543</v>
       </c>
       <c r="D9" s="340" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="E9" s="340"/>
       <c r="F9" s="340"/>
@@ -22613,7 +22618,7 @@
         <v>116</v>
       </c>
       <c r="T9" s="342" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="U9" s="342"/>
       <c r="V9" s="342"/>
@@ -22623,16 +22628,16 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="95" t="s">
-        <v>1544</v>
+        <v>1546</v>
       </c>
       <c r="B10" s="95" t="s">
         <v>451</v>
       </c>
       <c r="C10" s="95" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="D10" s="95" t="s">
-        <v>1545</v>
+        <v>1547</v>
       </c>
       <c r="E10" s="95" t="s">
         <v>134</v>
@@ -22674,7 +22679,7 @@
         <v>116</v>
       </c>
       <c r="T10" s="99" t="s">
-        <v>1546</v>
+        <v>1548</v>
       </c>
       <c r="U10" s="99"/>
       <c r="V10" s="99"/>
@@ -22684,11 +22689,11 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="340" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="B11" s="340"/>
       <c r="C11" s="340" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="D11" s="340"/>
       <c r="E11" s="340"/>
@@ -22735,11 +22740,11 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="95" t="s">
-        <v>1547</v>
+        <v>1549</v>
       </c>
       <c r="B12" s="95"/>
       <c r="C12" s="95" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="D12" s="95"/>
       <c r="E12" s="95"/>
@@ -22795,7 +22800,7 @@
         <v>126</v>
       </c>
       <c r="D13" s="340" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
       <c r="E13" s="340" t="s">
         <v>291</v>
@@ -22837,7 +22842,7 @@
         <v>116</v>
       </c>
       <c r="T13" s="342" t="s">
-        <v>1549</v>
+        <v>1551</v>
       </c>
       <c r="U13" s="342"/>
       <c r="V13" s="342"/>
@@ -22908,7 +22913,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="95" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="B15" s="95"/>
       <c r="C15" s="95" t="s">
@@ -22957,7 +22962,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="95" t="s">
-        <v>1551</v>
+        <v>1553</v>
       </c>
       <c r="B16" s="95"/>
       <c r="C16" s="95" t="s">
@@ -23006,7 +23011,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="340" t="s">
-        <v>1552</v>
+        <v>1554</v>
       </c>
       <c r="B17" s="340" t="s">
         <v>179</v>
@@ -23069,7 +23074,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="95" t="s">
-        <v>1553</v>
+        <v>1555</v>
       </c>
       <c r="B18" s="95"/>
       <c r="C18" s="95" t="s">
@@ -23118,7 +23123,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="340" t="s">
-        <v>1554</v>
+        <v>1556</v>
       </c>
       <c r="B19" s="340"/>
       <c r="C19" s="340" t="s">
@@ -23345,7 +23350,7 @@
       </c>
       <c r="B23" s="340"/>
       <c r="C23" s="340" t="s">
-        <v>1555</v>
+        <v>1557</v>
       </c>
       <c r="D23" s="340"/>
       <c r="E23" s="340"/>
@@ -23552,7 +23557,7 @@
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="340" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="B27" s="340" t="s">
         <v>201</v>
@@ -23561,13 +23566,13 @@
         <v>722</v>
       </c>
       <c r="D27" s="340" t="s">
-        <v>1556</v>
+        <v>1558</v>
       </c>
       <c r="E27" s="340" t="s">
-        <v>1557</v>
+        <v>1559</v>
       </c>
       <c r="F27" s="341" t="s">
-        <v>1558</v>
+        <v>1560</v>
       </c>
       <c r="G27" s="344" t="n">
         <v>12</v>
@@ -23603,7 +23608,7 @@
         <v>116</v>
       </c>
       <c r="T27" s="343" t="s">
-        <v>1559</v>
+        <v>1561</v>
       </c>
       <c r="U27" s="343"/>
       <c r="V27" s="343"/>
@@ -23611,7 +23616,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="95" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="B28" s="95"/>
       <c r="C28" s="97" t="s">
@@ -23660,7 +23665,7 @@
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="340" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="B29" s="340" t="s">
         <v>216</v>
@@ -23669,13 +23674,13 @@
         <v>627</v>
       </c>
       <c r="D29" s="340" t="s">
-        <v>1556</v>
+        <v>1558</v>
       </c>
       <c r="E29" s="340" t="s">
-        <v>1557</v>
+        <v>1559</v>
       </c>
       <c r="F29" s="341" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="G29" s="340" t="s">
         <v>146</v>
@@ -23711,7 +23716,7 @@
         <v>116</v>
       </c>
       <c r="T29" s="343" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="U29" s="343"/>
       <c r="V29" s="343"/>
@@ -23719,7 +23724,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="95" t="s">
-        <v>1562</v>
+        <v>1564</v>
       </c>
       <c r="B30" s="95"/>
       <c r="C30" s="95" t="s">
@@ -23774,16 +23779,16 @@
         <v>160</v>
       </c>
       <c r="C31" s="340" t="s">
-        <v>1563</v>
+        <v>1565</v>
       </c>
       <c r="D31" s="340" t="s">
         <v>160</v>
       </c>
       <c r="E31" s="340" t="s">
-        <v>1564</v>
+        <v>1566</v>
       </c>
       <c r="F31" s="341" t="s">
-        <v>1565</v>
+        <v>1567</v>
       </c>
       <c r="G31" s="340" t="s">
         <v>179</v>
@@ -23819,7 +23824,7 @@
         <v>116</v>
       </c>
       <c r="T31" s="342" t="s">
-        <v>1566</v>
+        <v>1568</v>
       </c>
       <c r="U31" s="342"/>
       <c r="V31" s="342"/>
@@ -23827,13 +23832,13 @@
     </row>
     <row r="32" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="95" t="s">
-        <v>1567</v>
+        <v>1569</v>
       </c>
       <c r="B32" s="95" t="s">
         <v>132</v>
       </c>
       <c r="C32" s="107" t="s">
-        <v>1568</v>
+        <v>1570</v>
       </c>
       <c r="G32" s="95" t="s">
         <v>301</v>
@@ -23869,7 +23874,7 @@
         <v>116</v>
       </c>
       <c r="T32" s="99" t="s">
-        <v>1569</v>
+        <v>1571</v>
       </c>
       <c r="U32" s="99"/>
       <c r="V32" s="99"/>
@@ -23879,11 +23884,11 @@
     </row>
     <row r="33" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="340" t="s">
-        <v>1570</v>
+        <v>1572</v>
       </c>
       <c r="B33" s="340"/>
       <c r="C33" s="178" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c r="D33" s="340"/>
       <c r="E33" s="340"/>
@@ -23904,7 +23909,7 @@
         <v>301</v>
       </c>
       <c r="L33" s="340" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="M33" s="340"/>
       <c r="N33" s="340"/>
@@ -23922,7 +23927,7 @@
         <v>116</v>
       </c>
       <c r="T33" s="342" t="s">
-        <v>1569</v>
+        <v>1571</v>
       </c>
       <c r="U33" s="342"/>
       <c r="V33" s="342"/>
@@ -23932,11 +23937,11 @@
     </row>
     <row r="34" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="340" t="s">
-        <v>1570</v>
+        <v>1572</v>
       </c>
       <c r="B34" s="340"/>
       <c r="C34" s="178" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c r="D34" s="340"/>
       <c r="E34" s="340"/>
@@ -23975,7 +23980,7 @@
         <v>116</v>
       </c>
       <c r="T34" s="342" t="s">
-        <v>1569</v>
+        <v>1571</v>
       </c>
       <c r="U34" s="342"/>
       <c r="V34" s="342"/>
@@ -23985,20 +23990,20 @@
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="95" t="s">
-        <v>1572</v>
+        <v>1574</v>
       </c>
       <c r="B35" s="95" t="s">
         <v>301</v>
       </c>
       <c r="C35" s="107" t="s">
-        <v>1573</v>
+        <v>1575</v>
       </c>
       <c r="D35" s="95" t="s">
         <v>310</v>
       </c>
       <c r="E35" s="95"/>
       <c r="F35" s="107" t="s">
-        <v>1574</v>
+        <v>1576</v>
       </c>
       <c r="G35" s="95" t="s">
         <v>284</v>
@@ -24034,7 +24039,7 @@
         <v>116</v>
       </c>
       <c r="T35" s="102" t="s">
-        <v>1575</v>
+        <v>1577</v>
       </c>
       <c r="U35" s="102"/>
       <c r="V35" s="102"/>
@@ -24044,16 +24049,16 @@
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="340" t="s">
-        <v>1576</v>
+        <v>1578</v>
       </c>
       <c r="B36" s="340"/>
       <c r="C36" s="341" t="s">
-        <v>1573</v>
+        <v>1575</v>
       </c>
       <c r="D36" s="340"/>
       <c r="E36" s="340"/>
       <c r="F36" s="341" t="s">
-        <v>1577</v>
+        <v>1579</v>
       </c>
       <c r="G36" s="340" t="s">
         <v>284</v>
@@ -24071,7 +24076,7 @@
         <v>301</v>
       </c>
       <c r="L36" s="340" t="s">
-        <v>1578</v>
+        <v>1580</v>
       </c>
       <c r="M36" s="340"/>
       <c r="N36" s="340"/>
@@ -24089,7 +24094,7 @@
         <v>116</v>
       </c>
       <c r="T36" s="343" t="s">
-        <v>1575</v>
+        <v>1577</v>
       </c>
       <c r="U36" s="343"/>
       <c r="V36" s="343"/>
@@ -24105,7 +24110,7 @@
         <v>132</v>
       </c>
       <c r="C37" s="107" t="s">
-        <v>1579</v>
+        <v>1581</v>
       </c>
       <c r="D37" s="95" t="s">
         <v>451</v>
@@ -24130,12 +24135,12 @@
         <v>284</v>
       </c>
       <c r="L37" s="95" t="s">
-        <v>1580</v>
+        <v>1582</v>
       </c>
       <c r="M37" s="95"/>
       <c r="N37" s="95"/>
       <c r="O37" s="107" t="s">
-        <v>1581</v>
+        <v>1583</v>
       </c>
       <c r="P37" s="95" t="s">
         <v>125</v>
@@ -24150,7 +24155,7 @@
         <v>116</v>
       </c>
       <c r="T37" s="102" t="s">
-        <v>1582</v>
+        <v>1584</v>
       </c>
       <c r="U37" s="102"/>
       <c r="V37" s="102"/>
@@ -24160,7 +24165,7 @@
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="340" t="s">
-        <v>1583</v>
+        <v>1585</v>
       </c>
       <c r="B38" s="340" t="s">
         <v>286</v>
@@ -24174,7 +24179,7 @@
       </c>
       <c r="E38" s="340"/>
       <c r="F38" s="341" t="s">
-        <v>1584</v>
+        <v>1586</v>
       </c>
       <c r="G38" s="344" t="n">
         <v>10</v>
@@ -24210,7 +24215,7 @@
         <v>262</v>
       </c>
       <c r="T38" s="343" t="s">
-        <v>1585</v>
+        <v>1587</v>
       </c>
       <c r="U38" s="343"/>
       <c r="V38" s="343"/>
@@ -24220,7 +24225,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="95" t="s">
-        <v>1586</v>
+        <v>1588</v>
       </c>
       <c r="B39" s="95"/>
       <c r="C39" s="95" t="s">
@@ -24271,7 +24276,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="340" t="s">
-        <v>1587</v>
+        <v>1589</v>
       </c>
       <c r="B40" s="340"/>
       <c r="C40" s="340" t="s">
@@ -24328,14 +24333,14 @@
         <v>216</v>
       </c>
       <c r="C41" s="95" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="D41" s="95" t="s">
-        <v>1589</v>
+        <v>1591</v>
       </c>
       <c r="E41" s="95"/>
       <c r="F41" s="95" t="s">
-        <v>1590</v>
+        <v>1592</v>
       </c>
       <c r="G41" s="95" t="s">
         <v>286</v>
@@ -24381,20 +24386,20 @@
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="340" t="s">
-        <v>1591</v>
+        <v>1593</v>
       </c>
       <c r="B42" s="340" t="s">
         <v>216</v>
       </c>
       <c r="C42" s="340" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="D42" s="341" t="s">
-        <v>1592</v>
+        <v>1594</v>
       </c>
       <c r="E42" s="341"/>
       <c r="F42" s="341" t="s">
-        <v>1577</v>
+        <v>1579</v>
       </c>
       <c r="G42" s="340" t="s">
         <v>286</v>
@@ -24430,7 +24435,7 @@
         <v>116</v>
       </c>
       <c r="T42" s="343" t="s">
-        <v>1593</v>
+        <v>1595</v>
       </c>
       <c r="U42" s="343"/>
       <c r="V42" s="343"/>
@@ -24440,11 +24445,11 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="95" t="s">
-        <v>1594</v>
+        <v>1596</v>
       </c>
       <c r="B43" s="95"/>
       <c r="C43" s="95" t="s">
-        <v>1595</v>
+        <v>1597</v>
       </c>
       <c r="D43" s="95" t="s">
         <v>125</v>
@@ -24487,7 +24492,7 @@
         <v>116</v>
       </c>
       <c r="T43" s="99" t="s">
-        <v>1596</v>
+        <v>1598</v>
       </c>
       <c r="U43" s="99"/>
       <c r="V43" s="99"/>
@@ -24563,7 +24568,7 @@
       <selection pane="topRight" activeCell="J33" activeCellId="0" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.14"/>
@@ -24580,7 +24585,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="346" t="s">
-        <v>1597</v>
+        <v>1599</v>
       </c>
       <c r="B1" s="347"/>
       <c r="C1" s="348"/>
@@ -24794,17 +24799,17 @@
         <v>411</v>
       </c>
       <c r="B5" s="351" t="s">
-        <v>1598</v>
+        <v>1600</v>
       </c>
       <c r="C5" s="352" t="s">
-        <v>1599</v>
+        <v>1601</v>
       </c>
       <c r="D5" s="351" t="n">
         <f aca="false">52-35</f>
         <v>17</v>
       </c>
       <c r="F5" s="351" t="s">
-        <v>1600</v>
+        <v>1602</v>
       </c>
       <c r="G5" s="351" t="n">
         <v>6</v>
@@ -24858,7 +24863,7 @@
         <v>147</v>
       </c>
       <c r="D6" s="294" t="s">
-        <v>1601</v>
+        <v>1603</v>
       </c>
       <c r="E6" s="294" t="n">
         <v>20</v>
@@ -25013,7 +25018,7 @@
         <v>116</v>
       </c>
       <c r="T8" s="290" t="s">
-        <v>1602</v>
+        <v>1604</v>
       </c>
       <c r="U8" s="290"/>
       <c r="V8" s="290"/>
@@ -25024,11 +25029,11 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="350" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="B9" s="351"/>
       <c r="C9" s="352" t="s">
-        <v>1555</v>
+        <v>1557</v>
       </c>
       <c r="D9" s="351"/>
       <c r="E9" s="351"/>
@@ -25142,7 +25147,7 @@
       </c>
       <c r="B11" s="351"/>
       <c r="C11" s="352" t="s">
-        <v>1555</v>
+        <v>1557</v>
       </c>
       <c r="D11" s="351"/>
       <c r="E11" s="351"/>
@@ -25310,7 +25315,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="284" t="s">
-        <v>1603</v>
+        <v>1605</v>
       </c>
       <c r="D14" s="283" t="n">
         <v>21</v>
@@ -25356,7 +25361,7 @@
         <v>116</v>
       </c>
       <c r="T14" s="290" t="s">
-        <v>1604</v>
+        <v>1606</v>
       </c>
       <c r="U14" s="290"/>
       <c r="V14" s="290"/>
@@ -25371,7 +25376,7 @@
       </c>
       <c r="B15" s="351"/>
       <c r="C15" s="352" t="s">
-        <v>1605</v>
+        <v>1607</v>
       </c>
       <c r="D15" s="351"/>
       <c r="E15" s="351"/>
@@ -25419,11 +25424,11 @@
     </row>
     <row r="16" customFormat="false" ht="24.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="315" t="s">
-        <v>1606</v>
+        <v>1608</v>
       </c>
       <c r="B16" s="283"/>
       <c r="C16" s="284" t="s">
-        <v>1607</v>
+        <v>1609</v>
       </c>
       <c r="D16" s="283" t="n">
         <v>21</v>
@@ -25464,7 +25469,7 @@
         <v>116</v>
       </c>
       <c r="T16" s="290" t="s">
-        <v>1608</v>
+        <v>1610</v>
       </c>
       <c r="U16" s="290"/>
       <c r="V16" s="290"/>
@@ -25475,7 +25480,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="350" t="s">
-        <v>1609</v>
+        <v>1611</v>
       </c>
       <c r="B17" s="351" t="n">
         <v>11</v>
@@ -25537,7 +25542,7 @@
     </row>
     <row r="18" customFormat="false" ht="24.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="315" t="s">
-        <v>1610</v>
+        <v>1612</v>
       </c>
       <c r="B18" s="283"/>
       <c r="C18" s="284" t="s">
@@ -25582,7 +25587,7 @@
         <v>116</v>
       </c>
       <c r="T18" s="290" t="s">
-        <v>1611</v>
+        <v>1613</v>
       </c>
       <c r="U18" s="290"/>
       <c r="V18" s="290"/>
@@ -25599,7 +25604,7 @@
         <v>4</v>
       </c>
       <c r="C19" s="352" t="s">
-        <v>1612</v>
+        <v>1614</v>
       </c>
       <c r="D19" s="351" t="n">
         <v>20</v>
@@ -25645,7 +25650,7 @@
         <v>116</v>
       </c>
       <c r="T19" s="354" t="s">
-        <v>1613</v>
+        <v>1615</v>
       </c>
       <c r="U19" s="354"/>
       <c r="V19" s="354"/>
@@ -25708,11 +25713,11 @@
     </row>
     <row r="21" customFormat="false" ht="24.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="350" t="s">
-        <v>1614</v>
+        <v>1616</v>
       </c>
       <c r="B21" s="351"/>
       <c r="C21" s="352" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="D21" s="351" t="n">
         <v>19</v>
@@ -25753,7 +25758,7 @@
         <v>116</v>
       </c>
       <c r="T21" s="354" t="s">
-        <v>1615</v>
+        <v>1617</v>
       </c>
       <c r="U21" s="354"/>
       <c r="V21" s="354"/>
@@ -25792,13 +25797,13 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="91" t="s">
-        <v>1616</v>
+        <v>1618</v>
       </c>
       <c r="B23" s="91" t="n">
         <v>5</v>
       </c>
       <c r="C23" s="91" t="s">
-        <v>1617</v>
+        <v>1619</v>
       </c>
       <c r="D23" s="91" t="n">
         <v>7</v>
@@ -26123,7 +26128,7 @@
         <v>116</v>
       </c>
       <c r="T28" s="130" t="s">
-        <v>1618</v>
+        <v>1620</v>
       </c>
       <c r="U28" s="130"/>
       <c r="V28" s="130"/>
@@ -26195,7 +26200,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="97" t="s">
-        <v>1619</v>
+        <v>1621</v>
       </c>
       <c r="B30" s="97"/>
       <c r="C30" s="252" t="s">
@@ -26245,7 +26250,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="91" t="s">
-        <v>1620</v>
+        <v>1622</v>
       </c>
       <c r="B31" s="91"/>
       <c r="C31" s="189" t="s">
@@ -26358,16 +26363,16 @@
     </row>
     <row r="33" customFormat="false" ht="39.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="103" t="s">
-        <v>1621</v>
+        <v>1623</v>
       </c>
       <c r="B33" s="91" t="n">
         <v>1</v>
       </c>
       <c r="C33" s="116" t="s">
-        <v>1622</v>
+        <v>1624</v>
       </c>
       <c r="D33" s="91" t="s">
-        <v>1623</v>
+        <v>1625</v>
       </c>
       <c r="E33" s="91"/>
       <c r="F33" s="91" t="n">
@@ -26407,7 +26412,7 @@
         <v>116</v>
       </c>
       <c r="T33" s="186" t="s">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="U33" s="186"/>
       <c r="V33" s="186"/>
@@ -26418,14 +26423,14 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="106" t="s">
-        <v>1625</v>
+        <v>1627</v>
       </c>
       <c r="B34" s="97"/>
       <c r="C34" s="97" t="s">
-        <v>1626</v>
+        <v>1628</v>
       </c>
       <c r="D34" s="97" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="E34" s="97"/>
       <c r="F34" s="97" t="n">
@@ -26465,7 +26470,7 @@
         <v>116</v>
       </c>
       <c r="T34" s="130" t="s">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="U34" s="130"/>
       <c r="V34" s="130"/>
@@ -26476,7 +26481,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="103" t="s">
-        <v>1628</v>
+        <v>1630</v>
       </c>
       <c r="B35" s="91" t="n">
         <v>10</v>
@@ -26534,11 +26539,11 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="106" t="s">
-        <v>1629</v>
+        <v>1631</v>
       </c>
       <c r="B36" s="97"/>
       <c r="C36" s="97" t="s">
-        <v>1630</v>
+        <v>1632</v>
       </c>
       <c r="D36" s="97"/>
       <c r="E36" s="97"/>
@@ -26579,7 +26584,7 @@
         <v>116</v>
       </c>
       <c r="T36" s="130" t="s">
-        <v>1631</v>
+        <v>1633</v>
       </c>
       <c r="U36" s="130"/>
       <c r="V36" s="130"/>
@@ -26590,20 +26595,20 @@
     </row>
     <row r="37" customFormat="false" ht="64.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="103" t="s">
-        <v>1632</v>
+        <v>1634</v>
       </c>
       <c r="B37" s="91" t="n">
         <v>16</v>
       </c>
       <c r="C37" s="116" t="s">
-        <v>1633</v>
+        <v>1635</v>
       </c>
       <c r="D37" s="116" t="s">
-        <v>1634</v>
+        <v>1636</v>
       </c>
       <c r="E37" s="116"/>
       <c r="F37" s="116" t="s">
-        <v>1635</v>
+        <v>1637</v>
       </c>
       <c r="G37" s="91" t="n">
         <v>1</v>
@@ -26639,7 +26644,7 @@
         <v>262</v>
       </c>
       <c r="T37" s="188" t="s">
-        <v>1636</v>
+        <v>1638</v>
       </c>
       <c r="U37" s="188"/>
       <c r="V37" s="188"/>
@@ -26650,11 +26655,11 @@
     </row>
     <row r="38" customFormat="false" ht="51.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="106" t="s">
-        <v>1637</v>
+        <v>1639</v>
       </c>
       <c r="B38" s="97"/>
       <c r="C38" s="113" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="D38" s="97"/>
       <c r="E38" s="97"/>
@@ -26693,7 +26698,7 @@
         <v>116</v>
       </c>
       <c r="T38" s="135" t="s">
-        <v>1639</v>
+        <v>1641</v>
       </c>
       <c r="U38" s="135"/>
       <c r="V38" s="135"/>
@@ -26704,11 +26709,11 @@
     </row>
     <row r="39" customFormat="false" ht="51.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="106" t="s">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="B39" s="97"/>
       <c r="C39" s="113" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="D39" s="97"/>
       <c r="E39" s="97"/>
@@ -26747,7 +26752,7 @@
         <v>116</v>
       </c>
       <c r="T39" s="135" t="s">
-        <v>1639</v>
+        <v>1641</v>
       </c>
       <c r="U39" s="135"/>
       <c r="V39" s="135"/>
@@ -26803,7 +26808,7 @@
         <v>116</v>
       </c>
       <c r="T40" s="186" t="s">
-        <v>1641</v>
+        <v>1643</v>
       </c>
       <c r="U40" s="186"/>
       <c r="V40" s="186"/>
@@ -26814,11 +26819,11 @@
     </row>
     <row r="41" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="106" t="s">
-        <v>1642</v>
+        <v>1644</v>
       </c>
       <c r="B41" s="97"/>
       <c r="C41" s="113" t="s">
-        <v>1643</v>
+        <v>1645</v>
       </c>
       <c r="D41" s="97" t="n">
         <f aca="false">27-6</f>
@@ -26826,7 +26831,7 @@
       </c>
       <c r="E41" s="97"/>
       <c r="F41" s="97" t="s">
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c r="G41" s="97" t="n">
         <v>8</v>
@@ -26862,7 +26867,7 @@
         <v>116</v>
       </c>
       <c r="T41" s="130" t="s">
-        <v>1618</v>
+        <v>1620</v>
       </c>
       <c r="U41" s="130"/>
       <c r="V41" s="130"/>
@@ -26873,13 +26878,13 @@
     </row>
     <row r="42" customFormat="false" ht="77.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="103" t="s">
-        <v>1645</v>
+        <v>1647</v>
       </c>
       <c r="B42" s="91" t="n">
         <v>22</v>
       </c>
       <c r="C42" s="116" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="D42" s="91"/>
       <c r="E42" s="91"/>
@@ -26918,7 +26923,7 @@
         <v>116</v>
       </c>
       <c r="T42" s="358" t="s">
-        <v>1647</v>
+        <v>1649</v>
       </c>
       <c r="U42" s="358"/>
       <c r="V42" s="358"/>
@@ -26929,20 +26934,20 @@
     </row>
     <row r="43" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="106" t="s">
-        <v>1648</v>
+        <v>1650</v>
       </c>
       <c r="B43" s="97" t="s">
-        <v>1649</v>
+        <v>1651</v>
       </c>
       <c r="C43" s="113" t="s">
-        <v>1650</v>
+        <v>1652</v>
       </c>
       <c r="D43" s="97" t="s">
-        <v>1651</v>
+        <v>1653</v>
       </c>
       <c r="E43" s="97"/>
       <c r="F43" s="97" t="s">
-        <v>1652</v>
+        <v>1654</v>
       </c>
       <c r="G43" s="97" t="n">
         <v>0</v>
@@ -26968,7 +26973,7 @@
       <c r="R43" s="97"/>
       <c r="S43" s="97"/>
       <c r="T43" s="135" t="s">
-        <v>1653</v>
+        <v>1655</v>
       </c>
       <c r="U43" s="135"/>
       <c r="V43" s="135"/>
@@ -26979,13 +26984,13 @@
     </row>
     <row r="44" customFormat="false" ht="26.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="103" t="s">
-        <v>1654</v>
+        <v>1656</v>
       </c>
       <c r="B44" s="116" t="s">
-        <v>1655</v>
+        <v>1657</v>
       </c>
       <c r="C44" s="91" t="s">
-        <v>1656</v>
+        <v>1658</v>
       </c>
       <c r="D44" s="91"/>
       <c r="E44" s="91"/>
@@ -27014,7 +27019,7 @@
       <c r="R44" s="91"/>
       <c r="S44" s="91"/>
       <c r="T44" s="188" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="U44" s="188"/>
       <c r="V44" s="188"/>
@@ -27025,11 +27030,11 @@
     </row>
     <row r="45" customFormat="false" ht="39.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="106" t="s">
-        <v>1658</v>
+        <v>1660</v>
       </c>
       <c r="B45" s="97"/>
       <c r="C45" s="113" t="s">
-        <v>1659</v>
+        <v>1661</v>
       </c>
       <c r="D45" s="97"/>
       <c r="E45" s="97"/>
@@ -27056,7 +27061,7 @@
       <c r="N45" s="97"/>
       <c r="O45" s="97"/>
       <c r="P45" s="130" t="s">
-        <v>1660</v>
+        <v>1662</v>
       </c>
       <c r="Q45" s="130"/>
       <c r="R45" s="130"/>
@@ -27132,11 +27137,11 @@
       <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="359" t="s">
-        <v>1661</v>
+        <v>1663</v>
       </c>
       <c r="B1" s="360"/>
       <c r="C1" s="360"/>
@@ -27153,7 +27158,7 @@
     </row>
     <row r="2" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="359" t="s">
-        <v>1662</v>
+        <v>1664</v>
       </c>
       <c r="B2" s="360" t="s">
         <v>96</v>
@@ -27172,22 +27177,22 @@
     </row>
     <row r="3" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="361" t="s">
-        <v>1663</v>
+        <v>1665</v>
       </c>
       <c r="B3" s="362" t="s">
-        <v>1664</v>
+        <v>1666</v>
       </c>
       <c r="C3" s="363" t="s">
-        <v>1665</v>
+        <v>1667</v>
       </c>
       <c r="D3" s="364" t="s">
-        <v>1666</v>
+        <v>1668</v>
       </c>
       <c r="E3" s="364" t="s">
-        <v>1667</v>
+        <v>1669</v>
       </c>
       <c r="F3" s="349" t="s">
-        <v>1668</v>
+        <v>1670</v>
       </c>
       <c r="G3" s="349"/>
       <c r="H3" s="365" t="s">
@@ -27201,7 +27206,7 @@
     </row>
     <row r="4" customFormat="false" ht="46.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="366" t="s">
-        <v>1669</v>
+        <v>1671</v>
       </c>
       <c r="B4" s="367" t="n">
         <v>17</v>
@@ -27213,12 +27218,12 @@
         <v>95</v>
       </c>
       <c r="E4" s="368" t="s">
-        <v>1670</v>
+        <v>1672</v>
       </c>
       <c r="F4" s="369"/>
       <c r="G4" s="369"/>
       <c r="H4" s="370" t="s">
-        <v>1671</v>
+        <v>1673</v>
       </c>
       <c r="I4" s="370"/>
       <c r="J4" s="370"/>
@@ -27228,7 +27233,7 @@
     </row>
     <row r="5" customFormat="false" ht="46.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="371" t="s">
-        <v>1672</v>
+        <v>1674</v>
       </c>
       <c r="B5" s="372" t="n">
         <f aca="false">(B4-17)/78</f>
@@ -27243,14 +27248,14 @@
         <v>1</v>
       </c>
       <c r="E5" s="373" t="s">
-        <v>1670</v>
+        <v>1672</v>
       </c>
       <c r="F5" s="321" t="s">
-        <v>1673</v>
+        <v>1675</v>
       </c>
       <c r="G5" s="321"/>
       <c r="H5" s="374" t="s">
-        <v>1674</v>
+        <v>1676</v>
       </c>
       <c r="I5" s="374"/>
       <c r="J5" s="374"/>
@@ -27260,7 +27265,7 @@
     </row>
     <row r="6" customFormat="false" ht="46.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="366" t="s">
-        <v>1675</v>
+        <v>1677</v>
       </c>
       <c r="B6" s="375" t="n">
         <f aca="false">12+(B5*28)</f>
@@ -27278,11 +27283,11 @@
         <v>9000</v>
       </c>
       <c r="F6" s="377" t="s">
-        <v>1676</v>
+        <v>1678</v>
       </c>
       <c r="G6" s="377"/>
       <c r="H6" s="370" t="s">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="I6" s="370"/>
       <c r="J6" s="370"/>
@@ -27292,7 +27297,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="378" t="s">
-        <v>1678</v>
+        <v>1680</v>
       </c>
       <c r="B7" s="379" t="n">
         <f aca="false">10+(B5/7)</f>
@@ -27310,11 +27315,11 @@
         <v>18</v>
       </c>
       <c r="F7" s="321" t="s">
-        <v>1679</v>
+        <v>1681</v>
       </c>
       <c r="G7" s="321"/>
       <c r="H7" s="382" t="s">
-        <v>1680</v>
+        <v>1682</v>
       </c>
       <c r="I7" s="382"/>
       <c r="J7" s="382"/>
@@ -27342,11 +27347,11 @@
         <v>12</v>
       </c>
       <c r="F8" s="377" t="s">
-        <v>1681</v>
+        <v>1683</v>
       </c>
       <c r="G8" s="377"/>
       <c r="H8" s="384" t="s">
-        <v>1682</v>
+        <v>1684</v>
       </c>
       <c r="I8" s="384"/>
       <c r="J8" s="384"/>
@@ -27356,7 +27361,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="378" t="s">
-        <v>1683</v>
+        <v>1685</v>
       </c>
       <c r="B9" s="379" t="n">
         <f aca="false">6+(B5*0.1)</f>
@@ -27374,7 +27379,7 @@
         <v>8</v>
       </c>
       <c r="F9" s="321" t="s">
-        <v>1684</v>
+        <v>1686</v>
       </c>
       <c r="G9" s="321"/>
       <c r="H9" s="382"/>
@@ -27386,7 +27391,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="386" t="s">
-        <v>1685</v>
+        <v>1687</v>
       </c>
       <c r="B10" s="387" t="n">
         <f aca="false">(0.5+(B5*0.1))*100</f>
@@ -27404,7 +27409,7 @@
         <v>110</v>
       </c>
       <c r="F10" s="389" t="s">
-        <v>1686</v>
+        <v>1688</v>
       </c>
       <c r="G10" s="389"/>
       <c r="H10" s="390"/>
@@ -27416,12 +27421,12 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>1687</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="86" t="s">
-        <v>1688</v>
+        <v>1690</v>
       </c>
       <c r="P14" s="198"/>
       <c r="Q14" s="86"/>
@@ -27434,19 +27439,19 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="160" t="s">
-        <v>1689</v>
+        <v>1691</v>
       </c>
       <c r="Q15" s="177"/>
       <c r="R15" s="160"/>
       <c r="S15" s="160"/>
       <c r="T15" s="86" t="s">
-        <v>1690</v>
+        <v>1692</v>
       </c>
       <c r="U15" s="86" t="s">
-        <v>1691</v>
+        <v>1693</v>
       </c>
       <c r="V15" s="86" t="s">
-        <v>1692</v>
+        <v>1694</v>
       </c>
       <c r="W15" s="86" t="s">
         <v>108</v>
@@ -27464,20 +27469,20 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="100" t="s">
-        <v>1693</v>
+        <v>1695</v>
       </c>
       <c r="Q16" s="171"/>
       <c r="R16" s="100"/>
       <c r="S16" s="100"/>
       <c r="T16" s="160" t="s">
-        <v>1694</v>
+        <v>1696</v>
       </c>
       <c r="U16" s="160"/>
       <c r="V16" s="177" t="s">
-        <v>1695</v>
+        <v>1697</v>
       </c>
       <c r="W16" s="166" t="s">
-        <v>1696</v>
+        <v>1698</v>
       </c>
       <c r="X16" s="166"/>
       <c r="Y16" s="166"/>
@@ -27492,20 +27497,20 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="160" t="s">
-        <v>1697</v>
+        <v>1699</v>
       </c>
       <c r="Q17" s="160"/>
       <c r="R17" s="160"/>
       <c r="S17" s="160"/>
       <c r="T17" s="100" t="s">
-        <v>1694</v>
+        <v>1696</v>
       </c>
       <c r="U17" s="100"/>
       <c r="V17" s="171" t="s">
-        <v>1698</v>
+        <v>1700</v>
       </c>
       <c r="W17" s="165" t="s">
-        <v>1699</v>
+        <v>1701</v>
       </c>
       <c r="X17" s="165"/>
       <c r="Y17" s="165"/>
@@ -27520,20 +27525,20 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="100" t="s">
-        <v>1700</v>
+        <v>1702</v>
       </c>
       <c r="Q18" s="100"/>
       <c r="R18" s="100"/>
       <c r="S18" s="100"/>
       <c r="T18" s="160" t="s">
-        <v>1694</v>
+        <v>1696</v>
       </c>
       <c r="U18" s="160"/>
       <c r="V18" s="177" t="s">
-        <v>1701</v>
+        <v>1703</v>
       </c>
       <c r="W18" s="391" t="s">
-        <v>1702</v>
+        <v>1704</v>
       </c>
       <c r="X18" s="391"/>
       <c r="Y18" s="391"/>
@@ -27548,20 +27553,20 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="160" t="s">
-        <v>1703</v>
+        <v>1705</v>
       </c>
       <c r="Q19" s="160"/>
       <c r="R19" s="160"/>
       <c r="S19" s="160"/>
       <c r="T19" s="100" t="s">
-        <v>1704</v>
+        <v>1706</v>
       </c>
       <c r="U19" s="100" t="s">
-        <v>1705</v>
+        <v>1707</v>
       </c>
       <c r="V19" s="100"/>
       <c r="W19" s="165" t="s">
-        <v>1706</v>
+        <v>1708</v>
       </c>
       <c r="X19" s="165"/>
       <c r="Y19" s="165"/>
@@ -27576,20 +27581,20 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="100" t="s">
-        <v>1707</v>
+        <v>1709</v>
       </c>
       <c r="Q20" s="100"/>
       <c r="R20" s="100"/>
       <c r="S20" s="100"/>
       <c r="T20" s="160" t="s">
-        <v>1704</v>
+        <v>1706</v>
       </c>
       <c r="U20" s="160" t="s">
-        <v>1708</v>
+        <v>1710</v>
       </c>
       <c r="V20" s="160"/>
       <c r="W20" s="166" t="s">
-        <v>1709</v>
+        <v>1711</v>
       </c>
       <c r="X20" s="166"/>
       <c r="Y20" s="166"/>
@@ -27604,20 +27609,20 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="160" t="s">
-        <v>1710</v>
+        <v>1712</v>
       </c>
       <c r="Q21" s="160"/>
       <c r="R21" s="160"/>
       <c r="S21" s="160"/>
       <c r="T21" s="171" t="s">
-        <v>1711</v>
+        <v>1713</v>
       </c>
       <c r="U21" s="100" t="n">
         <v>100</v>
       </c>
       <c r="V21" s="100"/>
       <c r="W21" s="165" t="s">
-        <v>1712</v>
+        <v>1714</v>
       </c>
       <c r="X21" s="165"/>
       <c r="Y21" s="165"/>
@@ -27638,14 +27643,14 @@
       <c r="R22" s="100"/>
       <c r="S22" s="100"/>
       <c r="T22" s="177" t="s">
-        <v>1713</v>
+        <v>1715</v>
       </c>
       <c r="U22" s="160" t="n">
         <v>200</v>
       </c>
       <c r="V22" s="160"/>
       <c r="W22" s="166" t="s">
-        <v>1714</v>
+        <v>1716</v>
       </c>
       <c r="X22" s="166"/>
       <c r="Y22" s="166"/>
@@ -27660,7 +27665,7 @@
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="160" t="s">
-        <v>1715</v>
+        <v>1717</v>
       </c>
       <c r="Q23" s="177"/>
       <c r="R23" s="160"/>
@@ -27670,7 +27675,7 @@
       </c>
       <c r="U23" s="100"/>
       <c r="V23" s="100" t="s">
-        <v>1716</v>
+        <v>1718</v>
       </c>
       <c r="W23" s="393" t="s">
         <v>92</v>
@@ -27688,20 +27693,20 @@
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="100" t="s">
-        <v>1717</v>
+        <v>1719</v>
       </c>
       <c r="Q24" s="171"/>
       <c r="R24" s="100"/>
       <c r="S24" s="100"/>
       <c r="T24" s="160" t="s">
-        <v>1718</v>
+        <v>1720</v>
       </c>
       <c r="U24" s="160"/>
       <c r="V24" s="160" t="n">
         <v>150</v>
       </c>
       <c r="W24" s="166" t="s">
-        <v>1719</v>
+        <v>1721</v>
       </c>
       <c r="X24" s="166"/>
       <c r="Y24" s="166"/>
@@ -27722,14 +27727,14 @@
       <c r="R25" s="160"/>
       <c r="S25" s="160"/>
       <c r="T25" s="100" t="s">
-        <v>1718</v>
+        <v>1720</v>
       </c>
       <c r="U25" s="100"/>
       <c r="V25" s="100" t="n">
         <v>600</v>
       </c>
       <c r="W25" s="165" t="s">
-        <v>1720</v>
+        <v>1722</v>
       </c>
       <c r="X25" s="165"/>
       <c r="Y25" s="165"/>
@@ -27744,7 +27749,7 @@
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="100" t="s">
-        <v>1721</v>
+        <v>1723</v>
       </c>
       <c r="Q26" s="100"/>
       <c r="R26" s="100"/>
@@ -27770,7 +27775,7 @@
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="160" t="s">
-        <v>1722</v>
+        <v>1724</v>
       </c>
       <c r="Q27" s="160"/>
       <c r="R27" s="160"/>
@@ -27783,7 +27788,7 @@
       </c>
       <c r="V27" s="100"/>
       <c r="W27" s="135" t="s">
-        <v>1723</v>
+        <v>1725</v>
       </c>
       <c r="X27" s="135"/>
       <c r="Y27" s="135"/>
@@ -27798,7 +27803,7 @@
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="100" t="s">
-        <v>1724</v>
+        <v>1726</v>
       </c>
       <c r="Q28" s="100"/>
       <c r="R28" s="100"/>
@@ -27811,7 +27816,7 @@
       </c>
       <c r="V28" s="160"/>
       <c r="W28" s="164" t="s">
-        <v>1723</v>
+        <v>1725</v>
       </c>
       <c r="X28" s="164"/>
       <c r="Y28" s="164"/>
@@ -27826,19 +27831,19 @@
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="160" t="s">
-        <v>1725</v>
+        <v>1727</v>
       </c>
       <c r="Q29" s="160"/>
       <c r="R29" s="160"/>
       <c r="S29" s="160"/>
       <c r="T29" s="100" t="s">
-        <v>1726</v>
+        <v>1728</v>
       </c>
       <c r="U29" s="100" t="n">
         <v>40</v>
       </c>
       <c r="W29" s="148" t="s">
-        <v>1727</v>
+        <v>1729</v>
       </c>
       <c r="X29" s="148"/>
       <c r="Y29" s="148"/>
@@ -27853,7 +27858,7 @@
     </row>
     <row r="30" customFormat="false" ht="52.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="100" t="s">
-        <v>1728</v>
+        <v>1730</v>
       </c>
       <c r="Q30" s="100"/>
       <c r="R30" s="100"/>
@@ -27861,7 +27866,7 @@
       <c r="T30" s="160"/>
       <c r="U30" s="160"/>
       <c r="V30" s="160" t="s">
-        <v>1716</v>
+        <v>1718</v>
       </c>
       <c r="W30" s="391" t="s">
         <v>668</v>
@@ -30615,7 +30620,7 @@
       <selection pane="bottomRight" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="38.43"/>
@@ -34219,7 +34224,7 @@
       <selection pane="bottomRight" activeCell="L52" activeCellId="0" sqref="L52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="21.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="21.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.43"/>
@@ -37538,7 +37543,7 @@
       <selection pane="bottomRight" activeCell="J42" activeCellId="0" sqref="J42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25"/>
@@ -40349,7 +40354,7 @@
       <selection pane="bottomRight" activeCell="K34" activeCellId="0" sqref="K34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.14"/>
@@ -42795,7 +42800,7 @@
       <selection pane="bottomRight" activeCell="O3" activeCellId="0" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.86"/>
@@ -45385,7 +45390,7 @@
       <selection pane="bottomRight" activeCell="J37" activeCellId="0" sqref="J37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.29"/>
@@ -47316,10 +47321,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I26" activeCellId="0" sqref="I26"/>
+      <selection pane="bottomRight" activeCell="H33" activeCellId="0" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.57"/>
@@ -48514,7 +48519,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="126" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="B20" s="127" t="s">
         <v>125</v>
@@ -48579,7 +48584,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="94" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B21" s="95" t="s">
         <v>125</v>
@@ -48644,7 +48649,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="94" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="B22" s="95" t="s">
         <v>125</v>
@@ -48709,13 +48714,13 @@
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="97" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="B23" s="97" t="n">
         <v>5</v>
       </c>
       <c r="C23" s="113" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="D23" s="95" t="s">
         <v>132</v>
@@ -48765,7 +48770,7 @@
         <v>116</v>
       </c>
       <c r="T23" s="135" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="U23" s="135"/>
       <c r="V23" s="135"/>
@@ -48776,13 +48781,13 @@
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="97" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="B24" s="97" t="n">
         <v>5</v>
       </c>
       <c r="C24" s="113" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="D24" s="95" t="s">
         <v>132</v>
@@ -48832,7 +48837,7 @@
         <v>116</v>
       </c>
       <c r="T24" s="135" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="U24" s="135"/>
       <c r="V24" s="135"/>
@@ -48843,19 +48848,19 @@
     </row>
     <row r="25" customFormat="false" ht="64.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="126" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="B25" s="126" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="C25" s="137" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="D25" s="149" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="E25" s="137" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="F25" s="126" t="n">
         <v>48</v>
@@ -48910,19 +48915,19 @@
     </row>
     <row r="26" customFormat="false" ht="65.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="126" t="s">
+        <v>974</v>
+      </c>
+      <c r="B26" s="126" t="s">
+        <v>970</v>
+      </c>
+      <c r="C26" s="137" t="s">
+        <v>971</v>
+      </c>
+      <c r="D26" s="149" t="s">
         <v>972</v>
       </c>
-      <c r="B26" s="126" t="s">
-        <v>968</v>
-      </c>
-      <c r="C26" s="137" t="s">
-        <v>969</v>
-      </c>
-      <c r="D26" s="149" t="s">
-        <v>970</v>
-      </c>
       <c r="E26" s="137" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="F26" s="126" t="n">
         <v>48</v>
@@ -48977,13 +48982,13 @@
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="97" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="B27" s="97" t="n">
         <v>9</v>
       </c>
       <c r="C27" s="113" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="D27" s="95"/>
       <c r="E27" s="97"/>
@@ -49006,7 +49011,7 @@
         <v>262</v>
       </c>
       <c r="T27" s="148" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="U27" s="148"/>
       <c r="V27" s="148"/>
@@ -49082,7 +49087,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="97" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="B29" s="97"/>
       <c r="C29" s="97" t="s">
@@ -49193,7 +49198,7 @@
         <v>116</v>
       </c>
       <c r="T30" s="129" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="U30" s="129"/>
       <c r="V30" s="129"/>
@@ -49204,11 +49209,11 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="97" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="B31" s="97"/>
       <c r="C31" s="97" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="D31" s="95"/>
       <c r="E31" s="97"/>
@@ -49256,11 +49261,11 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="97" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="B32" s="97"/>
       <c r="C32" s="97" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="D32" s="95"/>
       <c r="E32" s="97"/>
@@ -49308,7 +49313,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="126" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="B33" s="126" t="n">
         <v>8</v>
@@ -49365,7 +49370,7 @@
         <v>116</v>
       </c>
       <c r="T33" s="129" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="U33" s="129"/>
       <c r="V33" s="129"/>
@@ -49376,13 +49381,13 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="97" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="B34" s="97" t="n">
         <v>9</v>
       </c>
       <c r="C34" s="97" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="D34" s="97" t="n">
         <v>16</v>
@@ -49444,14 +49449,14 @@
         <v>41</v>
       </c>
       <c r="C35" s="126" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="D35" s="137" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="E35" s="137"/>
       <c r="F35" s="137" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="G35" s="126" t="n">
         <v>8</v>
@@ -49487,7 +49492,7 @@
         <v>116</v>
       </c>
       <c r="T35" s="129" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="U35" s="129"/>
       <c r="V35" s="129"/>
@@ -49500,20 +49505,20 @@
     </row>
     <row r="36" customFormat="false" ht="78.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="97" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="B36" s="97" t="n">
         <v>41</v>
       </c>
       <c r="C36" s="97" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="D36" s="113" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="E36" s="113"/>
       <c r="F36" s="113" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="G36" s="97" t="n">
         <v>14</v>
@@ -49549,7 +49554,7 @@
         <v>116</v>
       </c>
       <c r="T36" s="130" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="U36" s="130"/>
       <c r="V36" s="130"/>
@@ -49562,13 +49567,13 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="126" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="B37" s="126" t="n">
         <v>16</v>
       </c>
       <c r="C37" s="126" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="D37" s="126" t="n">
         <f aca="false">63-32</f>
@@ -49612,7 +49617,7 @@
         <v>116</v>
       </c>
       <c r="T37" s="129" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="U37" s="129"/>
       <c r="V37" s="129"/>
@@ -49625,11 +49630,11 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="97" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="B38" s="97"/>
       <c r="C38" s="97" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="D38" s="97"/>
       <c r="E38" s="97"/>
@@ -49679,13 +49684,13 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="126" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="B39" s="126" t="n">
         <v>26</v>
       </c>
       <c r="C39" s="126" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="D39" s="126" t="n">
         <f aca="false">73-42</f>
@@ -49729,7 +49734,7 @@
         <v>116</v>
       </c>
       <c r="T39" s="129" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="U39" s="129"/>
       <c r="V39" s="129"/>
@@ -49742,11 +49747,11 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="97" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="B40" s="97"/>
       <c r="C40" s="97" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="D40" s="97"/>
       <c r="E40" s="97"/>
@@ -49796,10 +49801,10 @@
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="126" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="B41" s="137" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="C41" s="137"/>
       <c r="D41" s="126" t="n">
@@ -49807,7 +49812,7 @@
       </c>
       <c r="E41" s="126"/>
       <c r="F41" s="137" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="G41" s="126"/>
       <c r="H41" s="126"/>
@@ -49823,7 +49828,7 @@
       <c r="R41" s="126"/>
       <c r="S41" s="126"/>
       <c r="T41" s="133" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="U41" s="133"/>
       <c r="V41" s="133"/>
@@ -49836,13 +49841,13 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="97" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="B42" s="97" t="n">
         <v>11</v>
       </c>
       <c r="C42" s="97" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="D42" s="97" t="n">
         <v>14</v>
@@ -49860,14 +49865,14 @@
       <c r="M42" s="97"/>
       <c r="N42" s="97"/>
       <c r="O42" s="97" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="P42" s="97"/>
       <c r="Q42" s="97"/>
       <c r="R42" s="97"/>
       <c r="S42" s="97"/>
       <c r="T42" s="130" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="U42" s="130"/>
       <c r="V42" s="130"/>
@@ -49880,13 +49885,13 @@
     </row>
     <row r="43" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="126" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="B43" s="126" t="n">
         <v>12</v>
       </c>
       <c r="C43" s="137" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="D43" s="126" t="n">
         <v>13</v>
@@ -49916,7 +49921,7 @@
       <c r="M43" s="126"/>
       <c r="N43" s="126"/>
       <c r="O43" s="126" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="P43" s="126" t="n">
         <v>6</v>
@@ -49931,7 +49936,7 @@
         <v>116</v>
       </c>
       <c r="T43" s="129" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="U43" s="129"/>
       <c r="V43" s="129"/>
@@ -49944,13 +49949,13 @@
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="97" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="B44" s="97" t="n">
         <v>7</v>
       </c>
       <c r="C44" s="113" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="D44" s="97" t="n">
         <v>18</v>
@@ -49987,7 +49992,7 @@
         <v>262</v>
       </c>
       <c r="T44" s="135" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="U44" s="135"/>
       <c r="V44" s="135"/>

--- a/input/Rivals of Aether Academy Frame Data - Updated for 2.0.7.0.xlsx
+++ b/input/Rivals of Aether Academy Frame Data - Updated for 2.0.7.0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="1" state="visible" r:id="rId2"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6742" uniqueCount="1740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6751" uniqueCount="1740">
   <si>
     <r>
       <rPr>
@@ -2168,7 +2168,7 @@
     <t xml:space="preserve">Neutral Special: Explosion</t>
   </si>
   <si>
-    <t xml:space="preserve">Forward Special: Uncharged Missile</t>
+    <t xml:space="preserve">Forward Special: Uncharged Missile (Least travel time)</t>
   </si>
   <si>
     <t xml:space="preserve">9-42 (Charge startup)
@@ -2182,13 +2182,13 @@
 61 (Maximum)</t>
   </si>
   <si>
-    <t xml:space="preserve">2-5 (Gains 1 damage every 60 frames of travel to a max of 5)</t>
-  </si>
-  <si>
     <t xml:space="preserve">20 (Applied on Last Frame of Endlag)</t>
   </si>
   <si>
     <t xml:space="preserve">You lose control over the missile on death. Can not trigger galaxy kill effect on a character who is stuck by a mine. Missiles have a base damage of 2%, but will increase by 1% every 60 frames of travel to deal a maximum of 5%. Missiles do not have an explosion hitbox, so a hidden pillar destruction hitbox will appear on missile exploding. The radius for this for uncharged missiles is 32 pixels.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forward Special: Uncharged Missile (Most travel time)</t>
   </si>
   <si>
     <t xml:space="preserve">Forward Special: Charged Missile</t>
@@ -2705,7 +2705,7 @@
     <t xml:space="preserve">An existing rock near Kragg will be picked up on f8, interrupting the active frames. Hitting Kragg anytime from f8- will cause him to be in hitstun with the rock in his hands. Inputting dodge during the first 5 frames of startup will prevent a nearby rock from being picked up and will perform rock shine as usual.</t>
   </si>
   <si>
-    <t xml:space="preserve">Rock: Shards</t>
+    <t xml:space="preserve">Neutral Special: Rock: (Shards)</t>
   </si>
   <si>
     <t xml:space="preserve">10 (Grounded rock) 
@@ -2719,19 +2719,19 @@
     <t xml:space="preserve">Breaking the rock has 10 frames hitpause, with 1 further frame of hitpause on breaking airborne rocks due to rock state change.</t>
   </si>
   <si>
-    <t xml:space="preserve">Rock: Neutral Throw</t>
+    <t xml:space="preserve">Neutral Special: Rock: (Neutral Throw)</t>
   </si>
   <si>
     <t xml:space="preserve">7-</t>
   </si>
   <si>
-    <t xml:space="preserve">Rock: Forward Throw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rock: Up Throw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rock: Down Throw</t>
+    <t xml:space="preserve">Neutral Special: Rock: (Forward Throw)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neutral Special: Rock (Up Throw)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neutral Special: Rock: (Down Throw)</t>
   </si>
   <si>
     <t xml:space="preserve">Forward Special: Ground</t>
@@ -7654,11 +7654,11 @@
   </sheetPr>
   <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.58984375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="3.14"/>
@@ -8801,7 +8801,7 @@
   </sheetPr>
   <dimension ref="A1:AB44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -8809,7 +8809,7 @@
       <selection pane="bottomRight" activeCell="H33" activeCellId="0" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.57"/>
@@ -11551,13 +11551,13 @@
   </sheetPr>
   <dimension ref="A1:Z54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="D10" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
       <selection pane="topRight" activeCell="H53" activeCellId="0" sqref="H53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.98"/>
@@ -14609,7 +14609,7 @@
   </sheetPr>
   <dimension ref="A1:Y54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -14617,7 +14617,7 @@
       <selection pane="bottomRight" activeCell="H50" activeCellId="0" sqref="H50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.57"/>
@@ -17595,7 +17595,7 @@
   </sheetPr>
   <dimension ref="A1:AB75"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -17603,7 +17603,7 @@
       <selection pane="bottomRight" activeCell="H57" activeCellId="0" sqref="H57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.43"/>
@@ -21633,7 +21633,7 @@
   </sheetPr>
   <dimension ref="A1:AA1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -21641,7 +21641,7 @@
       <selection pane="bottomRight" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.58984375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.71"/>
@@ -24884,7 +24884,7 @@
   </sheetPr>
   <dimension ref="A1:Y43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -24892,7 +24892,7 @@
       <selection pane="bottomRight" activeCell="L35" activeCellId="0" sqref="L35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="40.14"/>
@@ -27341,13 +27341,13 @@
   </sheetPr>
   <dimension ref="A1:Z45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.14"/>
@@ -29912,11 +29912,11 @@
   </sheetPr>
   <dimension ref="A1:AG30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="359" t="s">
@@ -30718,11 +30718,11 @@
   </sheetPr>
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="45" width="11.52"/>
   </cols>
@@ -30891,7 +30891,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
@@ -33564,7 +33564,7 @@
   </sheetPr>
   <dimension ref="A1:Y1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
@@ -33572,7 +33572,7 @@
       <selection pane="bottomRight" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.58984375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="38.43"/>
@@ -37168,7 +37168,7 @@
   </sheetPr>
   <dimension ref="A1:AA57"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
@@ -37176,7 +37176,7 @@
       <selection pane="bottomRight" activeCell="L52" activeCellId="0" sqref="L52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="21.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.58984375" defaultRowHeight="21.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.43"/>
@@ -40487,15 +40487,15 @@
   </sheetPr>
   <dimension ref="A1:AG1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="D16" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+      <selection pane="bottomRight" activeCell="I37" activeCellId="0" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.58984375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25"/>
@@ -42554,8 +42554,8 @@
       <c r="F36" s="136" t="s">
         <v>659</v>
       </c>
-      <c r="G36" s="173" t="s">
-        <v>660</v>
+      <c r="G36" s="173" t="n">
+        <v>2</v>
       </c>
       <c r="H36" s="102" t="n">
         <v>50</v>
@@ -42575,7 +42575,7 @@
       <c r="M36" s="102"/>
       <c r="N36" s="102"/>
       <c r="O36" s="115" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="P36" s="102" t="n">
         <v>6</v>
@@ -42590,7 +42590,7 @@
         <v>129</v>
       </c>
       <c r="T36" s="137" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="U36" s="137"/>
       <c r="V36" s="137"/>
@@ -42600,415 +42600,476 @@
       <c r="Z36" s="137"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="162" t="s">
+      <c r="A37" s="102" t="s">
+        <v>662</v>
+      </c>
+      <c r="B37" s="136" t="s">
+        <v>657</v>
+      </c>
+      <c r="C37" s="98" t="s">
+        <v>658</v>
+      </c>
+      <c r="D37" s="98" t="s">
+        <v>464</v>
+      </c>
+      <c r="E37" s="98"/>
+      <c r="F37" s="136" t="s">
+        <v>659</v>
+      </c>
+      <c r="G37" s="173" t="n">
+        <v>5</v>
+      </c>
+      <c r="H37" s="102" t="n">
+        <v>50</v>
+      </c>
+      <c r="I37" s="102" t="n">
+        <v>7</v>
+      </c>
+      <c r="J37" s="98" t="s">
+        <v>323</v>
+      </c>
+      <c r="K37" s="102" t="n">
+        <v>3</v>
+      </c>
+      <c r="L37" s="102" t="s">
+        <v>156</v>
+      </c>
+      <c r="M37" s="102"/>
+      <c r="N37" s="102"/>
+      <c r="O37" s="115" t="s">
+        <v>660</v>
+      </c>
+      <c r="P37" s="102" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q37" s="102" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" s="102" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" s="102" t="s">
+        <v>129</v>
+      </c>
+      <c r="T37" s="137" t="s">
+        <v>661</v>
+      </c>
+      <c r="U37" s="137"/>
+      <c r="V37" s="137"/>
+      <c r="W37" s="137"/>
+      <c r="X37" s="137"/>
+      <c r="Y37" s="137"/>
+      <c r="Z37" s="137"/>
+    </row>
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="162" t="s">
         <v>663</v>
       </c>
-      <c r="B37" s="178" t="s">
+      <c r="B38" s="178" t="s">
         <v>664</v>
       </c>
-      <c r="C37" s="163" t="s">
+      <c r="C38" s="163" t="s">
         <v>665</v>
       </c>
-      <c r="D37" s="163" t="s">
+      <c r="D38" s="163" t="s">
         <v>148</v>
       </c>
-      <c r="E37" s="163"/>
-      <c r="F37" s="163" t="s">
+      <c r="E38" s="163"/>
+      <c r="F38" s="163" t="s">
         <v>666</v>
       </c>
-      <c r="G37" s="162" t="n">
+      <c r="G38" s="162" t="n">
         <v>20</v>
       </c>
-      <c r="H37" s="162" t="n">
+      <c r="H38" s="162" t="n">
         <v>40</v>
       </c>
-      <c r="I37" s="162" t="n">
+      <c r="I38" s="162" t="n">
         <v>6</v>
       </c>
-      <c r="J37" s="163" t="s">
+      <c r="J38" s="163" t="s">
         <v>216</v>
       </c>
-      <c r="K37" s="162" t="n">
+      <c r="K38" s="162" t="n">
         <v>3</v>
       </c>
-      <c r="L37" s="162" t="s">
+      <c r="L38" s="162" t="s">
         <v>156</v>
       </c>
-      <c r="M37" s="162"/>
-      <c r="N37" s="162"/>
-      <c r="O37" s="162"/>
-      <c r="P37" s="162" t="n">
+      <c r="M38" s="162"/>
+      <c r="N38" s="162"/>
+      <c r="O38" s="162"/>
+      <c r="P38" s="162" t="n">
         <v>10</v>
       </c>
-      <c r="Q37" s="162" t="n">
+      <c r="Q38" s="162" t="n">
         <v>90</v>
       </c>
-      <c r="R37" s="162" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" s="162" t="s">
-        <v>129</v>
-      </c>
-      <c r="T37" s="166" t="s">
+      <c r="R38" s="162" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" s="162" t="s">
+        <v>129</v>
+      </c>
+      <c r="T38" s="166" t="s">
         <v>667</v>
       </c>
-      <c r="U37" s="166"/>
-      <c r="V37" s="166"/>
-      <c r="W37" s="166"/>
-      <c r="X37" s="166"/>
-      <c r="Y37" s="166"/>
-      <c r="Z37" s="166"/>
-    </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="102" t="s">
+      <c r="U38" s="166"/>
+      <c r="V38" s="166"/>
+      <c r="W38" s="166"/>
+      <c r="X38" s="166"/>
+      <c r="Y38" s="166"/>
+      <c r="Z38" s="166"/>
+    </row>
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="102" t="s">
         <v>668</v>
       </c>
-      <c r="B38" s="98"/>
-      <c r="C38" s="136" t="s">
+      <c r="B39" s="98"/>
+      <c r="C39" s="136" t="s">
         <v>669</v>
       </c>
-      <c r="D38" s="98"/>
-      <c r="E38" s="98"/>
-      <c r="F38" s="98"/>
-      <c r="G38" s="102"/>
-      <c r="H38" s="102"/>
-      <c r="I38" s="102"/>
-      <c r="J38" s="98"/>
-      <c r="K38" s="102"/>
-      <c r="L38" s="102"/>
-      <c r="M38" s="102"/>
-      <c r="N38" s="102"/>
-      <c r="O38" s="102"/>
-      <c r="P38" s="102"/>
-      <c r="Q38" s="102"/>
-      <c r="R38" s="102"/>
-      <c r="S38" s="102"/>
-      <c r="T38" s="137" t="s">
+      <c r="D39" s="98"/>
+      <c r="E39" s="98"/>
+      <c r="F39" s="98"/>
+      <c r="G39" s="102"/>
+      <c r="H39" s="102"/>
+      <c r="I39" s="102"/>
+      <c r="J39" s="98"/>
+      <c r="K39" s="102"/>
+      <c r="L39" s="102"/>
+      <c r="M39" s="102"/>
+      <c r="N39" s="102"/>
+      <c r="O39" s="102"/>
+      <c r="P39" s="102"/>
+      <c r="Q39" s="102"/>
+      <c r="R39" s="102"/>
+      <c r="S39" s="102"/>
+      <c r="T39" s="137" t="s">
         <v>670</v>
       </c>
-      <c r="U38" s="137"/>
-      <c r="V38" s="137"/>
-      <c r="W38" s="137"/>
-      <c r="X38" s="137"/>
-      <c r="Y38" s="137"/>
-      <c r="Z38" s="137"/>
-    </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="162" t="s">
+      <c r="U39" s="137"/>
+      <c r="V39" s="137"/>
+      <c r="W39" s="137"/>
+      <c r="X39" s="137"/>
+      <c r="Y39" s="137"/>
+      <c r="Z39" s="137"/>
+    </row>
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="162" t="s">
         <v>671</v>
       </c>
-      <c r="B39" s="165" t="s">
+      <c r="B40" s="165" t="s">
         <v>672</v>
       </c>
-      <c r="C39" s="165" t="s">
+      <c r="C40" s="165" t="s">
         <v>673</v>
       </c>
-      <c r="D39" s="163"/>
-      <c r="E39" s="163"/>
-      <c r="F39" s="163"/>
-      <c r="G39" s="162" t="n">
+      <c r="D40" s="163"/>
+      <c r="E40" s="163"/>
+      <c r="F40" s="163"/>
+      <c r="G40" s="162" t="n">
         <v>10</v>
       </c>
-      <c r="H39" s="162" t="n">
+      <c r="H40" s="162" t="n">
         <v>70</v>
       </c>
-      <c r="I39" s="162" t="n">
+      <c r="I40" s="162" t="n">
         <v>10</v>
       </c>
-      <c r="J39" s="163" t="s">
+      <c r="J40" s="163" t="s">
         <v>181</v>
       </c>
-      <c r="K39" s="162" t="n">
+      <c r="K40" s="162" t="n">
         <v>10</v>
       </c>
-      <c r="L39" s="162" t="s">
+      <c r="L40" s="162" t="s">
         <v>128</v>
       </c>
-      <c r="M39" s="162"/>
-      <c r="N39" s="162"/>
-      <c r="O39" s="162"/>
-      <c r="P39" s="162" t="n">
+      <c r="M40" s="162"/>
+      <c r="N40" s="162"/>
+      <c r="O40" s="162"/>
+      <c r="P40" s="162" t="n">
         <v>10</v>
       </c>
-      <c r="Q39" s="162" t="n">
+      <c r="Q40" s="162" t="n">
         <v>80</v>
       </c>
-      <c r="R39" s="162" t="n">
+      <c r="R40" s="162" t="n">
         <v>3</v>
       </c>
-      <c r="S39" s="162" t="s">
-        <v>129</v>
-      </c>
-      <c r="T39" s="168" t="s">
+      <c r="S40" s="162" t="s">
+        <v>129</v>
+      </c>
+      <c r="T40" s="168" t="s">
         <v>674</v>
       </c>
-      <c r="U39" s="168"/>
-      <c r="V39" s="168"/>
-      <c r="W39" s="168"/>
-      <c r="X39" s="168"/>
-      <c r="Y39" s="168"/>
-      <c r="Z39" s="168"/>
-    </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="102" t="s">
+      <c r="U40" s="168"/>
+      <c r="V40" s="168"/>
+      <c r="W40" s="168"/>
+      <c r="X40" s="168"/>
+      <c r="Y40" s="168"/>
+      <c r="Z40" s="168"/>
+    </row>
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="102" t="s">
         <v>675</v>
       </c>
-      <c r="B40" s="98"/>
-      <c r="C40" s="136" t="s">
+      <c r="B41" s="98"/>
+      <c r="C41" s="136" t="s">
         <v>676</v>
       </c>
-      <c r="D40" s="98" t="s">
+      <c r="D41" s="98" t="s">
         <v>135</v>
       </c>
-      <c r="E40" s="98"/>
-      <c r="F40" s="98" t="s">
+      <c r="E41" s="98"/>
+      <c r="F41" s="98" t="s">
         <v>215</v>
       </c>
-      <c r="G40" s="102"/>
-      <c r="H40" s="102"/>
-      <c r="I40" s="102"/>
-      <c r="J40" s="98"/>
-      <c r="K40" s="102"/>
-      <c r="L40" s="102"/>
-      <c r="M40" s="102"/>
-      <c r="N40" s="102"/>
-      <c r="O40" s="102"/>
-      <c r="P40" s="102"/>
-      <c r="Q40" s="102"/>
-      <c r="R40" s="102"/>
-      <c r="S40" s="102"/>
-      <c r="T40" s="167" t="s">
+      <c r="G41" s="102"/>
+      <c r="H41" s="102"/>
+      <c r="I41" s="102"/>
+      <c r="J41" s="98"/>
+      <c r="K41" s="102"/>
+      <c r="L41" s="102"/>
+      <c r="M41" s="102"/>
+      <c r="N41" s="102"/>
+      <c r="O41" s="102"/>
+      <c r="P41" s="102"/>
+      <c r="Q41" s="102"/>
+      <c r="R41" s="102"/>
+      <c r="S41" s="102"/>
+      <c r="T41" s="167" t="s">
         <v>677</v>
       </c>
-      <c r="U40" s="167"/>
-      <c r="V40" s="167"/>
-      <c r="W40" s="167"/>
-      <c r="X40" s="167"/>
-      <c r="Y40" s="167"/>
-      <c r="Z40" s="167"/>
-    </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="162" t="s">
+      <c r="U41" s="167"/>
+      <c r="V41" s="167"/>
+      <c r="W41" s="167"/>
+      <c r="X41" s="167"/>
+      <c r="Y41" s="167"/>
+      <c r="Z41" s="167"/>
+    </row>
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="162" t="s">
         <v>678</v>
       </c>
-      <c r="B41" s="163" t="s">
+      <c r="B42" s="163" t="s">
         <v>299</v>
       </c>
-      <c r="C41" s="179" t="s">
+      <c r="C42" s="179" t="s">
         <v>679</v>
       </c>
-      <c r="D41" s="163" t="s">
+      <c r="D42" s="163" t="s">
         <v>159</v>
       </c>
-      <c r="E41" s="163"/>
-      <c r="F41" s="162" t="n">
+      <c r="E42" s="163"/>
+      <c r="F42" s="162" t="n">
         <v>15</v>
       </c>
-      <c r="G41" s="162"/>
-      <c r="H41" s="162"/>
-      <c r="I41" s="162"/>
-      <c r="J41" s="163"/>
-      <c r="K41" s="162"/>
-      <c r="L41" s="162"/>
-      <c r="M41" s="162"/>
-      <c r="N41" s="162"/>
-      <c r="O41" s="177" t="s">
+      <c r="G42" s="162"/>
+      <c r="H42" s="162"/>
+      <c r="I42" s="162"/>
+      <c r="J42" s="163"/>
+      <c r="K42" s="162"/>
+      <c r="L42" s="162"/>
+      <c r="M42" s="162"/>
+      <c r="N42" s="162"/>
+      <c r="O42" s="177" t="s">
         <v>680</v>
       </c>
-      <c r="P41" s="162"/>
-      <c r="Q41" s="162"/>
-      <c r="R41" s="162"/>
-      <c r="S41" s="162"/>
-      <c r="T41" s="180" t="s">
+      <c r="P42" s="162"/>
+      <c r="Q42" s="162"/>
+      <c r="R42" s="162"/>
+      <c r="S42" s="162"/>
+      <c r="T42" s="180" t="s">
         <v>681</v>
       </c>
-      <c r="U41" s="180"/>
-      <c r="V41" s="180"/>
-      <c r="W41" s="180"/>
-      <c r="X41" s="180"/>
-      <c r="Y41" s="180"/>
-      <c r="Z41" s="180"/>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="102" t="s">
+      <c r="U42" s="180"/>
+      <c r="V42" s="180"/>
+      <c r="W42" s="180"/>
+      <c r="X42" s="180"/>
+      <c r="Y42" s="180"/>
+      <c r="Z42" s="180"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="102" t="s">
         <v>682</v>
       </c>
-      <c r="B42" s="98"/>
-      <c r="C42" s="136" t="s">
+      <c r="B43" s="98"/>
+      <c r="C43" s="136" t="s">
         <v>683</v>
       </c>
-      <c r="D42" s="98"/>
-      <c r="E42" s="98"/>
-      <c r="F42" s="102"/>
-      <c r="G42" s="102" t="n">
+      <c r="D43" s="98"/>
+      <c r="E43" s="98"/>
+      <c r="F43" s="102"/>
+      <c r="G43" s="102" t="n">
         <v>4</v>
       </c>
-      <c r="H42" s="102" t="n">
+      <c r="H43" s="102" t="n">
         <v>90</v>
       </c>
-      <c r="I42" s="102" t="n">
+      <c r="I43" s="102" t="n">
         <v>3</v>
       </c>
-      <c r="J42" s="98" t="s">
+      <c r="J43" s="98" t="s">
         <v>127</v>
       </c>
-      <c r="K42" s="102" t="n">
+      <c r="K43" s="102" t="n">
         <v>7</v>
       </c>
-      <c r="L42" s="102" t="s">
+      <c r="L43" s="102" t="s">
         <v>128</v>
       </c>
-      <c r="M42" s="102"/>
-      <c r="N42" s="102"/>
-      <c r="O42" s="102"/>
-      <c r="P42" s="102" t="n">
+      <c r="M43" s="102"/>
+      <c r="N43" s="102"/>
+      <c r="O43" s="102"/>
+      <c r="P43" s="102" t="n">
         <v>9</v>
       </c>
-      <c r="Q42" s="102" t="n">
-        <v>0</v>
-      </c>
-      <c r="R42" s="102" t="n">
+      <c r="Q43" s="102" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" s="102" t="n">
         <v>3</v>
       </c>
-      <c r="S42" s="102" t="s">
-        <v>129</v>
-      </c>
-      <c r="T42" s="132"/>
-      <c r="U42" s="132"/>
-      <c r="V42" s="132"/>
-      <c r="W42" s="132"/>
-      <c r="X42" s="132"/>
-      <c r="Y42" s="132"/>
-      <c r="Z42" s="132"/>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="162" t="s">
+      <c r="S43" s="102" t="s">
+        <v>129</v>
+      </c>
+      <c r="T43" s="132"/>
+      <c r="U43" s="132"/>
+      <c r="V43" s="132"/>
+      <c r="W43" s="132"/>
+      <c r="X43" s="132"/>
+      <c r="Y43" s="132"/>
+      <c r="Z43" s="132"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="162" t="s">
         <v>684</v>
       </c>
-      <c r="B43" s="163"/>
-      <c r="C43" s="162" t="s">
+      <c r="B44" s="163"/>
+      <c r="C44" s="162" t="s">
         <v>685</v>
       </c>
-      <c r="D43" s="163"/>
-      <c r="E43" s="163"/>
-      <c r="F43" s="162"/>
-      <c r="G43" s="162" t="n">
+      <c r="D44" s="163"/>
+      <c r="E44" s="163"/>
+      <c r="F44" s="162"/>
+      <c r="G44" s="162" t="n">
         <v>4</v>
       </c>
-      <c r="H43" s="162" t="n">
+      <c r="H44" s="162" t="n">
         <v>90</v>
       </c>
-      <c r="I43" s="162" t="n">
+      <c r="I44" s="162" t="n">
         <v>3</v>
       </c>
-      <c r="J43" s="163" t="s">
+      <c r="J44" s="163" t="s">
         <v>216</v>
       </c>
-      <c r="K43" s="162" t="n">
+      <c r="K44" s="162" t="n">
         <v>7</v>
       </c>
-      <c r="L43" s="162" t="s">
+      <c r="L44" s="162" t="s">
         <v>128</v>
       </c>
-      <c r="M43" s="162"/>
-      <c r="N43" s="162"/>
-      <c r="O43" s="162"/>
-      <c r="P43" s="162" t="n">
+      <c r="M44" s="162"/>
+      <c r="N44" s="162"/>
+      <c r="O44" s="162"/>
+      <c r="P44" s="162" t="n">
         <v>9</v>
       </c>
-      <c r="Q43" s="162" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" s="162" t="n">
+      <c r="Q44" s="162" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" s="162" t="n">
         <v>3</v>
       </c>
-      <c r="S43" s="162" t="s">
-        <v>129</v>
-      </c>
-      <c r="T43" s="164" t="s">
+      <c r="S44" s="162" t="s">
+        <v>129</v>
+      </c>
+      <c r="T44" s="164" t="s">
         <v>686</v>
       </c>
-      <c r="U43" s="164"/>
-      <c r="V43" s="164"/>
-      <c r="W43" s="164"/>
-      <c r="X43" s="164"/>
-      <c r="Y43" s="164"/>
-      <c r="Z43" s="164"/>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="102"/>
-      <c r="B44" s="102"/>
-      <c r="C44" s="102"/>
-      <c r="D44" s="102"/>
-      <c r="E44" s="102"/>
-      <c r="F44" s="102"/>
-      <c r="G44" s="102"/>
-      <c r="H44" s="102"/>
-      <c r="I44" s="102"/>
-      <c r="J44" s="102"/>
-      <c r="K44" s="102"/>
-      <c r="L44" s="102"/>
-      <c r="M44" s="102"/>
-      <c r="N44" s="102"/>
-      <c r="O44" s="102"/>
-      <c r="P44" s="102"/>
-      <c r="Q44" s="102"/>
-      <c r="R44" s="102"/>
-      <c r="S44" s="102"/>
-      <c r="T44" s="102"/>
-      <c r="U44" s="102"/>
-      <c r="V44" s="102"/>
-      <c r="W44" s="102"/>
-      <c r="X44" s="102"/>
-      <c r="Y44" s="102"/>
-    </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="162"/>
-      <c r="K45" s="162"/>
-      <c r="L45" s="162"/>
-      <c r="M45" s="162"/>
-      <c r="N45" s="162"/>
-      <c r="O45" s="174"/>
-      <c r="P45" s="162"/>
-      <c r="Q45" s="162"/>
-      <c r="R45" s="162"/>
-      <c r="S45" s="162"/>
-      <c r="T45" s="162"/>
-      <c r="U45" s="162"/>
-      <c r="V45" s="162"/>
-      <c r="W45" s="162"/>
-      <c r="X45" s="162"/>
-      <c r="Y45" s="162"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="T63" s="102"/>
-      <c r="U63" s="102"/>
-      <c r="V63" s="102"/>
-      <c r="W63" s="132"/>
-      <c r="X63" s="132"/>
-      <c r="Y63" s="132"/>
-      <c r="Z63" s="132"/>
-      <c r="AA63" s="132"/>
-      <c r="AB63" s="132"/>
-      <c r="AC63" s="132"/>
-      <c r="AD63" s="132"/>
-      <c r="AE63" s="132"/>
-      <c r="AF63" s="132"/>
-      <c r="AG63" s="132"/>
-    </row>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="U44" s="164"/>
+      <c r="V44" s="164"/>
+      <c r="W44" s="164"/>
+      <c r="X44" s="164"/>
+      <c r="Y44" s="164"/>
+      <c r="Z44" s="164"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="102"/>
+      <c r="B45" s="102"/>
+      <c r="C45" s="102"/>
+      <c r="D45" s="102"/>
+      <c r="E45" s="102"/>
+      <c r="F45" s="102"/>
+      <c r="G45" s="102"/>
+      <c r="H45" s="102"/>
+      <c r="I45" s="102"/>
+      <c r="J45" s="102"/>
+      <c r="K45" s="102"/>
+      <c r="L45" s="102"/>
+      <c r="M45" s="102"/>
+      <c r="N45" s="102"/>
+      <c r="O45" s="102"/>
+      <c r="P45" s="102"/>
+      <c r="Q45" s="102"/>
+      <c r="R45" s="102"/>
+      <c r="S45" s="102"/>
+      <c r="T45" s="102"/>
+      <c r="U45" s="102"/>
+      <c r="V45" s="102"/>
+      <c r="W45" s="102"/>
+      <c r="X45" s="102"/>
+      <c r="Y45" s="102"/>
+    </row>
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="162"/>
+      <c r="K46" s="162"/>
+      <c r="L46" s="162"/>
+      <c r="M46" s="162"/>
+      <c r="N46" s="162"/>
+      <c r="O46" s="174"/>
+      <c r="P46" s="162"/>
+      <c r="Q46" s="162"/>
+      <c r="R46" s="162"/>
+      <c r="S46" s="162"/>
+      <c r="T46" s="162"/>
+      <c r="U46" s="162"/>
+      <c r="V46" s="162"/>
+      <c r="W46" s="162"/>
+      <c r="X46" s="162"/>
+      <c r="Y46" s="162"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T64" s="102"/>
+      <c r="U64" s="102"/>
+      <c r="V64" s="102"/>
+      <c r="W64" s="132"/>
+      <c r="X64" s="132"/>
+      <c r="Y64" s="132"/>
+      <c r="Z64" s="132"/>
+      <c r="AA64" s="132"/>
+      <c r="AB64" s="132"/>
+      <c r="AC64" s="132"/>
+      <c r="AD64" s="132"/>
+      <c r="AE64" s="132"/>
+      <c r="AF64" s="132"/>
+      <c r="AG64" s="132"/>
+    </row>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="43">
+  <mergeCells count="44">
     <mergeCell ref="T2:Z2"/>
     <mergeCell ref="T3:Z3"/>
     <mergeCell ref="T4:Z4"/>
@@ -43051,7 +43112,8 @@
     <mergeCell ref="T41:Z41"/>
     <mergeCell ref="T42:Z42"/>
     <mergeCell ref="T43:Z43"/>
-    <mergeCell ref="W63:AG63"/>
+    <mergeCell ref="T44:Z44"/>
+    <mergeCell ref="W64:AG64"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -43070,7 +43132,7 @@
   </sheetPr>
   <dimension ref="A1:AA1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
@@ -43078,7 +43140,7 @@
       <selection pane="bottomRight" activeCell="K34" activeCellId="0" sqref="K34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.58984375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.14"/>
@@ -45516,15 +45578,15 @@
   </sheetPr>
   <dimension ref="A1:AC41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O3" activeCellId="0" sqref="O3"/>
+      <selection pane="bottomRight" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.86"/>
@@ -48106,7 +48168,7 @@
   </sheetPr>
   <dimension ref="A1:Z33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -48114,7 +48176,7 @@
       <selection pane="bottomRight" activeCell="J37" activeCellId="0" sqref="J37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.29"/>

--- a/input/Rivals of Aether Academy Frame Data - Updated for 2.0.7.0.xlsx
+++ b/input/Rivals of Aether Academy Frame Data - Updated for 2.0.7.0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="1" state="visible" r:id="rId2"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6751" uniqueCount="1740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6753" uniqueCount="1740">
   <si>
     <r>
       <rPr>
@@ -4681,6 +4681,9 @@
     <t xml:space="preserve">Down Tilt Hit 1 (Sour)</t>
   </si>
   <si>
+    <t xml:space="preserve">10-11</t>
+  </si>
+  <si>
     <t xml:space="preserve">4 frames of extra hitpause on opponent.</t>
   </si>
   <si>
@@ -4988,9 +4991,6 @@
   </si>
   <si>
     <t xml:space="preserve">Fair Hit 2 (Late)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10-11</t>
   </si>
   <si>
     <t xml:space="preserve">28 (37 if grounded)</t>
@@ -5998,7 +5998,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="394">
+  <cellXfs count="393">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -7323,10 +7323,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="17" fillId="18" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="169" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -7658,7 +7654,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.58984375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="3.14"/>
@@ -8802,14 +8798,14 @@
   <dimension ref="A1:AB44"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H33" activeCellId="0" sqref="H33"/>
+      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="B29" activeCellId="0" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.57"/>
@@ -11557,7 +11553,7 @@
       <selection pane="topRight" activeCell="H53" activeCellId="0" sqref="H53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.98"/>
@@ -14617,7 +14613,7 @@
       <selection pane="bottomRight" activeCell="H50" activeCellId="0" sqref="H50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.57"/>
@@ -17603,7 +17599,7 @@
       <selection pane="bottomRight" activeCell="H57" activeCellId="0" sqref="H57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.43"/>
@@ -21638,10 +21634,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D17" activeCellId="0" sqref="D17"/>
+      <selection pane="bottomRight" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.58984375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.71"/>
@@ -22463,8 +22459,8 @@
       <c r="B15" s="203" t="s">
         <v>161</v>
       </c>
-      <c r="C15" s="331" t="n">
-        <v>43414</v>
+      <c r="C15" s="331" t="s">
+        <v>1464</v>
       </c>
       <c r="D15" s="203" t="s">
         <v>464</v>
@@ -22510,7 +22506,7 @@
         <v>129</v>
       </c>
       <c r="T15" s="204" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="U15" s="204"/>
       <c r="V15" s="204"/>
@@ -22522,11 +22518,11 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="102" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="B16" s="98"/>
-      <c r="C16" s="332" t="n">
-        <v>43414</v>
+      <c r="C16" s="331" t="s">
+        <v>1464</v>
       </c>
       <c r="D16" s="98"/>
       <c r="E16" s="98"/>
@@ -22567,7 +22563,7 @@
         <v>129</v>
       </c>
       <c r="T16" s="132" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="U16" s="132"/>
       <c r="V16" s="132"/>
@@ -22579,7 +22575,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="209" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="B17" s="203"/>
       <c r="C17" s="209" t="s">
@@ -22632,7 +22628,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="102" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="B18" s="98"/>
       <c r="C18" s="102" t="s">
@@ -22685,13 +22681,13 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="209" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="B19" s="203" t="s">
         <v>464</v>
       </c>
       <c r="C19" s="203" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D19" s="203" t="s">
         <v>183</v>
@@ -22749,11 +22745,11 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="102" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="B20" s="98"/>
       <c r="C20" s="98" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="D20" s="98"/>
       <c r="E20" s="98"/>
@@ -22804,13 +22800,13 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="209" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="B21" s="203" t="s">
         <v>170</v>
       </c>
       <c r="C21" s="203" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="D21" s="203" t="n">
         <f aca="false">E21/3*2</f>
@@ -22835,7 +22831,7 @@
       <c r="J21" s="203" t="s">
         <v>216</v>
       </c>
-      <c r="K21" s="333" t="n">
+      <c r="K21" s="332" t="n">
         <v>43862</v>
       </c>
       <c r="L21" s="209" t="s">
@@ -22856,24 +22852,24 @@
       <c r="S21" s="209" t="s">
         <v>129</v>
       </c>
-      <c r="T21" s="334" t="s">
+      <c r="T21" s="333" t="s">
         <v>640</v>
       </c>
-      <c r="U21" s="334"/>
-      <c r="V21" s="334"/>
-      <c r="W21" s="334"/>
-      <c r="X21" s="334"/>
-      <c r="Y21" s="334"/>
-      <c r="Z21" s="334"/>
-      <c r="AA21" s="334"/>
+      <c r="U21" s="333"/>
+      <c r="V21" s="333"/>
+      <c r="W21" s="333"/>
+      <c r="X21" s="333"/>
+      <c r="Y21" s="333"/>
+      <c r="Z21" s="333"/>
+      <c r="AA21" s="333"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="102" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="B22" s="98"/>
       <c r="C22" s="98" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="D22" s="136"/>
       <c r="E22" s="136"/>
@@ -22890,7 +22886,7 @@
       <c r="J22" s="98" t="s">
         <v>308</v>
       </c>
-      <c r="K22" s="335" t="n">
+      <c r="K22" s="334" t="n">
         <v>43987</v>
       </c>
       <c r="L22" s="102" t="s">
@@ -22924,11 +22920,11 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="209" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B23" s="203"/>
       <c r="C23" s="203" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="D23" s="203"/>
       <c r="E23" s="203"/>
@@ -22966,16 +22962,16 @@
       <c r="S23" s="209" t="s">
         <v>129</v>
       </c>
-      <c r="T23" s="334" t="s">
+      <c r="T23" s="333" t="s">
         <v>640</v>
       </c>
-      <c r="U23" s="334"/>
-      <c r="V23" s="334"/>
-      <c r="W23" s="334"/>
-      <c r="X23" s="334"/>
-      <c r="Y23" s="334"/>
-      <c r="Z23" s="334"/>
-      <c r="AA23" s="334"/>
+      <c r="U23" s="333"/>
+      <c r="V23" s="333"/>
+      <c r="W23" s="333"/>
+      <c r="X23" s="333"/>
+      <c r="Y23" s="333"/>
+      <c r="Z23" s="333"/>
+      <c r="AA23" s="333"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="102" t="s">
@@ -23050,7 +23046,7 @@
         <v>192</v>
       </c>
       <c r="C25" s="98" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="D25" s="98" t="n">
         <f aca="false">E25/3*2</f>
@@ -23164,12 +23160,12 @@
       <c r="S26" s="209" t="s">
         <v>129</v>
       </c>
-      <c r="T26" s="334"/>
-      <c r="U26" s="334"/>
-      <c r="V26" s="334"/>
-      <c r="W26" s="334"/>
-      <c r="X26" s="334"/>
-      <c r="Y26" s="334"/>
+      <c r="T26" s="333"/>
+      <c r="U26" s="333"/>
+      <c r="V26" s="333"/>
+      <c r="W26" s="333"/>
+      <c r="X26" s="333"/>
+      <c r="Y26" s="333"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="102" t="s">
@@ -23224,7 +23220,7 @@
     </row>
     <row r="28" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="209" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="B28" s="203" t="s">
         <v>183</v>
@@ -23280,7 +23276,7 @@
         <v>129</v>
       </c>
       <c r="T28" s="330" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="U28" s="330"/>
       <c r="V28" s="330"/>
@@ -23290,7 +23286,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="102" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="B29" s="98"/>
       <c r="C29" s="98" t="s">
@@ -23343,7 +23339,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="209" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="B30" s="203"/>
       <c r="C30" s="203" t="s">
@@ -23385,18 +23381,18 @@
       <c r="S30" s="209" t="s">
         <v>129</v>
       </c>
-      <c r="T30" s="334" t="s">
+      <c r="T30" s="333" t="s">
         <v>640</v>
       </c>
-      <c r="U30" s="334"/>
-      <c r="V30" s="334"/>
-      <c r="W30" s="334"/>
-      <c r="X30" s="334"/>
-      <c r="Y30" s="334"/>
+      <c r="U30" s="333"/>
+      <c r="V30" s="333"/>
+      <c r="W30" s="333"/>
+      <c r="X30" s="333"/>
+      <c r="Y30" s="333"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="102" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="B31" s="98"/>
       <c r="C31" s="98" t="s">
@@ -23449,7 +23445,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="209" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="B32" s="203"/>
       <c r="C32" s="203" t="s">
@@ -23502,7 +23498,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="102" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="B33" s="98"/>
       <c r="C33" s="98" t="s">
@@ -23555,17 +23551,17 @@
     </row>
     <row r="34" customFormat="false" ht="109.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="209" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="B34" s="203"/>
       <c r="C34" s="202" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="D34" s="203" t="s">
         <v>314</v>
       </c>
       <c r="E34" s="202" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="F34" s="203"/>
       <c r="G34" s="209"/>
@@ -23582,7 +23578,7 @@
       <c r="R34" s="209"/>
       <c r="S34" s="209"/>
       <c r="T34" s="330" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="U34" s="330"/>
       <c r="V34" s="330"/>
@@ -23626,7 +23622,7 @@
         <v>2</v>
       </c>
       <c r="L35" s="102" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="M35" s="102" t="n">
         <v>8</v>
@@ -23698,18 +23694,18 @@
       <c r="S36" s="209" t="s">
         <v>129</v>
       </c>
-      <c r="T36" s="334" t="s">
+      <c r="T36" s="333" t="s">
         <v>723</v>
       </c>
-      <c r="U36" s="334"/>
-      <c r="V36" s="334"/>
-      <c r="W36" s="334"/>
-      <c r="X36" s="334"/>
-      <c r="Y36" s="334"/>
+      <c r="U36" s="333"/>
+      <c r="V36" s="333"/>
+      <c r="W36" s="333"/>
+      <c r="X36" s="333"/>
+      <c r="Y36" s="333"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="102" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="B37" s="98" t="s">
         <v>192</v>
@@ -23766,7 +23762,7 @@
         <v>129</v>
       </c>
       <c r="T37" s="167" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="U37" s="167"/>
       <c r="V37" s="167"/>
@@ -23776,11 +23772,11 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="209" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="B38" s="203"/>
       <c r="C38" s="203" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="G38" s="209" t="n">
         <v>7</v>
@@ -23815,16 +23811,16 @@
       <c r="S38" s="209" t="s">
         <v>129</v>
       </c>
-      <c r="T38" s="334"/>
-      <c r="U38" s="334"/>
-      <c r="V38" s="334"/>
-      <c r="W38" s="334"/>
-      <c r="X38" s="334"/>
-      <c r="Y38" s="334"/>
+      <c r="T38" s="333"/>
+      <c r="U38" s="333"/>
+      <c r="V38" s="333"/>
+      <c r="W38" s="333"/>
+      <c r="X38" s="333"/>
+      <c r="Y38" s="333"/>
     </row>
     <row r="39" customFormat="false" ht="25.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="102" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="B39" s="98" t="s">
         <v>161</v>
@@ -23860,7 +23856,7 @@
       <c r="M39" s="102"/>
       <c r="N39" s="102"/>
       <c r="O39" s="102" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="P39" s="102" t="n">
         <v>6</v>
@@ -23875,7 +23871,7 @@
         <v>129</v>
       </c>
       <c r="T39" s="167" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="U39" s="167"/>
       <c r="V39" s="167"/>
@@ -23887,13 +23883,13 @@
     </row>
     <row r="40" customFormat="false" ht="14.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="209" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="B40" s="203" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="C40" s="203" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="D40" s="203"/>
       <c r="E40" s="203"/>
@@ -23932,7 +23928,7 @@
         <v>129</v>
       </c>
       <c r="T40" s="212" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="U40" s="212"/>
       <c r="V40" s="212"/>
@@ -23944,11 +23940,11 @@
     </row>
     <row r="41" customFormat="false" ht="89.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="102" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="B41" s="98"/>
       <c r="C41" s="136" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="D41" s="98"/>
       <c r="E41" s="98"/>
@@ -23967,7 +23963,7 @@
       <c r="R41" s="102"/>
       <c r="S41" s="102"/>
       <c r="T41" s="137" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="U41" s="137"/>
       <c r="V41" s="137"/>
@@ -23982,17 +23978,17 @@
         <v>387</v>
       </c>
       <c r="B42" s="203" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="C42" s="202" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="D42" s="202" t="s">
         <v>148</v>
       </c>
       <c r="E42" s="202"/>
       <c r="F42" s="202" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="G42" s="209" t="n">
         <v>8</v>
@@ -24028,7 +24024,7 @@
         <v>275</v>
       </c>
       <c r="T42" s="330" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="U42" s="330"/>
       <c r="V42" s="330"/>
@@ -24040,20 +24036,20 @@
     </row>
     <row r="43" customFormat="false" ht="49.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="102" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="B43" s="98" t="s">
         <v>192</v>
       </c>
       <c r="C43" s="98" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="D43" s="98" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="E43" s="98"/>
       <c r="F43" s="136" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="G43" s="102" t="n">
         <v>2</v>
@@ -24101,7 +24097,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="209" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="B44" s="203"/>
       <c r="C44" s="203" t="s">
@@ -24156,7 +24152,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="102" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="B45" s="98"/>
       <c r="C45" s="98" t="s">
@@ -24211,11 +24207,11 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="209" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="B46" s="203"/>
       <c r="C46" s="203" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="D46" s="203"/>
       <c r="E46" s="203"/>
@@ -24266,11 +24262,11 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="102" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="B47" s="98"/>
       <c r="C47" s="98" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="D47" s="98"/>
       <c r="E47" s="98"/>
@@ -24321,11 +24317,11 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="209" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="B48" s="203"/>
       <c r="C48" s="203" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="D48" s="203"/>
       <c r="E48" s="203"/>
@@ -24364,7 +24360,7 @@
         <v>275</v>
       </c>
       <c r="T48" s="204" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="U48" s="204"/>
       <c r="V48" s="204"/>
@@ -24376,13 +24372,13 @@
     </row>
     <row r="49" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="102" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="B49" s="136" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C49" s="98" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="D49" s="98" t="n">
         <f aca="false">13-6</f>
@@ -24390,7 +24386,7 @@
       </c>
       <c r="E49" s="98"/>
       <c r="F49" s="136" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="G49" s="102" t="n">
         <v>5</v>
@@ -24426,7 +24422,7 @@
         <v>129</v>
       </c>
       <c r="T49" s="167" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="U49" s="167"/>
       <c r="V49" s="167"/>
@@ -24438,11 +24434,11 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="209" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="B50" s="203"/>
       <c r="C50" s="203" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="D50" s="203" t="n">
         <f aca="false">13-6</f>
@@ -24450,7 +24446,7 @@
       </c>
       <c r="E50" s="203"/>
       <c r="F50" s="203" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="G50" s="209" t="n">
         <v>5</v>
@@ -24496,13 +24492,13 @@
     </row>
     <row r="51" customFormat="false" ht="25.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="102" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="B51" s="98" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="C51" s="98" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="D51" s="98" t="n">
         <f aca="false">45-17</f>
@@ -24527,7 +24523,7 @@
       <c r="R51" s="102"/>
       <c r="S51" s="102"/>
       <c r="T51" s="167" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="U51" s="167"/>
       <c r="V51" s="167"/>
@@ -24539,11 +24535,11 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="209" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="B52" s="203"/>
       <c r="C52" s="203" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="D52" s="203" t="n">
         <f aca="false">37-17</f>
@@ -24577,13 +24573,13 @@
     </row>
     <row r="53" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="102" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="B53" s="136" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="C53" s="98" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="D53" s="98" t="s">
         <v>148</v>
@@ -24638,11 +24634,11 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="209" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="B54" s="203"/>
       <c r="C54" s="203" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="D54" s="203"/>
       <c r="E54" s="203"/>
@@ -24680,24 +24676,24 @@
       <c r="S54" s="209" t="s">
         <v>129</v>
       </c>
-      <c r="T54" s="334"/>
-      <c r="U54" s="334"/>
-      <c r="V54" s="334"/>
-      <c r="W54" s="334"/>
-      <c r="X54" s="334"/>
-      <c r="Y54" s="334"/>
-      <c r="Z54" s="334"/>
-      <c r="AA54" s="334"/>
+      <c r="T54" s="333"/>
+      <c r="U54" s="333"/>
+      <c r="V54" s="333"/>
+      <c r="W54" s="333"/>
+      <c r="X54" s="333"/>
+      <c r="Y54" s="333"/>
+      <c r="Z54" s="333"/>
+      <c r="AA54" s="333"/>
     </row>
     <row r="55" customFormat="false" ht="49.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="102" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="B55" s="136" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="C55" s="136" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="D55" s="102" t="n">
         <v>19</v>
@@ -24727,7 +24723,7 @@
       <c r="M55" s="102"/>
       <c r="N55" s="102"/>
       <c r="O55" s="173" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="P55" s="102" t="n">
         <v>4</v>
@@ -24742,7 +24738,7 @@
         <v>275</v>
       </c>
       <c r="T55" s="167" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="U55" s="167"/>
       <c r="V55" s="167"/>
@@ -24772,18 +24768,18 @@
       <c r="Q56" s="209"/>
       <c r="R56" s="209"/>
       <c r="S56" s="209"/>
-      <c r="T56" s="334"/>
-      <c r="U56" s="334"/>
-      <c r="V56" s="334"/>
-      <c r="W56" s="334"/>
-      <c r="X56" s="334"/>
-      <c r="Y56" s="334"/>
-      <c r="Z56" s="334"/>
-      <c r="AA56" s="334"/>
+      <c r="T56" s="333"/>
+      <c r="U56" s="333"/>
+      <c r="V56" s="333"/>
+      <c r="W56" s="333"/>
+      <c r="X56" s="333"/>
+      <c r="Y56" s="333"/>
+      <c r="Z56" s="333"/>
+      <c r="AA56" s="333"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="102" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="K57" s="136"/>
       <c r="L57" s="173"/>
@@ -24794,15 +24790,15 @@
       <c r="Q57" s="102"/>
       <c r="R57" s="102"/>
       <c r="S57" s="175"/>
-      <c r="T57" s="336" t="s">
-        <v>1543</v>
-      </c>
-      <c r="U57" s="336"/>
-      <c r="V57" s="336"/>
-      <c r="W57" s="336"/>
-      <c r="X57" s="336"/>
-      <c r="Y57" s="336"/>
-      <c r="Z57" s="336"/>
+      <c r="T57" s="335" t="s">
+        <v>1544</v>
+      </c>
+      <c r="U57" s="335"/>
+      <c r="V57" s="335"/>
+      <c r="W57" s="335"/>
+      <c r="X57" s="335"/>
+      <c r="Y57" s="335"/>
+      <c r="Z57" s="335"/>
     </row>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -24892,7 +24888,7 @@
       <selection pane="bottomRight" activeCell="L35" activeCellId="0" sqref="L35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="40.14"/>
@@ -24909,8 +24905,8 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="337" t="s">
-        <v>1544</v>
+      <c r="A1" s="336" t="s">
+        <v>1545</v>
       </c>
       <c r="B1" s="159"/>
       <c r="C1" s="159"/>
@@ -24918,21 +24914,21 @@
       <c r="E1" s="159"/>
       <c r="F1" s="159"/>
       <c r="G1" s="159"/>
-      <c r="H1" s="338"/>
-      <c r="I1" s="338"/>
-      <c r="J1" s="338"/>
-      <c r="K1" s="338"/>
-      <c r="L1" s="338"/>
-      <c r="M1" s="338"/>
-      <c r="N1" s="338"/>
-      <c r="O1" s="338"/>
-      <c r="P1" s="338"/>
-      <c r="Q1" s="338"/>
-      <c r="R1" s="338"/>
-      <c r="S1" s="338"/>
-      <c r="T1" s="338"/>
-      <c r="U1" s="338"/>
-      <c r="V1" s="338"/>
+      <c r="H1" s="337"/>
+      <c r="I1" s="337"/>
+      <c r="J1" s="337"/>
+      <c r="K1" s="337"/>
+      <c r="L1" s="337"/>
+      <c r="M1" s="337"/>
+      <c r="N1" s="337"/>
+      <c r="O1" s="337"/>
+      <c r="P1" s="337"/>
+      <c r="Q1" s="337"/>
+      <c r="R1" s="337"/>
+      <c r="S1" s="337"/>
+      <c r="T1" s="337"/>
+      <c r="U1" s="337"/>
+      <c r="V1" s="337"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="160" t="s">
@@ -24977,7 +24973,7 @@
       <c r="N2" s="160" t="s">
         <v>119</v>
       </c>
-      <c r="O2" s="339" t="s">
+      <c r="O2" s="338" t="s">
         <v>55</v>
       </c>
       <c r="P2" s="88" t="s">
@@ -25002,62 +24998,62 @@
       <c r="Y2" s="217"/>
     </row>
     <row r="3" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="340" t="s">
+      <c r="A3" s="339" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="340" t="s">
+      <c r="B3" s="339" t="s">
         <v>299</v>
       </c>
-      <c r="C3" s="340" t="s">
+      <c r="C3" s="339" t="s">
         <v>578</v>
       </c>
-      <c r="D3" s="341" t="s">
+      <c r="D3" s="340" t="s">
         <v>950</v>
       </c>
-      <c r="F3" s="340" t="s">
+      <c r="F3" s="339" t="s">
         <v>155</v>
       </c>
-      <c r="G3" s="340" t="s">
+      <c r="G3" s="339" t="s">
         <v>297</v>
       </c>
-      <c r="H3" s="340" t="s">
+      <c r="H3" s="339" t="s">
         <v>298</v>
       </c>
-      <c r="I3" s="340" t="s">
+      <c r="I3" s="339" t="s">
         <v>299</v>
       </c>
-      <c r="J3" s="340" t="s">
+      <c r="J3" s="339" t="s">
         <v>127</v>
       </c>
-      <c r="K3" s="340" t="s">
+      <c r="K3" s="339" t="s">
         <v>312</v>
       </c>
-      <c r="L3" s="340" t="s">
+      <c r="L3" s="339" t="s">
         <v>128</v>
       </c>
-      <c r="M3" s="340"/>
-      <c r="N3" s="340"/>
-      <c r="O3" s="340"/>
-      <c r="P3" s="340" t="s">
+      <c r="M3" s="339"/>
+      <c r="N3" s="339"/>
+      <c r="O3" s="339"/>
+      <c r="P3" s="339" t="s">
         <v>299</v>
       </c>
-      <c r="Q3" s="340" t="s">
+      <c r="Q3" s="339" t="s">
         <v>127</v>
       </c>
-      <c r="R3" s="340" t="s">
+      <c r="R3" s="339" t="s">
         <v>138</v>
       </c>
-      <c r="S3" s="340" t="s">
-        <v>129</v>
-      </c>
-      <c r="T3" s="342" t="s">
+      <c r="S3" s="339" t="s">
+        <v>129</v>
+      </c>
+      <c r="T3" s="341" t="s">
         <v>419</v>
       </c>
-      <c r="U3" s="342"/>
-      <c r="V3" s="342"/>
-      <c r="W3" s="342"/>
-      <c r="X3" s="342"/>
-      <c r="Y3" s="342"/>
+      <c r="U3" s="341"/>
+      <c r="V3" s="341"/>
+      <c r="W3" s="341"/>
+      <c r="X3" s="341"/>
+      <c r="Y3" s="341"/>
     </row>
     <row r="4" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="97" t="s">
@@ -25073,7 +25069,7 @@
         <v>691</v>
       </c>
       <c r="F4" s="97" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="G4" s="97" t="s">
         <v>168</v>
@@ -25116,61 +25112,61 @@
       <c r="Y4" s="101"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="340" t="s">
+      <c r="A5" s="339" t="s">
         <v>424</v>
       </c>
-      <c r="B5" s="340" t="s">
+      <c r="B5" s="339" t="s">
         <v>791</v>
       </c>
-      <c r="C5" s="340" t="s">
+      <c r="C5" s="339" t="s">
         <v>792</v>
       </c>
-      <c r="D5" s="340" t="n">
+      <c r="D5" s="339" t="n">
         <f aca="false">25-8</f>
         <v>17</v>
       </c>
-      <c r="F5" s="340" t="s">
-        <v>1546</v>
-      </c>
-      <c r="G5" s="340" t="s">
+      <c r="F5" s="339" t="s">
+        <v>1547</v>
+      </c>
+      <c r="G5" s="339" t="s">
         <v>138</v>
       </c>
-      <c r="H5" s="340" t="s">
+      <c r="H5" s="339" t="s">
         <v>444</v>
       </c>
-      <c r="I5" s="340" t="s">
+      <c r="I5" s="339" t="s">
         <v>161</v>
       </c>
-      <c r="J5" s="340" t="s">
+      <c r="J5" s="339" t="s">
         <v>235</v>
       </c>
-      <c r="K5" s="340" t="s">
+      <c r="K5" s="339" t="s">
         <v>297</v>
       </c>
-      <c r="L5" s="340" t="s">
+      <c r="L5" s="339" t="s">
         <v>128</v>
       </c>
-      <c r="M5" s="340"/>
-      <c r="N5" s="340"/>
-      <c r="O5" s="340"/>
-      <c r="P5" s="340" t="s">
+      <c r="M5" s="339"/>
+      <c r="N5" s="339"/>
+      <c r="O5" s="339"/>
+      <c r="P5" s="339" t="s">
         <v>159</v>
       </c>
-      <c r="Q5" s="340" t="s">
+      <c r="Q5" s="339" t="s">
         <v>183</v>
       </c>
-      <c r="R5" s="340" t="s">
+      <c r="R5" s="339" t="s">
         <v>138</v>
       </c>
-      <c r="S5" s="340" t="s">
-        <v>129</v>
-      </c>
-      <c r="T5" s="342"/>
-      <c r="U5" s="342"/>
-      <c r="V5" s="342"/>
-      <c r="W5" s="342"/>
-      <c r="X5" s="342"/>
-      <c r="Y5" s="342"/>
+      <c r="S5" s="339" t="s">
+        <v>129</v>
+      </c>
+      <c r="T5" s="341"/>
+      <c r="U5" s="341"/>
+      <c r="V5" s="341"/>
+      <c r="W5" s="341"/>
+      <c r="X5" s="341"/>
+      <c r="Y5" s="341"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="97" t="s">
@@ -25180,10 +25176,10 @@
         <v>138</v>
       </c>
       <c r="C6" s="97" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="D6" s="97" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="E6" s="97" t="n">
         <f aca="false">42-19</f>
@@ -25233,66 +25229,66 @@
       <c r="Y6" s="101"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="340" t="s">
-        <v>1549</v>
-      </c>
-      <c r="B7" s="340" t="s">
+      <c r="A7" s="339" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B7" s="339" t="s">
         <v>138</v>
       </c>
-      <c r="C7" s="340" t="s">
-        <v>1547</v>
-      </c>
-      <c r="D7" s="340" t="s">
+      <c r="C7" s="339" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D7" s="339" t="s">
         <v>297</v>
       </c>
-      <c r="E7" s="340" t="n">
+      <c r="E7" s="339" t="n">
         <f aca="false">27-19</f>
         <v>8</v>
       </c>
-      <c r="F7" s="340" t="s">
+      <c r="F7" s="339" t="s">
         <v>289</v>
       </c>
-      <c r="G7" s="340" t="s">
+      <c r="G7" s="339" t="s">
         <v>138</v>
       </c>
-      <c r="H7" s="340" t="s">
+      <c r="H7" s="339" t="s">
         <v>354</v>
       </c>
-      <c r="I7" s="340" t="s">
+      <c r="I7" s="339" t="s">
         <v>145</v>
       </c>
-      <c r="J7" s="340" t="s">
+      <c r="J7" s="339" t="s">
         <v>317</v>
       </c>
-      <c r="K7" s="340" t="s">
+      <c r="K7" s="339" t="s">
         <v>312</v>
       </c>
-      <c r="L7" s="340" t="s">
+      <c r="L7" s="339" t="s">
         <v>221</v>
       </c>
-      <c r="M7" s="340"/>
-      <c r="N7" s="340"/>
-      <c r="O7" s="340"/>
-      <c r="P7" s="340" t="s">
+      <c r="M7" s="339"/>
+      <c r="N7" s="339"/>
+      <c r="O7" s="339"/>
+      <c r="P7" s="339" t="s">
         <v>168</v>
       </c>
-      <c r="Q7" s="340" t="s">
+      <c r="Q7" s="339" t="s">
         <v>127</v>
       </c>
-      <c r="R7" s="340" t="s">
+      <c r="R7" s="339" t="s">
         <v>127</v>
       </c>
-      <c r="S7" s="340" t="s">
-        <v>129</v>
-      </c>
-      <c r="T7" s="343" t="s">
-        <v>1550</v>
-      </c>
-      <c r="U7" s="343"/>
-      <c r="V7" s="343"/>
-      <c r="W7" s="343"/>
-      <c r="X7" s="343"/>
-      <c r="Y7" s="343"/>
+      <c r="S7" s="339" t="s">
+        <v>129</v>
+      </c>
+      <c r="T7" s="342" t="s">
+        <v>1551</v>
+      </c>
+      <c r="U7" s="342"/>
+      <c r="V7" s="342"/>
+      <c r="W7" s="342"/>
+      <c r="X7" s="342"/>
+      <c r="Y7" s="342"/>
     </row>
     <row r="8" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="97" t="s">
@@ -25305,7 +25301,7 @@
         <v>699</v>
       </c>
       <c r="E8" s="109" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="F8" s="97" t="s">
         <v>321</v>
@@ -25351,63 +25347,63 @@
       <c r="Y8" s="101"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="340" t="s">
+      <c r="A9" s="339" t="s">
         <v>441</v>
       </c>
-      <c r="B9" s="340"/>
-      <c r="C9" s="340" t="s">
-        <v>1552</v>
-      </c>
-      <c r="D9" s="340" t="s">
+      <c r="B9" s="339"/>
+      <c r="C9" s="339" t="s">
         <v>1553</v>
       </c>
-      <c r="E9" s="340"/>
-      <c r="F9" s="340"/>
-      <c r="G9" s="340" t="s">
+      <c r="D9" s="339" t="s">
+        <v>1554</v>
+      </c>
+      <c r="E9" s="339"/>
+      <c r="F9" s="339"/>
+      <c r="G9" s="339" t="s">
         <v>297</v>
       </c>
-      <c r="H9" s="340" t="s">
+      <c r="H9" s="339" t="s">
         <v>181</v>
       </c>
-      <c r="I9" s="340" t="s">
+      <c r="I9" s="339" t="s">
         <v>161</v>
       </c>
-      <c r="J9" s="340" t="s">
+      <c r="J9" s="339" t="s">
         <v>317</v>
       </c>
-      <c r="K9" s="340" t="s">
+      <c r="K9" s="339" t="s">
         <v>312</v>
       </c>
-      <c r="L9" s="340" t="s">
+      <c r="L9" s="339" t="s">
         <v>128</v>
       </c>
-      <c r="M9" s="340"/>
-      <c r="N9" s="340"/>
-      <c r="O9" s="340"/>
-      <c r="P9" s="340" t="s">
+      <c r="M9" s="339"/>
+      <c r="N9" s="339"/>
+      <c r="O9" s="339"/>
+      <c r="P9" s="339" t="s">
         <v>192</v>
       </c>
-      <c r="Q9" s="340" t="s">
+      <c r="Q9" s="339" t="s">
         <v>323</v>
       </c>
-      <c r="R9" s="340" t="s">
+      <c r="R9" s="339" t="s">
         <v>127</v>
       </c>
-      <c r="S9" s="340" t="s">
-        <v>129</v>
-      </c>
-      <c r="T9" s="342" t="s">
-        <v>1554</v>
-      </c>
-      <c r="U9" s="342"/>
-      <c r="V9" s="342"/>
-      <c r="W9" s="342"/>
-      <c r="X9" s="342"/>
-      <c r="Y9" s="342"/>
+      <c r="S9" s="339" t="s">
+        <v>129</v>
+      </c>
+      <c r="T9" s="341" t="s">
+        <v>1555</v>
+      </c>
+      <c r="U9" s="341"/>
+      <c r="V9" s="341"/>
+      <c r="W9" s="341"/>
+      <c r="X9" s="341"/>
+      <c r="Y9" s="341"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="97" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="B10" s="97" t="s">
         <v>464</v>
@@ -25416,7 +25412,7 @@
         <v>1158</v>
       </c>
       <c r="D10" s="97" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="E10" s="97" t="s">
         <v>147</v>
@@ -25458,7 +25454,7 @@
         <v>129</v>
       </c>
       <c r="T10" s="101" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="U10" s="101"/>
       <c r="V10" s="101"/>
@@ -25467,59 +25463,59 @@
       <c r="Y10" s="101"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="340" t="s">
+      <c r="A11" s="339" t="s">
         <v>1156</v>
       </c>
-      <c r="B11" s="340"/>
-      <c r="C11" s="340" t="s">
+      <c r="B11" s="339"/>
+      <c r="C11" s="339" t="s">
         <v>1158</v>
       </c>
-      <c r="D11" s="340"/>
-      <c r="E11" s="340"/>
-      <c r="F11" s="340"/>
-      <c r="G11" s="340" t="s">
+      <c r="D11" s="339"/>
+      <c r="E11" s="339"/>
+      <c r="F11" s="339"/>
+      <c r="G11" s="339" t="s">
         <v>192</v>
       </c>
-      <c r="H11" s="340" t="s">
+      <c r="H11" s="339" t="s">
         <v>298</v>
       </c>
-      <c r="I11" s="340" t="s">
+      <c r="I11" s="339" t="s">
         <v>192</v>
       </c>
-      <c r="J11" s="340" t="s">
+      <c r="J11" s="339" t="s">
         <v>216</v>
       </c>
-      <c r="K11" s="340" t="s">
+      <c r="K11" s="339" t="s">
         <v>312</v>
       </c>
-      <c r="L11" s="340" t="s">
+      <c r="L11" s="339" t="s">
         <v>473</v>
       </c>
-      <c r="M11" s="340"/>
-      <c r="N11" s="340"/>
-      <c r="O11" s="340"/>
-      <c r="P11" s="340" t="s">
+      <c r="M11" s="339"/>
+      <c r="N11" s="339"/>
+      <c r="O11" s="339"/>
+      <c r="P11" s="339" t="s">
         <v>192</v>
       </c>
-      <c r="Q11" s="340" t="s">
+      <c r="Q11" s="339" t="s">
         <v>181</v>
       </c>
-      <c r="R11" s="340" t="s">
+      <c r="R11" s="339" t="s">
         <v>127</v>
       </c>
-      <c r="S11" s="340" t="s">
-        <v>129</v>
-      </c>
-      <c r="T11" s="342"/>
-      <c r="U11" s="342"/>
-      <c r="V11" s="342"/>
-      <c r="W11" s="342"/>
-      <c r="X11" s="342"/>
-      <c r="Y11" s="342"/>
+      <c r="S11" s="339" t="s">
+        <v>129</v>
+      </c>
+      <c r="T11" s="341"/>
+      <c r="U11" s="341"/>
+      <c r="V11" s="341"/>
+      <c r="W11" s="341"/>
+      <c r="X11" s="341"/>
+      <c r="Y11" s="341"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="97" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="B12" s="97"/>
       <c r="C12" s="97" t="s">
@@ -25569,130 +25565,130 @@
       <c r="Y12" s="101"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="340" t="s">
+      <c r="A13" s="339" t="s">
         <v>167</v>
       </c>
-      <c r="B13" s="340" t="s">
+      <c r="B13" s="339" t="s">
         <v>138</v>
       </c>
-      <c r="C13" s="340" t="s">
+      <c r="C13" s="339" t="s">
         <v>139</v>
       </c>
-      <c r="D13" s="340" t="s">
-        <v>1559</v>
-      </c>
-      <c r="E13" s="340" t="s">
+      <c r="D13" s="339" t="s">
+        <v>1560</v>
+      </c>
+      <c r="E13" s="339" t="s">
         <v>304</v>
       </c>
-      <c r="F13" s="340" t="s">
+      <c r="F13" s="339" t="s">
         <v>366</v>
       </c>
-      <c r="G13" s="340" t="s">
+      <c r="G13" s="339" t="s">
         <v>145</v>
       </c>
-      <c r="H13" s="340" t="s">
+      <c r="H13" s="339" t="s">
         <v>327</v>
       </c>
-      <c r="I13" s="340" t="s">
+      <c r="I13" s="339" t="s">
         <v>138</v>
       </c>
-      <c r="J13" s="340" t="s">
+      <c r="J13" s="339" t="s">
         <v>317</v>
       </c>
-      <c r="K13" s="340" t="s">
+      <c r="K13" s="339" t="s">
         <v>314</v>
       </c>
-      <c r="L13" s="340" t="s">
+      <c r="L13" s="339" t="s">
         <v>128</v>
       </c>
-      <c r="M13" s="340"/>
-      <c r="N13" s="340"/>
-      <c r="O13" s="340"/>
-      <c r="P13" s="340" t="s">
+      <c r="M13" s="339"/>
+      <c r="N13" s="339"/>
+      <c r="O13" s="339"/>
+      <c r="P13" s="339" t="s">
         <v>145</v>
       </c>
-      <c r="Q13" s="340" t="s">
+      <c r="Q13" s="339" t="s">
         <v>155</v>
       </c>
-      <c r="R13" s="340" t="s">
+      <c r="R13" s="339" t="s">
         <v>138</v>
       </c>
-      <c r="S13" s="340" t="s">
-        <v>129</v>
-      </c>
-      <c r="T13" s="342" t="s">
-        <v>1560</v>
-      </c>
-      <c r="U13" s="342"/>
-      <c r="V13" s="342"/>
-      <c r="W13" s="342"/>
-      <c r="X13" s="342"/>
-      <c r="Y13" s="342"/>
+      <c r="S13" s="339" t="s">
+        <v>129</v>
+      </c>
+      <c r="T13" s="341" t="s">
+        <v>1561</v>
+      </c>
+      <c r="U13" s="341"/>
+      <c r="V13" s="341"/>
+      <c r="W13" s="341"/>
+      <c r="X13" s="341"/>
+      <c r="Y13" s="341"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="340" t="s">
+      <c r="A14" s="339" t="s">
         <v>814</v>
       </c>
-      <c r="B14" s="340" t="s">
+      <c r="B14" s="339" t="s">
         <v>299</v>
       </c>
-      <c r="C14" s="340" t="s">
+      <c r="C14" s="339" t="s">
         <v>892</v>
       </c>
-      <c r="D14" s="340" t="s">
+      <c r="D14" s="339" t="s">
         <v>159</v>
       </c>
-      <c r="E14" s="340" t="s">
+      <c r="E14" s="339" t="s">
         <v>183</v>
       </c>
-      <c r="F14" s="340" t="s">
+      <c r="F14" s="339" t="s">
         <v>140</v>
       </c>
-      <c r="G14" s="344" t="n">
+      <c r="G14" s="343" t="n">
         <v>4</v>
       </c>
-      <c r="H14" s="344" t="n">
+      <c r="H14" s="343" t="n">
         <v>30</v>
       </c>
-      <c r="I14" s="344" t="n">
+      <c r="I14" s="343" t="n">
         <v>7</v>
       </c>
-      <c r="J14" s="344" t="n">
+      <c r="J14" s="343" t="n">
         <v>20</v>
       </c>
-      <c r="K14" s="344" t="n">
+      <c r="K14" s="343" t="n">
         <v>2</v>
       </c>
-      <c r="L14" s="344" t="s">
+      <c r="L14" s="343" t="s">
         <v>251</v>
       </c>
-      <c r="M14" s="345" t="s">
+      <c r="M14" s="344" t="s">
         <v>299</v>
       </c>
       <c r="N14" s="163" t="s">
         <v>138</v>
       </c>
       <c r="O14" s="163"/>
-      <c r="P14" s="344" t="n">
+      <c r="P14" s="343" t="n">
         <v>6</v>
       </c>
-      <c r="Q14" s="340" t="s">
+      <c r="Q14" s="339" t="s">
         <v>323</v>
       </c>
-      <c r="R14" s="340" t="s">
+      <c r="R14" s="339" t="s">
         <v>138</v>
       </c>
-      <c r="S14" s="344" t="s">
-        <v>129</v>
-      </c>
-      <c r="T14" s="342"/>
-      <c r="U14" s="342"/>
-      <c r="V14" s="342"/>
-      <c r="W14" s="342"/>
+      <c r="S14" s="343" t="s">
+        <v>129</v>
+      </c>
+      <c r="T14" s="341"/>
+      <c r="U14" s="341"/>
+      <c r="V14" s="341"/>
+      <c r="W14" s="341"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="97" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="B15" s="97"/>
       <c r="C15" s="97" t="s">
@@ -25741,7 +25737,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="97" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="B16" s="97"/>
       <c r="C16" s="97" t="s">
@@ -25789,71 +25785,71 @@
       <c r="W16" s="101"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="340" t="s">
-        <v>1563</v>
-      </c>
-      <c r="B17" s="340" t="s">
+      <c r="A17" s="339" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B17" s="339" t="s">
         <v>192</v>
       </c>
-      <c r="C17" s="340" t="s">
+      <c r="C17" s="339" t="s">
         <v>320</v>
       </c>
-      <c r="D17" s="340" t="n">
+      <c r="D17" s="339" t="n">
         <f aca="false">E17/3*2</f>
         <v>10</v>
       </c>
-      <c r="E17" s="340" t="n">
+      <c r="E17" s="339" t="n">
         <f aca="false">30-15</f>
         <v>15</v>
       </c>
-      <c r="F17" s="340" t="s">
+      <c r="F17" s="339" t="s">
         <v>148</v>
       </c>
-      <c r="G17" s="340" t="s">
+      <c r="G17" s="339" t="s">
         <v>145</v>
       </c>
-      <c r="H17" s="340" t="s">
+      <c r="H17" s="339" t="s">
         <v>235</v>
       </c>
-      <c r="I17" s="340" t="s">
+      <c r="I17" s="339" t="s">
         <v>145</v>
       </c>
-      <c r="J17" s="340" t="s">
+      <c r="J17" s="339" t="s">
         <v>235</v>
       </c>
-      <c r="K17" s="340" t="s">
+      <c r="K17" s="339" t="s">
         <v>138</v>
       </c>
-      <c r="L17" s="340" t="s">
+      <c r="L17" s="339" t="s">
         <v>221</v>
       </c>
-      <c r="M17" s="345" t="s">
+      <c r="M17" s="344" t="s">
         <v>299</v>
       </c>
       <c r="N17" s="163" t="s">
         <v>138</v>
       </c>
       <c r="O17" s="163"/>
-      <c r="P17" s="340" t="s">
+      <c r="P17" s="339" t="s">
         <v>138</v>
       </c>
-      <c r="Q17" s="340" t="s">
+      <c r="Q17" s="339" t="s">
         <v>183</v>
       </c>
-      <c r="R17" s="340" t="s">
+      <c r="R17" s="339" t="s">
         <v>138</v>
       </c>
-      <c r="S17" s="340" t="s">
-        <v>129</v>
-      </c>
-      <c r="T17" s="342"/>
-      <c r="U17" s="342"/>
-      <c r="V17" s="342"/>
-      <c r="W17" s="342"/>
+      <c r="S17" s="339" t="s">
+        <v>129</v>
+      </c>
+      <c r="T17" s="341"/>
+      <c r="U17" s="341"/>
+      <c r="V17" s="341"/>
+      <c r="W17" s="341"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="97" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="B18" s="97"/>
       <c r="C18" s="97" t="s">
@@ -25901,53 +25897,53 @@
       <c r="W18" s="101"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="340" t="s">
-        <v>1565</v>
-      </c>
-      <c r="B19" s="340"/>
-      <c r="C19" s="340" t="s">
+      <c r="A19" s="339" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B19" s="339"/>
+      <c r="C19" s="339" t="s">
         <v>326</v>
       </c>
-      <c r="D19" s="340"/>
-      <c r="E19" s="340"/>
-      <c r="F19" s="340"/>
-      <c r="G19" s="340" t="s">
+      <c r="D19" s="339"/>
+      <c r="E19" s="339"/>
+      <c r="F19" s="339"/>
+      <c r="G19" s="339" t="s">
         <v>168</v>
       </c>
-      <c r="H19" s="340" t="s">
+      <c r="H19" s="339" t="s">
         <v>298</v>
       </c>
-      <c r="I19" s="340" t="s">
+      <c r="I19" s="339" t="s">
         <v>168</v>
       </c>
-      <c r="J19" s="340" t="s">
+      <c r="J19" s="339" t="s">
         <v>317</v>
       </c>
-      <c r="K19" s="340" t="s">
+      <c r="K19" s="339" t="s">
         <v>314</v>
       </c>
-      <c r="L19" s="340" t="s">
+      <c r="L19" s="339" t="s">
         <v>221</v>
       </c>
-      <c r="M19" s="345"/>
+      <c r="M19" s="344"/>
       <c r="N19" s="163"/>
       <c r="O19" s="163"/>
-      <c r="P19" s="340" t="s">
+      <c r="P19" s="339" t="s">
         <v>168</v>
       </c>
-      <c r="Q19" s="340" t="s">
+      <c r="Q19" s="339" t="s">
         <v>317</v>
       </c>
-      <c r="R19" s="340" t="s">
+      <c r="R19" s="339" t="s">
         <v>138</v>
       </c>
-      <c r="S19" s="340" t="s">
-        <v>129</v>
-      </c>
-      <c r="T19" s="342"/>
-      <c r="U19" s="342"/>
-      <c r="V19" s="342"/>
-      <c r="W19" s="342"/>
+      <c r="S19" s="339" t="s">
+        <v>129</v>
+      </c>
+      <c r="T19" s="341"/>
+      <c r="U19" s="341"/>
+      <c r="V19" s="341"/>
+      <c r="W19" s="341"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="97" t="s">
@@ -26012,53 +26008,53 @@
       <c r="W20" s="101"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="340" t="s">
+      <c r="A21" s="339" t="s">
         <v>904</v>
       </c>
-      <c r="B21" s="340"/>
-      <c r="C21" s="340" t="s">
+      <c r="B21" s="339"/>
+      <c r="C21" s="339" t="s">
         <v>820</v>
       </c>
-      <c r="D21" s="340"/>
-      <c r="E21" s="340"/>
-      <c r="F21" s="340"/>
-      <c r="G21" s="340" t="s">
+      <c r="D21" s="339"/>
+      <c r="E21" s="339"/>
+      <c r="F21" s="339"/>
+      <c r="G21" s="339" t="s">
         <v>168</v>
       </c>
-      <c r="H21" s="340" t="s">
+      <c r="H21" s="339" t="s">
         <v>476</v>
       </c>
-      <c r="I21" s="340" t="s">
+      <c r="I21" s="339" t="s">
         <v>168</v>
       </c>
-      <c r="J21" s="340" t="s">
+      <c r="J21" s="339" t="s">
         <v>235</v>
       </c>
-      <c r="K21" s="340" t="s">
+      <c r="K21" s="339" t="s">
         <v>312</v>
       </c>
-      <c r="L21" s="340" t="s">
+      <c r="L21" s="339" t="s">
         <v>473</v>
       </c>
-      <c r="M21" s="345"/>
+      <c r="M21" s="344"/>
       <c r="N21" s="163"/>
       <c r="O21" s="163"/>
-      <c r="P21" s="340" t="s">
+      <c r="P21" s="339" t="s">
         <v>138</v>
       </c>
-      <c r="Q21" s="340" t="s">
+      <c r="Q21" s="339" t="s">
         <v>155</v>
       </c>
-      <c r="R21" s="340" t="s">
+      <c r="R21" s="339" t="s">
         <v>138</v>
       </c>
-      <c r="S21" s="340" t="s">
-        <v>129</v>
-      </c>
-      <c r="T21" s="342"/>
-      <c r="U21" s="342"/>
-      <c r="V21" s="342"/>
-      <c r="W21" s="342"/>
+      <c r="S21" s="339" t="s">
+        <v>129</v>
+      </c>
+      <c r="T21" s="341"/>
+      <c r="U21" s="341"/>
+      <c r="V21" s="341"/>
+      <c r="W21" s="341"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="97" t="s">
@@ -26124,53 +26120,53 @@
       <c r="W22" s="101"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="340" t="s">
+      <c r="A23" s="339" t="s">
         <v>642</v>
       </c>
-      <c r="B23" s="340"/>
-      <c r="C23" s="340" t="s">
-        <v>1566</v>
-      </c>
-      <c r="D23" s="340"/>
-      <c r="E23" s="340"/>
-      <c r="F23" s="340"/>
-      <c r="G23" s="340" t="s">
+      <c r="B23" s="339"/>
+      <c r="C23" s="339" t="s">
+        <v>1464</v>
+      </c>
+      <c r="D23" s="339"/>
+      <c r="E23" s="339"/>
+      <c r="F23" s="339"/>
+      <c r="G23" s="339" t="s">
         <v>168</v>
       </c>
-      <c r="H23" s="340" t="s">
+      <c r="H23" s="339" t="s">
         <v>327</v>
       </c>
-      <c r="I23" s="340" t="s">
+      <c r="I23" s="339" t="s">
         <v>138</v>
       </c>
-      <c r="J23" s="340" t="s">
+      <c r="J23" s="339" t="s">
         <v>141</v>
       </c>
-      <c r="K23" s="340" t="s">
+      <c r="K23" s="339" t="s">
         <v>314</v>
       </c>
-      <c r="L23" s="340" t="s">
+      <c r="L23" s="339" t="s">
         <v>217</v>
       </c>
-      <c r="M23" s="345"/>
+      <c r="M23" s="344"/>
       <c r="N23" s="163"/>
       <c r="O23" s="163"/>
-      <c r="P23" s="340" t="s">
+      <c r="P23" s="339" t="s">
         <v>138</v>
       </c>
-      <c r="Q23" s="340" t="s">
+      <c r="Q23" s="339" t="s">
         <v>159</v>
       </c>
-      <c r="R23" s="340" t="s">
+      <c r="R23" s="339" t="s">
         <v>138</v>
       </c>
-      <c r="S23" s="340" t="s">
-        <v>129</v>
-      </c>
-      <c r="T23" s="342"/>
-      <c r="U23" s="342"/>
-      <c r="V23" s="342"/>
-      <c r="W23" s="342"/>
+      <c r="S23" s="339" t="s">
+        <v>129</v>
+      </c>
+      <c r="T23" s="341"/>
+      <c r="U23" s="341"/>
+      <c r="V23" s="341"/>
+      <c r="W23" s="341"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="97" t="s">
@@ -26222,68 +26218,68 @@
       <c r="W24" s="101"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="340" t="s">
+      <c r="A25" s="339" t="s">
         <v>372</v>
       </c>
-      <c r="B25" s="340" t="s">
+      <c r="B25" s="339" t="s">
         <v>192</v>
       </c>
-      <c r="C25" s="340" t="s">
+      <c r="C25" s="339" t="s">
         <v>320</v>
       </c>
-      <c r="D25" s="340" t="s">
+      <c r="D25" s="339" t="s">
         <v>161</v>
       </c>
-      <c r="E25" s="340" t="n">
+      <c r="E25" s="339" t="n">
         <f aca="false">30-15</f>
         <v>15</v>
       </c>
-      <c r="F25" s="340" t="s">
+      <c r="F25" s="339" t="s">
         <v>148</v>
       </c>
-      <c r="G25" s="340" t="s">
+      <c r="G25" s="339" t="s">
         <v>145</v>
       </c>
-      <c r="H25" s="340" t="s">
+      <c r="H25" s="339" t="s">
         <v>298</v>
       </c>
-      <c r="I25" s="340" t="s">
+      <c r="I25" s="339" t="s">
         <v>145</v>
       </c>
-      <c r="J25" s="340" t="s">
+      <c r="J25" s="339" t="s">
         <v>317</v>
       </c>
-      <c r="K25" s="340" t="s">
+      <c r="K25" s="339" t="s">
         <v>314</v>
       </c>
-      <c r="L25" s="340" t="s">
+      <c r="L25" s="339" t="s">
         <v>468</v>
       </c>
-      <c r="M25" s="345" t="s">
+      <c r="M25" s="344" t="s">
         <v>138</v>
       </c>
       <c r="N25" s="163" t="s">
         <v>161</v>
       </c>
       <c r="O25" s="163"/>
-      <c r="P25" s="344" t="n">
+      <c r="P25" s="343" t="n">
         <v>8</v>
       </c>
-      <c r="Q25" s="340" t="s">
+      <c r="Q25" s="339" t="s">
         <v>141</v>
       </c>
-      <c r="R25" s="340" t="s">
+      <c r="R25" s="339" t="s">
         <v>299</v>
       </c>
-      <c r="S25" s="340" t="s">
-        <v>129</v>
-      </c>
-      <c r="T25" s="342" t="s">
+      <c r="S25" s="339" t="s">
+        <v>129</v>
+      </c>
+      <c r="T25" s="341" t="s">
         <v>707</v>
       </c>
-      <c r="U25" s="342"/>
-      <c r="V25" s="342"/>
-      <c r="W25" s="342"/>
+      <c r="U25" s="341"/>
+      <c r="V25" s="341"/>
+      <c r="W25" s="341"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="97" t="s">
@@ -26335,63 +26331,63 @@
       <c r="W26" s="101"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="340" t="s">
+      <c r="A27" s="339" t="s">
         <v>1157</v>
       </c>
-      <c r="B27" s="340" t="s">
+      <c r="B27" s="339" t="s">
         <v>214</v>
       </c>
-      <c r="C27" s="344" t="s">
+      <c r="C27" s="343" t="s">
         <v>731</v>
       </c>
-      <c r="D27" s="340" t="s">
+      <c r="D27" s="339" t="s">
         <v>1567</v>
       </c>
-      <c r="E27" s="340" t="s">
+      <c r="E27" s="339" t="s">
         <v>1568</v>
       </c>
-      <c r="F27" s="341" t="s">
+      <c r="F27" s="340" t="s">
         <v>1569</v>
       </c>
-      <c r="G27" s="344" t="n">
+      <c r="G27" s="343" t="n">
         <v>12</v>
       </c>
-      <c r="H27" s="344" t="n">
+      <c r="H27" s="343" t="n">
         <v>45</v>
       </c>
-      <c r="I27" s="340" t="s">
+      <c r="I27" s="339" t="s">
         <v>192</v>
       </c>
-      <c r="J27" s="340" t="s">
+      <c r="J27" s="339" t="s">
         <v>190</v>
       </c>
-      <c r="K27" s="340" t="s">
+      <c r="K27" s="339" t="s">
         <v>168</v>
       </c>
-      <c r="L27" s="340" t="s">
+      <c r="L27" s="339" t="s">
         <v>128</v>
       </c>
-      <c r="M27" s="340"/>
-      <c r="N27" s="340"/>
-      <c r="O27" s="340"/>
-      <c r="P27" s="340" t="s">
+      <c r="M27" s="339"/>
+      <c r="N27" s="339"/>
+      <c r="O27" s="339"/>
+      <c r="P27" s="339" t="s">
         <v>159</v>
       </c>
-      <c r="Q27" s="340" t="s">
+      <c r="Q27" s="339" t="s">
         <v>327</v>
       </c>
-      <c r="R27" s="340" t="s">
+      <c r="R27" s="339" t="s">
         <v>127</v>
       </c>
-      <c r="S27" s="340" t="s">
-        <v>129</v>
-      </c>
-      <c r="T27" s="343" t="s">
+      <c r="S27" s="339" t="s">
+        <v>129</v>
+      </c>
+      <c r="T27" s="342" t="s">
         <v>1570</v>
       </c>
-      <c r="U27" s="343"/>
-      <c r="V27" s="343"/>
-      <c r="W27" s="343"/>
+      <c r="U27" s="342"/>
+      <c r="V27" s="342"/>
+      <c r="W27" s="342"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="97" t="s">
@@ -26443,63 +26439,63 @@
       <c r="W28" s="101"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="340" t="s">
+      <c r="A29" s="339" t="s">
         <v>1162</v>
       </c>
-      <c r="B29" s="340" t="s">
+      <c r="B29" s="339" t="s">
         <v>229</v>
       </c>
-      <c r="C29" s="340" t="s">
+      <c r="C29" s="339" t="s">
         <v>638</v>
       </c>
-      <c r="D29" s="340" t="s">
+      <c r="D29" s="339" t="s">
         <v>1567</v>
       </c>
-      <c r="E29" s="340" t="s">
+      <c r="E29" s="339" t="s">
         <v>1568</v>
       </c>
-      <c r="F29" s="341" t="s">
+      <c r="F29" s="340" t="s">
         <v>1571</v>
       </c>
-      <c r="G29" s="340" t="s">
+      <c r="G29" s="339" t="s">
         <v>159</v>
       </c>
-      <c r="H29" s="340" t="s">
+      <c r="H29" s="339" t="s">
         <v>341</v>
       </c>
-      <c r="I29" s="344" t="n">
+      <c r="I29" s="343" t="n">
         <v>7</v>
       </c>
-      <c r="J29" s="340" t="s">
+      <c r="J29" s="339" t="s">
         <v>458</v>
       </c>
-      <c r="K29" s="340" t="s">
+      <c r="K29" s="339" t="s">
         <v>168</v>
       </c>
-      <c r="L29" s="340" t="s">
+      <c r="L29" s="339" t="s">
         <v>128</v>
       </c>
-      <c r="M29" s="340"/>
-      <c r="N29" s="340"/>
-      <c r="O29" s="340"/>
-      <c r="P29" s="340" t="s">
+      <c r="M29" s="339"/>
+      <c r="N29" s="339"/>
+      <c r="O29" s="339"/>
+      <c r="P29" s="339" t="s">
         <v>159</v>
       </c>
-      <c r="Q29" s="340" t="s">
+      <c r="Q29" s="339" t="s">
         <v>327</v>
       </c>
-      <c r="R29" s="340" t="s">
+      <c r="R29" s="339" t="s">
         <v>138</v>
       </c>
-      <c r="S29" s="340" t="s">
-        <v>129</v>
-      </c>
-      <c r="T29" s="343" t="s">
+      <c r="S29" s="339" t="s">
+        <v>129</v>
+      </c>
+      <c r="T29" s="342" t="s">
         <v>1572</v>
       </c>
-      <c r="U29" s="343"/>
-      <c r="V29" s="343"/>
-      <c r="W29" s="343"/>
+      <c r="U29" s="342"/>
+      <c r="V29" s="342"/>
+      <c r="W29" s="342"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="97" t="s">
@@ -26551,63 +26547,63 @@
       <c r="W30" s="101"/>
     </row>
     <row r="31" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="340" t="s">
+      <c r="A31" s="339" t="s">
         <v>724</v>
       </c>
-      <c r="B31" s="340" t="s">
+      <c r="B31" s="339" t="s">
         <v>173</v>
       </c>
-      <c r="C31" s="340" t="s">
+      <c r="C31" s="339" t="s">
         <v>1574</v>
       </c>
-      <c r="D31" s="340" t="s">
+      <c r="D31" s="339" t="s">
         <v>173</v>
       </c>
-      <c r="E31" s="340" t="s">
+      <c r="E31" s="339" t="s">
         <v>1575</v>
       </c>
-      <c r="F31" s="341" t="s">
+      <c r="F31" s="340" t="s">
         <v>1576</v>
       </c>
-      <c r="G31" s="340" t="s">
+      <c r="G31" s="339" t="s">
         <v>192</v>
       </c>
-      <c r="H31" s="340" t="s">
+      <c r="H31" s="339" t="s">
         <v>541</v>
       </c>
-      <c r="I31" s="340" t="s">
+      <c r="I31" s="339" t="s">
         <v>138</v>
       </c>
-      <c r="J31" s="340" t="s">
+      <c r="J31" s="339" t="s">
         <v>235</v>
       </c>
-      <c r="K31" s="340" t="s">
+      <c r="K31" s="339" t="s">
         <v>314</v>
       </c>
-      <c r="L31" s="340" t="s">
+      <c r="L31" s="339" t="s">
         <v>128</v>
       </c>
-      <c r="M31" s="340"/>
-      <c r="N31" s="340"/>
-      <c r="O31" s="340"/>
-      <c r="P31" s="340" t="s">
+      <c r="M31" s="339"/>
+      <c r="N31" s="339"/>
+      <c r="O31" s="339"/>
+      <c r="P31" s="339" t="s">
         <v>145</v>
       </c>
-      <c r="Q31" s="340" t="s">
+      <c r="Q31" s="339" t="s">
         <v>141</v>
       </c>
-      <c r="R31" s="340" t="s">
+      <c r="R31" s="339" t="s">
         <v>138</v>
       </c>
-      <c r="S31" s="340" t="s">
-        <v>129</v>
-      </c>
-      <c r="T31" s="342" t="s">
+      <c r="S31" s="339" t="s">
+        <v>129</v>
+      </c>
+      <c r="T31" s="341" t="s">
         <v>1577</v>
       </c>
-      <c r="U31" s="342"/>
-      <c r="V31" s="342"/>
-      <c r="W31" s="342"/>
+      <c r="U31" s="341"/>
+      <c r="V31" s="341"/>
+      <c r="W31" s="341"/>
     </row>
     <row r="32" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="97" t="s">
@@ -26662,110 +26658,110 @@
       <c r="Y32" s="101"/>
     </row>
     <row r="33" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="340" t="s">
+      <c r="A33" s="339" t="s">
         <v>1581</v>
       </c>
-      <c r="B33" s="340"/>
+      <c r="B33" s="339"/>
       <c r="C33" s="178" t="s">
         <v>1582</v>
       </c>
-      <c r="D33" s="340"/>
-      <c r="E33" s="340"/>
-      <c r="F33" s="340"/>
-      <c r="G33" s="340" t="s">
+      <c r="D33" s="339"/>
+      <c r="E33" s="339"/>
+      <c r="F33" s="339"/>
+      <c r="G33" s="339" t="s">
         <v>314</v>
       </c>
-      <c r="H33" s="340" t="s">
+      <c r="H33" s="339" t="s">
         <v>458</v>
       </c>
-      <c r="I33" s="340" t="s">
+      <c r="I33" s="339" t="s">
         <v>138</v>
       </c>
-      <c r="J33" s="340" t="s">
+      <c r="J33" s="339" t="s">
         <v>159</v>
       </c>
-      <c r="K33" s="340" t="s">
+      <c r="K33" s="339" t="s">
         <v>314</v>
       </c>
-      <c r="L33" s="340" t="s">
+      <c r="L33" s="339" t="s">
         <v>1308</v>
       </c>
-      <c r="M33" s="340"/>
-      <c r="N33" s="340"/>
-      <c r="O33" s="340"/>
-      <c r="P33" s="340" t="s">
+      <c r="M33" s="339"/>
+      <c r="N33" s="339"/>
+      <c r="O33" s="339"/>
+      <c r="P33" s="339" t="s">
         <v>297</v>
       </c>
-      <c r="Q33" s="340" t="s">
+      <c r="Q33" s="339" t="s">
         <v>159</v>
       </c>
-      <c r="R33" s="340" t="s">
+      <c r="R33" s="339" t="s">
         <v>127</v>
       </c>
-      <c r="S33" s="340" t="s">
-        <v>129</v>
-      </c>
-      <c r="T33" s="342" t="s">
+      <c r="S33" s="339" t="s">
+        <v>129</v>
+      </c>
+      <c r="T33" s="341" t="s">
         <v>1580</v>
       </c>
-      <c r="U33" s="342"/>
-      <c r="V33" s="342"/>
-      <c r="W33" s="342"/>
-      <c r="X33" s="342"/>
-      <c r="Y33" s="342"/>
+      <c r="U33" s="341"/>
+      <c r="V33" s="341"/>
+      <c r="W33" s="341"/>
+      <c r="X33" s="341"/>
+      <c r="Y33" s="341"/>
     </row>
     <row r="34" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="340" t="s">
+      <c r="A34" s="339" t="s">
         <v>1581</v>
       </c>
-      <c r="B34" s="340"/>
+      <c r="B34" s="339"/>
       <c r="C34" s="178" t="s">
         <v>1582</v>
       </c>
-      <c r="D34" s="340"/>
-      <c r="E34" s="340"/>
-      <c r="F34" s="340"/>
-      <c r="G34" s="340" t="s">
+      <c r="D34" s="339"/>
+      <c r="E34" s="339"/>
+      <c r="F34" s="339"/>
+      <c r="G34" s="339" t="s">
         <v>314</v>
       </c>
-      <c r="H34" s="340" t="s">
+      <c r="H34" s="339" t="s">
         <v>428</v>
       </c>
-      <c r="I34" s="340" t="s">
+      <c r="I34" s="339" t="s">
         <v>138</v>
       </c>
-      <c r="J34" s="340" t="s">
+      <c r="J34" s="339" t="s">
         <v>159</v>
       </c>
-      <c r="K34" s="340" t="s">
+      <c r="K34" s="339" t="s">
         <v>314</v>
       </c>
-      <c r="L34" s="340" t="s">
+      <c r="L34" s="339" t="s">
         <v>128</v>
       </c>
-      <c r="M34" s="340"/>
-      <c r="N34" s="340"/>
-      <c r="O34" s="340"/>
-      <c r="P34" s="340" t="s">
+      <c r="M34" s="339"/>
+      <c r="N34" s="339"/>
+      <c r="O34" s="339"/>
+      <c r="P34" s="339" t="s">
         <v>297</v>
       </c>
-      <c r="Q34" s="340" t="s">
+      <c r="Q34" s="339" t="s">
         <v>159</v>
       </c>
-      <c r="R34" s="340" t="s">
+      <c r="R34" s="339" t="s">
         <v>127</v>
       </c>
-      <c r="S34" s="340" t="s">
-        <v>129</v>
-      </c>
-      <c r="T34" s="342" t="s">
+      <c r="S34" s="339" t="s">
+        <v>129</v>
+      </c>
+      <c r="T34" s="341" t="s">
         <v>1580</v>
       </c>
-      <c r="U34" s="342"/>
-      <c r="V34" s="342"/>
-      <c r="W34" s="342"/>
-      <c r="X34" s="342"/>
-      <c r="Y34" s="342"/>
+      <c r="U34" s="341"/>
+      <c r="V34" s="341"/>
+      <c r="W34" s="341"/>
+      <c r="X34" s="341"/>
+      <c r="Y34" s="341"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="97" t="s">
@@ -26827,59 +26823,59 @@
       <c r="Y35" s="104"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="340" t="s">
+      <c r="A36" s="339" t="s">
         <v>1587</v>
       </c>
-      <c r="B36" s="340"/>
-      <c r="C36" s="341" t="s">
+      <c r="B36" s="339"/>
+      <c r="C36" s="340" t="s">
         <v>1584</v>
       </c>
-      <c r="D36" s="340"/>
-      <c r="E36" s="340"/>
-      <c r="F36" s="341" t="s">
+      <c r="D36" s="339"/>
+      <c r="E36" s="339"/>
+      <c r="F36" s="340" t="s">
         <v>1588</v>
       </c>
-      <c r="G36" s="340" t="s">
+      <c r="G36" s="339" t="s">
         <v>297</v>
       </c>
-      <c r="H36" s="340" t="s">
+      <c r="H36" s="339" t="s">
         <v>341</v>
       </c>
-      <c r="I36" s="340" t="s">
+      <c r="I36" s="339" t="s">
         <v>299</v>
       </c>
-      <c r="J36" s="340" t="s">
+      <c r="J36" s="339" t="s">
         <v>428</v>
       </c>
-      <c r="K36" s="340" t="s">
+      <c r="K36" s="339" t="s">
         <v>314</v>
       </c>
-      <c r="L36" s="340" t="s">
+      <c r="L36" s="339" t="s">
         <v>1589</v>
       </c>
-      <c r="M36" s="340"/>
-      <c r="N36" s="340"/>
-      <c r="O36" s="340"/>
-      <c r="P36" s="340" t="s">
+      <c r="M36" s="339"/>
+      <c r="N36" s="339"/>
+      <c r="O36" s="339"/>
+      <c r="P36" s="339" t="s">
         <v>297</v>
       </c>
-      <c r="Q36" s="340" t="s">
+      <c r="Q36" s="339" t="s">
         <v>148</v>
       </c>
-      <c r="R36" s="340" t="s">
+      <c r="R36" s="339" t="s">
         <v>127</v>
       </c>
-      <c r="S36" s="340" t="s">
-        <v>129</v>
-      </c>
-      <c r="T36" s="343" t="s">
+      <c r="S36" s="339" t="s">
+        <v>129</v>
+      </c>
+      <c r="T36" s="342" t="s">
         <v>1586</v>
       </c>
-      <c r="U36" s="343"/>
-      <c r="V36" s="343"/>
-      <c r="W36" s="343"/>
-      <c r="X36" s="343"/>
-      <c r="Y36" s="343"/>
+      <c r="U36" s="342"/>
+      <c r="V36" s="342"/>
+      <c r="W36" s="342"/>
+      <c r="X36" s="342"/>
+      <c r="Y36" s="342"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="97" t="s">
@@ -26943,64 +26939,64 @@
       <c r="Y37" s="104"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="340" t="s">
+      <c r="A38" s="339" t="s">
         <v>1594</v>
       </c>
-      <c r="B38" s="340" t="s">
+      <c r="B38" s="339" t="s">
         <v>299</v>
       </c>
-      <c r="C38" s="340" t="s">
+      <c r="C38" s="339" t="s">
         <v>168</v>
       </c>
-      <c r="D38" s="340" t="n">
+      <c r="D38" s="339" t="n">
         <f aca="false">33-14</f>
         <v>19</v>
       </c>
-      <c r="E38" s="340"/>
-      <c r="F38" s="341" t="s">
+      <c r="E38" s="339"/>
+      <c r="F38" s="340" t="s">
         <v>1595</v>
       </c>
-      <c r="G38" s="344" t="n">
+      <c r="G38" s="343" t="n">
         <v>10</v>
       </c>
-      <c r="H38" s="340" t="s">
+      <c r="H38" s="339" t="s">
         <v>171</v>
       </c>
-      <c r="I38" s="340" t="s">
+      <c r="I38" s="339" t="s">
         <v>161</v>
       </c>
-      <c r="J38" s="340" t="s">
+      <c r="J38" s="339" t="s">
         <v>476</v>
       </c>
-      <c r="K38" s="340" t="s">
+      <c r="K38" s="339" t="s">
         <v>314</v>
       </c>
-      <c r="L38" s="340" t="s">
+      <c r="L38" s="339" t="s">
         <v>128</v>
       </c>
-      <c r="M38" s="340"/>
-      <c r="N38" s="340"/>
-      <c r="O38" s="340"/>
-      <c r="P38" s="340" t="s">
+      <c r="M38" s="339"/>
+      <c r="N38" s="339"/>
+      <c r="O38" s="339"/>
+      <c r="P38" s="339" t="s">
         <v>159</v>
       </c>
-      <c r="Q38" s="340" t="s">
+      <c r="Q38" s="339" t="s">
         <v>327</v>
       </c>
-      <c r="R38" s="340" t="s">
+      <c r="R38" s="339" t="s">
         <v>127</v>
       </c>
-      <c r="S38" s="340" t="s">
+      <c r="S38" s="339" t="s">
         <v>275</v>
       </c>
-      <c r="T38" s="343" t="s">
+      <c r="T38" s="342" t="s">
         <v>1596</v>
       </c>
-      <c r="U38" s="343"/>
-      <c r="V38" s="343"/>
-      <c r="W38" s="343"/>
-      <c r="X38" s="343"/>
-      <c r="Y38" s="343"/>
+      <c r="U38" s="342"/>
+      <c r="V38" s="342"/>
+      <c r="W38" s="342"/>
+      <c r="X38" s="342"/>
+      <c r="Y38" s="342"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="97" t="s">
@@ -27054,55 +27050,55 @@
       <c r="Y39" s="101"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="340" t="s">
+      <c r="A40" s="339" t="s">
         <v>1598</v>
       </c>
-      <c r="B40" s="340"/>
-      <c r="C40" s="340" t="s">
+      <c r="B40" s="339"/>
+      <c r="C40" s="339" t="s">
         <v>728</v>
       </c>
-      <c r="D40" s="340"/>
-      <c r="E40" s="340"/>
-      <c r="F40" s="340"/>
-      <c r="G40" s="340" t="s">
+      <c r="D40" s="339"/>
+      <c r="E40" s="339"/>
+      <c r="F40" s="339"/>
+      <c r="G40" s="339" t="s">
         <v>145</v>
       </c>
-      <c r="H40" s="340" t="s">
+      <c r="H40" s="339" t="s">
         <v>341</v>
       </c>
-      <c r="I40" s="340" t="s">
+      <c r="I40" s="339" t="s">
         <v>138</v>
       </c>
-      <c r="J40" s="340" t="s">
+      <c r="J40" s="339" t="s">
         <v>317</v>
       </c>
-      <c r="K40" s="340" t="s">
+      <c r="K40" s="339" t="s">
         <v>314</v>
       </c>
-      <c r="L40" s="340" t="s">
+      <c r="L40" s="339" t="s">
         <v>128</v>
       </c>
-      <c r="M40" s="340"/>
-      <c r="N40" s="340"/>
-      <c r="O40" s="340"/>
-      <c r="P40" s="340" t="s">
+      <c r="M40" s="339"/>
+      <c r="N40" s="339"/>
+      <c r="O40" s="339"/>
+      <c r="P40" s="339" t="s">
         <v>168</v>
       </c>
-      <c r="Q40" s="340" t="s">
+      <c r="Q40" s="339" t="s">
         <v>127</v>
       </c>
-      <c r="R40" s="340" t="s">
+      <c r="R40" s="339" t="s">
         <v>138</v>
       </c>
-      <c r="S40" s="340" t="s">
+      <c r="S40" s="339" t="s">
         <v>275</v>
       </c>
-      <c r="T40" s="342"/>
-      <c r="U40" s="342"/>
-      <c r="V40" s="342"/>
-      <c r="W40" s="342"/>
-      <c r="X40" s="342"/>
-      <c r="Y40" s="342"/>
+      <c r="T40" s="341"/>
+      <c r="U40" s="341"/>
+      <c r="V40" s="341"/>
+      <c r="W40" s="341"/>
+      <c r="X40" s="341"/>
+      <c r="Y40" s="341"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="97" t="s">
@@ -27164,63 +27160,63 @@
       <c r="Y41" s="101"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="340" t="s">
+      <c r="A42" s="339" t="s">
         <v>1602</v>
       </c>
-      <c r="B42" s="340" t="s">
+      <c r="B42" s="339" t="s">
         <v>229</v>
       </c>
-      <c r="C42" s="340" t="s">
+      <c r="C42" s="339" t="s">
         <v>1599</v>
       </c>
-      <c r="D42" s="341" t="s">
+      <c r="D42" s="340" t="s">
         <v>1603</v>
       </c>
-      <c r="E42" s="341"/>
-      <c r="F42" s="341" t="s">
+      <c r="E42" s="340"/>
+      <c r="F42" s="340" t="s">
         <v>1588</v>
       </c>
-      <c r="G42" s="340" t="s">
+      <c r="G42" s="339" t="s">
         <v>299</v>
       </c>
-      <c r="H42" s="340" t="s">
+      <c r="H42" s="339" t="s">
         <v>171</v>
       </c>
-      <c r="I42" s="340" t="s">
+      <c r="I42" s="339" t="s">
         <v>138</v>
       </c>
-      <c r="J42" s="340" t="s">
+      <c r="J42" s="339" t="s">
         <v>323</v>
       </c>
-      <c r="K42" s="340" t="s">
+      <c r="K42" s="339" t="s">
         <v>314</v>
       </c>
-      <c r="L42" s="340" t="s">
+      <c r="L42" s="339" t="s">
         <v>128</v>
       </c>
-      <c r="M42" s="340"/>
-      <c r="N42" s="340"/>
-      <c r="O42" s="340"/>
-      <c r="P42" s="344" t="n">
+      <c r="M42" s="339"/>
+      <c r="N42" s="339"/>
+      <c r="O42" s="339"/>
+      <c r="P42" s="343" t="n">
         <v>6</v>
       </c>
-      <c r="Q42" s="344" t="n">
-        <v>0</v>
-      </c>
-      <c r="R42" s="344" t="n">
-        <v>0</v>
-      </c>
-      <c r="S42" s="340" t="s">
-        <v>129</v>
-      </c>
-      <c r="T42" s="343" t="s">
+      <c r="Q42" s="343" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" s="343" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" s="339" t="s">
+        <v>129</v>
+      </c>
+      <c r="T42" s="342" t="s">
         <v>1604</v>
       </c>
-      <c r="U42" s="343"/>
-      <c r="V42" s="343"/>
-      <c r="W42" s="343"/>
-      <c r="X42" s="343"/>
-      <c r="Y42" s="343"/>
+      <c r="U42" s="342"/>
+      <c r="V42" s="342"/>
+      <c r="W42" s="342"/>
+      <c r="X42" s="342"/>
+      <c r="Y42" s="342"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="97" t="s">
@@ -27344,10 +27340,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topRight" activeCell="H29" activeCellId="0" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.14"/>
@@ -27363,31 +27359,31 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="346" t="s">
+      <c r="A1" s="345" t="s">
         <v>1608</v>
       </c>
-      <c r="B1" s="347"/>
-      <c r="C1" s="348"/>
-      <c r="D1" s="347"/>
-      <c r="E1" s="347"/>
-      <c r="F1" s="347"/>
-      <c r="G1" s="347"/>
-      <c r="H1" s="347"/>
-      <c r="I1" s="347"/>
-      <c r="J1" s="347"/>
-      <c r="K1" s="347"/>
-      <c r="L1" s="347"/>
-      <c r="M1" s="347"/>
-      <c r="N1" s="347"/>
-      <c r="O1" s="347"/>
-      <c r="P1" s="347"/>
-      <c r="Q1" s="347"/>
-      <c r="R1" s="347"/>
-      <c r="S1" s="347"/>
-      <c r="T1" s="347"/>
-      <c r="U1" s="347"/>
-      <c r="V1" s="347"/>
-      <c r="W1" s="347"/>
+      <c r="B1" s="346"/>
+      <c r="C1" s="347"/>
+      <c r="D1" s="346"/>
+      <c r="E1" s="346"/>
+      <c r="F1" s="346"/>
+      <c r="G1" s="346"/>
+      <c r="H1" s="346"/>
+      <c r="I1" s="346"/>
+      <c r="J1" s="346"/>
+      <c r="K1" s="346"/>
+      <c r="L1" s="346"/>
+      <c r="M1" s="346"/>
+      <c r="N1" s="346"/>
+      <c r="O1" s="346"/>
+      <c r="P1" s="346"/>
+      <c r="Q1" s="346"/>
+      <c r="R1" s="346"/>
+      <c r="S1" s="346"/>
+      <c r="T1" s="346"/>
+      <c r="U1" s="346"/>
+      <c r="V1" s="346"/>
+      <c r="W1" s="346"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="279" t="s">
@@ -27396,7 +27392,7 @@
       <c r="B2" s="279" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="349" t="s">
+      <c r="C2" s="348" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="279" t="s">
@@ -27458,63 +27454,63 @@
       <c r="Z2" s="279"/>
     </row>
     <row r="3" customFormat="false" ht="24.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="350" t="s">
+      <c r="A3" s="349" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="351" t="n">
+      <c r="B3" s="350" t="n">
         <v>5</v>
       </c>
-      <c r="C3" s="352" t="s">
+      <c r="C3" s="351" t="s">
         <v>296</v>
       </c>
-      <c r="D3" s="353" t="s">
+      <c r="D3" s="352" t="s">
         <v>784</v>
       </c>
-      <c r="F3" s="351" t="n">
+      <c r="F3" s="350" t="n">
         <v>22</v>
       </c>
-      <c r="G3" s="351" t="n">
+      <c r="G3" s="350" t="n">
         <v>4</v>
       </c>
-      <c r="H3" s="351" t="n">
+      <c r="H3" s="350" t="n">
         <v>361</v>
       </c>
-      <c r="I3" s="351" t="n">
+      <c r="I3" s="350" t="n">
         <v>4</v>
       </c>
-      <c r="J3" s="351" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="351" t="n">
+      <c r="J3" s="350" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="350" t="n">
         <v>2</v>
       </c>
-      <c r="L3" s="351" t="s">
+      <c r="L3" s="350" t="s">
         <v>128</v>
       </c>
-      <c r="M3" s="351"/>
-      <c r="N3" s="351"/>
-      <c r="O3" s="351"/>
-      <c r="P3" s="351" t="n">
+      <c r="M3" s="350"/>
+      <c r="N3" s="350"/>
+      <c r="O3" s="350"/>
+      <c r="P3" s="350" t="n">
         <v>4</v>
       </c>
-      <c r="Q3" s="351" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="351" t="n">
+      <c r="Q3" s="350" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="350" t="n">
         <v>6</v>
       </c>
-      <c r="S3" s="351" t="s">
-        <v>129</v>
-      </c>
-      <c r="T3" s="354" t="s">
+      <c r="S3" s="350" t="s">
+        <v>129</v>
+      </c>
+      <c r="T3" s="353" t="s">
         <v>419</v>
       </c>
-      <c r="U3" s="354"/>
-      <c r="V3" s="354"/>
-      <c r="W3" s="354"/>
-      <c r="X3" s="354"/>
-      <c r="Y3" s="354"/>
-      <c r="Z3" s="354"/>
+      <c r="U3" s="353"/>
+      <c r="V3" s="353"/>
+      <c r="W3" s="353"/>
+      <c r="X3" s="353"/>
+      <c r="Y3" s="353"/>
+      <c r="Z3" s="353"/>
     </row>
     <row r="4" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="315" t="s">
@@ -27574,62 +27570,62 @@
       <c r="Z4" s="290"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="350" t="s">
+      <c r="A5" s="349" t="s">
         <v>424</v>
       </c>
-      <c r="B5" s="351" t="s">
+      <c r="B5" s="350" t="s">
         <v>1609</v>
       </c>
-      <c r="C5" s="352" t="s">
+      <c r="C5" s="351" t="s">
         <v>1610</v>
       </c>
-      <c r="D5" s="351" t="n">
+      <c r="D5" s="350" t="n">
         <f aca="false">52-35</f>
         <v>17</v>
       </c>
-      <c r="F5" s="351" t="s">
+      <c r="F5" s="350" t="s">
         <v>1611</v>
       </c>
-      <c r="G5" s="351" t="n">
+      <c r="G5" s="350" t="n">
         <v>6</v>
       </c>
-      <c r="H5" s="351" t="n">
+      <c r="H5" s="350" t="n">
         <v>361</v>
       </c>
-      <c r="I5" s="351" t="n">
+      <c r="I5" s="350" t="n">
         <v>8</v>
       </c>
-      <c r="J5" s="351" t="n">
+      <c r="J5" s="350" t="n">
         <v>50</v>
       </c>
-      <c r="K5" s="351" t="n">
+      <c r="K5" s="350" t="n">
         <v>3</v>
       </c>
-      <c r="L5" s="351" t="s">
+      <c r="L5" s="350" t="s">
         <v>128</v>
       </c>
-      <c r="M5" s="351"/>
-      <c r="N5" s="351"/>
-      <c r="O5" s="351"/>
-      <c r="P5" s="351" t="n">
+      <c r="M5" s="350"/>
+      <c r="N5" s="350"/>
+      <c r="O5" s="350"/>
+      <c r="P5" s="350" t="n">
         <v>12</v>
       </c>
-      <c r="Q5" s="351" t="n">
+      <c r="Q5" s="350" t="n">
         <v>70</v>
       </c>
-      <c r="R5" s="351" t="n">
+      <c r="R5" s="350" t="n">
         <v>6</v>
       </c>
-      <c r="S5" s="351" t="s">
-        <v>129</v>
-      </c>
-      <c r="T5" s="354"/>
-      <c r="U5" s="354"/>
-      <c r="V5" s="354"/>
-      <c r="W5" s="354"/>
-      <c r="X5" s="354"/>
-      <c r="Y5" s="354"/>
-      <c r="Z5" s="354"/>
+      <c r="S5" s="350" t="s">
+        <v>129</v>
+      </c>
+      <c r="T5" s="353"/>
+      <c r="U5" s="353"/>
+      <c r="V5" s="353"/>
+      <c r="W5" s="353"/>
+      <c r="X5" s="353"/>
+      <c r="Y5" s="353"/>
+      <c r="Z5" s="353"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="315" t="s">
@@ -27692,56 +27688,56 @@
       <c r="Z6" s="290"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="350" t="s">
+      <c r="A7" s="349" t="s">
         <v>302</v>
       </c>
-      <c r="B7" s="351"/>
-      <c r="C7" s="355" t="s">
+      <c r="B7" s="350"/>
+      <c r="C7" s="354" t="s">
         <v>634</v>
       </c>
-      <c r="D7" s="351"/>
-      <c r="E7" s="351"/>
-      <c r="F7" s="351"/>
-      <c r="G7" s="351" t="n">
+      <c r="D7" s="350"/>
+      <c r="E7" s="350"/>
+      <c r="F7" s="350"/>
+      <c r="G7" s="350" t="n">
         <v>8</v>
       </c>
-      <c r="H7" s="351" t="n">
+      <c r="H7" s="350" t="n">
         <v>361</v>
       </c>
-      <c r="I7" s="351" t="n">
+      <c r="I7" s="350" t="n">
         <v>6</v>
       </c>
-      <c r="J7" s="351" t="n">
+      <c r="J7" s="350" t="n">
         <v>35</v>
       </c>
-      <c r="K7" s="351" t="n">
+      <c r="K7" s="350" t="n">
         <v>2</v>
       </c>
-      <c r="L7" s="351" t="s">
+      <c r="L7" s="350" t="s">
         <v>128</v>
       </c>
-      <c r="M7" s="351"/>
-      <c r="N7" s="351"/>
-      <c r="O7" s="351"/>
-      <c r="P7" s="351" t="n">
+      <c r="M7" s="350"/>
+      <c r="N7" s="350"/>
+      <c r="O7" s="350"/>
+      <c r="P7" s="350" t="n">
         <v>5</v>
       </c>
-      <c r="Q7" s="351" t="n">
+      <c r="Q7" s="350" t="n">
         <v>25</v>
       </c>
-      <c r="R7" s="351" t="n">
+      <c r="R7" s="350" t="n">
         <v>6</v>
       </c>
-      <c r="S7" s="351" t="s">
-        <v>129</v>
-      </c>
-      <c r="T7" s="354"/>
-      <c r="U7" s="354"/>
-      <c r="V7" s="354"/>
-      <c r="W7" s="354"/>
-      <c r="X7" s="354"/>
-      <c r="Y7" s="354"/>
-      <c r="Z7" s="354"/>
+      <c r="S7" s="350" t="s">
+        <v>129</v>
+      </c>
+      <c r="T7" s="353"/>
+      <c r="U7" s="353"/>
+      <c r="V7" s="353"/>
+      <c r="W7" s="353"/>
+      <c r="X7" s="353"/>
+      <c r="Y7" s="353"/>
+      <c r="Z7" s="353"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="315" t="s">
@@ -27807,56 +27803,56 @@
       <c r="Z8" s="290"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="350" t="s">
+      <c r="A9" s="349" t="s">
         <v>1150</v>
       </c>
-      <c r="B9" s="351"/>
-      <c r="C9" s="352" t="s">
-        <v>1566</v>
-      </c>
-      <c r="D9" s="351"/>
-      <c r="E9" s="351"/>
-      <c r="F9" s="351"/>
-      <c r="G9" s="351" t="n">
+      <c r="B9" s="350"/>
+      <c r="C9" s="351" t="s">
+        <v>1464</v>
+      </c>
+      <c r="D9" s="350"/>
+      <c r="E9" s="350"/>
+      <c r="F9" s="350"/>
+      <c r="G9" s="350" t="n">
         <v>5</v>
       </c>
-      <c r="H9" s="351" t="n">
+      <c r="H9" s="350" t="n">
         <v>361</v>
       </c>
-      <c r="I9" s="351" t="n">
+      <c r="I9" s="350" t="n">
         <v>7</v>
       </c>
-      <c r="J9" s="351" t="n">
+      <c r="J9" s="350" t="n">
         <v>65</v>
       </c>
-      <c r="K9" s="351" t="n">
+      <c r="K9" s="350" t="n">
         <v>1</v>
       </c>
-      <c r="L9" s="351" t="s">
+      <c r="L9" s="350" t="s">
         <v>128</v>
       </c>
-      <c r="M9" s="351"/>
-      <c r="N9" s="351"/>
-      <c r="O9" s="351"/>
-      <c r="P9" s="351" t="n">
+      <c r="M9" s="350"/>
+      <c r="N9" s="350"/>
+      <c r="O9" s="350"/>
+      <c r="P9" s="350" t="n">
         <v>6</v>
       </c>
-      <c r="Q9" s="351" t="n">
+      <c r="Q9" s="350" t="n">
         <v>50</v>
       </c>
-      <c r="R9" s="351" t="n">
+      <c r="R9" s="350" t="n">
         <v>6</v>
       </c>
-      <c r="S9" s="351" t="s">
-        <v>129</v>
-      </c>
-      <c r="T9" s="354"/>
-      <c r="U9" s="354"/>
-      <c r="V9" s="354"/>
-      <c r="W9" s="354"/>
-      <c r="X9" s="354"/>
-      <c r="Y9" s="354"/>
-      <c r="Z9" s="354"/>
+      <c r="S9" s="350" t="s">
+        <v>129</v>
+      </c>
+      <c r="T9" s="353"/>
+      <c r="U9" s="353"/>
+      <c r="V9" s="353"/>
+      <c r="W9" s="353"/>
+      <c r="X9" s="353"/>
+      <c r="Y9" s="353"/>
+      <c r="Z9" s="353"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="315" t="s">
@@ -27921,56 +27917,56 @@
       <c r="Z10" s="290"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="350" t="s">
+      <c r="A11" s="349" t="s">
         <v>325</v>
       </c>
-      <c r="B11" s="351"/>
-      <c r="C11" s="352" t="s">
-        <v>1566</v>
-      </c>
-      <c r="D11" s="351"/>
-      <c r="E11" s="351"/>
-      <c r="F11" s="351"/>
-      <c r="G11" s="351" t="n">
+      <c r="B11" s="350"/>
+      <c r="C11" s="351" t="s">
+        <v>1464</v>
+      </c>
+      <c r="D11" s="350"/>
+      <c r="E11" s="350"/>
+      <c r="F11" s="350"/>
+      <c r="G11" s="350" t="n">
         <v>8</v>
       </c>
-      <c r="H11" s="351" t="n">
+      <c r="H11" s="350" t="n">
         <v>90</v>
       </c>
-      <c r="I11" s="351" t="n">
+      <c r="I11" s="350" t="n">
         <v>8</v>
       </c>
-      <c r="J11" s="351" t="n">
+      <c r="J11" s="350" t="n">
         <v>20</v>
       </c>
-      <c r="K11" s="351" t="n">
+      <c r="K11" s="350" t="n">
         <v>1</v>
       </c>
-      <c r="L11" s="351" t="s">
+      <c r="L11" s="350" t="s">
         <v>128</v>
       </c>
-      <c r="M11" s="351"/>
-      <c r="N11" s="351"/>
-      <c r="O11" s="351"/>
-      <c r="P11" s="351" t="n">
+      <c r="M11" s="350"/>
+      <c r="N11" s="350"/>
+      <c r="O11" s="350"/>
+      <c r="P11" s="350" t="n">
         <v>7</v>
       </c>
-      <c r="Q11" s="351" t="n">
+      <c r="Q11" s="350" t="n">
         <v>25</v>
       </c>
-      <c r="R11" s="351" t="n">
+      <c r="R11" s="350" t="n">
         <v>6</v>
       </c>
-      <c r="S11" s="351" t="s">
-        <v>129</v>
-      </c>
-      <c r="T11" s="354"/>
-      <c r="U11" s="354"/>
-      <c r="V11" s="354"/>
-      <c r="W11" s="354"/>
-      <c r="X11" s="354"/>
-      <c r="Y11" s="354"/>
-      <c r="Z11" s="354"/>
+      <c r="S11" s="350" t="s">
+        <v>129</v>
+      </c>
+      <c r="T11" s="353"/>
+      <c r="U11" s="353"/>
+      <c r="V11" s="353"/>
+      <c r="W11" s="353"/>
+      <c r="X11" s="353"/>
+      <c r="Y11" s="353"/>
+      <c r="Z11" s="353"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="315" t="s">
@@ -28025,66 +28021,66 @@
       <c r="Z12" s="290"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="350" t="s">
+      <c r="A13" s="349" t="s">
         <v>167</v>
       </c>
-      <c r="B13" s="351" t="n">
+      <c r="B13" s="350" t="n">
         <v>4</v>
       </c>
-      <c r="C13" s="352" t="s">
+      <c r="C13" s="351" t="s">
         <v>892</v>
       </c>
-      <c r="D13" s="351" t="n">
+      <c r="D13" s="350" t="n">
         <f aca="false">E13/3*2</f>
         <v>12</v>
       </c>
-      <c r="E13" s="351" t="n">
+      <c r="E13" s="350" t="n">
         <f aca="false">26-8</f>
         <v>18</v>
       </c>
-      <c r="F13" s="351" t="n">
+      <c r="F13" s="350" t="n">
         <v>26</v>
       </c>
-      <c r="G13" s="351" t="n">
+      <c r="G13" s="350" t="n">
         <v>9</v>
       </c>
-      <c r="H13" s="351" t="n">
+      <c r="H13" s="350" t="n">
         <v>361</v>
       </c>
-      <c r="I13" s="351" t="n">
+      <c r="I13" s="350" t="n">
         <v>6</v>
       </c>
-      <c r="J13" s="351" t="n">
+      <c r="J13" s="350" t="n">
         <v>30</v>
       </c>
-      <c r="K13" s="351" t="n">
+      <c r="K13" s="350" t="n">
         <v>1</v>
       </c>
-      <c r="L13" s="351" t="s">
+      <c r="L13" s="350" t="s">
         <v>128</v>
       </c>
-      <c r="M13" s="351"/>
-      <c r="N13" s="351"/>
-      <c r="O13" s="351"/>
-      <c r="P13" s="351" t="n">
+      <c r="M13" s="350"/>
+      <c r="N13" s="350"/>
+      <c r="O13" s="350"/>
+      <c r="P13" s="350" t="n">
         <v>7</v>
       </c>
-      <c r="Q13" s="351" t="n">
+      <c r="Q13" s="350" t="n">
         <v>25</v>
       </c>
-      <c r="R13" s="351" t="n">
+      <c r="R13" s="350" t="n">
         <v>6</v>
       </c>
-      <c r="S13" s="351" t="s">
-        <v>129</v>
-      </c>
-      <c r="T13" s="354"/>
-      <c r="U13" s="354"/>
-      <c r="V13" s="354"/>
-      <c r="W13" s="354"/>
-      <c r="X13" s="354"/>
-      <c r="Y13" s="354"/>
-      <c r="Z13" s="354"/>
+      <c r="S13" s="350" t="s">
+        <v>129</v>
+      </c>
+      <c r="T13" s="353"/>
+      <c r="U13" s="353"/>
+      <c r="V13" s="353"/>
+      <c r="W13" s="353"/>
+      <c r="X13" s="353"/>
+      <c r="Y13" s="353"/>
+      <c r="Z13" s="353"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="315" t="s">
@@ -28150,56 +28146,56 @@
       <c r="Z14" s="290"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="350" t="s">
+      <c r="A15" s="349" t="s">
         <v>456</v>
       </c>
-      <c r="B15" s="351"/>
-      <c r="C15" s="352" t="s">
+      <c r="B15" s="350"/>
+      <c r="C15" s="351" t="s">
         <v>1616</v>
       </c>
-      <c r="D15" s="351"/>
-      <c r="E15" s="351"/>
-      <c r="F15" s="351"/>
-      <c r="G15" s="351" t="n">
+      <c r="D15" s="350"/>
+      <c r="E15" s="350"/>
+      <c r="F15" s="350"/>
+      <c r="G15" s="350" t="n">
         <v>8</v>
       </c>
-      <c r="H15" s="351" t="n">
+      <c r="H15" s="350" t="n">
         <v>361</v>
       </c>
-      <c r="I15" s="351" t="n">
+      <c r="I15" s="350" t="n">
         <v>8</v>
       </c>
-      <c r="J15" s="351" t="n">
+      <c r="J15" s="350" t="n">
         <v>90</v>
       </c>
-      <c r="K15" s="351" t="n">
+      <c r="K15" s="350" t="n">
         <v>1</v>
       </c>
-      <c r="L15" s="351" t="s">
+      <c r="L15" s="350" t="s">
         <v>128</v>
       </c>
-      <c r="M15" s="351"/>
-      <c r="N15" s="351"/>
-      <c r="O15" s="351"/>
-      <c r="P15" s="351" t="n">
+      <c r="M15" s="350"/>
+      <c r="N15" s="350"/>
+      <c r="O15" s="350"/>
+      <c r="P15" s="350" t="n">
         <v>8</v>
       </c>
-      <c r="Q15" s="351" t="n">
+      <c r="Q15" s="350" t="n">
         <v>50</v>
       </c>
-      <c r="R15" s="351" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" s="351" t="s">
-        <v>129</v>
-      </c>
-      <c r="T15" s="354"/>
-      <c r="U15" s="354"/>
-      <c r="V15" s="354"/>
-      <c r="W15" s="354"/>
-      <c r="X15" s="354"/>
-      <c r="Y15" s="354"/>
-      <c r="Z15" s="354"/>
+      <c r="R15" s="350" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" s="350" t="s">
+        <v>129</v>
+      </c>
+      <c r="T15" s="353"/>
+      <c r="U15" s="353"/>
+      <c r="V15" s="353"/>
+      <c r="W15" s="353"/>
+      <c r="X15" s="353"/>
+      <c r="Y15" s="353"/>
+      <c r="Z15" s="353"/>
     </row>
     <row r="16" customFormat="false" ht="24.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="315" t="s">
@@ -28258,66 +28254,66 @@
       <c r="Z16" s="290"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="350" t="s">
+      <c r="A17" s="349" t="s">
         <v>1620</v>
       </c>
-      <c r="B17" s="351" t="n">
+      <c r="B17" s="350" t="n">
         <v>11</v>
       </c>
-      <c r="C17" s="352" t="n">
+      <c r="C17" s="351" t="n">
         <v>12</v>
       </c>
-      <c r="D17" s="351" t="n">
+      <c r="D17" s="350" t="n">
         <f aca="false">E17/3*2</f>
         <v>24</v>
       </c>
-      <c r="E17" s="351" t="n">
+      <c r="E17" s="350" t="n">
         <f aca="false">49-13</f>
         <v>36</v>
       </c>
-      <c r="F17" s="351" t="n">
+      <c r="F17" s="350" t="n">
         <v>49</v>
       </c>
-      <c r="G17" s="351" t="n">
+      <c r="G17" s="350" t="n">
         <v>7</v>
       </c>
-      <c r="H17" s="351" t="n">
+      <c r="H17" s="350" t="n">
         <v>90</v>
       </c>
-      <c r="I17" s="351" t="n">
+      <c r="I17" s="350" t="n">
         <v>8</v>
       </c>
-      <c r="J17" s="351" t="n">
+      <c r="J17" s="350" t="n">
         <v>110</v>
       </c>
-      <c r="K17" s="351" t="n">
+      <c r="K17" s="350" t="n">
         <v>2</v>
       </c>
-      <c r="L17" s="351" t="s">
+      <c r="L17" s="350" t="s">
         <v>128</v>
       </c>
-      <c r="M17" s="351"/>
-      <c r="N17" s="351"/>
-      <c r="O17" s="351"/>
-      <c r="P17" s="351" t="n">
+      <c r="M17" s="350"/>
+      <c r="N17" s="350"/>
+      <c r="O17" s="350"/>
+      <c r="P17" s="350" t="n">
         <v>8</v>
       </c>
-      <c r="Q17" s="351" t="n">
+      <c r="Q17" s="350" t="n">
         <v>50</v>
       </c>
-      <c r="R17" s="351" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" s="351" t="s">
-        <v>129</v>
-      </c>
-      <c r="T17" s="354"/>
-      <c r="U17" s="354"/>
-      <c r="V17" s="354"/>
-      <c r="W17" s="354"/>
-      <c r="X17" s="354"/>
-      <c r="Y17" s="354"/>
-      <c r="Z17" s="354"/>
+      <c r="R17" s="350" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" s="350" t="s">
+        <v>129</v>
+      </c>
+      <c r="T17" s="353"/>
+      <c r="U17" s="353"/>
+      <c r="V17" s="353"/>
+      <c r="W17" s="353"/>
+      <c r="X17" s="353"/>
+      <c r="Y17" s="353"/>
+      <c r="Z17" s="353"/>
     </row>
     <row r="18" customFormat="false" ht="24.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="315" t="s">
@@ -28376,67 +28372,67 @@
       <c r="Z18" s="290"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="350" t="s">
+      <c r="A19" s="349" t="s">
         <v>191</v>
       </c>
-      <c r="B19" s="351" t="n">
+      <c r="B19" s="350" t="n">
         <v>4</v>
       </c>
-      <c r="C19" s="352" t="s">
+      <c r="C19" s="351" t="s">
         <v>1623</v>
       </c>
-      <c r="D19" s="351" t="n">
+      <c r="D19" s="350" t="n">
         <v>20</v>
       </c>
-      <c r="E19" s="351" t="n">
+      <c r="E19" s="350" t="n">
         <f aca="false">44-14</f>
         <v>30</v>
       </c>
-      <c r="F19" s="351" t="n">
+      <c r="F19" s="350" t="n">
         <v>44</v>
       </c>
-      <c r="G19" s="351" t="n">
+      <c r="G19" s="350" t="n">
         <v>5</v>
       </c>
-      <c r="H19" s="351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="351" t="n">
+      <c r="H19" s="350" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="350" t="n">
         <v>8</v>
       </c>
-      <c r="J19" s="351" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" s="351" t="n">
+      <c r="J19" s="350" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="350" t="n">
         <v>2</v>
       </c>
-      <c r="L19" s="351" t="s">
+      <c r="L19" s="350" t="s">
         <v>857</v>
       </c>
-      <c r="M19" s="351"/>
-      <c r="N19" s="351"/>
-      <c r="O19" s="351"/>
-      <c r="P19" s="351" t="n">
+      <c r="M19" s="350"/>
+      <c r="N19" s="350"/>
+      <c r="O19" s="350"/>
+      <c r="P19" s="350" t="n">
         <v>7</v>
       </c>
-      <c r="Q19" s="351" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" s="351" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" s="351" t="s">
-        <v>129</v>
-      </c>
-      <c r="T19" s="354" t="s">
+      <c r="Q19" s="350" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" s="350" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" s="350" t="s">
+        <v>129</v>
+      </c>
+      <c r="T19" s="353" t="s">
         <v>1624</v>
       </c>
-      <c r="U19" s="354"/>
-      <c r="V19" s="354"/>
-      <c r="W19" s="354"/>
-      <c r="X19" s="354"/>
-      <c r="Y19" s="354"/>
-      <c r="Z19" s="354"/>
+      <c r="U19" s="353"/>
+      <c r="V19" s="353"/>
+      <c r="W19" s="353"/>
+      <c r="X19" s="353"/>
+      <c r="Y19" s="353"/>
+      <c r="Z19" s="353"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="315" t="s">
@@ -28491,65 +28487,65 @@
       <c r="Z20" s="290"/>
     </row>
     <row r="21" customFormat="false" ht="24.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="350" t="s">
+      <c r="A21" s="349" t="s">
         <v>1625</v>
       </c>
-      <c r="B21" s="351"/>
-      <c r="C21" s="352" t="s">
+      <c r="B21" s="350"/>
+      <c r="C21" s="351" t="s">
         <v>1161</v>
       </c>
-      <c r="D21" s="351" t="n">
+      <c r="D21" s="350" t="n">
         <v>19</v>
       </c>
-      <c r="E21" s="351"/>
-      <c r="F21" s="351"/>
-      <c r="G21" s="351" t="n">
+      <c r="E21" s="350"/>
+      <c r="F21" s="350"/>
+      <c r="G21" s="350" t="n">
         <v>10</v>
       </c>
-      <c r="H21" s="351" t="n">
+      <c r="H21" s="350" t="n">
         <v>45</v>
       </c>
-      <c r="I21" s="351" t="n">
+      <c r="I21" s="350" t="n">
         <v>8</v>
       </c>
-      <c r="J21" s="351" t="n">
+      <c r="J21" s="350" t="n">
         <v>115</v>
       </c>
-      <c r="K21" s="351" t="n">
+      <c r="K21" s="350" t="n">
         <v>3</v>
       </c>
-      <c r="L21" s="351" t="s">
+      <c r="L21" s="350" t="s">
         <v>128</v>
       </c>
-      <c r="M21" s="351"/>
-      <c r="N21" s="351"/>
-      <c r="O21" s="351"/>
-      <c r="P21" s="351" t="n">
+      <c r="M21" s="350"/>
+      <c r="N21" s="350"/>
+      <c r="O21" s="350"/>
+      <c r="P21" s="350" t="n">
         <v>18</v>
       </c>
-      <c r="Q21" s="351" t="n">
+      <c r="Q21" s="350" t="n">
         <v>50</v>
       </c>
-      <c r="R21" s="351" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" s="351" t="s">
-        <v>129</v>
-      </c>
-      <c r="T21" s="354" t="s">
+      <c r="R21" s="350" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" s="350" t="s">
+        <v>129</v>
+      </c>
+      <c r="T21" s="353" t="s">
         <v>1626</v>
       </c>
-      <c r="U21" s="354"/>
-      <c r="V21" s="354"/>
-      <c r="W21" s="354"/>
-      <c r="X21" s="354"/>
-      <c r="Y21" s="354"/>
-      <c r="Z21" s="354"/>
+      <c r="U21" s="353"/>
+      <c r="V21" s="353"/>
+      <c r="W21" s="353"/>
+      <c r="X21" s="353"/>
+      <c r="Y21" s="353"/>
+      <c r="Z21" s="353"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="142"/>
       <c r="B22" s="142"/>
-      <c r="C22" s="356"/>
+      <c r="C22" s="355"/>
       <c r="D22" s="142"/>
       <c r="E22" s="142"/>
       <c r="F22" s="142"/>
@@ -29308,13 +29304,13 @@
       <c r="S35" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="T35" s="357"/>
-      <c r="U35" s="357"/>
-      <c r="V35" s="357"/>
-      <c r="W35" s="357"/>
-      <c r="X35" s="357"/>
-      <c r="Y35" s="357"/>
-      <c r="Z35" s="357"/>
+      <c r="T35" s="356"/>
+      <c r="U35" s="356"/>
+      <c r="V35" s="356"/>
+      <c r="W35" s="356"/>
+      <c r="X35" s="356"/>
+      <c r="Y35" s="356"/>
+      <c r="Z35" s="356"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="108" t="s">
@@ -29701,15 +29697,15 @@
       <c r="S42" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="T42" s="358" t="s">
+      <c r="T42" s="357" t="s">
         <v>1658</v>
       </c>
-      <c r="U42" s="358"/>
-      <c r="V42" s="358"/>
-      <c r="W42" s="358"/>
-      <c r="X42" s="358"/>
-      <c r="Y42" s="358"/>
-      <c r="Z42" s="358"/>
+      <c r="U42" s="357"/>
+      <c r="V42" s="357"/>
+      <c r="W42" s="357"/>
+      <c r="X42" s="357"/>
+      <c r="Y42" s="357"/>
+      <c r="Z42" s="357"/>
     </row>
     <row r="43" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="108" t="s">
@@ -29916,287 +29912,287 @@
       <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="359" t="s">
+      <c r="A1" s="358" t="s">
         <v>1672</v>
       </c>
-      <c r="B1" s="360"/>
-      <c r="C1" s="360"/>
-      <c r="D1" s="360"/>
-      <c r="E1" s="360"/>
-      <c r="F1" s="360"/>
-      <c r="G1" s="360"/>
-      <c r="H1" s="360"/>
-      <c r="I1" s="360"/>
-      <c r="J1" s="360"/>
-      <c r="K1" s="360"/>
-      <c r="L1" s="360"/>
-      <c r="M1" s="360"/>
+      <c r="B1" s="359"/>
+      <c r="C1" s="359"/>
+      <c r="D1" s="359"/>
+      <c r="E1" s="359"/>
+      <c r="F1" s="359"/>
+      <c r="G1" s="359"/>
+      <c r="H1" s="359"/>
+      <c r="I1" s="359"/>
+      <c r="J1" s="359"/>
+      <c r="K1" s="359"/>
+      <c r="L1" s="359"/>
+      <c r="M1" s="359"/>
     </row>
     <row r="2" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="359" t="s">
+      <c r="A2" s="358" t="s">
         <v>1673</v>
       </c>
-      <c r="B2" s="360" t="s">
+      <c r="B2" s="359" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="360"/>
-      <c r="D2" s="360"/>
-      <c r="E2" s="360"/>
-      <c r="F2" s="360"/>
-      <c r="G2" s="360"/>
-      <c r="H2" s="360"/>
-      <c r="I2" s="360"/>
-      <c r="J2" s="360"/>
-      <c r="K2" s="360"/>
-      <c r="L2" s="360"/>
-      <c r="M2" s="360"/>
+      <c r="C2" s="359"/>
+      <c r="D2" s="359"/>
+      <c r="E2" s="359"/>
+      <c r="F2" s="359"/>
+      <c r="G2" s="359"/>
+      <c r="H2" s="359"/>
+      <c r="I2" s="359"/>
+      <c r="J2" s="359"/>
+      <c r="K2" s="359"/>
+      <c r="L2" s="359"/>
+      <c r="M2" s="359"/>
     </row>
     <row r="3" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="361" t="s">
+      <c r="A3" s="360" t="s">
         <v>1674</v>
       </c>
-      <c r="B3" s="362" t="s">
+      <c r="B3" s="361" t="s">
         <v>1675</v>
       </c>
-      <c r="C3" s="363" t="s">
+      <c r="C3" s="362" t="s">
         <v>1676</v>
       </c>
-      <c r="D3" s="364" t="s">
+      <c r="D3" s="363" t="s">
         <v>1677</v>
       </c>
-      <c r="E3" s="364" t="s">
+      <c r="E3" s="363" t="s">
         <v>1678</v>
       </c>
-      <c r="F3" s="349" t="s">
+      <c r="F3" s="348" t="s">
         <v>1679</v>
       </c>
-      <c r="G3" s="349"/>
-      <c r="H3" s="365" t="s">
+      <c r="G3" s="348"/>
+      <c r="H3" s="364" t="s">
         <v>121</v>
       </c>
-      <c r="I3" s="365"/>
-      <c r="J3" s="365"/>
-      <c r="K3" s="365"/>
-      <c r="L3" s="365"/>
-      <c r="M3" s="365"/>
+      <c r="I3" s="364"/>
+      <c r="J3" s="364"/>
+      <c r="K3" s="364"/>
+      <c r="L3" s="364"/>
+      <c r="M3" s="364"/>
     </row>
     <row r="4" customFormat="false" ht="46.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="366" t="s">
+      <c r="A4" s="365" t="s">
         <v>1680</v>
       </c>
-      <c r="B4" s="367" t="n">
+      <c r="B4" s="366" t="n">
         <v>17</v>
       </c>
-      <c r="C4" s="368" t="n">
+      <c r="C4" s="367" t="n">
         <v>56</v>
       </c>
-      <c r="D4" s="368" t="n">
+      <c r="D4" s="367" t="n">
         <v>95</v>
       </c>
-      <c r="E4" s="368" t="s">
+      <c r="E4" s="367" t="s">
         <v>1681</v>
       </c>
-      <c r="F4" s="369"/>
-      <c r="G4" s="369"/>
-      <c r="H4" s="370" t="s">
+      <c r="F4" s="368"/>
+      <c r="G4" s="368"/>
+      <c r="H4" s="369" t="s">
         <v>1682</v>
       </c>
-      <c r="I4" s="370"/>
-      <c r="J4" s="370"/>
-      <c r="K4" s="370"/>
-      <c r="L4" s="370"/>
-      <c r="M4" s="370"/>
+      <c r="I4" s="369"/>
+      <c r="J4" s="369"/>
+      <c r="K4" s="369"/>
+      <c r="L4" s="369"/>
+      <c r="M4" s="369"/>
     </row>
     <row r="5" customFormat="false" ht="46.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="371" t="s">
+      <c r="A5" s="370" t="s">
         <v>1683</v>
       </c>
-      <c r="B5" s="372" t="n">
+      <c r="B5" s="371" t="n">
         <f aca="false">(B4-17)/78</f>
         <v>0</v>
       </c>
-      <c r="C5" s="373" t="n">
+      <c r="C5" s="372" t="n">
         <f aca="false">(C4-17)/78</f>
         <v>0.5</v>
       </c>
-      <c r="D5" s="373" t="n">
+      <c r="D5" s="372" t="n">
         <f aca="false">(D4-17)/78</f>
         <v>1</v>
       </c>
-      <c r="E5" s="373" t="s">
+      <c r="E5" s="372" t="s">
         <v>1681</v>
       </c>
       <c r="F5" s="321" t="s">
         <v>1684</v>
       </c>
       <c r="G5" s="321"/>
-      <c r="H5" s="374" t="s">
+      <c r="H5" s="373" t="s">
         <v>1685</v>
       </c>
-      <c r="I5" s="374"/>
-      <c r="J5" s="374"/>
-      <c r="K5" s="374"/>
-      <c r="L5" s="374"/>
-      <c r="M5" s="374"/>
+      <c r="I5" s="373"/>
+      <c r="J5" s="373"/>
+      <c r="K5" s="373"/>
+      <c r="L5" s="373"/>
+      <c r="M5" s="373"/>
     </row>
     <row r="6" customFormat="false" ht="46.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="366" t="s">
+      <c r="A6" s="365" t="s">
         <v>1686</v>
       </c>
-      <c r="B6" s="375" t="n">
+      <c r="B6" s="374" t="n">
         <f aca="false">12+(B5*28)</f>
         <v>12</v>
       </c>
-      <c r="C6" s="376" t="n">
+      <c r="C6" s="375" t="n">
         <f aca="false">12+(C5*28)</f>
         <v>26</v>
       </c>
-      <c r="D6" s="376" t="n">
+      <c r="D6" s="375" t="n">
         <f aca="false">12+(D5*28)</f>
         <v>40</v>
       </c>
-      <c r="E6" s="376" t="n">
+      <c r="E6" s="375" t="n">
         <v>9000</v>
       </c>
-      <c r="F6" s="377" t="s">
+      <c r="F6" s="376" t="s">
         <v>1687</v>
       </c>
-      <c r="G6" s="377"/>
-      <c r="H6" s="370" t="s">
+      <c r="G6" s="376"/>
+      <c r="H6" s="369" t="s">
         <v>1688</v>
       </c>
-      <c r="I6" s="370"/>
-      <c r="J6" s="370"/>
-      <c r="K6" s="370"/>
-      <c r="L6" s="370"/>
-      <c r="M6" s="370"/>
+      <c r="I6" s="369"/>
+      <c r="J6" s="369"/>
+      <c r="K6" s="369"/>
+      <c r="L6" s="369"/>
+      <c r="M6" s="369"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="378" t="s">
+      <c r="A7" s="377" t="s">
         <v>1689</v>
       </c>
-      <c r="B7" s="379" t="n">
+      <c r="B7" s="378" t="n">
         <f aca="false">10+(B5/7)</f>
         <v>10</v>
       </c>
-      <c r="C7" s="380" t="n">
+      <c r="C7" s="379" t="n">
         <f aca="false">10+(C5/7)</f>
         <v>10.0714285714286</v>
       </c>
-      <c r="D7" s="380" t="n">
+      <c r="D7" s="379" t="n">
         <f aca="false">10+(D5/7)</f>
         <v>10.1428571428571</v>
       </c>
-      <c r="E7" s="381" t="n">
+      <c r="E7" s="380" t="n">
         <v>18</v>
       </c>
       <c r="F7" s="321" t="s">
         <v>1690</v>
       </c>
       <c r="G7" s="321"/>
-      <c r="H7" s="382" t="s">
+      <c r="H7" s="381" t="s">
         <v>1691</v>
       </c>
-      <c r="I7" s="382"/>
-      <c r="J7" s="382"/>
-      <c r="K7" s="382"/>
-      <c r="L7" s="382"/>
-      <c r="M7" s="382"/>
+      <c r="I7" s="381"/>
+      <c r="J7" s="381"/>
+      <c r="K7" s="381"/>
+      <c r="L7" s="381"/>
+      <c r="M7" s="381"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="383" t="s">
+      <c r="A8" s="382" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="375" t="n">
+      <c r="B8" s="374" t="n">
         <f aca="false">6+(B5*2)</f>
         <v>6</v>
       </c>
-      <c r="C8" s="376" t="n">
+      <c r="C8" s="375" t="n">
         <f aca="false">6+(C5*2)</f>
         <v>7</v>
       </c>
-      <c r="D8" s="376" t="n">
+      <c r="D8" s="375" t="n">
         <f aca="false">6+(D5*2)</f>
         <v>8</v>
       </c>
-      <c r="E8" s="376" t="n">
+      <c r="E8" s="375" t="n">
         <v>12</v>
       </c>
-      <c r="F8" s="377" t="s">
+      <c r="F8" s="376" t="s">
         <v>1692</v>
       </c>
-      <c r="G8" s="377"/>
-      <c r="H8" s="384" t="s">
+      <c r="G8" s="376"/>
+      <c r="H8" s="383" t="s">
         <v>1693</v>
       </c>
-      <c r="I8" s="384"/>
-      <c r="J8" s="384"/>
-      <c r="K8" s="384"/>
-      <c r="L8" s="384"/>
-      <c r="M8" s="384"/>
+      <c r="I8" s="383"/>
+      <c r="J8" s="383"/>
+      <c r="K8" s="383"/>
+      <c r="L8" s="383"/>
+      <c r="M8" s="383"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="378" t="s">
+      <c r="A9" s="377" t="s">
         <v>1694</v>
       </c>
-      <c r="B9" s="379" t="n">
+      <c r="B9" s="378" t="n">
         <f aca="false">6+(B5*0.1)</f>
         <v>6</v>
       </c>
-      <c r="C9" s="385" t="n">
+      <c r="C9" s="384" t="n">
         <f aca="false">6+(C5)</f>
         <v>6.5</v>
       </c>
-      <c r="D9" s="381" t="n">
+      <c r="D9" s="380" t="n">
         <f aca="false">6+(D5)</f>
         <v>7</v>
       </c>
-      <c r="E9" s="381" t="n">
+      <c r="E9" s="380" t="n">
         <v>8</v>
       </c>
       <c r="F9" s="321" t="s">
         <v>1695</v>
       </c>
       <c r="G9" s="321"/>
-      <c r="H9" s="382"/>
-      <c r="I9" s="382"/>
-      <c r="J9" s="382"/>
-      <c r="K9" s="382"/>
-      <c r="L9" s="382"/>
-      <c r="M9" s="382"/>
+      <c r="H9" s="381"/>
+      <c r="I9" s="381"/>
+      <c r="J9" s="381"/>
+      <c r="K9" s="381"/>
+      <c r="L9" s="381"/>
+      <c r="M9" s="381"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="386" t="s">
+      <c r="A10" s="385" t="s">
         <v>1696</v>
       </c>
-      <c r="B10" s="387" t="n">
+      <c r="B10" s="386" t="n">
         <f aca="false">(0.5+(B5*0.1))*100</f>
         <v>50</v>
       </c>
-      <c r="C10" s="388" t="n">
+      <c r="C10" s="387" t="n">
         <f aca="false">(0.5+(C5*0.1))*100</f>
         <v>55</v>
       </c>
-      <c r="D10" s="388" t="n">
+      <c r="D10" s="387" t="n">
         <f aca="false">(0.5+(D5*0.1))*100</f>
         <v>60</v>
       </c>
-      <c r="E10" s="388" t="n">
+      <c r="E10" s="387" t="n">
         <v>110</v>
       </c>
-      <c r="F10" s="389" t="s">
+      <c r="F10" s="388" t="s">
         <v>1697</v>
       </c>
-      <c r="G10" s="389"/>
-      <c r="H10" s="390"/>
-      <c r="I10" s="390"/>
-      <c r="J10" s="390"/>
-      <c r="K10" s="390"/>
-      <c r="L10" s="390"/>
-      <c r="M10" s="390"/>
+      <c r="G10" s="388"/>
+      <c r="H10" s="389"/>
+      <c r="I10" s="389"/>
+      <c r="J10" s="389"/>
+      <c r="K10" s="389"/>
+      <c r="L10" s="389"/>
+      <c r="M10" s="389"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
@@ -30316,19 +30312,19 @@
       <c r="V18" s="177" t="s">
         <v>1712</v>
       </c>
-      <c r="W18" s="391" t="s">
+      <c r="W18" s="390" t="s">
         <v>1713</v>
       </c>
-      <c r="X18" s="391"/>
-      <c r="Y18" s="391"/>
-      <c r="Z18" s="391"/>
-      <c r="AA18" s="391"/>
-      <c r="AB18" s="391"/>
-      <c r="AC18" s="392"/>
-      <c r="AD18" s="392"/>
-      <c r="AE18" s="392"/>
-      <c r="AF18" s="392"/>
-      <c r="AG18" s="392"/>
+      <c r="X18" s="390"/>
+      <c r="Y18" s="390"/>
+      <c r="Z18" s="390"/>
+      <c r="AA18" s="390"/>
+      <c r="AB18" s="390"/>
+      <c r="AC18" s="391"/>
+      <c r="AD18" s="391"/>
+      <c r="AE18" s="391"/>
+      <c r="AF18" s="391"/>
+      <c r="AG18" s="391"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="162" t="s">
@@ -30456,14 +30452,14 @@
       <c r="V23" s="102" t="s">
         <v>1727</v>
       </c>
-      <c r="W23" s="393" t="s">
+      <c r="W23" s="392" t="s">
         <v>92</v>
       </c>
-      <c r="X23" s="393"/>
-      <c r="Y23" s="393"/>
-      <c r="Z23" s="393"/>
-      <c r="AA23" s="393"/>
-      <c r="AB23" s="393"/>
+      <c r="X23" s="392"/>
+      <c r="Y23" s="392"/>
+      <c r="Z23" s="392"/>
+      <c r="AA23" s="392"/>
+      <c r="AB23" s="392"/>
       <c r="AC23" s="102"/>
       <c r="AD23" s="102"/>
       <c r="AE23" s="102"/>
@@ -30546,11 +30542,11 @@
       <c r="Z26" s="166"/>
       <c r="AA26" s="166"/>
       <c r="AB26" s="166"/>
-      <c r="AC26" s="344"/>
-      <c r="AD26" s="344"/>
-      <c r="AE26" s="344"/>
-      <c r="AF26" s="344"/>
-      <c r="AG26" s="344"/>
+      <c r="AC26" s="343"/>
+      <c r="AD26" s="343"/>
+      <c r="AE26" s="343"/>
+      <c r="AF26" s="343"/>
+      <c r="AG26" s="343"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="162" t="s">
@@ -30602,11 +30598,11 @@
       <c r="Z28" s="166"/>
       <c r="AA28" s="166"/>
       <c r="AB28" s="166"/>
-      <c r="AC28" s="344"/>
-      <c r="AD28" s="344"/>
-      <c r="AE28" s="344"/>
-      <c r="AF28" s="344"/>
-      <c r="AG28" s="344"/>
+      <c r="AC28" s="343"/>
+      <c r="AD28" s="343"/>
+      <c r="AE28" s="343"/>
+      <c r="AF28" s="343"/>
+      <c r="AG28" s="343"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="162" t="s">
@@ -30647,19 +30643,19 @@
       <c r="V30" s="162" t="s">
         <v>1727</v>
       </c>
-      <c r="W30" s="391" t="s">
+      <c r="W30" s="390" t="s">
         <v>677</v>
       </c>
-      <c r="X30" s="391"/>
-      <c r="Y30" s="391"/>
-      <c r="Z30" s="391"/>
-      <c r="AA30" s="391"/>
-      <c r="AB30" s="391"/>
-      <c r="AC30" s="392"/>
-      <c r="AD30" s="392"/>
-      <c r="AE30" s="392"/>
-      <c r="AF30" s="392"/>
-      <c r="AG30" s="392"/>
+      <c r="X30" s="390"/>
+      <c r="Y30" s="390"/>
+      <c r="Z30" s="390"/>
+      <c r="AA30" s="390"/>
+      <c r="AB30" s="390"/>
+      <c r="AC30" s="391"/>
+      <c r="AD30" s="391"/>
+      <c r="AE30" s="391"/>
+      <c r="AF30" s="391"/>
+      <c r="AG30" s="391"/>
     </row>
   </sheetData>
   <mergeCells count="33">
@@ -30722,9 +30718,9 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="45" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="45" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33572,7 +33568,7 @@
       <selection pane="bottomRight" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.58984375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="38.43"/>
@@ -37176,7 +37172,7 @@
       <selection pane="bottomRight" activeCell="L52" activeCellId="0" sqref="L52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.58984375" defaultRowHeight="21.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="21.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.43"/>
@@ -40487,7 +40483,7 @@
   </sheetPr>
   <dimension ref="A1:AG1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="D16" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
@@ -40495,7 +40491,7 @@
       <selection pane="bottomRight" activeCell="I37" activeCellId="0" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.58984375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25"/>
@@ -43132,15 +43128,15 @@
   </sheetPr>
   <dimension ref="A1:AA1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="K34" activeCellId="0" sqref="K34"/>
+      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="I14" activeCellId="0" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.58984375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.14"/>
@@ -45586,7 +45582,7 @@
       <selection pane="bottomRight" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.86"/>
@@ -48176,7 +48172,7 @@
       <selection pane="bottomRight" activeCell="J37" activeCellId="0" sqref="J37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.29"/>

--- a/input/Rivals of Aether Academy Frame Data - Updated for 2.0.7.0.xlsx
+++ b/input/Rivals of Aether Academy Frame Data - Updated for 2.0.7.0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="1" state="visible" r:id="rId2"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6753" uniqueCount="1740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6753" uniqueCount="1742">
   <si>
     <r>
       <rPr>
@@ -3159,13 +3159,16 @@
     <t xml:space="preserve">Puddle Down Strong (Front/Behind) (Latest)</t>
   </si>
   <si>
-    <t xml:space="preserve">Nair</t>
+    <t xml:space="preserve">Nair (Earliest)</t>
   </si>
   <si>
     <t xml:space="preserve">6-14 (If Orcane is falling you are able to bounce during Nair's active frames by holding attack, continuing the attack and allowing Orcane to hit the opponent a second time with the same Nair)</t>
   </si>
   <si>
     <t xml:space="preserve">5 frames hit lockout. Must be falling and holding attack in order to bounce. Bouncing will continue that nair, meaning the remaining active frames and endlag will occur before you are actionable. This allows you to hitfall your nair to hit your opponent twice with the same nair, the second attack having lower knockback due to the moves sex kick properties. There are two heights you can bounce to, determined by your fall speed (fast-fall for full height).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nair (Latest)</t>
   </si>
   <si>
     <t xml:space="preserve">Fair (Maximum velocity)</t>
@@ -3450,6 +3453,9 @@
   </si>
   <si>
     <t xml:space="preserve">32-33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nair</t>
   </si>
   <si>
     <t xml:space="preserve">5-13</t>
@@ -7644,7 +7650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -7654,7 +7660,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="3.14"/>
@@ -8781,8 +8787,8 @@
     <hyperlink ref="P44" r:id="rId10" display="https://twitter.com/roa_academy"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -8791,21 +8797,21 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AB44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="B29" activeCellId="0" sqref="B29"/>
+      <selection pane="bottomLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.57"/>
@@ -10262,7 +10268,7 @@
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="99" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="B24" s="99" t="n">
         <v>5</v>
@@ -10329,19 +10335,19 @@
     </row>
     <row r="25" customFormat="false" ht="64.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="128" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B25" s="128" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="C25" s="139" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="D25" s="151" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="E25" s="139" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="F25" s="128" t="n">
         <v>48</v>
@@ -10396,19 +10402,19 @@
     </row>
     <row r="26" customFormat="false" ht="65.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="128" t="s">
+        <v>984</v>
+      </c>
+      <c r="B26" s="128" t="s">
+        <v>980</v>
+      </c>
+      <c r="C26" s="139" t="s">
+        <v>981</v>
+      </c>
+      <c r="D26" s="151" t="s">
+        <v>982</v>
+      </c>
+      <c r="E26" s="139" t="s">
         <v>983</v>
-      </c>
-      <c r="B26" s="128" t="s">
-        <v>979</v>
-      </c>
-      <c r="C26" s="139" t="s">
-        <v>980</v>
-      </c>
-      <c r="D26" s="151" t="s">
-        <v>981</v>
-      </c>
-      <c r="E26" s="139" t="s">
-        <v>982</v>
       </c>
       <c r="F26" s="128" t="n">
         <v>48</v>
@@ -10463,13 +10469,13 @@
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="99" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B27" s="99" t="n">
         <v>9</v>
       </c>
       <c r="C27" s="115" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="D27" s="97"/>
       <c r="E27" s="99"/>
@@ -10492,7 +10498,7 @@
         <v>275</v>
       </c>
       <c r="T27" s="150" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="U27" s="150"/>
       <c r="V27" s="150"/>
@@ -10568,7 +10574,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="99" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B29" s="99"/>
       <c r="C29" s="99" t="s">
@@ -10679,7 +10685,7 @@
         <v>129</v>
       </c>
       <c r="T30" s="131" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="U30" s="131"/>
       <c r="V30" s="131"/>
@@ -10690,11 +10696,11 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="99" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B31" s="99"/>
       <c r="C31" s="99" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="D31" s="97"/>
       <c r="E31" s="99"/>
@@ -10742,11 +10748,11 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="99" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B32" s="99"/>
       <c r="C32" s="99" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="D32" s="97"/>
       <c r="E32" s="99"/>
@@ -10794,7 +10800,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="128" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B33" s="128" t="n">
         <v>8</v>
@@ -10851,7 +10857,7 @@
         <v>129</v>
       </c>
       <c r="T33" s="131" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="U33" s="131"/>
       <c r="V33" s="131"/>
@@ -10862,13 +10868,13 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="99" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B34" s="99" t="n">
         <v>9</v>
       </c>
       <c r="C34" s="99" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="D34" s="99" t="n">
         <v>16</v>
@@ -10930,14 +10936,14 @@
         <v>41</v>
       </c>
       <c r="C35" s="128" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="D35" s="139" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="E35" s="139"/>
       <c r="F35" s="139" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="G35" s="128" t="n">
         <v>8</v>
@@ -10973,7 +10979,7 @@
         <v>129</v>
       </c>
       <c r="T35" s="131" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="U35" s="131"/>
       <c r="V35" s="131"/>
@@ -10986,20 +10992,20 @@
     </row>
     <row r="36" customFormat="false" ht="78.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="99" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B36" s="99" t="n">
         <v>41</v>
       </c>
       <c r="C36" s="99" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="D36" s="115" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="E36" s="115"/>
       <c r="F36" s="115" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="G36" s="99" t="n">
         <v>14</v>
@@ -11035,7 +11041,7 @@
         <v>129</v>
       </c>
       <c r="T36" s="132" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="U36" s="132"/>
       <c r="V36" s="132"/>
@@ -11048,13 +11054,13 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="128" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B37" s="128" t="n">
         <v>16</v>
       </c>
       <c r="C37" s="128" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="D37" s="128" t="n">
         <f aca="false">63-32</f>
@@ -11098,7 +11104,7 @@
         <v>129</v>
       </c>
       <c r="T37" s="131" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="U37" s="131"/>
       <c r="V37" s="131"/>
@@ -11111,11 +11117,11 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="99" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B38" s="99"/>
       <c r="C38" s="99" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="D38" s="99"/>
       <c r="E38" s="99"/>
@@ -11165,13 +11171,13 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="128" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B39" s="128" t="n">
         <v>26</v>
       </c>
       <c r="C39" s="128" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="D39" s="128" t="n">
         <f aca="false">73-42</f>
@@ -11215,7 +11221,7 @@
         <v>129</v>
       </c>
       <c r="T39" s="131" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="U39" s="131"/>
       <c r="V39" s="131"/>
@@ -11228,11 +11234,11 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="99" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B40" s="99"/>
       <c r="C40" s="99" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="D40" s="99"/>
       <c r="E40" s="99"/>
@@ -11282,10 +11288,10 @@
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="128" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B41" s="139" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="C41" s="139"/>
       <c r="D41" s="128" t="n">
@@ -11293,7 +11299,7 @@
       </c>
       <c r="E41" s="128"/>
       <c r="F41" s="139" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="G41" s="128"/>
       <c r="H41" s="128"/>
@@ -11309,7 +11315,7 @@
       <c r="R41" s="128"/>
       <c r="S41" s="128"/>
       <c r="T41" s="135" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="U41" s="135"/>
       <c r="V41" s="135"/>
@@ -11322,13 +11328,13 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="99" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="B42" s="99" t="n">
         <v>11</v>
       </c>
       <c r="C42" s="99" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="D42" s="99" t="n">
         <v>14</v>
@@ -11346,14 +11352,14 @@
       <c r="M42" s="99"/>
       <c r="N42" s="99"/>
       <c r="O42" s="99" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="P42" s="99"/>
       <c r="Q42" s="99"/>
       <c r="R42" s="99"/>
       <c r="S42" s="99"/>
       <c r="T42" s="132" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="U42" s="132"/>
       <c r="V42" s="132"/>
@@ -11366,13 +11372,13 @@
     </row>
     <row r="43" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="128" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B43" s="128" t="n">
         <v>12</v>
       </c>
       <c r="C43" s="139" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="D43" s="128" t="n">
         <v>13</v>
@@ -11402,7 +11408,7 @@
       <c r="M43" s="128"/>
       <c r="N43" s="128"/>
       <c r="O43" s="128" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="P43" s="128" t="n">
         <v>6</v>
@@ -11417,7 +11423,7 @@
         <v>129</v>
       </c>
       <c r="T43" s="131" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="U43" s="131"/>
       <c r="V43" s="131"/>
@@ -11430,13 +11436,13 @@
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="99" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B44" s="99" t="n">
         <v>7</v>
       </c>
       <c r="C44" s="115" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D44" s="99" t="n">
         <v>18</v>
@@ -11473,7 +11479,7 @@
         <v>275</v>
       </c>
       <c r="T44" s="137" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="U44" s="137"/>
       <c r="V44" s="137"/>
@@ -11531,8 +11537,8 @@
     <mergeCell ref="T44:AB44"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -11541,7 +11547,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -11553,7 +11559,7 @@
       <selection pane="topRight" activeCell="H53" activeCellId="0" sqref="H53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.98"/>
@@ -11573,7 +11579,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="235" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B1" s="236"/>
       <c r="C1" s="237"/>
@@ -11674,10 +11680,10 @@
         <v>312</v>
       </c>
       <c r="C3" s="242" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D3" s="243" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="F3" s="242" t="s">
         <v>323</v>
@@ -11730,16 +11736,16 @@
         <v>131</v>
       </c>
       <c r="B4" s="97" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="C4" s="97" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="D4" s="109" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="F4" s="97" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="G4" s="97" t="s">
         <v>297</v>
@@ -11787,17 +11793,17 @@
         <v>424</v>
       </c>
       <c r="B5" s="242" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="C5" s="242" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D5" s="242" t="n">
         <f aca="false">45-29</f>
         <v>16</v>
       </c>
       <c r="F5" s="242" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="G5" s="242" t="s">
         <v>138</v>
@@ -11848,7 +11854,7 @@
         <v>192</v>
       </c>
       <c r="C6" s="97" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D6" s="97" t="n">
         <f aca="false">E6/3*2</f>
@@ -11904,14 +11910,14 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="241" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B7" s="242"/>
       <c r="C7" s="242" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D7" s="242" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="E7" s="242"/>
       <c r="F7" s="242"/>
@@ -11949,7 +11955,7 @@
         <v>129</v>
       </c>
       <c r="T7" s="245" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="U7" s="245"/>
       <c r="V7" s="245"/>
@@ -12028,7 +12034,7 @@
         <v>145</v>
       </c>
       <c r="C9" s="242" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D9" s="242" t="n">
         <f aca="false">E9/3*2</f>
@@ -12075,7 +12081,7 @@
         <v>129</v>
       </c>
       <c r="T9" s="246" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="U9" s="246"/>
       <c r="V9" s="246"/>
@@ -12138,13 +12144,13 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="241" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="B11" s="242" t="s">
         <v>145</v>
       </c>
       <c r="C11" s="242" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="D11" s="242" t="n">
         <f aca="false">E11/3*2</f>
@@ -12191,7 +12197,7 @@
         <v>129</v>
       </c>
       <c r="T11" s="244" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="U11" s="244"/>
       <c r="V11" s="244"/>
@@ -12202,11 +12208,11 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="108" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B12" s="97"/>
       <c r="C12" s="97" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D12" s="97"/>
       <c r="E12" s="97"/>
@@ -12316,13 +12322,13 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="108" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B14" s="97" t="s">
         <v>208</v>
       </c>
       <c r="C14" s="97" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="D14" s="97" t="n">
         <f aca="false">E14/3*2</f>
@@ -12333,7 +12339,7 @@
         <v>36</v>
       </c>
       <c r="F14" s="97" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="G14" s="97" t="s">
         <v>314</v>
@@ -12378,11 +12384,11 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="241" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="B15" s="242"/>
       <c r="C15" s="242" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="D15" s="242"/>
       <c r="E15" s="242"/>
@@ -12430,11 +12436,11 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="108" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B16" s="97"/>
       <c r="C16" s="97" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D16" s="97"/>
       <c r="E16" s="97"/>
@@ -12482,7 +12488,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="241" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="B17" s="242"/>
       <c r="C17" s="242" t="s">
@@ -12534,13 +12540,13 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="108" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="B18" s="97" t="s">
         <v>195</v>
       </c>
       <c r="C18" s="97" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="D18" s="97" t="s">
         <v>195</v>
@@ -12647,13 +12653,13 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="108" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B20" s="97" t="s">
         <v>195</v>
       </c>
       <c r="C20" s="97" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D20" s="97" t="s">
         <v>183</v>
@@ -12709,11 +12715,11 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="241" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B21" s="242"/>
       <c r="C21" s="242" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="D21" s="242"/>
       <c r="E21" s="242"/>
@@ -12777,7 +12783,7 @@
         <v>23</v>
       </c>
       <c r="F22" s="97" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="G22" s="97" t="s">
         <v>159</v>
@@ -12826,7 +12832,7 @@
       </c>
       <c r="B23" s="242"/>
       <c r="C23" s="242" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="D23" s="242"/>
       <c r="E23" s="242"/>
@@ -12874,11 +12880,11 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="108" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B24" s="97"/>
       <c r="C24" s="97" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="D24" s="97"/>
       <c r="E24" s="97"/>
@@ -12926,7 +12932,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="241" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="B25" s="242" t="s">
         <v>192</v>
@@ -12949,7 +12955,7 @@
         <v>138</v>
       </c>
       <c r="H25" s="242" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="I25" s="242" t="s">
         <v>192</v>
@@ -12990,11 +12996,11 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="108" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B26" s="97"/>
       <c r="C26" s="97" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="D26" s="97"/>
       <c r="E26" s="97"/>
@@ -13044,11 +13050,11 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="241" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B27" s="242"/>
       <c r="C27" s="242" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="D27" s="242"/>
       <c r="E27" s="242"/>
@@ -13098,7 +13104,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="108" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="B28" s="97"/>
       <c r="C28" s="97" t="s">
@@ -13111,7 +13117,7 @@
         <v>138</v>
       </c>
       <c r="H28" s="97" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="I28" s="97" t="s">
         <v>192</v>
@@ -13152,11 +13158,11 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="241" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="B29" s="242"/>
       <c r="C29" s="242" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="D29" s="242"/>
       <c r="E29" s="242"/>
@@ -13204,11 +13210,11 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="108" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="B30" s="97"/>
       <c r="C30" s="97" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="D30" s="97"/>
       <c r="E30" s="97"/>
@@ -13256,13 +13262,13 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="108" t="s">
-        <v>975</v>
+        <v>1073</v>
       </c>
       <c r="B31" s="99" t="n">
         <v>4</v>
       </c>
       <c r="C31" s="99" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="D31" s="99" t="n">
         <f aca="false">E31/3*2</f>
@@ -13319,7 +13325,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="241" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="B32" s="248" t="n">
         <v>6</v>
@@ -13381,11 +13387,11 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="108" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="B33" s="99"/>
       <c r="C33" s="99" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="D33" s="99"/>
       <c r="E33" s="99"/>
@@ -13430,7 +13436,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="241" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="B34" s="248" t="n">
         <v>9</v>
@@ -13492,7 +13498,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="96" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="B35" s="96"/>
       <c r="C35" s="96" t="s">
@@ -13541,7 +13547,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="96" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="B36" s="96"/>
       <c r="C36" s="96" t="s">
@@ -13590,11 +13596,11 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="241" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="B37" s="248"/>
       <c r="C37" s="248" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="D37" s="248"/>
       <c r="E37" s="248"/>
@@ -13639,11 +13645,11 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="241" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="B38" s="248"/>
       <c r="C38" s="248" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="D38" s="248"/>
       <c r="E38" s="248"/>
@@ -13688,7 +13694,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="108" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="B39" s="99" t="n">
         <v>5</v>
@@ -13744,7 +13750,7 @@
         <v>129</v>
       </c>
       <c r="T39" s="253" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="U39" s="253"/>
       <c r="V39" s="253"/>
@@ -13753,7 +13759,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="241" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="B40" s="248"/>
       <c r="C40" s="249" t="n">
@@ -13802,7 +13808,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="108" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="B41" s="99"/>
       <c r="C41" s="99" t="s">
@@ -13857,12 +13863,12 @@
         <v>15</v>
       </c>
       <c r="C42" s="254" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="D42" s="248"/>
       <c r="E42" s="248"/>
       <c r="F42" s="254" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="G42" s="248" t="n">
         <v>10</v>
@@ -13897,7 +13903,7 @@
         <v>129</v>
       </c>
       <c r="T42" s="255" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="U42" s="255"/>
       <c r="V42" s="255"/>
@@ -13906,7 +13912,7 @@
     </row>
     <row r="43" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="108" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="B43" s="99"/>
       <c r="C43" s="252" t="n">
@@ -13962,20 +13968,20 @@
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="241" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="B44" s="242" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="C44" s="243" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="D44" s="242" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="E44" s="242"/>
       <c r="F44" s="243" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="G44" s="242" t="s">
         <v>314</v>
@@ -13993,12 +13999,12 @@
         <v>314</v>
       </c>
       <c r="L44" s="242" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="M44" s="242"/>
       <c r="N44" s="242"/>
       <c r="O44" s="243" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="P44" s="242" t="s">
         <v>168</v>
@@ -14013,7 +14019,7 @@
         <v>275</v>
       </c>
       <c r="T44" s="246" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="U44" s="246"/>
       <c r="V44" s="246"/>
@@ -14024,20 +14030,20 @@
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="108" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="B45" s="109" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="C45" s="109" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="D45" s="109" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="E45" s="109"/>
       <c r="F45" s="109" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="G45" s="97" t="s">
         <v>159</v>
@@ -14060,7 +14066,7 @@
       <c r="M45" s="97"/>
       <c r="N45" s="97"/>
       <c r="O45" s="109" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="P45" s="97" t="s">
         <v>192</v>
@@ -14075,7 +14081,7 @@
         <v>129</v>
       </c>
       <c r="T45" s="104" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="U45" s="104"/>
       <c r="V45" s="104"/>
@@ -14086,20 +14092,20 @@
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="241" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="B46" s="243" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="C46" s="243" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="D46" s="242" t="s">
         <v>208</v>
       </c>
       <c r="E46" s="242"/>
       <c r="F46" s="243" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="G46" s="242" t="s">
         <v>314</v>
@@ -14137,7 +14143,7 @@
         <v>129</v>
       </c>
       <c r="T46" s="246" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="U46" s="246"/>
       <c r="V46" s="246"/>
@@ -14148,10 +14154,10 @@
     </row>
     <row r="47" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="108" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="C47" s="97" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="G47" s="256" t="str">
         <f aca="false">HYPERLINK("https://docs.google.com/spreadsheets/d/1PCtOZj_RfMQiHetcAXIhzhoCcnVSl4g0o0fbyqURlqY/edit?usp=sharing","3")</f>
@@ -14200,11 +14206,11 @@
     </row>
     <row r="48" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="241" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="B48" s="242"/>
       <c r="C48" s="242" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="D48" s="242"/>
       <c r="E48" s="242"/>
@@ -14257,20 +14263,20 @@
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="108" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="B49" s="97" t="s">
         <v>168</v>
       </c>
       <c r="C49" s="109" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="D49" s="109" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="E49" s="109"/>
       <c r="F49" s="109" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="G49" s="97" t="s">
         <v>314</v>
@@ -14306,7 +14312,7 @@
         <v>275</v>
       </c>
       <c r="T49" s="104" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="U49" s="104"/>
       <c r="V49" s="104"/>
@@ -14317,11 +14323,11 @@
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="241" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="B50" s="242"/>
       <c r="C50" s="261" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G50" s="242" t="s">
         <v>297</v>
@@ -14357,7 +14363,7 @@
         <v>275</v>
       </c>
       <c r="T50" s="246" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="U50" s="246"/>
       <c r="V50" s="246"/>
@@ -14368,20 +14374,20 @@
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="108" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="B51" s="109" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="C51" s="109" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="D51" s="109" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="E51" s="109"/>
       <c r="F51" s="109" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="G51" s="97" t="s">
         <v>127</v>
@@ -14417,7 +14423,7 @@
         <v>129</v>
       </c>
       <c r="T51" s="104" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="U51" s="104"/>
       <c r="V51" s="104"/>
@@ -14428,26 +14434,26 @@
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="241" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="B52" s="243" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="C52" s="243" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="D52" s="243" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="E52" s="243"/>
       <c r="F52" s="243" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="G52" s="242" t="s">
         <v>464</v>
       </c>
       <c r="H52" s="243" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="I52" s="242" t="s">
         <v>145</v>
@@ -14477,7 +14483,7 @@
         <v>129</v>
       </c>
       <c r="T52" s="246" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="U52" s="246"/>
       <c r="V52" s="246"/>
@@ -14589,8 +14595,8 @@
     <mergeCell ref="T52:Z52"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -14599,7 +14605,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -14613,7 +14619,7 @@
       <selection pane="bottomRight" activeCell="H50" activeCellId="0" sqref="H50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.57"/>
@@ -14631,7 +14637,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="227" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="B1" s="228"/>
       <c r="C1" s="229"/>
@@ -14733,7 +14739,7 @@
         <v>578</v>
       </c>
       <c r="D3" s="139" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="E3" s="128"/>
       <c r="F3" s="128" t="n">
@@ -14786,17 +14792,17 @@
         <v>131</v>
       </c>
       <c r="B4" s="99" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="C4" s="98" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="D4" s="115" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="E4" s="99"/>
       <c r="F4" s="97" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="G4" s="98" t="n">
         <v>2</v>
@@ -14843,17 +14849,17 @@
         <v>424</v>
       </c>
       <c r="B5" s="128" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="C5" s="130" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="D5" s="139" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="E5" s="128"/>
       <c r="F5" s="129" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="G5" s="130" t="n">
         <v>2</v>
@@ -14897,20 +14903,20 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="102" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="B6" s="99" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="C6" s="136" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="D6" s="115" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="E6" s="99"/>
       <c r="F6" s="115" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="G6" s="98" t="n">
         <v>1</v>
@@ -14946,7 +14952,7 @@
         <v>129</v>
       </c>
       <c r="T6" s="167" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="U6" s="167"/>
       <c r="V6" s="167"/>
@@ -15023,7 +15029,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="98" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="D8" s="99" t="n">
         <v>12</v>
@@ -15079,11 +15085,11 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="145" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="B9" s="128"/>
       <c r="C9" s="130" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="D9" s="128"/>
       <c r="E9" s="128"/>
@@ -15130,7 +15136,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="102" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="B10" s="99"/>
       <c r="C10" s="98" t="s">
@@ -15143,7 +15149,7 @@
         <v>299</v>
       </c>
       <c r="H10" s="98" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="I10" s="98" t="n">
         <v>6</v>
@@ -15181,7 +15187,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="145" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="B11" s="128" t="n">
         <v>8</v>
@@ -15242,7 +15248,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="102" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="B12" s="99"/>
       <c r="C12" s="98" t="s">
@@ -15293,7 +15299,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="145" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="B13" s="128"/>
       <c r="C13" s="130" t="s">
@@ -15404,13 +15410,13 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="145" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="B15" s="128" t="n">
         <v>14</v>
       </c>
       <c r="C15" s="130" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="D15" s="128" t="n">
         <f aca="false">E15/3*2</f>
@@ -15457,7 +15463,7 @@
         <v>129</v>
       </c>
       <c r="T15" s="138" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="U15" s="138"/>
       <c r="V15" s="138"/>
@@ -15467,11 +15473,11 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="102" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="B16" s="99"/>
       <c r="C16" s="98" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="D16" s="99"/>
       <c r="E16" s="99"/>
@@ -15510,7 +15516,7 @@
         <v>129</v>
       </c>
       <c r="T16" s="101" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="U16" s="101"/>
       <c r="V16" s="101"/>
@@ -15520,7 +15526,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="145" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="B17" s="128" t="n">
         <v>10</v>
@@ -15571,7 +15577,7 @@
         <v>129</v>
       </c>
       <c r="T17" s="138" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="U17" s="138"/>
       <c r="V17" s="138"/>
@@ -15581,7 +15587,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="102" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="B18" s="99"/>
       <c r="C18" s="98" t="s">
@@ -15624,7 +15630,7 @@
         <v>129</v>
       </c>
       <c r="T18" s="101" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="U18" s="101"/>
       <c r="V18" s="101"/>
@@ -15634,7 +15640,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="145" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="B19" s="128"/>
       <c r="C19" s="130" t="s">
@@ -15677,7 +15683,7 @@
         <v>129</v>
       </c>
       <c r="T19" s="138" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="U19" s="138"/>
       <c r="V19" s="138"/>
@@ -15687,13 +15693,13 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="102" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="B20" s="99" t="n">
         <v>22</v>
       </c>
       <c r="C20" s="98" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="D20" s="99" t="n">
         <f aca="false">E20/3*2</f>
@@ -15740,7 +15746,7 @@
         <v>129</v>
       </c>
       <c r="T20" s="101" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="U20" s="101"/>
       <c r="V20" s="101"/>
@@ -15750,11 +15756,11 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="145" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="B21" s="128"/>
       <c r="C21" s="130" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="D21" s="128"/>
       <c r="E21" s="128"/>
@@ -15793,7 +15799,7 @@
         <v>129</v>
       </c>
       <c r="T21" s="138" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="U21" s="138"/>
       <c r="V21" s="138"/>
@@ -15803,7 +15809,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="102" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="B22" s="99"/>
       <c r="C22" s="98" t="s">
@@ -15846,7 +15852,7 @@
         <v>129</v>
       </c>
       <c r="T22" s="101" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="U22" s="101"/>
       <c r="V22" s="101"/>
@@ -15856,13 +15862,13 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="102" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="B23" s="99" t="n">
         <v>3</v>
       </c>
       <c r="C23" s="98" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="D23" s="99" t="n">
         <v>7</v>
@@ -15918,13 +15924,13 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="102" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="B24" s="99" t="n">
         <v>3</v>
       </c>
       <c r="C24" s="98" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="D24" s="99" t="n">
         <v>7</v>
@@ -15980,11 +15986,11 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="145" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="B25" s="128"/>
       <c r="C25" s="130" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="D25" s="128"/>
       <c r="E25" s="128"/>
@@ -16029,11 +16035,11 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="145" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="B26" s="128"/>
       <c r="C26" s="130" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="D26" s="128"/>
       <c r="E26" s="128"/>
@@ -16139,7 +16145,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="145" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="B28" s="128"/>
       <c r="C28" s="130" t="s">
@@ -16188,7 +16194,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="102" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="B29" s="99"/>
       <c r="C29" s="98" t="s">
@@ -16237,13 +16243,13 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="145" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="B30" s="128" t="n">
         <v>4</v>
       </c>
       <c r="C30" s="130" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="D30" s="128" t="n">
         <v>16</v>
@@ -16258,7 +16264,7 @@
         <v>192</v>
       </c>
       <c r="H30" s="130" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="I30" s="130" t="s">
         <v>192</v>
@@ -16298,13 +16304,13 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="145" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="B31" s="128" t="n">
         <v>4</v>
       </c>
       <c r="C31" s="130" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="D31" s="128" t="n">
         <v>16</v>
@@ -16319,7 +16325,7 @@
         <v>192</v>
       </c>
       <c r="H31" s="130" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="I31" s="130" t="s">
         <v>168</v>
@@ -16359,11 +16365,11 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="102" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="B32" s="99"/>
       <c r="C32" s="98" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="D32" s="99"/>
       <c r="E32" s="99"/>
@@ -16408,11 +16414,11 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="145" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="B33" s="128"/>
       <c r="C33" s="130" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="D33" s="128"/>
       <c r="E33" s="128"/>
@@ -16492,7 +16498,7 @@
         <v>2</v>
       </c>
       <c r="L34" s="102" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="M34" s="102" t="n">
         <v>4</v>
@@ -16575,7 +16581,7 @@
         <v>12</v>
       </c>
       <c r="C36" s="98" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="E36" s="99" t="n">
         <f aca="false">49-28</f>
@@ -16620,7 +16626,7 @@
         <v>129</v>
       </c>
       <c r="T36" s="137" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="U36" s="137"/>
       <c r="V36" s="137"/>
@@ -16628,13 +16634,13 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="145" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="B37" s="128" t="n">
         <v>6</v>
       </c>
       <c r="C37" s="130" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="D37" s="128"/>
       <c r="E37" s="128"/>
@@ -16679,18 +16685,18 @@
     </row>
     <row r="38" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="102" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="B38" s="99"/>
       <c r="C38" s="98" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="D38" s="99" t="n">
         <v>14</v>
       </c>
       <c r="E38" s="99"/>
       <c r="F38" s="115" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="G38" s="99" t="n">
         <v>4</v>
@@ -16734,19 +16740,19 @@
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="268" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="B39" s="133" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="C39" s="268" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="D39" s="268" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="E39" s="133" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="F39" s="133"/>
       <c r="G39" s="268"/>
@@ -16763,7 +16769,7 @@
       <c r="R39" s="268"/>
       <c r="S39" s="268"/>
       <c r="T39" s="269" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="U39" s="269"/>
       <c r="V39" s="269"/>
@@ -16773,13 +16779,13 @@
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="173" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="B40" s="136" t="s">
         <v>297</v>
       </c>
       <c r="C40" s="136" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="D40" s="173" t="n">
         <f aca="false">30-18</f>
@@ -16803,7 +16809,7 @@
       <c r="R40" s="173"/>
       <c r="S40" s="173"/>
       <c r="T40" s="270" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="U40" s="270"/>
       <c r="V40" s="270"/>
@@ -16813,19 +16819,19 @@
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="268" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="B41" s="133" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="C41" s="133" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="D41" s="133" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="E41" s="133" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="F41" s="133"/>
       <c r="G41" s="268" t="n">
@@ -16862,7 +16868,7 @@
         <v>129</v>
       </c>
       <c r="T41" s="271" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="U41" s="271"/>
       <c r="V41" s="271"/>
@@ -16872,19 +16878,19 @@
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="173" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="B42" s="136" t="s">
         <v>229</v>
       </c>
       <c r="C42" s="136" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="D42" s="173" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="E42" s="136" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="F42" s="136"/>
       <c r="G42" s="173" t="n">
@@ -16921,7 +16927,7 @@
         <v>275</v>
       </c>
       <c r="T42" s="167" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="U42" s="167"/>
       <c r="V42" s="167"/>
@@ -16931,19 +16937,19 @@
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="268" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="B43" s="133" t="s">
         <v>229</v>
       </c>
       <c r="C43" s="133" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="D43" s="268" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="E43" s="133" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="F43" s="133"/>
       <c r="G43" s="268" t="n">
@@ -16967,7 +16973,7 @@
       <c r="M43" s="133"/>
       <c r="N43" s="133"/>
       <c r="O43" s="268" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="P43" s="268" t="n">
         <v>10</v>
@@ -16982,7 +16988,7 @@
         <v>275</v>
       </c>
       <c r="T43" s="269" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
       <c r="U43" s="269"/>
       <c r="V43" s="269"/>
@@ -16992,19 +16998,19 @@
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="173" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="B44" s="136" t="s">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="C44" s="136" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
       <c r="D44" s="173" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="E44" s="136" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="F44" s="136"/>
       <c r="G44" s="173"/>
@@ -17023,7 +17029,7 @@
         <v>129</v>
       </c>
       <c r="T44" s="167" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="U44" s="167"/>
       <c r="V44" s="167"/>
@@ -17033,19 +17039,19 @@
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="268" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="B45" s="133" t="s">
         <v>159</v>
       </c>
       <c r="C45" s="133" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="D45" s="268" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="E45" s="133" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="F45" s="133"/>
       <c r="G45" s="268" t="n">
@@ -17082,7 +17088,7 @@
         <v>129</v>
       </c>
       <c r="T45" s="269" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="U45" s="269"/>
       <c r="V45" s="269"/>
@@ -17092,19 +17098,19 @@
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="173" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="B46" s="136" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="C46" s="136" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="D46" s="173" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
       <c r="E46" s="136" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="F46" s="136"/>
       <c r="G46" s="173" t="n">
@@ -17141,7 +17147,7 @@
         <v>129</v>
       </c>
       <c r="T46" s="167" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="U46" s="167"/>
       <c r="V46" s="167"/>
@@ -17151,20 +17157,20 @@
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="268" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="B47" s="133" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="C47" s="133" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="D47" s="268" t="n">
         <f aca="false">67-59</f>
         <v>8</v>
       </c>
       <c r="E47" s="133" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="F47" s="133"/>
       <c r="G47" s="268" t="n">
@@ -17201,7 +17207,7 @@
         <v>129</v>
       </c>
       <c r="T47" s="269" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="U47" s="269"/>
       <c r="V47" s="269"/>
@@ -17211,11 +17217,11 @@
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="173" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="B48" s="136"/>
       <c r="C48" s="173" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="D48" s="173"/>
       <c r="E48" s="136"/>
@@ -17254,7 +17260,7 @@
         <v>129</v>
       </c>
       <c r="T48" s="167" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="U48" s="167"/>
       <c r="V48" s="167"/>
@@ -17264,13 +17270,13 @@
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="268" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="B49" s="133" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="C49" s="133" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="D49" s="268"/>
       <c r="E49" s="133"/>
@@ -17309,7 +17315,7 @@
         <v>129</v>
       </c>
       <c r="T49" s="269" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="U49" s="269"/>
       <c r="V49" s="269"/>
@@ -17319,19 +17325,19 @@
     </row>
     <row r="50" customFormat="false" ht="56.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="173" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="B50" s="136" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="C50" s="136" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="D50" s="173" t="n">
         <v>25</v>
       </c>
       <c r="E50" s="136" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="F50" s="136"/>
       <c r="G50" s="173"/>
@@ -17353,14 +17359,14 @@
       <c r="M50" s="136"/>
       <c r="N50" s="136"/>
       <c r="O50" s="173" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="P50" s="173"/>
       <c r="Q50" s="173"/>
       <c r="R50" s="173"/>
       <c r="S50" s="173"/>
       <c r="T50" s="137" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="U50" s="137"/>
       <c r="V50" s="137"/>
@@ -17370,13 +17376,13 @@
     </row>
     <row r="51" customFormat="false" ht="56.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="268" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="B51" s="133" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="C51" s="133" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="D51" s="268" t="n">
         <v>10</v>
@@ -17404,7 +17410,7 @@
       <c r="M51" s="133"/>
       <c r="N51" s="133"/>
       <c r="O51" s="268" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="P51" s="268"/>
       <c r="Q51" s="268"/>
@@ -17419,19 +17425,19 @@
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="173" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="B52" s="136" t="s">
         <v>138</v>
       </c>
       <c r="C52" s="136" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="D52" s="173" t="n">
         <v>5</v>
       </c>
       <c r="E52" s="136" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="F52" s="136"/>
       <c r="G52" s="272"/>
@@ -17453,14 +17459,14 @@
       <c r="M52" s="136"/>
       <c r="N52" s="136"/>
       <c r="O52" s="173" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="P52" s="173"/>
       <c r="Q52" s="173"/>
       <c r="R52" s="173"/>
       <c r="S52" s="173"/>
       <c r="T52" s="137" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="U52" s="137"/>
       <c r="V52" s="137"/>
@@ -17470,7 +17476,7 @@
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="173" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="C53" s="270"/>
       <c r="D53" s="270"/>
@@ -17500,7 +17506,7 @@
       <c r="R53" s="115"/>
       <c r="S53" s="115"/>
       <c r="T53" s="270" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="U53" s="115"/>
     </row>
@@ -17575,8 +17581,8 @@
     <mergeCell ref="T52:Y52"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -17585,7 +17591,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -17599,7 +17605,7 @@
       <selection pane="bottomRight" activeCell="H57" activeCellId="0" sqref="H57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.43"/>
@@ -17619,7 +17625,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="273" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="B1" s="274"/>
       <c r="C1" s="275"/>
@@ -17786,7 +17792,7 @@
         <v>145</v>
       </c>
       <c r="C4" s="284" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
       <c r="D4" s="284" t="s">
         <v>183</v>
@@ -17842,7 +17848,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="280" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="B5" s="281"/>
       <c r="C5" s="281" t="s">
@@ -17896,7 +17902,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="280" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="B6" s="281"/>
       <c r="C6" s="281" t="s">
@@ -17953,16 +17959,16 @@
         <v>144</v>
       </c>
       <c r="B7" s="286" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="C7" s="284" t="s">
         <v>320</v>
       </c>
       <c r="D7" s="286" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="E7" s="286" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="F7" s="284" t="s">
         <v>304</v>
@@ -18001,7 +18007,7 @@
         <v>129</v>
       </c>
       <c r="T7" s="287" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="U7" s="287"/>
       <c r="V7" s="287"/>
@@ -18014,22 +18020,22 @@
     </row>
     <row r="8" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="280" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="B8" s="281" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
       <c r="C8" s="281" t="s">
-        <v>1267</v>
+        <v>1269</v>
       </c>
       <c r="D8" s="288" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
       <c r="E8" s="288" t="s">
         <v>208</v>
       </c>
       <c r="F8" s="281" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="G8" s="281" t="s">
         <v>168</v>
@@ -18065,7 +18071,7 @@
         <v>129</v>
       </c>
       <c r="T8" s="289" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="U8" s="289"/>
       <c r="V8" s="289"/>
@@ -18084,7 +18090,7 @@
         <v>192</v>
       </c>
       <c r="C9" s="284" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="D9" s="284" t="s">
         <v>159</v>
@@ -18130,7 +18136,7 @@
         <v>129</v>
       </c>
       <c r="T9" s="285" t="s">
-        <v>1272</v>
+        <v>1274</v>
       </c>
       <c r="U9" s="285"/>
       <c r="V9" s="285"/>
@@ -18149,7 +18155,7 @@
         <v>138</v>
       </c>
       <c r="C10" s="281" t="s">
-        <v>1273</v>
+        <v>1275</v>
       </c>
       <c r="D10" s="281" t="n">
         <f aca="false">E10/3*2</f>
@@ -18252,7 +18258,7 @@
         <v>129</v>
       </c>
       <c r="T11" s="290" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
       <c r="U11" s="290"/>
       <c r="V11" s="290"/>
@@ -18318,7 +18324,7 @@
         <v>129</v>
       </c>
       <c r="T12" s="291" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="U12" s="291"/>
       <c r="V12" s="291"/>
@@ -18331,7 +18337,7 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="283" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="B13" s="284" t="s">
         <v>208</v>
@@ -18361,7 +18367,7 @@
         <v>308</v>
       </c>
       <c r="K13" s="284" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
       <c r="L13" s="284" t="s">
         <v>128</v>
@@ -18382,7 +18388,7 @@
         <v>129</v>
       </c>
       <c r="T13" s="290" t="s">
-        <v>1278</v>
+        <v>1280</v>
       </c>
       <c r="U13" s="290"/>
       <c r="V13" s="290"/>
@@ -18395,7 +18401,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="280" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="B14" s="281"/>
       <c r="C14" s="281" t="s">
@@ -18408,7 +18414,7 @@
         <v>138</v>
       </c>
       <c r="H14" s="281" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="I14" s="281" t="s">
         <v>138</v>
@@ -18438,7 +18444,7 @@
         <v>129</v>
       </c>
       <c r="T14" s="289" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="U14" s="289"/>
       <c r="V14" s="289"/>
@@ -18451,13 +18457,13 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="283" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="B15" s="284" t="s">
-        <v>1282</v>
+        <v>1284</v>
       </c>
       <c r="C15" s="286" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="D15" s="284"/>
       <c r="E15" s="284"/>
@@ -18465,7 +18471,7 @@
         <v>104</v>
       </c>
       <c r="G15" s="286" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="H15" s="284" t="s">
         <v>341</v>
@@ -18498,7 +18504,7 @@
         <v>129</v>
       </c>
       <c r="T15" s="290" t="s">
-        <v>1285</v>
+        <v>1287</v>
       </c>
       <c r="U15" s="290"/>
       <c r="V15" s="290"/>
@@ -18511,13 +18517,13 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="280" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="B16" s="288" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
       <c r="C16" s="288" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
       <c r="D16" s="281"/>
       <c r="E16" s="281"/>
@@ -18556,7 +18562,7 @@
         <v>129</v>
       </c>
       <c r="T16" s="291" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="U16" s="291"/>
       <c r="V16" s="291"/>
@@ -18569,11 +18575,11 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="283" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="B17" s="284"/>
       <c r="C17" s="284" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="D17" s="284" t="s">
         <v>323</v>
@@ -18588,7 +18594,7 @@
         <v>312</v>
       </c>
       <c r="H17" s="284" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="I17" s="284" t="s">
         <v>297</v>
@@ -18631,7 +18637,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="280" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="B18" s="281"/>
       <c r="C18" s="281" t="s">
@@ -18684,7 +18690,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="283" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
       <c r="B19" s="284"/>
       <c r="C19" s="284" t="s">
@@ -18737,11 +18743,11 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="280" t="s">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="B20" s="281"/>
       <c r="C20" s="281" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="G20" s="281" t="s">
         <v>299</v>
@@ -18799,7 +18805,7 @@
       <c r="D21" s="284"/>
       <c r="E21" s="284"/>
       <c r="F21" s="286" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
       <c r="G21" s="284" t="s">
         <v>138</v>
@@ -18835,7 +18841,7 @@
         <v>129</v>
       </c>
       <c r="T21" s="292" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="U21" s="292"/>
       <c r="V21" s="292"/>
@@ -18848,7 +18854,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="280" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="B22" s="281"/>
       <c r="C22" s="281"/>
@@ -18857,7 +18863,7 @@
         <v>215</v>
       </c>
       <c r="F22" s="288" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="G22" s="281"/>
       <c r="H22" s="281"/>
@@ -18884,7 +18890,7 @@
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="280" t="s">
-        <v>975</v>
+        <v>1073</v>
       </c>
       <c r="B23" s="280" t="n">
         <v>4</v>
@@ -18941,7 +18947,7 @@
         <v>129</v>
       </c>
       <c r="T23" s="291" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="U23" s="291"/>
       <c r="V23" s="291"/>
@@ -18952,19 +18958,19 @@
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="283" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="B24" s="286" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="C24" s="284" t="s">
         <v>320</v>
       </c>
       <c r="D24" s="286" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="E24" s="286" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="F24" s="284" t="s">
         <v>304</v>
@@ -19003,7 +19009,7 @@
         <v>129</v>
       </c>
       <c r="T24" s="290" t="s">
-        <v>1303</v>
+        <v>1305</v>
       </c>
       <c r="U24" s="290"/>
       <c r="V24" s="290"/>
@@ -19014,22 +19020,22 @@
     </row>
     <row r="25" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="280" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="B25" s="281" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
       <c r="C25" s="281" t="s">
-        <v>1267</v>
+        <v>1269</v>
       </c>
       <c r="D25" s="288" t="s">
-        <v>1304</v>
+        <v>1306</v>
       </c>
       <c r="E25" s="288" t="s">
         <v>208</v>
       </c>
       <c r="F25" s="281" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="G25" s="281" t="s">
         <v>168</v>
@@ -19065,7 +19071,7 @@
         <v>129</v>
       </c>
       <c r="T25" s="289" t="s">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="U25" s="289"/>
       <c r="V25" s="289"/>
@@ -19076,13 +19082,13 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="283" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="B26" s="283" t="n">
         <v>12</v>
       </c>
       <c r="C26" s="283" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="D26" s="284" t="n">
         <f aca="false">E26/3*2</f>
@@ -19111,7 +19117,7 @@
         <v>2</v>
       </c>
       <c r="L26" s="283" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
       <c r="M26" s="283" t="n">
         <v>4</v>
@@ -19142,7 +19148,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="280" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="B27" s="280"/>
       <c r="C27" s="280" t="s">
@@ -19200,7 +19206,7 @@
         <v>9</v>
       </c>
       <c r="C28" s="286" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="D28" s="284" t="s">
         <v>183</v>
@@ -19210,7 +19216,7 @@
         <v>21</v>
       </c>
       <c r="F28" s="294" t="s">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="G28" s="283" t="n">
         <v>2</v>
@@ -19250,7 +19256,7 @@
         <v>129</v>
       </c>
       <c r="T28" s="295" t="s">
-        <v>1312</v>
+        <v>1314</v>
       </c>
       <c r="U28" s="295"/>
       <c r="V28" s="295"/>
@@ -19261,11 +19267,11 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="280" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
       <c r="B29" s="280"/>
       <c r="C29" s="288" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="D29" s="280"/>
       <c r="E29" s="280"/>
@@ -19313,11 +19319,11 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="283" t="s">
-        <v>1314</v>
+        <v>1316</v>
       </c>
       <c r="B30" s="283"/>
       <c r="C30" s="286" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="D30" s="283"/>
       <c r="E30" s="283"/>
@@ -19365,11 +19371,11 @@
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="280" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="B31" s="280"/>
       <c r="C31" s="296" t="s">
-        <v>1316</v>
+        <v>1318</v>
       </c>
       <c r="D31" s="280"/>
       <c r="E31" s="280"/>
@@ -19408,7 +19414,7 @@
         <v>129</v>
       </c>
       <c r="T31" s="299" t="s">
-        <v>1317</v>
+        <v>1319</v>
       </c>
       <c r="U31" s="299"/>
       <c r="V31" s="299"/>
@@ -19419,11 +19425,11 @@
     </row>
     <row r="32" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="283" t="s">
-        <v>1318</v>
+        <v>1320</v>
       </c>
       <c r="B32" s="283"/>
       <c r="C32" s="294" t="s">
-        <v>1316</v>
+        <v>1318</v>
       </c>
       <c r="D32" s="283"/>
       <c r="E32" s="283"/>
@@ -19471,7 +19477,7 @@
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="280" t="s">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="B33" s="280" t="n">
         <v>6</v>
@@ -19510,7 +19516,7 @@
         <v>12</v>
       </c>
       <c r="N33" s="280" t="s">
-        <v>1320</v>
+        <v>1322</v>
       </c>
       <c r="O33" s="280"/>
       <c r="P33" s="280" t="n">
@@ -19537,7 +19543,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="283" t="s">
-        <v>1321</v>
+        <v>1323</v>
       </c>
       <c r="B34" s="283"/>
       <c r="C34" s="302" t="n">
@@ -19580,7 +19586,7 @@
         <v>129</v>
       </c>
       <c r="T34" s="303" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
       <c r="U34" s="303"/>
       <c r="V34" s="303"/>
@@ -19591,10 +19597,10 @@
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="280" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
       <c r="C35" s="296" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
       <c r="G35" s="280" t="n">
         <v>7</v>
@@ -19627,7 +19633,7 @@
         <v>129</v>
       </c>
       <c r="T35" s="301" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="U35" s="301"/>
       <c r="V35" s="301"/>
@@ -19638,11 +19644,11 @@
     </row>
     <row r="36" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="283" t="s">
-        <v>1326</v>
+        <v>1328</v>
       </c>
       <c r="B36" s="283"/>
       <c r="C36" s="294" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
       <c r="D36" s="283"/>
       <c r="E36" s="283"/>
@@ -19681,7 +19687,7 @@
         <v>129</v>
       </c>
       <c r="T36" s="303" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
       <c r="U36" s="303"/>
       <c r="V36" s="303"/>
@@ -19692,13 +19698,13 @@
     </row>
     <row r="37" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="280" t="s">
-        <v>1327</v>
+        <v>1329</v>
       </c>
       <c r="B37" s="281" t="s">
         <v>145</v>
       </c>
       <c r="C37" s="288" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="D37" s="281" t="s">
         <v>323</v>
@@ -19732,20 +19738,20 @@
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="283" t="s">
-        <v>1329</v>
+        <v>1331</v>
       </c>
       <c r="B38" s="284" t="s">
         <v>229</v>
       </c>
       <c r="C38" s="286" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="D38" s="286" t="s">
-        <v>1331</v>
+        <v>1333</v>
       </c>
       <c r="E38" s="286"/>
       <c r="F38" s="284" t="s">
-        <v>1332</v>
+        <v>1334</v>
       </c>
       <c r="G38" s="284" t="s">
         <v>299</v>
@@ -19781,7 +19787,7 @@
         <v>129</v>
       </c>
       <c r="T38" s="304" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
       <c r="U38" s="304"/>
       <c r="V38" s="304"/>
@@ -19794,13 +19800,13 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="280" t="s">
-        <v>1334</v>
+        <v>1336</v>
       </c>
       <c r="B39" s="281" t="s">
         <v>155</v>
       </c>
       <c r="C39" s="288" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="D39" s="281" t="n">
         <f aca="false">69-34</f>
@@ -19808,7 +19814,7 @@
       </c>
       <c r="E39" s="281"/>
       <c r="F39" s="288" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="G39" s="281" t="s">
         <v>192</v>
@@ -19817,7 +19823,7 @@
         <v>45</v>
       </c>
       <c r="I39" s="281" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
       <c r="J39" s="281" t="s">
         <v>162</v>
@@ -19844,7 +19850,7 @@
         <v>129</v>
       </c>
       <c r="T39" s="282" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
       <c r="U39" s="282"/>
       <c r="V39" s="282"/>
@@ -19857,11 +19863,11 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="283" t="s">
-        <v>1339</v>
+        <v>1341</v>
       </c>
       <c r="B40" s="284"/>
       <c r="C40" s="286" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="D40" s="284"/>
       <c r="E40" s="284"/>
@@ -19873,7 +19879,7 @@
         <v>45</v>
       </c>
       <c r="I40" s="284" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
       <c r="J40" s="284" t="s">
         <v>216</v>
@@ -19913,20 +19919,20 @@
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="280" t="s">
-        <v>1341</v>
+        <v>1343</v>
       </c>
       <c r="B41" s="281" t="s">
         <v>183</v>
       </c>
       <c r="C41" s="281" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="D41" s="281" t="s">
         <v>214</v>
       </c>
       <c r="E41" s="281"/>
       <c r="F41" s="281" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="G41" s="281" t="s">
         <v>312</v>
@@ -19964,7 +19970,7 @@
         <v>129</v>
       </c>
       <c r="T41" s="291" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="U41" s="291"/>
       <c r="V41" s="291"/>
@@ -19977,13 +19983,13 @@
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="283" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
       <c r="B42" s="286" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="C42" s="284" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="D42" s="284"/>
       <c r="E42" s="284"/>
@@ -20022,7 +20028,7 @@
         <v>129</v>
       </c>
       <c r="T42" s="290" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="U42" s="290"/>
       <c r="V42" s="290"/>
@@ -20038,17 +20044,17 @@
         <v>258</v>
       </c>
       <c r="B43" s="288" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="C43" s="288" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="D43" s="307" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="E43" s="307"/>
       <c r="F43" s="288" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="G43" s="308" t="str">
         <f aca="false">HYPERLINK("https://docs.google.com/spreadsheets/d/1YNgIbi2TWxxqVOEXj-HK9XmvMXWPZRdVFHantc3bjXY/edit?usp=sharing","6")</f>
@@ -20066,7 +20072,7 @@
         <v>50</v>
       </c>
       <c r="K43" s="288" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="L43" s="281" t="s">
         <v>128</v>
@@ -20074,7 +20080,7 @@
       <c r="M43" s="281"/>
       <c r="N43" s="281"/>
       <c r="O43" s="288" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
       <c r="P43" s="281" t="s">
         <v>192</v>
@@ -20103,20 +20109,20 @@
     </row>
     <row r="44" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="294" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="B44" s="286" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="C44" s="286" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="D44" s="310" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="E44" s="310"/>
       <c r="F44" s="286" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="G44" s="311" t="str">
         <f aca="false">HYPERLINK("https://docs.google.com/spreadsheets/d/1YNgIbi2TWxxqVOEXj-HK9XmvMXWPZRdVFHantc3bjXY/edit?usp=sharing","7")</f>
@@ -20134,7 +20140,7 @@
         <v>55</v>
       </c>
       <c r="K44" s="286" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="L44" s="284" t="s">
         <v>128</v>
@@ -20142,7 +20148,7 @@
       <c r="M44" s="284"/>
       <c r="N44" s="284"/>
       <c r="O44" s="286" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
       <c r="P44" s="284" t="s">
         <v>192</v>
@@ -20168,20 +20174,20 @@
     </row>
     <row r="45" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="296" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="B45" s="288" t="s">
-        <v>1360</v>
+        <v>1362</v>
       </c>
       <c r="C45" s="288" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
       <c r="D45" s="307" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="E45" s="307"/>
       <c r="F45" s="288" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="G45" s="308" t="str">
         <f aca="false">HYPERLINK("https://docs.google.com/spreadsheets/d/1YNgIbi2TWxxqVOEXj-HK9XmvMXWPZRdVFHantc3bjXY/edit?usp=sharing","8")</f>
@@ -20199,7 +20205,7 @@
         <v>60</v>
       </c>
       <c r="K45" s="288" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="L45" s="281" t="s">
         <v>128</v>
@@ -20207,7 +20213,7 @@
       <c r="M45" s="281"/>
       <c r="N45" s="281"/>
       <c r="O45" s="288" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
       <c r="P45" s="281" t="s">
         <v>192</v>
@@ -20233,20 +20239,20 @@
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="283" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="B46" s="286" t="s">
-        <v>1360</v>
+        <v>1362</v>
       </c>
       <c r="C46" s="286" t="s">
-        <v>1364</v>
+        <v>1366</v>
       </c>
       <c r="D46" s="286" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
       <c r="E46" s="286"/>
       <c r="F46" s="286" t="s">
-        <v>1366</v>
+        <v>1368</v>
       </c>
       <c r="G46" s="284" t="s">
         <v>208</v>
@@ -20261,7 +20267,7 @@
         <v>308</v>
       </c>
       <c r="K46" s="286" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="L46" s="284" t="s">
         <v>128</v>
@@ -20269,7 +20275,7 @@
       <c r="M46" s="284"/>
       <c r="N46" s="284"/>
       <c r="O46" s="286" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
       <c r="P46" s="284" t="s">
         <v>192</v>
@@ -20284,7 +20290,7 @@
         <v>129</v>
       </c>
       <c r="T46" s="290" t="s">
-        <v>1367</v>
+        <v>1369</v>
       </c>
       <c r="U46" s="290"/>
       <c r="V46" s="290"/>
@@ -20303,7 +20309,7 @@
         <v>208</v>
       </c>
       <c r="C47" s="281" t="s">
-        <v>1368</v>
+        <v>1370</v>
       </c>
       <c r="D47" s="281"/>
       <c r="E47" s="281"/>
@@ -20312,7 +20318,7 @@
         <v>145</v>
       </c>
       <c r="H47" s="281" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="I47" s="281" t="s">
         <v>192</v>
@@ -20342,7 +20348,7 @@
         <v>129</v>
       </c>
       <c r="T47" s="282" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="U47" s="282"/>
       <c r="V47" s="282"/>
@@ -20355,7 +20361,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="283" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="B48" s="284"/>
       <c r="C48" s="284" t="s">
@@ -20368,7 +20374,7 @@
         <v>159</v>
       </c>
       <c r="H48" s="284" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="I48" s="284" t="s">
         <v>161</v>
@@ -20411,11 +20417,11 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="280" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="B49" s="281"/>
       <c r="C49" s="281" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="D49" s="281"/>
       <c r="E49" s="281"/>
@@ -20465,11 +20471,11 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="283" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
       <c r="B50" s="284"/>
       <c r="C50" s="284" t="s">
-        <v>1373</v>
+        <v>1375</v>
       </c>
       <c r="D50" s="284"/>
       <c r="E50" s="284"/>
@@ -20508,7 +20514,7 @@
         <v>129</v>
       </c>
       <c r="T50" s="285" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="U50" s="285"/>
       <c r="V50" s="285"/>
@@ -20521,11 +20527,11 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="283" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="B51" s="284"/>
       <c r="C51" s="284" t="s">
-        <v>1373</v>
+        <v>1375</v>
       </c>
       <c r="D51" s="284"/>
       <c r="E51" s="284"/>
@@ -20564,7 +20570,7 @@
         <v>129</v>
       </c>
       <c r="T51" s="285" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="U51" s="285"/>
       <c r="V51" s="285"/>
@@ -20577,11 +20583,11 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="280" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="B52" s="281"/>
       <c r="C52" s="288" t="s">
-        <v>1377</v>
+        <v>1379</v>
       </c>
       <c r="D52" s="281"/>
       <c r="E52" s="281"/>
@@ -20620,7 +20626,7 @@
         <v>129</v>
       </c>
       <c r="T52" s="282" t="s">
-        <v>1378</v>
+        <v>1380</v>
       </c>
       <c r="U52" s="282"/>
       <c r="V52" s="282"/>
@@ -20633,14 +20639,14 @@
     </row>
     <row r="53" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="283" t="s">
-        <v>1379</v>
+        <v>1381</v>
       </c>
       <c r="B53" s="284"/>
       <c r="C53" s="284" t="s">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="D53" s="286" t="s">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="E53" s="286"/>
       <c r="F53" s="284" t="s">
@@ -20691,18 +20697,18 @@
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="280" t="s">
-        <v>1382</v>
+        <v>1384</v>
       </c>
       <c r="B54" s="281" t="s">
         <v>229</v>
       </c>
       <c r="C54" s="288" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="D54" s="281"/>
       <c r="E54" s="281"/>
       <c r="F54" s="288" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="G54" s="281" t="s">
         <v>192</v>
@@ -20738,7 +20744,7 @@
         <v>129</v>
       </c>
       <c r="T54" s="291" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="U54" s="291"/>
       <c r="V54" s="291"/>
@@ -20751,20 +20757,20 @@
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="283" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
       <c r="B55" s="284" t="s">
         <v>297</v>
       </c>
       <c r="C55" s="286" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="D55" s="286" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
       <c r="E55" s="286"/>
       <c r="F55" s="286" t="s">
-        <v>1389</v>
+        <v>1391</v>
       </c>
       <c r="G55" s="284" t="s">
         <v>192</v>
@@ -20782,7 +20788,7 @@
         <v>314</v>
       </c>
       <c r="L55" s="284" t="s">
-        <v>1390</v>
+        <v>1392</v>
       </c>
       <c r="M55" s="284"/>
       <c r="N55" s="284"/>
@@ -20800,7 +20806,7 @@
         <v>129</v>
       </c>
       <c r="T55" s="290" t="s">
-        <v>1391</v>
+        <v>1393</v>
       </c>
       <c r="U55" s="290"/>
       <c r="V55" s="290"/>
@@ -20813,13 +20819,13 @@
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="280" t="s">
-        <v>1392</v>
+        <v>1394</v>
       </c>
       <c r="B56" s="281" t="s">
         <v>314</v>
       </c>
       <c r="C56" s="288" t="s">
-        <v>1393</v>
+        <v>1395</v>
       </c>
       <c r="D56" s="281"/>
       <c r="E56" s="281"/>
@@ -20858,7 +20864,7 @@
         <v>129</v>
       </c>
       <c r="T56" s="291" t="s">
-        <v>1394</v>
+        <v>1396</v>
       </c>
       <c r="U56" s="291"/>
       <c r="V56" s="291"/>
@@ -20871,13 +20877,13 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="312" t="s">
-        <v>1395</v>
+        <v>1397</v>
       </c>
       <c r="B57" s="313" t="s">
-        <v>1396</v>
+        <v>1398</v>
       </c>
       <c r="C57" s="312" t="s">
-        <v>1397</v>
+        <v>1399</v>
       </c>
       <c r="H57" s="0" t="n">
         <v>0</v>
@@ -20912,7 +20918,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="315" t="s">
-        <v>1398</v>
+        <v>1400</v>
       </c>
       <c r="B58" s="316"/>
       <c r="C58" s="316" t="s">
@@ -20941,7 +20947,7 @@
       <c r="R58" s="298"/>
       <c r="S58" s="298"/>
       <c r="T58" s="317" t="s">
-        <v>1399</v>
+        <v>1401</v>
       </c>
       <c r="U58" s="317"/>
       <c r="V58" s="317"/>
@@ -20951,7 +20957,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="318" t="s">
-        <v>1400</v>
+        <v>1402</v>
       </c>
       <c r="B59" s="319"/>
       <c r="C59" s="319" t="s">
@@ -20973,7 +20979,7 @@
         <v>0</v>
       </c>
       <c r="T59" s="320" t="s">
-        <v>1401</v>
+        <v>1403</v>
       </c>
       <c r="U59" s="320"/>
       <c r="V59" s="320"/>
@@ -20983,7 +20989,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="315" t="s">
-        <v>1402</v>
+        <v>1404</v>
       </c>
       <c r="B60" s="316"/>
       <c r="C60" s="316" t="s">
@@ -21005,7 +21011,7 @@
         <v>0</v>
       </c>
       <c r="T60" s="317" t="s">
-        <v>1403</v>
+        <v>1405</v>
       </c>
       <c r="U60" s="317"/>
       <c r="V60" s="317"/>
@@ -21015,7 +21021,7 @@
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="318" t="s">
-        <v>1404</v>
+        <v>1406</v>
       </c>
       <c r="B61" s="319"/>
       <c r="C61" s="319" t="s">
@@ -21037,7 +21043,7 @@
         <v>0</v>
       </c>
       <c r="T61" s="320" t="s">
-        <v>1405</v>
+        <v>1407</v>
       </c>
       <c r="U61" s="320"/>
       <c r="V61" s="320"/>
@@ -21047,7 +21053,7 @@
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="315" t="s">
-        <v>1406</v>
+        <v>1408</v>
       </c>
       <c r="B62" s="316"/>
       <c r="C62" s="316" t="s">
@@ -21069,7 +21075,7 @@
         <v>0</v>
       </c>
       <c r="T62" s="317" t="s">
-        <v>1407</v>
+        <v>1409</v>
       </c>
       <c r="U62" s="317"/>
       <c r="V62" s="317"/>
@@ -21079,7 +21085,7 @@
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="318" t="s">
-        <v>1408</v>
+        <v>1410</v>
       </c>
       <c r="B63" s="319"/>
       <c r="C63" s="319" t="s">
@@ -21101,7 +21107,7 @@
         <v>0</v>
       </c>
       <c r="T63" s="320" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="U63" s="320"/>
       <c r="V63" s="320"/>
@@ -21111,11 +21117,11 @@
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="315" t="s">
-        <v>1410</v>
+        <v>1412</v>
       </c>
       <c r="B64" s="316"/>
       <c r="C64" s="316" t="s">
-        <v>1411</v>
+        <v>1413</v>
       </c>
       <c r="H64" s="0" t="n">
         <v>0</v>
@@ -21133,7 +21139,7 @@
         <v>0</v>
       </c>
       <c r="T64" s="321" t="s">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="U64" s="321"/>
       <c r="V64" s="321"/>
@@ -21143,11 +21149,11 @@
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="318" t="s">
-        <v>1413</v>
+        <v>1415</v>
       </c>
       <c r="B65" s="319"/>
       <c r="C65" s="319" t="s">
-        <v>1414</v>
+        <v>1416</v>
       </c>
       <c r="H65" s="0" t="n">
         <v>0</v>
@@ -21165,7 +21171,7 @@
         <v>0</v>
       </c>
       <c r="T65" s="320" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="U65" s="320"/>
       <c r="V65" s="320"/>
@@ -21175,11 +21181,11 @@
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="315" t="s">
-        <v>1416</v>
+        <v>1418</v>
       </c>
       <c r="B66" s="315"/>
       <c r="C66" s="316" t="s">
-        <v>1414</v>
+        <v>1416</v>
       </c>
       <c r="H66" s="0" t="n">
         <v>0</v>
@@ -21197,7 +21203,7 @@
         <v>0</v>
       </c>
       <c r="T66" s="317" t="s">
-        <v>1417</v>
+        <v>1419</v>
       </c>
       <c r="U66" s="317"/>
       <c r="V66" s="317"/>
@@ -21207,7 +21213,7 @@
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="318" t="s">
-        <v>1418</v>
+        <v>1420</v>
       </c>
       <c r="B67" s="280" t="n">
         <v>1000</v>
@@ -21229,7 +21235,7 @@
         <v>0</v>
       </c>
       <c r="T67" s="282" t="s">
-        <v>1419</v>
+        <v>1421</v>
       </c>
       <c r="U67" s="282"/>
       <c r="V67" s="282"/>
@@ -21239,7 +21245,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="315" t="s">
-        <v>1420</v>
+        <v>1422</v>
       </c>
       <c r="B68" s="283" t="n">
         <v>1200</v>
@@ -21268,7 +21274,7 @@
       <c r="R68" s="315"/>
       <c r="S68" s="315"/>
       <c r="T68" s="285" t="s">
-        <v>1421</v>
+        <v>1423</v>
       </c>
       <c r="U68" s="285"/>
       <c r="V68" s="285"/>
@@ -21278,7 +21284,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="318" t="s">
-        <v>1329</v>
+        <v>1331</v>
       </c>
       <c r="B69" s="280" t="n">
         <v>1400</v>
@@ -21315,7 +21321,7 @@
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="315" t="s">
-        <v>1422</v>
+        <v>1424</v>
       </c>
       <c r="B70" s="283" t="n">
         <v>1600</v>
@@ -21344,7 +21350,7 @@
       <c r="R70" s="315"/>
       <c r="S70" s="315"/>
       <c r="T70" s="322" t="s">
-        <v>1423</v>
+        <v>1425</v>
       </c>
       <c r="U70" s="322"/>
       <c r="V70" s="322"/>
@@ -21354,7 +21360,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="318" t="s">
-        <v>1424</v>
+        <v>1426</v>
       </c>
       <c r="B71" s="280" t="n">
         <v>1800</v>
@@ -21383,7 +21389,7 @@
       <c r="R71" s="318"/>
       <c r="S71" s="318"/>
       <c r="T71" s="282" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="U71" s="282"/>
       <c r="V71" s="282"/>
@@ -21393,7 +21399,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="315" t="s">
-        <v>1426</v>
+        <v>1428</v>
       </c>
       <c r="B72" s="283" t="n">
         <v>2000</v>
@@ -21430,11 +21436,11 @@
     </row>
     <row r="73" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="318" t="s">
-        <v>1427</v>
+        <v>1429</v>
       </c>
       <c r="B73" s="323"/>
       <c r="C73" s="323" t="s">
-        <v>1428</v>
+        <v>1430</v>
       </c>
       <c r="H73" s="0" t="n">
         <v>0</v>
@@ -21459,7 +21465,7 @@
       <c r="R73" s="318"/>
       <c r="S73" s="318"/>
       <c r="T73" s="324" t="s">
-        <v>1429</v>
+        <v>1431</v>
       </c>
       <c r="U73" s="324"/>
       <c r="V73" s="324"/>
@@ -21469,11 +21475,11 @@
     </row>
     <row r="74" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="315" t="s">
-        <v>1430</v>
+        <v>1432</v>
       </c>
       <c r="B74" s="325"/>
       <c r="C74" s="325" t="s">
-        <v>1431</v>
+        <v>1433</v>
       </c>
       <c r="H74" s="0" t="n">
         <v>0</v>
@@ -21506,11 +21512,11 @@
     </row>
     <row r="75" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="318" t="s">
-        <v>1432</v>
+        <v>1434</v>
       </c>
       <c r="B75" s="323"/>
       <c r="C75" s="323" t="s">
-        <v>1433</v>
+        <v>1435</v>
       </c>
       <c r="H75" s="0" t="n">
         <v>0</v>
@@ -21613,8 +21619,8 @@
     <mergeCell ref="T73:X75"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -21623,7 +21629,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -21637,7 +21643,7 @@
       <selection pane="bottomRight" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.71"/>
@@ -21656,7 +21662,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="326" t="s">
-        <v>1434</v>
+        <v>1436</v>
       </c>
       <c r="B1" s="327"/>
       <c r="C1" s="215"/>
@@ -21765,7 +21771,7 @@
         <v>296</v>
       </c>
       <c r="D3" s="202" t="s">
-        <v>1435</v>
+        <v>1437</v>
       </c>
       <c r="E3" s="209"/>
       <c r="F3" s="203" t="s">
@@ -21820,17 +21826,17 @@
         <v>131</v>
       </c>
       <c r="B4" s="98" t="s">
-        <v>1436</v>
+        <v>1438</v>
       </c>
       <c r="C4" s="136" t="s">
-        <v>1437</v>
+        <v>1439</v>
       </c>
       <c r="D4" s="136" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
       <c r="E4" s="102"/>
       <c r="F4" s="136" t="s">
-        <v>1439</v>
+        <v>1441</v>
       </c>
       <c r="G4" s="102" t="n">
         <v>4</v>
@@ -21876,20 +21882,20 @@
     </row>
     <row r="5" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="209" t="s">
-        <v>1440</v>
+        <v>1442</v>
       </c>
       <c r="B5" s="203" t="s">
-        <v>1441</v>
+        <v>1443</v>
       </c>
       <c r="C5" s="202" t="s">
-        <v>1442</v>
+        <v>1444</v>
       </c>
       <c r="D5" s="329" t="s">
-        <v>1443</v>
+        <v>1445</v>
       </c>
       <c r="E5" s="200"/>
       <c r="F5" s="202" t="s">
-        <v>1444</v>
+        <v>1446</v>
       </c>
       <c r="G5" s="209" t="n">
         <v>6</v>
@@ -21935,13 +21941,13 @@
     </row>
     <row r="6" customFormat="false" ht="25.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="173" t="s">
-        <v>1445</v>
+        <v>1447</v>
       </c>
       <c r="B6" s="98" t="s">
-        <v>1446</v>
+        <v>1448</v>
       </c>
       <c r="C6" s="98" t="s">
-        <v>1447</v>
+        <v>1449</v>
       </c>
       <c r="D6" s="98" t="s">
         <v>214</v>
@@ -21951,7 +21957,7 @@
         <v>20</v>
       </c>
       <c r="F6" s="98" t="s">
-        <v>1448</v>
+        <v>1450</v>
       </c>
       <c r="G6" s="102" t="n">
         <v>5</v>
@@ -21987,7 +21993,7 @@
         <v>129</v>
       </c>
       <c r="T6" s="137" t="s">
-        <v>1449</v>
+        <v>1451</v>
       </c>
       <c r="U6" s="137"/>
       <c r="V6" s="137"/>
@@ -21999,13 +22005,13 @@
     </row>
     <row r="7" customFormat="false" ht="25.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="209" t="s">
-        <v>1450</v>
+        <v>1452</v>
       </c>
       <c r="B7" s="203" t="s">
-        <v>1451</v>
+        <v>1453</v>
       </c>
       <c r="C7" s="202" t="s">
-        <v>1452</v>
+        <v>1454</v>
       </c>
       <c r="D7" s="203"/>
       <c r="E7" s="203"/>
@@ -22044,7 +22050,7 @@
         <v>275</v>
       </c>
       <c r="T7" s="330" t="s">
-        <v>1453</v>
+        <v>1455</v>
       </c>
       <c r="U7" s="330"/>
       <c r="V7" s="330"/>
@@ -22056,7 +22062,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="102" t="s">
-        <v>1454</v>
+        <v>1456</v>
       </c>
       <c r="B8" s="98" t="s">
         <v>138</v>
@@ -22118,11 +22124,11 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="209" t="s">
-        <v>1455</v>
+        <v>1457</v>
       </c>
       <c r="B9" s="203"/>
       <c r="C9" s="203" t="s">
-        <v>1456</v>
+        <v>1458</v>
       </c>
       <c r="D9" s="209"/>
       <c r="E9" s="209"/>
@@ -22177,7 +22183,7 @@
         <v>192</v>
       </c>
       <c r="C10" s="136" t="s">
-        <v>1457</v>
+        <v>1459</v>
       </c>
       <c r="D10" s="136" t="s">
         <v>148</v>
@@ -22220,7 +22226,7 @@
         <v>129</v>
       </c>
       <c r="T10" s="137" t="s">
-        <v>1458</v>
+        <v>1460</v>
       </c>
       <c r="U10" s="137"/>
       <c r="V10" s="137"/>
@@ -22232,15 +22238,15 @@
     </row>
     <row r="11" customFormat="false" ht="26.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="329" t="s">
-        <v>1459</v>
+        <v>1461</v>
       </c>
       <c r="B11" s="203"/>
       <c r="C11" s="202" t="s">
-        <v>1460</v>
+        <v>1462</v>
       </c>
       <c r="E11" s="209"/>
       <c r="G11" s="209" t="s">
-        <v>1461</v>
+        <v>1463</v>
       </c>
       <c r="H11" s="209" t="n">
         <v>60</v>
@@ -22273,7 +22279,7 @@
         <v>129</v>
       </c>
       <c r="T11" s="212" t="s">
-        <v>1462</v>
+        <v>1464</v>
       </c>
       <c r="U11" s="212"/>
       <c r="V11" s="212"/>
@@ -22454,13 +22460,13 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="209" t="s">
-        <v>1463</v>
+        <v>1465</v>
       </c>
       <c r="B15" s="203" t="s">
         <v>161</v>
       </c>
       <c r="C15" s="331" t="s">
-        <v>1464</v>
+        <v>1466</v>
       </c>
       <c r="D15" s="203" t="s">
         <v>464</v>
@@ -22506,7 +22512,7 @@
         <v>129</v>
       </c>
       <c r="T15" s="204" t="s">
-        <v>1465</v>
+        <v>1467</v>
       </c>
       <c r="U15" s="204"/>
       <c r="V15" s="204"/>
@@ -22518,11 +22524,11 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="102" t="s">
-        <v>1466</v>
+        <v>1468</v>
       </c>
       <c r="B16" s="98"/>
       <c r="C16" s="331" t="s">
-        <v>1464</v>
+        <v>1466</v>
       </c>
       <c r="D16" s="98"/>
       <c r="E16" s="98"/>
@@ -22563,7 +22569,7 @@
         <v>129</v>
       </c>
       <c r="T16" s="132" t="s">
-        <v>1465</v>
+        <v>1467</v>
       </c>
       <c r="U16" s="132"/>
       <c r="V16" s="132"/>
@@ -22575,7 +22581,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="209" t="s">
-        <v>1467</v>
+        <v>1469</v>
       </c>
       <c r="B17" s="203"/>
       <c r="C17" s="209" t="s">
@@ -22628,7 +22634,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="102" t="s">
-        <v>1468</v>
+        <v>1470</v>
       </c>
       <c r="B18" s="98"/>
       <c r="C18" s="102" t="s">
@@ -22681,13 +22687,13 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="209" t="s">
-        <v>1469</v>
+        <v>1471</v>
       </c>
       <c r="B19" s="203" t="s">
         <v>464</v>
       </c>
       <c r="C19" s="203" t="s">
-        <v>1470</v>
+        <v>1472</v>
       </c>
       <c r="D19" s="203" t="s">
         <v>183</v>
@@ -22745,11 +22751,11 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="102" t="s">
-        <v>1471</v>
+        <v>1473</v>
       </c>
       <c r="B20" s="98"/>
       <c r="C20" s="98" t="s">
-        <v>1472</v>
+        <v>1474</v>
       </c>
       <c r="D20" s="98"/>
       <c r="E20" s="98"/>
@@ -22800,13 +22806,13 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="209" t="s">
-        <v>1473</v>
+        <v>1475</v>
       </c>
       <c r="B21" s="203" t="s">
         <v>170</v>
       </c>
       <c r="C21" s="203" t="s">
-        <v>1474</v>
+        <v>1476</v>
       </c>
       <c r="D21" s="203" t="n">
         <f aca="false">E21/3*2</f>
@@ -22865,11 +22871,11 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="102" t="s">
-        <v>1475</v>
+        <v>1477</v>
       </c>
       <c r="B22" s="98"/>
       <c r="C22" s="98" t="s">
-        <v>1474</v>
+        <v>1476</v>
       </c>
       <c r="D22" s="136"/>
       <c r="E22" s="136"/>
@@ -22920,11 +22926,11 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="209" t="s">
-        <v>1476</v>
+        <v>1478</v>
       </c>
       <c r="B23" s="203"/>
       <c r="C23" s="203" t="s">
-        <v>1474</v>
+        <v>1476</v>
       </c>
       <c r="D23" s="203"/>
       <c r="E23" s="203"/>
@@ -23046,7 +23052,7 @@
         <v>192</v>
       </c>
       <c r="C25" s="98" t="s">
-        <v>1477</v>
+        <v>1479</v>
       </c>
       <c r="D25" s="98" t="n">
         <f aca="false">E25/3*2</f>
@@ -23220,7 +23226,7 @@
     </row>
     <row r="28" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="209" t="s">
-        <v>1478</v>
+        <v>1480</v>
       </c>
       <c r="B28" s="203" t="s">
         <v>183</v>
@@ -23276,7 +23282,7 @@
         <v>129</v>
       </c>
       <c r="T28" s="330" t="s">
-        <v>1479</v>
+        <v>1481</v>
       </c>
       <c r="U28" s="330"/>
       <c r="V28" s="330"/>
@@ -23286,7 +23292,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="102" t="s">
-        <v>1480</v>
+        <v>1482</v>
       </c>
       <c r="B29" s="98"/>
       <c r="C29" s="98" t="s">
@@ -23339,7 +23345,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="209" t="s">
-        <v>1481</v>
+        <v>1483</v>
       </c>
       <c r="B30" s="203"/>
       <c r="C30" s="203" t="s">
@@ -23392,7 +23398,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="102" t="s">
-        <v>1482</v>
+        <v>1484</v>
       </c>
       <c r="B31" s="98"/>
       <c r="C31" s="98" t="s">
@@ -23445,7 +23451,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="209" t="s">
-        <v>1483</v>
+        <v>1485</v>
       </c>
       <c r="B32" s="203"/>
       <c r="C32" s="203" t="s">
@@ -23498,7 +23504,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="102" t="s">
-        <v>1484</v>
+        <v>1486</v>
       </c>
       <c r="B33" s="98"/>
       <c r="C33" s="98" t="s">
@@ -23551,17 +23557,17 @@
     </row>
     <row r="34" customFormat="false" ht="109.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="209" t="s">
-        <v>1485</v>
+        <v>1487</v>
       </c>
       <c r="B34" s="203"/>
       <c r="C34" s="202" t="s">
-        <v>1486</v>
+        <v>1488</v>
       </c>
       <c r="D34" s="203" t="s">
         <v>314</v>
       </c>
       <c r="E34" s="202" t="s">
-        <v>1487</v>
+        <v>1489</v>
       </c>
       <c r="F34" s="203"/>
       <c r="G34" s="209"/>
@@ -23578,7 +23584,7 @@
       <c r="R34" s="209"/>
       <c r="S34" s="209"/>
       <c r="T34" s="330" t="s">
-        <v>1488</v>
+        <v>1490</v>
       </c>
       <c r="U34" s="330"/>
       <c r="V34" s="330"/>
@@ -23622,7 +23628,7 @@
         <v>2</v>
       </c>
       <c r="L35" s="102" t="s">
-        <v>1489</v>
+        <v>1491</v>
       </c>
       <c r="M35" s="102" t="n">
         <v>8</v>
@@ -23652,7 +23658,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="209" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="B36" s="203"/>
       <c r="C36" s="203" t="s">
@@ -23705,7 +23711,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="102" t="s">
-        <v>1490</v>
+        <v>1492</v>
       </c>
       <c r="B37" s="98" t="s">
         <v>192</v>
@@ -23762,7 +23768,7 @@
         <v>129</v>
       </c>
       <c r="T37" s="167" t="s">
-        <v>1491</v>
+        <v>1493</v>
       </c>
       <c r="U37" s="167"/>
       <c r="V37" s="167"/>
@@ -23772,11 +23778,11 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="209" t="s">
-        <v>1492</v>
+        <v>1494</v>
       </c>
       <c r="B38" s="203"/>
       <c r="C38" s="203" t="s">
-        <v>1493</v>
+        <v>1495</v>
       </c>
       <c r="G38" s="209" t="n">
         <v>7</v>
@@ -23820,13 +23826,13 @@
     </row>
     <row r="39" customFormat="false" ht="25.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="102" t="s">
-        <v>1494</v>
+        <v>1496</v>
       </c>
       <c r="B39" s="98" t="s">
         <v>161</v>
       </c>
       <c r="C39" s="98" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="D39" s="98" t="s">
         <v>148</v>
@@ -23856,7 +23862,7 @@
       <c r="M39" s="102"/>
       <c r="N39" s="102"/>
       <c r="O39" s="102" t="s">
-        <v>1495</v>
+        <v>1497</v>
       </c>
       <c r="P39" s="102" t="n">
         <v>6</v>
@@ -23871,7 +23877,7 @@
         <v>129</v>
       </c>
       <c r="T39" s="167" t="s">
-        <v>1496</v>
+        <v>1498</v>
       </c>
       <c r="U39" s="167"/>
       <c r="V39" s="167"/>
@@ -23883,13 +23889,13 @@
     </row>
     <row r="40" customFormat="false" ht="14.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="209" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="B40" s="203" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="C40" s="203" t="s">
-        <v>1499</v>
+        <v>1501</v>
       </c>
       <c r="D40" s="203"/>
       <c r="E40" s="203"/>
@@ -23928,7 +23934,7 @@
         <v>129</v>
       </c>
       <c r="T40" s="212" t="s">
-        <v>1500</v>
+        <v>1502</v>
       </c>
       <c r="U40" s="212"/>
       <c r="V40" s="212"/>
@@ -23940,11 +23946,11 @@
     </row>
     <row r="41" customFormat="false" ht="89.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="102" t="s">
-        <v>1501</v>
+        <v>1503</v>
       </c>
       <c r="B41" s="98"/>
       <c r="C41" s="136" t="s">
-        <v>1502</v>
+        <v>1504</v>
       </c>
       <c r="D41" s="98"/>
       <c r="E41" s="98"/>
@@ -23963,7 +23969,7 @@
       <c r="R41" s="102"/>
       <c r="S41" s="102"/>
       <c r="T41" s="137" t="s">
-        <v>1503</v>
+        <v>1505</v>
       </c>
       <c r="U41" s="137"/>
       <c r="V41" s="137"/>
@@ -23978,17 +23984,17 @@
         <v>387</v>
       </c>
       <c r="B42" s="203" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
       <c r="C42" s="202" t="s">
-        <v>1505</v>
+        <v>1507</v>
       </c>
       <c r="D42" s="202" t="s">
         <v>148</v>
       </c>
       <c r="E42" s="202"/>
       <c r="F42" s="202" t="s">
-        <v>1506</v>
+        <v>1508</v>
       </c>
       <c r="G42" s="209" t="n">
         <v>8</v>
@@ -24024,7 +24030,7 @@
         <v>275</v>
       </c>
       <c r="T42" s="330" t="s">
-        <v>1507</v>
+        <v>1509</v>
       </c>
       <c r="U42" s="330"/>
       <c r="V42" s="330"/>
@@ -24036,20 +24042,20 @@
     </row>
     <row r="43" customFormat="false" ht="49.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="102" t="s">
-        <v>1508</v>
+        <v>1510</v>
       </c>
       <c r="B43" s="98" t="s">
         <v>192</v>
       </c>
       <c r="C43" s="98" t="s">
-        <v>1509</v>
+        <v>1511</v>
       </c>
       <c r="D43" s="98" t="s">
-        <v>1510</v>
+        <v>1512</v>
       </c>
       <c r="E43" s="98"/>
       <c r="F43" s="136" t="s">
-        <v>1511</v>
+        <v>1513</v>
       </c>
       <c r="G43" s="102" t="n">
         <v>2</v>
@@ -24097,7 +24103,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="209" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="B44" s="203"/>
       <c r="C44" s="203" t="s">
@@ -24152,7 +24158,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="102" t="s">
-        <v>1513</v>
+        <v>1515</v>
       </c>
       <c r="B45" s="98"/>
       <c r="C45" s="98" t="s">
@@ -24207,11 +24213,11 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="209" t="s">
-        <v>1514</v>
+        <v>1516</v>
       </c>
       <c r="B46" s="203"/>
       <c r="C46" s="203" t="s">
-        <v>1515</v>
+        <v>1517</v>
       </c>
       <c r="D46" s="203"/>
       <c r="E46" s="203"/>
@@ -24262,11 +24268,11 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="102" t="s">
-        <v>1516</v>
+        <v>1518</v>
       </c>
       <c r="B47" s="98"/>
       <c r="C47" s="98" t="s">
-        <v>1517</v>
+        <v>1519</v>
       </c>
       <c r="D47" s="98"/>
       <c r="E47" s="98"/>
@@ -24317,11 +24323,11 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="209" t="s">
-        <v>1518</v>
+        <v>1520</v>
       </c>
       <c r="B48" s="203"/>
       <c r="C48" s="203" t="s">
-        <v>1519</v>
+        <v>1521</v>
       </c>
       <c r="D48" s="203"/>
       <c r="E48" s="203"/>
@@ -24360,7 +24366,7 @@
         <v>275</v>
       </c>
       <c r="T48" s="204" t="s">
-        <v>1520</v>
+        <v>1522</v>
       </c>
       <c r="U48" s="204"/>
       <c r="V48" s="204"/>
@@ -24372,13 +24378,13 @@
     </row>
     <row r="49" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="102" t="s">
-        <v>1521</v>
+        <v>1523</v>
       </c>
       <c r="B49" s="136" t="s">
-        <v>1522</v>
+        <v>1524</v>
       </c>
       <c r="C49" s="98" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="D49" s="98" t="n">
         <f aca="false">13-6</f>
@@ -24386,7 +24392,7 @@
       </c>
       <c r="E49" s="98"/>
       <c r="F49" s="136" t="s">
-        <v>1524</v>
+        <v>1526</v>
       </c>
       <c r="G49" s="102" t="n">
         <v>5</v>
@@ -24422,7 +24428,7 @@
         <v>129</v>
       </c>
       <c r="T49" s="167" t="s">
-        <v>1525</v>
+        <v>1527</v>
       </c>
       <c r="U49" s="167"/>
       <c r="V49" s="167"/>
@@ -24434,11 +24440,11 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="209" t="s">
-        <v>1526</v>
+        <v>1528</v>
       </c>
       <c r="B50" s="203"/>
       <c r="C50" s="203" t="s">
-        <v>1527</v>
+        <v>1529</v>
       </c>
       <c r="D50" s="203" t="n">
         <f aca="false">13-6</f>
@@ -24446,7 +24452,7 @@
       </c>
       <c r="E50" s="203"/>
       <c r="F50" s="203" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="G50" s="209" t="n">
         <v>5</v>
@@ -24492,13 +24498,13 @@
     </row>
     <row r="51" customFormat="false" ht="25.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="102" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="B51" s="98" t="s">
-        <v>1530</v>
+        <v>1532</v>
       </c>
       <c r="C51" s="98" t="s">
-        <v>1531</v>
+        <v>1533</v>
       </c>
       <c r="D51" s="98" t="n">
         <f aca="false">45-17</f>
@@ -24523,7 +24529,7 @@
       <c r="R51" s="102"/>
       <c r="S51" s="102"/>
       <c r="T51" s="167" t="s">
-        <v>1532</v>
+        <v>1534</v>
       </c>
       <c r="U51" s="167"/>
       <c r="V51" s="167"/>
@@ -24535,11 +24541,11 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="209" t="s">
-        <v>1533</v>
+        <v>1535</v>
       </c>
       <c r="B52" s="203"/>
       <c r="C52" s="203" t="s">
-        <v>1531</v>
+        <v>1533</v>
       </c>
       <c r="D52" s="203" t="n">
         <f aca="false">37-17</f>
@@ -24573,20 +24579,20 @@
     </row>
     <row r="53" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="102" t="s">
-        <v>1534</v>
+        <v>1536</v>
       </c>
       <c r="B53" s="136" t="s">
-        <v>1535</v>
+        <v>1537</v>
       </c>
       <c r="C53" s="98" t="s">
-        <v>1536</v>
+        <v>1538</v>
       </c>
       <c r="D53" s="98" t="s">
         <v>148</v>
       </c>
       <c r="E53" s="98"/>
       <c r="F53" s="98" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="G53" s="102" t="n">
         <v>10</v>
@@ -24634,11 +24640,11 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="209" t="s">
-        <v>1537</v>
+        <v>1539</v>
       </c>
       <c r="B54" s="203"/>
       <c r="C54" s="203" t="s">
-        <v>1536</v>
+        <v>1538</v>
       </c>
       <c r="D54" s="203"/>
       <c r="E54" s="203"/>
@@ -24687,13 +24693,13 @@
     </row>
     <row r="55" customFormat="false" ht="49.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="102" t="s">
-        <v>1538</v>
+        <v>1540</v>
       </c>
       <c r="B55" s="136" t="s">
-        <v>1539</v>
+        <v>1541</v>
       </c>
       <c r="C55" s="136" t="s">
-        <v>1540</v>
+        <v>1542</v>
       </c>
       <c r="D55" s="102" t="n">
         <v>19</v>
@@ -24723,7 +24729,7 @@
       <c r="M55" s="102"/>
       <c r="N55" s="102"/>
       <c r="O55" s="173" t="s">
-        <v>1541</v>
+        <v>1543</v>
       </c>
       <c r="P55" s="102" t="n">
         <v>4</v>
@@ -24738,7 +24744,7 @@
         <v>275</v>
       </c>
       <c r="T55" s="167" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="U55" s="167"/>
       <c r="V55" s="167"/>
@@ -24779,7 +24785,7 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="102" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="K57" s="136"/>
       <c r="L57" s="173"/>
@@ -24791,7 +24797,7 @@
       <c r="R57" s="102"/>
       <c r="S57" s="175"/>
       <c r="T57" s="335" t="s">
-        <v>1544</v>
+        <v>1546</v>
       </c>
       <c r="U57" s="335"/>
       <c r="V57" s="335"/>
@@ -24864,8 +24870,8 @@
     <mergeCell ref="T56:AA56"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -24874,7 +24880,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -24888,7 +24894,7 @@
       <selection pane="bottomRight" activeCell="L35" activeCellId="0" sqref="L35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="40.14"/>
@@ -24906,7 +24912,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="336" t="s">
-        <v>1545</v>
+        <v>1547</v>
       </c>
       <c r="B1" s="159"/>
       <c r="C1" s="159"/>
@@ -25069,7 +25075,7 @@
         <v>691</v>
       </c>
       <c r="F4" s="97" t="s">
-        <v>1546</v>
+        <v>1548</v>
       </c>
       <c r="G4" s="97" t="s">
         <v>168</v>
@@ -25126,7 +25132,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="339" t="s">
-        <v>1547</v>
+        <v>1549</v>
       </c>
       <c r="G5" s="339" t="s">
         <v>138</v>
@@ -25176,10 +25182,10 @@
         <v>138</v>
       </c>
       <c r="C6" s="97" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
       <c r="D6" s="97" t="s">
-        <v>1549</v>
+        <v>1551</v>
       </c>
       <c r="E6" s="97" t="n">
         <f aca="false">42-19</f>
@@ -25230,13 +25236,13 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="339" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="B7" s="339" t="s">
         <v>138</v>
       </c>
       <c r="C7" s="339" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
       <c r="D7" s="339" t="s">
         <v>297</v>
@@ -25282,7 +25288,7 @@
         <v>129</v>
       </c>
       <c r="T7" s="342" t="s">
-        <v>1551</v>
+        <v>1553</v>
       </c>
       <c r="U7" s="342"/>
       <c r="V7" s="342"/>
@@ -25301,7 +25307,7 @@
         <v>699</v>
       </c>
       <c r="E8" s="109" t="s">
-        <v>1552</v>
+        <v>1554</v>
       </c>
       <c r="F8" s="97" t="s">
         <v>321</v>
@@ -25352,10 +25358,10 @@
       </c>
       <c r="B9" s="339"/>
       <c r="C9" s="339" t="s">
-        <v>1553</v>
+        <v>1555</v>
       </c>
       <c r="D9" s="339" t="s">
-        <v>1554</v>
+        <v>1556</v>
       </c>
       <c r="E9" s="339"/>
       <c r="F9" s="339"/>
@@ -25393,7 +25399,7 @@
         <v>129</v>
       </c>
       <c r="T9" s="341" t="s">
-        <v>1555</v>
+        <v>1557</v>
       </c>
       <c r="U9" s="341"/>
       <c r="V9" s="341"/>
@@ -25403,16 +25409,16 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="97" t="s">
-        <v>1556</v>
+        <v>1558</v>
       </c>
       <c r="B10" s="97" t="s">
         <v>464</v>
       </c>
       <c r="C10" s="97" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="D10" s="97" t="s">
-        <v>1557</v>
+        <v>1559</v>
       </c>
       <c r="E10" s="97" t="s">
         <v>147</v>
@@ -25454,7 +25460,7 @@
         <v>129</v>
       </c>
       <c r="T10" s="101" t="s">
-        <v>1558</v>
+        <v>1560</v>
       </c>
       <c r="U10" s="101"/>
       <c r="V10" s="101"/>
@@ -25464,11 +25470,11 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="339" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="B11" s="339"/>
       <c r="C11" s="339" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="D11" s="339"/>
       <c r="E11" s="339"/>
@@ -25515,11 +25521,11 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="97" t="s">
-        <v>1559</v>
+        <v>1561</v>
       </c>
       <c r="B12" s="97"/>
       <c r="C12" s="97" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="D12" s="97"/>
       <c r="E12" s="97"/>
@@ -25575,7 +25581,7 @@
         <v>139</v>
       </c>
       <c r="D13" s="339" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="E13" s="339" t="s">
         <v>304</v>
@@ -25617,7 +25623,7 @@
         <v>129</v>
       </c>
       <c r="T13" s="341" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="U13" s="341"/>
       <c r="V13" s="341"/>
@@ -25688,7 +25694,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="97" t="s">
-        <v>1562</v>
+        <v>1564</v>
       </c>
       <c r="B15" s="97"/>
       <c r="C15" s="97" t="s">
@@ -25737,7 +25743,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="97" t="s">
-        <v>1563</v>
+        <v>1565</v>
       </c>
       <c r="B16" s="97"/>
       <c r="C16" s="97" t="s">
@@ -25786,7 +25792,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="339" t="s">
-        <v>1564</v>
+        <v>1566</v>
       </c>
       <c r="B17" s="339" t="s">
         <v>192</v>
@@ -25849,7 +25855,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="97" t="s">
-        <v>1565</v>
+        <v>1567</v>
       </c>
       <c r="B18" s="97"/>
       <c r="C18" s="97" t="s">
@@ -25898,7 +25904,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="339" t="s">
-        <v>1566</v>
+        <v>1568</v>
       </c>
       <c r="B19" s="339"/>
       <c r="C19" s="339" t="s">
@@ -26125,7 +26131,7 @@
       </c>
       <c r="B23" s="339"/>
       <c r="C23" s="339" t="s">
-        <v>1464</v>
+        <v>1466</v>
       </c>
       <c r="D23" s="339"/>
       <c r="E23" s="339"/>
@@ -26332,7 +26338,7 @@
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="339" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="B27" s="339" t="s">
         <v>214</v>
@@ -26341,13 +26347,13 @@
         <v>731</v>
       </c>
       <c r="D27" s="339" t="s">
-        <v>1567</v>
+        <v>1569</v>
       </c>
       <c r="E27" s="339" t="s">
-        <v>1568</v>
+        <v>1570</v>
       </c>
       <c r="F27" s="340" t="s">
-        <v>1569</v>
+        <v>1571</v>
       </c>
       <c r="G27" s="343" t="n">
         <v>12</v>
@@ -26383,7 +26389,7 @@
         <v>129</v>
       </c>
       <c r="T27" s="342" t="s">
-        <v>1570</v>
+        <v>1572</v>
       </c>
       <c r="U27" s="342"/>
       <c r="V27" s="342"/>
@@ -26391,7 +26397,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="97" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="B28" s="97"/>
       <c r="C28" s="99" t="s">
@@ -26440,7 +26446,7 @@
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="339" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="B29" s="339" t="s">
         <v>229</v>
@@ -26449,13 +26455,13 @@
         <v>638</v>
       </c>
       <c r="D29" s="339" t="s">
-        <v>1567</v>
+        <v>1569</v>
       </c>
       <c r="E29" s="339" t="s">
-        <v>1568</v>
+        <v>1570</v>
       </c>
       <c r="F29" s="340" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c r="G29" s="339" t="s">
         <v>159</v>
@@ -26491,7 +26497,7 @@
         <v>129</v>
       </c>
       <c r="T29" s="342" t="s">
-        <v>1572</v>
+        <v>1574</v>
       </c>
       <c r="U29" s="342"/>
       <c r="V29" s="342"/>
@@ -26499,7 +26505,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="97" t="s">
-        <v>1573</v>
+        <v>1575</v>
       </c>
       <c r="B30" s="97"/>
       <c r="C30" s="97" t="s">
@@ -26554,16 +26560,16 @@
         <v>173</v>
       </c>
       <c r="C31" s="339" t="s">
-        <v>1574</v>
+        <v>1576</v>
       </c>
       <c r="D31" s="339" t="s">
         <v>173</v>
       </c>
       <c r="E31" s="339" t="s">
-        <v>1575</v>
+        <v>1577</v>
       </c>
       <c r="F31" s="340" t="s">
-        <v>1576</v>
+        <v>1578</v>
       </c>
       <c r="G31" s="339" t="s">
         <v>192</v>
@@ -26599,7 +26605,7 @@
         <v>129</v>
       </c>
       <c r="T31" s="341" t="s">
-        <v>1577</v>
+        <v>1579</v>
       </c>
       <c r="U31" s="341"/>
       <c r="V31" s="341"/>
@@ -26607,13 +26613,13 @@
     </row>
     <row r="32" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="97" t="s">
-        <v>1578</v>
+        <v>1580</v>
       </c>
       <c r="B32" s="97" t="s">
         <v>145</v>
       </c>
       <c r="C32" s="109" t="s">
-        <v>1579</v>
+        <v>1581</v>
       </c>
       <c r="G32" s="97" t="s">
         <v>314</v>
@@ -26649,7 +26655,7 @@
         <v>129</v>
       </c>
       <c r="T32" s="101" t="s">
-        <v>1580</v>
+        <v>1582</v>
       </c>
       <c r="U32" s="101"/>
       <c r="V32" s="101"/>
@@ -26659,11 +26665,11 @@
     </row>
     <row r="33" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="339" t="s">
-        <v>1581</v>
+        <v>1583</v>
       </c>
       <c r="B33" s="339"/>
       <c r="C33" s="178" t="s">
-        <v>1582</v>
+        <v>1584</v>
       </c>
       <c r="D33" s="339"/>
       <c r="E33" s="339"/>
@@ -26684,7 +26690,7 @@
         <v>314</v>
       </c>
       <c r="L33" s="339" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
       <c r="M33" s="339"/>
       <c r="N33" s="339"/>
@@ -26702,7 +26708,7 @@
         <v>129</v>
       </c>
       <c r="T33" s="341" t="s">
-        <v>1580</v>
+        <v>1582</v>
       </c>
       <c r="U33" s="341"/>
       <c r="V33" s="341"/>
@@ -26712,11 +26718,11 @@
     </row>
     <row r="34" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="339" t="s">
-        <v>1581</v>
+        <v>1583</v>
       </c>
       <c r="B34" s="339"/>
       <c r="C34" s="178" t="s">
-        <v>1582</v>
+        <v>1584</v>
       </c>
       <c r="D34" s="339"/>
       <c r="E34" s="339"/>
@@ -26755,7 +26761,7 @@
         <v>129</v>
       </c>
       <c r="T34" s="341" t="s">
-        <v>1580</v>
+        <v>1582</v>
       </c>
       <c r="U34" s="341"/>
       <c r="V34" s="341"/>
@@ -26765,20 +26771,20 @@
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="97" t="s">
-        <v>1583</v>
+        <v>1585</v>
       </c>
       <c r="B35" s="97" t="s">
         <v>314</v>
       </c>
       <c r="C35" s="109" t="s">
-        <v>1584</v>
+        <v>1586</v>
       </c>
       <c r="D35" s="97" t="s">
         <v>323</v>
       </c>
       <c r="E35" s="97"/>
       <c r="F35" s="109" t="s">
-        <v>1585</v>
+        <v>1587</v>
       </c>
       <c r="G35" s="97" t="s">
         <v>297</v>
@@ -26814,7 +26820,7 @@
         <v>129</v>
       </c>
       <c r="T35" s="104" t="s">
-        <v>1586</v>
+        <v>1588</v>
       </c>
       <c r="U35" s="104"/>
       <c r="V35" s="104"/>
@@ -26824,16 +26830,16 @@
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="339" t="s">
-        <v>1587</v>
+        <v>1589</v>
       </c>
       <c r="B36" s="339"/>
       <c r="C36" s="340" t="s">
-        <v>1584</v>
+        <v>1586</v>
       </c>
       <c r="D36" s="339"/>
       <c r="E36" s="339"/>
       <c r="F36" s="340" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="G36" s="339" t="s">
         <v>297</v>
@@ -26851,7 +26857,7 @@
         <v>314</v>
       </c>
       <c r="L36" s="339" t="s">
-        <v>1589</v>
+        <v>1591</v>
       </c>
       <c r="M36" s="339"/>
       <c r="N36" s="339"/>
@@ -26869,7 +26875,7 @@
         <v>129</v>
       </c>
       <c r="T36" s="342" t="s">
-        <v>1586</v>
+        <v>1588</v>
       </c>
       <c r="U36" s="342"/>
       <c r="V36" s="342"/>
@@ -26885,7 +26891,7 @@
         <v>145</v>
       </c>
       <c r="C37" s="109" t="s">
-        <v>1590</v>
+        <v>1592</v>
       </c>
       <c r="D37" s="97" t="s">
         <v>464</v>
@@ -26910,12 +26916,12 @@
         <v>297</v>
       </c>
       <c r="L37" s="97" t="s">
-        <v>1591</v>
+        <v>1593</v>
       </c>
       <c r="M37" s="97"/>
       <c r="N37" s="97"/>
       <c r="O37" s="109" t="s">
-        <v>1592</v>
+        <v>1594</v>
       </c>
       <c r="P37" s="97" t="s">
         <v>138</v>
@@ -26930,7 +26936,7 @@
         <v>129</v>
       </c>
       <c r="T37" s="104" t="s">
-        <v>1593</v>
+        <v>1595</v>
       </c>
       <c r="U37" s="104"/>
       <c r="V37" s="104"/>
@@ -26940,7 +26946,7 @@
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="339" t="s">
-        <v>1594</v>
+        <v>1596</v>
       </c>
       <c r="B38" s="339" t="s">
         <v>299</v>
@@ -26954,7 +26960,7 @@
       </c>
       <c r="E38" s="339"/>
       <c r="F38" s="340" t="s">
-        <v>1595</v>
+        <v>1597</v>
       </c>
       <c r="G38" s="343" t="n">
         <v>10</v>
@@ -26990,7 +26996,7 @@
         <v>275</v>
       </c>
       <c r="T38" s="342" t="s">
-        <v>1596</v>
+        <v>1598</v>
       </c>
       <c r="U38" s="342"/>
       <c r="V38" s="342"/>
@@ -27000,7 +27006,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="97" t="s">
-        <v>1597</v>
+        <v>1599</v>
       </c>
       <c r="B39" s="97"/>
       <c r="C39" s="97" t="s">
@@ -27051,7 +27057,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="339" t="s">
-        <v>1598</v>
+        <v>1600</v>
       </c>
       <c r="B40" s="339"/>
       <c r="C40" s="339" t="s">
@@ -27108,14 +27114,14 @@
         <v>229</v>
       </c>
       <c r="C41" s="97" t="s">
-        <v>1599</v>
+        <v>1601</v>
       </c>
       <c r="D41" s="97" t="s">
-        <v>1600</v>
+        <v>1602</v>
       </c>
       <c r="E41" s="97"/>
       <c r="F41" s="97" t="s">
-        <v>1601</v>
+        <v>1603</v>
       </c>
       <c r="G41" s="97" t="s">
         <v>299</v>
@@ -27161,20 +27167,20 @@
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="339" t="s">
-        <v>1602</v>
+        <v>1604</v>
       </c>
       <c r="B42" s="339" t="s">
         <v>229</v>
       </c>
       <c r="C42" s="339" t="s">
-        <v>1599</v>
+        <v>1601</v>
       </c>
       <c r="D42" s="340" t="s">
-        <v>1603</v>
+        <v>1605</v>
       </c>
       <c r="E42" s="340"/>
       <c r="F42" s="340" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="G42" s="339" t="s">
         <v>299</v>
@@ -27210,7 +27216,7 @@
         <v>129</v>
       </c>
       <c r="T42" s="342" t="s">
-        <v>1604</v>
+        <v>1606</v>
       </c>
       <c r="U42" s="342"/>
       <c r="V42" s="342"/>
@@ -27220,11 +27226,11 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="97" t="s">
-        <v>1605</v>
+        <v>1607</v>
       </c>
       <c r="B43" s="97"/>
       <c r="C43" s="97" t="s">
-        <v>1606</v>
+        <v>1608</v>
       </c>
       <c r="D43" s="97" t="s">
         <v>138</v>
@@ -27267,7 +27273,7 @@
         <v>129</v>
       </c>
       <c r="T43" s="101" t="s">
-        <v>1607</v>
+        <v>1609</v>
       </c>
       <c r="U43" s="101"/>
       <c r="V43" s="101"/>
@@ -27321,8 +27327,8 @@
     <mergeCell ref="T43:Y43"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -27331,7 +27337,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -27343,7 +27349,7 @@
       <selection pane="topRight" activeCell="H29" activeCellId="0" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.14"/>
@@ -27360,7 +27366,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="345" t="s">
-        <v>1608</v>
+        <v>1610</v>
       </c>
       <c r="B1" s="346"/>
       <c r="C1" s="347"/>
@@ -27574,17 +27580,17 @@
         <v>424</v>
       </c>
       <c r="B5" s="350" t="s">
-        <v>1609</v>
+        <v>1611</v>
       </c>
       <c r="C5" s="351" t="s">
-        <v>1610</v>
+        <v>1612</v>
       </c>
       <c r="D5" s="350" t="n">
         <f aca="false">52-35</f>
         <v>17</v>
       </c>
       <c r="F5" s="350" t="s">
-        <v>1611</v>
+        <v>1613</v>
       </c>
       <c r="G5" s="350" t="n">
         <v>6</v>
@@ -27638,7 +27644,7 @@
         <v>160</v>
       </c>
       <c r="D6" s="294" t="s">
-        <v>1612</v>
+        <v>1614</v>
       </c>
       <c r="E6" s="294" t="n">
         <v>20</v>
@@ -27793,7 +27799,7 @@
         <v>129</v>
       </c>
       <c r="T8" s="290" t="s">
-        <v>1613</v>
+        <v>1615</v>
       </c>
       <c r="U8" s="290"/>
       <c r="V8" s="290"/>
@@ -27804,11 +27810,11 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="349" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="B9" s="350"/>
       <c r="C9" s="351" t="s">
-        <v>1464</v>
+        <v>1466</v>
       </c>
       <c r="D9" s="350"/>
       <c r="E9" s="350"/>
@@ -27922,7 +27928,7 @@
       </c>
       <c r="B11" s="350"/>
       <c r="C11" s="351" t="s">
-        <v>1464</v>
+        <v>1466</v>
       </c>
       <c r="D11" s="350"/>
       <c r="E11" s="350"/>
@@ -28090,7 +28096,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="284" t="s">
-        <v>1614</v>
+        <v>1616</v>
       </c>
       <c r="D14" s="283" t="n">
         <v>21</v>
@@ -28136,7 +28142,7 @@
         <v>129</v>
       </c>
       <c r="T14" s="290" t="s">
-        <v>1615</v>
+        <v>1617</v>
       </c>
       <c r="U14" s="290"/>
       <c r="V14" s="290"/>
@@ -28151,7 +28157,7 @@
       </c>
       <c r="B15" s="350"/>
       <c r="C15" s="351" t="s">
-        <v>1616</v>
+        <v>1618</v>
       </c>
       <c r="D15" s="350"/>
       <c r="E15" s="350"/>
@@ -28199,11 +28205,11 @@
     </row>
     <row r="16" customFormat="false" ht="24.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="315" t="s">
-        <v>1617</v>
+        <v>1619</v>
       </c>
       <c r="B16" s="283"/>
       <c r="C16" s="284" t="s">
-        <v>1618</v>
+        <v>1620</v>
       </c>
       <c r="D16" s="283" t="n">
         <v>21</v>
@@ -28244,7 +28250,7 @@
         <v>129</v>
       </c>
       <c r="T16" s="290" t="s">
-        <v>1619</v>
+        <v>1621</v>
       </c>
       <c r="U16" s="290"/>
       <c r="V16" s="290"/>
@@ -28255,7 +28261,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="349" t="s">
-        <v>1620</v>
+        <v>1622</v>
       </c>
       <c r="B17" s="350" t="n">
         <v>11</v>
@@ -28317,7 +28323,7 @@
     </row>
     <row r="18" customFormat="false" ht="24.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="315" t="s">
-        <v>1621</v>
+        <v>1623</v>
       </c>
       <c r="B18" s="283"/>
       <c r="C18" s="284" t="s">
@@ -28362,7 +28368,7 @@
         <v>129</v>
       </c>
       <c r="T18" s="290" t="s">
-        <v>1622</v>
+        <v>1624</v>
       </c>
       <c r="U18" s="290"/>
       <c r="V18" s="290"/>
@@ -28379,7 +28385,7 @@
         <v>4</v>
       </c>
       <c r="C19" s="351" t="s">
-        <v>1623</v>
+        <v>1625</v>
       </c>
       <c r="D19" s="350" t="n">
         <v>20</v>
@@ -28425,7 +28431,7 @@
         <v>129</v>
       </c>
       <c r="T19" s="353" t="s">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="U19" s="353"/>
       <c r="V19" s="353"/>
@@ -28488,11 +28494,11 @@
     </row>
     <row r="21" customFormat="false" ht="24.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="349" t="s">
-        <v>1625</v>
+        <v>1627</v>
       </c>
       <c r="B21" s="350"/>
       <c r="C21" s="351" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="D21" s="350" t="n">
         <v>19</v>
@@ -28533,7 +28539,7 @@
         <v>129</v>
       </c>
       <c r="T21" s="353" t="s">
-        <v>1626</v>
+        <v>1628</v>
       </c>
       <c r="U21" s="353"/>
       <c r="V21" s="353"/>
@@ -28572,13 +28578,13 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="93" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="B23" s="93" t="n">
         <v>5</v>
       </c>
       <c r="C23" s="93" t="s">
-        <v>1628</v>
+        <v>1630</v>
       </c>
       <c r="D23" s="93" t="n">
         <v>7</v>
@@ -28903,7 +28909,7 @@
         <v>129</v>
       </c>
       <c r="T28" s="132" t="s">
-        <v>1629</v>
+        <v>1631</v>
       </c>
       <c r="U28" s="132"/>
       <c r="V28" s="132"/>
@@ -28975,7 +28981,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="99" t="s">
-        <v>1630</v>
+        <v>1632</v>
       </c>
       <c r="B30" s="99"/>
       <c r="C30" s="252" t="s">
@@ -29025,7 +29031,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="93" t="s">
-        <v>1631</v>
+        <v>1633</v>
       </c>
       <c r="B31" s="93"/>
       <c r="C31" s="189" t="s">
@@ -29138,16 +29144,16 @@
     </row>
     <row r="33" customFormat="false" ht="39.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="105" t="s">
-        <v>1632</v>
+        <v>1634</v>
       </c>
       <c r="B33" s="93" t="n">
         <v>1</v>
       </c>
       <c r="C33" s="118" t="s">
-        <v>1633</v>
+        <v>1635</v>
       </c>
       <c r="D33" s="93" t="s">
-        <v>1634</v>
+        <v>1636</v>
       </c>
       <c r="E33" s="93"/>
       <c r="F33" s="93" t="n">
@@ -29187,7 +29193,7 @@
         <v>129</v>
       </c>
       <c r="T33" s="186" t="s">
-        <v>1635</v>
+        <v>1637</v>
       </c>
       <c r="U33" s="186"/>
       <c r="V33" s="186"/>
@@ -29198,14 +29204,14 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="108" t="s">
-        <v>1636</v>
+        <v>1638</v>
       </c>
       <c r="B34" s="99"/>
       <c r="C34" s="99" t="s">
-        <v>1637</v>
+        <v>1639</v>
       </c>
       <c r="D34" s="99" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="E34" s="99"/>
       <c r="F34" s="99" t="n">
@@ -29245,7 +29251,7 @@
         <v>129</v>
       </c>
       <c r="T34" s="132" t="s">
-        <v>1635</v>
+        <v>1637</v>
       </c>
       <c r="U34" s="132"/>
       <c r="V34" s="132"/>
@@ -29256,7 +29262,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="105" t="s">
-        <v>1639</v>
+        <v>1641</v>
       </c>
       <c r="B35" s="93" t="n">
         <v>10</v>
@@ -29314,11 +29320,11 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="108" t="s">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="B36" s="99"/>
       <c r="C36" s="99" t="s">
-        <v>1641</v>
+        <v>1643</v>
       </c>
       <c r="D36" s="99"/>
       <c r="E36" s="99"/>
@@ -29359,7 +29365,7 @@
         <v>129</v>
       </c>
       <c r="T36" s="132" t="s">
-        <v>1642</v>
+        <v>1644</v>
       </c>
       <c r="U36" s="132"/>
       <c r="V36" s="132"/>
@@ -29370,20 +29376,20 @@
     </row>
     <row r="37" customFormat="false" ht="64.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="105" t="s">
-        <v>1643</v>
+        <v>1645</v>
       </c>
       <c r="B37" s="93" t="n">
         <v>16</v>
       </c>
       <c r="C37" s="118" t="s">
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c r="D37" s="118" t="s">
-        <v>1645</v>
+        <v>1647</v>
       </c>
       <c r="E37" s="118"/>
       <c r="F37" s="118" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="G37" s="93" t="n">
         <v>1</v>
@@ -29419,7 +29425,7 @@
         <v>275</v>
       </c>
       <c r="T37" s="188" t="s">
-        <v>1647</v>
+        <v>1649</v>
       </c>
       <c r="U37" s="188"/>
       <c r="V37" s="188"/>
@@ -29430,11 +29436,11 @@
     </row>
     <row r="38" customFormat="false" ht="51.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="108" t="s">
-        <v>1648</v>
+        <v>1650</v>
       </c>
       <c r="B38" s="99"/>
       <c r="C38" s="115" t="s">
-        <v>1649</v>
+        <v>1651</v>
       </c>
       <c r="D38" s="99"/>
       <c r="E38" s="99"/>
@@ -29473,7 +29479,7 @@
         <v>129</v>
       </c>
       <c r="T38" s="137" t="s">
-        <v>1650</v>
+        <v>1652</v>
       </c>
       <c r="U38" s="137"/>
       <c r="V38" s="137"/>
@@ -29484,11 +29490,11 @@
     </row>
     <row r="39" customFormat="false" ht="51.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="108" t="s">
-        <v>1651</v>
+        <v>1653</v>
       </c>
       <c r="B39" s="99"/>
       <c r="C39" s="115" t="s">
-        <v>1649</v>
+        <v>1651</v>
       </c>
       <c r="D39" s="99"/>
       <c r="E39" s="99"/>
@@ -29527,7 +29533,7 @@
         <v>129</v>
       </c>
       <c r="T39" s="137" t="s">
-        <v>1650</v>
+        <v>1652</v>
       </c>
       <c r="U39" s="137"/>
       <c r="V39" s="137"/>
@@ -29583,7 +29589,7 @@
         <v>129</v>
       </c>
       <c r="T40" s="186" t="s">
-        <v>1652</v>
+        <v>1654</v>
       </c>
       <c r="U40" s="186"/>
       <c r="V40" s="186"/>
@@ -29594,11 +29600,11 @@
     </row>
     <row r="41" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="108" t="s">
-        <v>1653</v>
+        <v>1655</v>
       </c>
       <c r="B41" s="99"/>
       <c r="C41" s="115" t="s">
-        <v>1654</v>
+        <v>1656</v>
       </c>
       <c r="D41" s="99" t="n">
         <f aca="false">27-6</f>
@@ -29606,7 +29612,7 @@
       </c>
       <c r="E41" s="99"/>
       <c r="F41" s="99" t="s">
-        <v>1655</v>
+        <v>1657</v>
       </c>
       <c r="G41" s="99" t="n">
         <v>8</v>
@@ -29642,7 +29648,7 @@
         <v>129</v>
       </c>
       <c r="T41" s="132" t="s">
-        <v>1629</v>
+        <v>1631</v>
       </c>
       <c r="U41" s="132"/>
       <c r="V41" s="132"/>
@@ -29653,13 +29659,13 @@
     </row>
     <row r="42" customFormat="false" ht="77.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="105" t="s">
-        <v>1656</v>
+        <v>1658</v>
       </c>
       <c r="B42" s="93" t="n">
         <v>22</v>
       </c>
       <c r="C42" s="118" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="D42" s="93"/>
       <c r="E42" s="93"/>
@@ -29698,7 +29704,7 @@
         <v>129</v>
       </c>
       <c r="T42" s="357" t="s">
-        <v>1658</v>
+        <v>1660</v>
       </c>
       <c r="U42" s="357"/>
       <c r="V42" s="357"/>
@@ -29709,20 +29715,20 @@
     </row>
     <row r="43" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="108" t="s">
-        <v>1659</v>
+        <v>1661</v>
       </c>
       <c r="B43" s="99" t="s">
-        <v>1660</v>
+        <v>1662</v>
       </c>
       <c r="C43" s="115" t="s">
-        <v>1661</v>
+        <v>1663</v>
       </c>
       <c r="D43" s="99" t="s">
-        <v>1662</v>
+        <v>1664</v>
       </c>
       <c r="E43" s="99"/>
       <c r="F43" s="99" t="s">
-        <v>1663</v>
+        <v>1665</v>
       </c>
       <c r="G43" s="99" t="n">
         <v>0</v>
@@ -29748,7 +29754,7 @@
       <c r="R43" s="99"/>
       <c r="S43" s="99"/>
       <c r="T43" s="137" t="s">
-        <v>1664</v>
+        <v>1666</v>
       </c>
       <c r="U43" s="137"/>
       <c r="V43" s="137"/>
@@ -29759,13 +29765,13 @@
     </row>
     <row r="44" customFormat="false" ht="26.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="105" t="s">
-        <v>1665</v>
+        <v>1667</v>
       </c>
       <c r="B44" s="118" t="s">
-        <v>1666</v>
+        <v>1668</v>
       </c>
       <c r="C44" s="93" t="s">
-        <v>1667</v>
+        <v>1669</v>
       </c>
       <c r="D44" s="93"/>
       <c r="E44" s="93"/>
@@ -29794,7 +29800,7 @@
       <c r="R44" s="93"/>
       <c r="S44" s="93"/>
       <c r="T44" s="188" t="s">
-        <v>1668</v>
+        <v>1670</v>
       </c>
       <c r="U44" s="188"/>
       <c r="V44" s="188"/>
@@ -29805,11 +29811,11 @@
     </row>
     <row r="45" customFormat="false" ht="39.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="108" t="s">
-        <v>1669</v>
+        <v>1671</v>
       </c>
       <c r="B45" s="99"/>
       <c r="C45" s="115" t="s">
-        <v>1670</v>
+        <v>1672</v>
       </c>
       <c r="D45" s="99"/>
       <c r="E45" s="99"/>
@@ -29836,7 +29842,7 @@
       <c r="N45" s="99"/>
       <c r="O45" s="99"/>
       <c r="P45" s="132" t="s">
-        <v>1671</v>
+        <v>1673</v>
       </c>
       <c r="Q45" s="132"/>
       <c r="R45" s="132"/>
@@ -29892,8 +29898,8 @@
     <mergeCell ref="P45:V45"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -29902,7 +29908,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -29912,11 +29918,11 @@
       <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="358" t="s">
-        <v>1672</v>
+        <v>1674</v>
       </c>
       <c r="B1" s="359"/>
       <c r="C1" s="359"/>
@@ -29933,7 +29939,7 @@
     </row>
     <row r="2" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="358" t="s">
-        <v>1673</v>
+        <v>1675</v>
       </c>
       <c r="B2" s="359" t="s">
         <v>96</v>
@@ -29952,22 +29958,22 @@
     </row>
     <row r="3" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="360" t="s">
-        <v>1674</v>
+        <v>1676</v>
       </c>
       <c r="B3" s="361" t="s">
-        <v>1675</v>
+        <v>1677</v>
       </c>
       <c r="C3" s="362" t="s">
-        <v>1676</v>
+        <v>1678</v>
       </c>
       <c r="D3" s="363" t="s">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="E3" s="363" t="s">
-        <v>1678</v>
+        <v>1680</v>
       </c>
       <c r="F3" s="348" t="s">
-        <v>1679</v>
+        <v>1681</v>
       </c>
       <c r="G3" s="348"/>
       <c r="H3" s="364" t="s">
@@ -29981,7 +29987,7 @@
     </row>
     <row r="4" customFormat="false" ht="46.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="365" t="s">
-        <v>1680</v>
+        <v>1682</v>
       </c>
       <c r="B4" s="366" t="n">
         <v>17</v>
@@ -29993,12 +29999,12 @@
         <v>95</v>
       </c>
       <c r="E4" s="367" t="s">
-        <v>1681</v>
+        <v>1683</v>
       </c>
       <c r="F4" s="368"/>
       <c r="G4" s="368"/>
       <c r="H4" s="369" t="s">
-        <v>1682</v>
+        <v>1684</v>
       </c>
       <c r="I4" s="369"/>
       <c r="J4" s="369"/>
@@ -30008,7 +30014,7 @@
     </row>
     <row r="5" customFormat="false" ht="46.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="370" t="s">
-        <v>1683</v>
+        <v>1685</v>
       </c>
       <c r="B5" s="371" t="n">
         <f aca="false">(B4-17)/78</f>
@@ -30023,14 +30029,14 @@
         <v>1</v>
       </c>
       <c r="E5" s="372" t="s">
-        <v>1681</v>
+        <v>1683</v>
       </c>
       <c r="F5" s="321" t="s">
-        <v>1684</v>
+        <v>1686</v>
       </c>
       <c r="G5" s="321"/>
       <c r="H5" s="373" t="s">
-        <v>1685</v>
+        <v>1687</v>
       </c>
       <c r="I5" s="373"/>
       <c r="J5" s="373"/>
@@ -30040,7 +30046,7 @@
     </row>
     <row r="6" customFormat="false" ht="46.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="365" t="s">
-        <v>1686</v>
+        <v>1688</v>
       </c>
       <c r="B6" s="374" t="n">
         <f aca="false">12+(B5*28)</f>
@@ -30058,11 +30064,11 @@
         <v>9000</v>
       </c>
       <c r="F6" s="376" t="s">
-        <v>1687</v>
+        <v>1689</v>
       </c>
       <c r="G6" s="376"/>
       <c r="H6" s="369" t="s">
-        <v>1688</v>
+        <v>1690</v>
       </c>
       <c r="I6" s="369"/>
       <c r="J6" s="369"/>
@@ -30072,7 +30078,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="377" t="s">
-        <v>1689</v>
+        <v>1691</v>
       </c>
       <c r="B7" s="378" t="n">
         <f aca="false">10+(B5/7)</f>
@@ -30090,11 +30096,11 @@
         <v>18</v>
       </c>
       <c r="F7" s="321" t="s">
-        <v>1690</v>
+        <v>1692</v>
       </c>
       <c r="G7" s="321"/>
       <c r="H7" s="381" t="s">
-        <v>1691</v>
+        <v>1693</v>
       </c>
       <c r="I7" s="381"/>
       <c r="J7" s="381"/>
@@ -30122,11 +30128,11 @@
         <v>12</v>
       </c>
       <c r="F8" s="376" t="s">
-        <v>1692</v>
+        <v>1694</v>
       </c>
       <c r="G8" s="376"/>
       <c r="H8" s="383" t="s">
-        <v>1693</v>
+        <v>1695</v>
       </c>
       <c r="I8" s="383"/>
       <c r="J8" s="383"/>
@@ -30136,7 +30142,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="377" t="s">
-        <v>1694</v>
+        <v>1696</v>
       </c>
       <c r="B9" s="378" t="n">
         <f aca="false">6+(B5*0.1)</f>
@@ -30154,7 +30160,7 @@
         <v>8</v>
       </c>
       <c r="F9" s="321" t="s">
-        <v>1695</v>
+        <v>1697</v>
       </c>
       <c r="G9" s="321"/>
       <c r="H9" s="381"/>
@@ -30166,7 +30172,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="385" t="s">
-        <v>1696</v>
+        <v>1698</v>
       </c>
       <c r="B10" s="386" t="n">
         <f aca="false">(0.5+(B5*0.1))*100</f>
@@ -30184,7 +30190,7 @@
         <v>110</v>
       </c>
       <c r="F10" s="388" t="s">
-        <v>1697</v>
+        <v>1699</v>
       </c>
       <c r="G10" s="388"/>
       <c r="H10" s="389"/>
@@ -30196,12 +30202,12 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>1698</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="88" t="s">
-        <v>1699</v>
+        <v>1701</v>
       </c>
       <c r="P14" s="198"/>
       <c r="Q14" s="88"/>
@@ -30214,19 +30220,19 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="162" t="s">
-        <v>1700</v>
+        <v>1702</v>
       </c>
       <c r="Q15" s="177"/>
       <c r="R15" s="162"/>
       <c r="S15" s="162"/>
       <c r="T15" s="88" t="s">
-        <v>1701</v>
+        <v>1703</v>
       </c>
       <c r="U15" s="88" t="s">
-        <v>1702</v>
+        <v>1704</v>
       </c>
       <c r="V15" s="88" t="s">
-        <v>1703</v>
+        <v>1705</v>
       </c>
       <c r="W15" s="88" t="s">
         <v>121</v>
@@ -30244,20 +30250,20 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="102" t="s">
-        <v>1704</v>
+        <v>1706</v>
       </c>
       <c r="Q16" s="173"/>
       <c r="R16" s="102"/>
       <c r="S16" s="102"/>
       <c r="T16" s="162" t="s">
-        <v>1705</v>
+        <v>1707</v>
       </c>
       <c r="U16" s="162"/>
       <c r="V16" s="177" t="s">
-        <v>1706</v>
+        <v>1708</v>
       </c>
       <c r="W16" s="168" t="s">
-        <v>1707</v>
+        <v>1709</v>
       </c>
       <c r="X16" s="168"/>
       <c r="Y16" s="168"/>
@@ -30272,20 +30278,20 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="162" t="s">
-        <v>1708</v>
+        <v>1710</v>
       </c>
       <c r="Q17" s="162"/>
       <c r="R17" s="162"/>
       <c r="S17" s="162"/>
       <c r="T17" s="102" t="s">
-        <v>1705</v>
+        <v>1707</v>
       </c>
       <c r="U17" s="102"/>
       <c r="V17" s="173" t="s">
-        <v>1709</v>
+        <v>1711</v>
       </c>
       <c r="W17" s="167" t="s">
-        <v>1710</v>
+        <v>1712</v>
       </c>
       <c r="X17" s="167"/>
       <c r="Y17" s="167"/>
@@ -30300,20 +30306,20 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="102" t="s">
-        <v>1711</v>
+        <v>1713</v>
       </c>
       <c r="Q18" s="102"/>
       <c r="R18" s="102"/>
       <c r="S18" s="102"/>
       <c r="T18" s="162" t="s">
-        <v>1705</v>
+        <v>1707</v>
       </c>
       <c r="U18" s="162"/>
       <c r="V18" s="177" t="s">
-        <v>1712</v>
+        <v>1714</v>
       </c>
       <c r="W18" s="390" t="s">
-        <v>1713</v>
+        <v>1715</v>
       </c>
       <c r="X18" s="390"/>
       <c r="Y18" s="390"/>
@@ -30328,20 +30334,20 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="162" t="s">
-        <v>1714</v>
+        <v>1716</v>
       </c>
       <c r="Q19" s="162"/>
       <c r="R19" s="162"/>
       <c r="S19" s="162"/>
       <c r="T19" s="102" t="s">
-        <v>1715</v>
+        <v>1717</v>
       </c>
       <c r="U19" s="102" t="s">
-        <v>1716</v>
+        <v>1718</v>
       </c>
       <c r="V19" s="102"/>
       <c r="W19" s="167" t="s">
-        <v>1717</v>
+        <v>1719</v>
       </c>
       <c r="X19" s="167"/>
       <c r="Y19" s="167"/>
@@ -30356,20 +30362,20 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="102" t="s">
-        <v>1718</v>
+        <v>1720</v>
       </c>
       <c r="Q20" s="102"/>
       <c r="R20" s="102"/>
       <c r="S20" s="102"/>
       <c r="T20" s="162" t="s">
-        <v>1715</v>
+        <v>1717</v>
       </c>
       <c r="U20" s="162" t="s">
-        <v>1719</v>
+        <v>1721</v>
       </c>
       <c r="V20" s="162"/>
       <c r="W20" s="168" t="s">
-        <v>1720</v>
+        <v>1722</v>
       </c>
       <c r="X20" s="168"/>
       <c r="Y20" s="168"/>
@@ -30384,20 +30390,20 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="162" t="s">
-        <v>1721</v>
+        <v>1723</v>
       </c>
       <c r="Q21" s="162"/>
       <c r="R21" s="162"/>
       <c r="S21" s="162"/>
       <c r="T21" s="173" t="s">
-        <v>1722</v>
+        <v>1724</v>
       </c>
       <c r="U21" s="102" t="n">
         <v>100</v>
       </c>
       <c r="V21" s="102"/>
       <c r="W21" s="167" t="s">
-        <v>1723</v>
+        <v>1725</v>
       </c>
       <c r="X21" s="167"/>
       <c r="Y21" s="167"/>
@@ -30418,14 +30424,14 @@
       <c r="R22" s="102"/>
       <c r="S22" s="102"/>
       <c r="T22" s="177" t="s">
-        <v>1724</v>
+        <v>1726</v>
       </c>
       <c r="U22" s="162" t="n">
         <v>200</v>
       </c>
       <c r="V22" s="162"/>
       <c r="W22" s="168" t="s">
-        <v>1725</v>
+        <v>1727</v>
       </c>
       <c r="X22" s="168"/>
       <c r="Y22" s="168"/>
@@ -30440,7 +30446,7 @@
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="162" t="s">
-        <v>1726</v>
+        <v>1728</v>
       </c>
       <c r="Q23" s="177"/>
       <c r="R23" s="162"/>
@@ -30450,7 +30456,7 @@
       </c>
       <c r="U23" s="102"/>
       <c r="V23" s="102" t="s">
-        <v>1727</v>
+        <v>1729</v>
       </c>
       <c r="W23" s="392" t="s">
         <v>92</v>
@@ -30468,20 +30474,20 @@
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="102" t="s">
-        <v>1728</v>
+        <v>1730</v>
       </c>
       <c r="Q24" s="173"/>
       <c r="R24" s="102"/>
       <c r="S24" s="102"/>
       <c r="T24" s="162" t="s">
-        <v>1729</v>
+        <v>1731</v>
       </c>
       <c r="U24" s="162"/>
       <c r="V24" s="162" t="n">
         <v>150</v>
       </c>
       <c r="W24" s="168" t="s">
-        <v>1730</v>
+        <v>1732</v>
       </c>
       <c r="X24" s="168"/>
       <c r="Y24" s="168"/>
@@ -30502,14 +30508,14 @@
       <c r="R25" s="162"/>
       <c r="S25" s="162"/>
       <c r="T25" s="102" t="s">
-        <v>1729</v>
+        <v>1731</v>
       </c>
       <c r="U25" s="102"/>
       <c r="V25" s="102" t="n">
         <v>600</v>
       </c>
       <c r="W25" s="167" t="s">
-        <v>1731</v>
+        <v>1733</v>
       </c>
       <c r="X25" s="167"/>
       <c r="Y25" s="167"/>
@@ -30524,7 +30530,7 @@
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="102" t="s">
-        <v>1732</v>
+        <v>1734</v>
       </c>
       <c r="Q26" s="102"/>
       <c r="R26" s="102"/>
@@ -30550,7 +30556,7 @@
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="162" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
       <c r="Q27" s="162"/>
       <c r="R27" s="162"/>
@@ -30563,7 +30569,7 @@
       </c>
       <c r="V27" s="102"/>
       <c r="W27" s="137" t="s">
-        <v>1734</v>
+        <v>1736</v>
       </c>
       <c r="X27" s="137"/>
       <c r="Y27" s="137"/>
@@ -30578,7 +30584,7 @@
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="102" t="s">
-        <v>1735</v>
+        <v>1737</v>
       </c>
       <c r="Q28" s="102"/>
       <c r="R28" s="102"/>
@@ -30591,7 +30597,7 @@
       </c>
       <c r="V28" s="162"/>
       <c r="W28" s="166" t="s">
-        <v>1734</v>
+        <v>1736</v>
       </c>
       <c r="X28" s="166"/>
       <c r="Y28" s="166"/>
@@ -30606,19 +30612,19 @@
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="162" t="s">
-        <v>1736</v>
+        <v>1738</v>
       </c>
       <c r="Q29" s="162"/>
       <c r="R29" s="162"/>
       <c r="S29" s="162"/>
       <c r="T29" s="102" t="s">
-        <v>1737</v>
+        <v>1739</v>
       </c>
       <c r="U29" s="102" t="n">
         <v>40</v>
       </c>
       <c r="W29" s="150" t="s">
-        <v>1738</v>
+        <v>1740</v>
       </c>
       <c r="X29" s="150"/>
       <c r="Y29" s="150"/>
@@ -30633,7 +30639,7 @@
     </row>
     <row r="30" customFormat="false" ht="52.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="102" t="s">
-        <v>1739</v>
+        <v>1741</v>
       </c>
       <c r="Q30" s="102"/>
       <c r="R30" s="102"/>
@@ -30641,7 +30647,7 @@
       <c r="T30" s="162"/>
       <c r="U30" s="162"/>
       <c r="V30" s="162" t="s">
-        <v>1727</v>
+        <v>1729</v>
       </c>
       <c r="W30" s="390" t="s">
         <v>677</v>
@@ -30699,16 +30705,16 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;KffffffPagina &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Pagina &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -30718,7 +30724,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="45" width="11.52"/>
   </cols>
@@ -30872,16 +30878,16 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;KffffffPagina &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Pagina &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -33544,8 +33550,8 @@
     <mergeCell ref="T42:Z42"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -33554,7 +33560,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -33568,7 +33574,7 @@
       <selection pane="bottomRight" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="38.43"/>
@@ -37148,8 +37154,8 @@
     <mergeCell ref="T63:Y65"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -37158,7 +37164,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -37172,7 +37178,7 @@
       <selection pane="bottomRight" activeCell="L52" activeCellId="0" sqref="L52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="21.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.640625" defaultRowHeight="21.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.43"/>
@@ -40467,8 +40473,8 @@
     <mergeCell ref="T57:AA57"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -40477,7 +40483,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -40491,7 +40497,7 @@
       <selection pane="bottomRight" activeCell="I37" activeCellId="0" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25"/>
@@ -43112,8 +43118,8 @@
     <mergeCell ref="W64:AG64"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -43122,13 +43128,13 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AA1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
@@ -43136,7 +43142,7 @@
       <selection pane="bottomRight" activeCell="I14" activeCellId="0" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.14"/>
@@ -45558,8 +45564,8 @@
     <mergeCell ref="T41:AA41"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -45568,7 +45574,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -45582,7 +45588,7 @@
       <selection pane="bottomRight" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.86"/>
@@ -48148,8 +48154,8 @@
     <mergeCell ref="T41:AC41"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -48158,7 +48164,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -48172,7 +48178,7 @@
       <selection pane="bottomRight" activeCell="J37" activeCellId="0" sqref="J37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.29"/>
@@ -50082,8 +50088,8 @@
     <mergeCell ref="T33:Z33"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
